--- a/parameters_dev.xlsx
+++ b/parameters_dev.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
   <si>
     <t>Test case name</t>
   </si>
@@ -84,7 +84,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +109,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -139,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -156,17 +162,20 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -480,19 +489,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="9" width="33.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="32.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="32.86214285714286" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="9" width="31.862142857142857" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="9" width="20.862142857142857" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="13.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="11" width="13.290714285714287" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="9" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -679,110 +688,112 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
+      <c r="B10" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="7"/>
       <c r="G10" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="7"/>
       <c r="G11" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="7"/>
       <c r="G12" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="7"/>
       <c r="G13" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
+      <c r="B14" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="7"/>
       <c r="G14" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="7"/>
       <c r="G15" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="7"/>
       <c r="G16" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="7"/>
       <c r="G17" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="7"/>
       <c r="G18" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="7"/>
       <c r="G19" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="7"/>
       <c r="G20" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -791,7 +802,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
       <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -800,7 +811,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18">
       <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -809,7 +820,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18">
       <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -818,7 +829,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
       <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -827,7 +838,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18">
       <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -836,7 +847,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18">
       <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -845,7 +856,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18">
       <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -854,7 +865,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18">
       <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
+      <c r="B29" s="8"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -863,7 +874,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
       <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
+      <c r="B30" s="8"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -872,7 +883,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">
       <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
+      <c r="B31" s="8"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -881,7 +892,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18">
       <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
+      <c r="B32" s="8"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -890,7 +901,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18">
       <c r="A33" s="5"/>
-      <c r="B33" s="6"/>
+      <c r="B33" s="8"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -899,7 +910,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18">
       <c r="A34" s="5"/>
-      <c r="B34" s="6"/>
+      <c r="B34" s="8"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -908,7 +919,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18">
       <c r="A35" s="5"/>
-      <c r="B35" s="6"/>
+      <c r="B35" s="8"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -917,7 +928,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18">
       <c r="A36" s="5"/>
-      <c r="B36" s="6"/>
+      <c r="B36" s="8"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -926,7 +937,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18">
       <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
+      <c r="B37" s="8"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -935,7 +946,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18">
       <c r="A38" s="5"/>
-      <c r="B38" s="6"/>
+      <c r="B38" s="8"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -944,7 +955,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18">
       <c r="A39" s="5"/>
-      <c r="B39" s="6"/>
+      <c r="B39" s="8"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -953,7 +964,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18">
       <c r="A40" s="5"/>
-      <c r="B40" s="6"/>
+      <c r="B40" s="8"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -962,7 +973,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18">
       <c r="A41" s="5"/>
-      <c r="B41" s="6"/>
+      <c r="B41" s="8"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -971,7 +982,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18">
       <c r="A42" s="5"/>
-      <c r="B42" s="6"/>
+      <c r="B42" s="8"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -980,7 +991,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18">
       <c r="A43" s="5"/>
-      <c r="B43" s="6"/>
+      <c r="B43" s="8"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -989,7 +1000,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18">
       <c r="A44" s="5"/>
-      <c r="B44" s="6"/>
+      <c r="B44" s="8"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -998,7 +1009,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18">
       <c r="A45" s="5"/>
-      <c r="B45" s="6"/>
+      <c r="B45" s="8"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -1007,7 +1018,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18">
       <c r="A46" s="5"/>
-      <c r="B46" s="6"/>
+      <c r="B46" s="8"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -1016,7 +1027,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18">
       <c r="A47" s="5"/>
-      <c r="B47" s="6"/>
+      <c r="B47" s="8"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -1025,7 +1036,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18">
       <c r="A48" s="5"/>
-      <c r="B48" s="6"/>
+      <c r="B48" s="8"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -1034,7 +1045,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18">
       <c r="A49" s="5"/>
-      <c r="B49" s="6"/>
+      <c r="B49" s="8"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -1043,7 +1054,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18">
       <c r="A50" s="5"/>
-      <c r="B50" s="6"/>
+      <c r="B50" s="8"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -1052,7 +1063,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18">
       <c r="A51" s="5"/>
-      <c r="B51" s="6"/>
+      <c r="B51" s="8"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -1061,7 +1072,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18">
       <c r="A52" s="5"/>
-      <c r="B52" s="6"/>
+      <c r="B52" s="8"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -1070,7 +1081,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18">
       <c r="A53" s="5"/>
-      <c r="B53" s="6"/>
+      <c r="B53" s="8"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -1079,7 +1090,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18">
       <c r="A54" s="5"/>
-      <c r="B54" s="6"/>
+      <c r="B54" s="8"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -1088,7 +1099,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18">
       <c r="A55" s="5"/>
-      <c r="B55" s="6"/>
+      <c r="B55" s="8"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -1097,7 +1108,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18">
       <c r="A56" s="5"/>
-      <c r="B56" s="6"/>
+      <c r="B56" s="8"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -1106,7 +1117,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18">
       <c r="A57" s="5"/>
-      <c r="B57" s="6"/>
+      <c r="B57" s="8"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -1115,7 +1126,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18">
       <c r="A58" s="5"/>
-      <c r="B58" s="6"/>
+      <c r="B58" s="8"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -1124,7 +1135,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18">
       <c r="A59" s="5"/>
-      <c r="B59" s="6"/>
+      <c r="B59" s="8"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -1133,7 +1144,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18">
       <c r="A60" s="5"/>
-      <c r="B60" s="6"/>
+      <c r="B60" s="8"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -1142,7 +1153,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18">
       <c r="A61" s="5"/>
-      <c r="B61" s="6"/>
+      <c r="B61" s="8"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -1151,7 +1162,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18">
       <c r="A62" s="5"/>
-      <c r="B62" s="6"/>
+      <c r="B62" s="8"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -1160,7 +1171,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18">
       <c r="A63" s="5"/>
-      <c r="B63" s="6"/>
+      <c r="B63" s="8"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
@@ -1169,7 +1180,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18">
       <c r="A64" s="5"/>
-      <c r="B64" s="6"/>
+      <c r="B64" s="8"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -1178,7 +1189,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18">
       <c r="A65" s="5"/>
-      <c r="B65" s="6"/>
+      <c r="B65" s="8"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
@@ -1187,7 +1198,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18">
       <c r="A66" s="5"/>
-      <c r="B66" s="6"/>
+      <c r="B66" s="8"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
@@ -1196,7 +1207,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18">
       <c r="A67" s="5"/>
-      <c r="B67" s="6"/>
+      <c r="B67" s="8"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
@@ -1205,7 +1216,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18">
       <c r="A68" s="5"/>
-      <c r="B68" s="6"/>
+      <c r="B68" s="8"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
@@ -1214,7 +1225,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18">
       <c r="A69" s="5"/>
-      <c r="B69" s="6"/>
+      <c r="B69" s="8"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -1223,7 +1234,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18">
       <c r="A70" s="5"/>
-      <c r="B70" s="6"/>
+      <c r="B70" s="8"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
@@ -1232,7 +1243,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18">
       <c r="A71" s="5"/>
-      <c r="B71" s="6"/>
+      <c r="B71" s="8"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
@@ -1241,7 +1252,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18">
       <c r="A72" s="5"/>
-      <c r="B72" s="6"/>
+      <c r="B72" s="8"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -1250,7 +1261,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18">
       <c r="A73" s="5"/>
-      <c r="B73" s="6"/>
+      <c r="B73" s="8"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -1259,7 +1270,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18">
       <c r="A74" s="5"/>
-      <c r="B74" s="6"/>
+      <c r="B74" s="8"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -1268,7 +1279,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18">
       <c r="A75" s="5"/>
-      <c r="B75" s="6"/>
+      <c r="B75" s="8"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -1277,7 +1288,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18">
       <c r="A76" s="5"/>
-      <c r="B76" s="6"/>
+      <c r="B76" s="8"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -1286,7 +1297,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18">
       <c r="A77" s="5"/>
-      <c r="B77" s="6"/>
+      <c r="B77" s="8"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
@@ -1295,7 +1306,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18">
       <c r="A78" s="5"/>
-      <c r="B78" s="6"/>
+      <c r="B78" s="8"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -1304,7 +1315,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18">
       <c r="A79" s="5"/>
-      <c r="B79" s="6"/>
+      <c r="B79" s="8"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
@@ -1313,7 +1324,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18">
       <c r="A80" s="5"/>
-      <c r="B80" s="6"/>
+      <c r="B80" s="8"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
@@ -1322,7 +1333,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18">
       <c r="A81" s="5"/>
-      <c r="B81" s="6"/>
+      <c r="B81" s="8"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -1331,7 +1342,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18">
       <c r="A82" s="5"/>
-      <c r="B82" s="6"/>
+      <c r="B82" s="8"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
@@ -1340,7 +1351,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18">
       <c r="A83" s="5"/>
-      <c r="B83" s="6"/>
+      <c r="B83" s="8"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
@@ -1349,7 +1360,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18">
       <c r="A84" s="5"/>
-      <c r="B84" s="6"/>
+      <c r="B84" s="8"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -1358,7 +1369,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18">
       <c r="A85" s="5"/>
-      <c r="B85" s="6"/>
+      <c r="B85" s="8"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -1367,7 +1378,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18">
       <c r="A86" s="5"/>
-      <c r="B86" s="6"/>
+      <c r="B86" s="8"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -1376,7 +1387,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18">
       <c r="A87" s="5"/>
-      <c r="B87" s="6"/>
+      <c r="B87" s="8"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -1385,7 +1396,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18">
       <c r="A88" s="5"/>
-      <c r="B88" s="6"/>
+      <c r="B88" s="8"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -1394,7 +1405,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18">
       <c r="A89" s="5"/>
-      <c r="B89" s="6"/>
+      <c r="B89" s="8"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -1403,7 +1414,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18">
       <c r="A90" s="5"/>
-      <c r="B90" s="6"/>
+      <c r="B90" s="8"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -1412,7 +1423,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18">
       <c r="A91" s="5"/>
-      <c r="B91" s="6"/>
+      <c r="B91" s="8"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -1421,7 +1432,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18">
       <c r="A92" s="5"/>
-      <c r="B92" s="6"/>
+      <c r="B92" s="8"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -1430,7 +1441,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18">
       <c r="A93" s="5"/>
-      <c r="B93" s="6"/>
+      <c r="B93" s="8"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -1439,7 +1450,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18">
       <c r="A94" s="5"/>
-      <c r="B94" s="6"/>
+      <c r="B94" s="8"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
@@ -1448,7 +1459,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18">
       <c r="A95" s="5"/>
-      <c r="B95" s="6"/>
+      <c r="B95" s="8"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -1457,7 +1468,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18">
       <c r="A96" s="5"/>
-      <c r="B96" s="6"/>
+      <c r="B96" s="8"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
@@ -1466,7 +1477,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18">
       <c r="A97" s="5"/>
-      <c r="B97" s="6"/>
+      <c r="B97" s="8"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
@@ -1475,7 +1486,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18">
       <c r="A98" s="5"/>
-      <c r="B98" s="6"/>
+      <c r="B98" s="8"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
@@ -1484,7 +1495,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18">
       <c r="A99" s="5"/>
-      <c r="B99" s="6"/>
+      <c r="B99" s="8"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
@@ -1493,7 +1504,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18">
       <c r="A100" s="5"/>
-      <c r="B100" s="6"/>
+      <c r="B100" s="8"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
@@ -1502,7 +1513,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18">
       <c r="A101" s="5"/>
-      <c r="B101" s="6"/>
+      <c r="B101" s="8"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
@@ -1511,7 +1522,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18">
       <c r="A102" s="5"/>
-      <c r="B102" s="6"/>
+      <c r="B102" s="8"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
@@ -1520,7 +1531,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18">
       <c r="A103" s="5"/>
-      <c r="B103" s="6"/>
+      <c r="B103" s="8"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
@@ -1529,7 +1540,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18">
       <c r="A104" s="5"/>
-      <c r="B104" s="6"/>
+      <c r="B104" s="8"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -1538,7 +1549,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18">
       <c r="A105" s="5"/>
-      <c r="B105" s="6"/>
+      <c r="B105" s="8"/>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
@@ -1547,7 +1558,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18">
       <c r="A106" s="5"/>
-      <c r="B106" s="6"/>
+      <c r="B106" s="8"/>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
@@ -1556,7 +1567,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18">
       <c r="A107" s="5"/>
-      <c r="B107" s="6"/>
+      <c r="B107" s="8"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
@@ -1565,7 +1576,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18">
       <c r="A108" s="5"/>
-      <c r="B108" s="6"/>
+      <c r="B108" s="8"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
@@ -1574,7 +1585,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18">
       <c r="A109" s="5"/>
-      <c r="B109" s="6"/>
+      <c r="B109" s="8"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
@@ -1583,7 +1594,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18">
       <c r="A110" s="5"/>
-      <c r="B110" s="6"/>
+      <c r="B110" s="8"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
@@ -1592,7 +1603,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18">
       <c r="A111" s="5"/>
-      <c r="B111" s="6"/>
+      <c r="B111" s="8"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
@@ -1601,7 +1612,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18">
       <c r="A112" s="5"/>
-      <c r="B112" s="6"/>
+      <c r="B112" s="8"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
@@ -1610,7 +1621,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18">
       <c r="A113" s="5"/>
-      <c r="B113" s="6"/>
+      <c r="B113" s="8"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
@@ -1619,7 +1630,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18">
       <c r="A114" s="5"/>
-      <c r="B114" s="6"/>
+      <c r="B114" s="8"/>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
@@ -1628,7 +1639,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18">
       <c r="A115" s="5"/>
-      <c r="B115" s="6"/>
+      <c r="B115" s="8"/>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
@@ -1637,7 +1648,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18">
       <c r="A116" s="5"/>
-      <c r="B116" s="6"/>
+      <c r="B116" s="8"/>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
@@ -1646,7 +1657,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18">
       <c r="A117" s="5"/>
-      <c r="B117" s="6"/>
+      <c r="B117" s="8"/>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
@@ -1655,7 +1666,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18">
       <c r="A118" s="5"/>
-      <c r="B118" s="6"/>
+      <c r="B118" s="8"/>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
@@ -1664,7 +1675,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18">
       <c r="A119" s="5"/>
-      <c r="B119" s="6"/>
+      <c r="B119" s="8"/>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
@@ -1673,7 +1684,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18">
       <c r="A120" s="5"/>
-      <c r="B120" s="6"/>
+      <c r="B120" s="8"/>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
@@ -1682,7 +1693,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18">
       <c r="A121" s="5"/>
-      <c r="B121" s="6"/>
+      <c r="B121" s="8"/>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
@@ -1691,7 +1702,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18">
       <c r="A122" s="5"/>
-      <c r="B122" s="6"/>
+      <c r="B122" s="8"/>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
@@ -1700,7 +1711,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18">
       <c r="A123" s="5"/>
-      <c r="B123" s="6"/>
+      <c r="B123" s="8"/>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
@@ -1709,7 +1720,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18">
       <c r="A124" s="5"/>
-      <c r="B124" s="6"/>
+      <c r="B124" s="8"/>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
@@ -1718,7 +1729,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18">
       <c r="A125" s="5"/>
-      <c r="B125" s="6"/>
+      <c r="B125" s="8"/>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
@@ -1727,7 +1738,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18">
       <c r="A126" s="5"/>
-      <c r="B126" s="6"/>
+      <c r="B126" s="8"/>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
@@ -1736,7 +1747,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18">
       <c r="A127" s="5"/>
-      <c r="B127" s="6"/>
+      <c r="B127" s="8"/>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
@@ -1745,7 +1756,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18">
       <c r="A128" s="5"/>
-      <c r="B128" s="6"/>
+      <c r="B128" s="8"/>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
@@ -1754,7 +1765,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18">
       <c r="A129" s="5"/>
-      <c r="B129" s="6"/>
+      <c r="B129" s="8"/>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
@@ -1763,7 +1774,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18">
       <c r="A130" s="5"/>
-      <c r="B130" s="6"/>
+      <c r="B130" s="8"/>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
@@ -1772,7 +1783,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18">
       <c r="A131" s="5"/>
-      <c r="B131" s="6"/>
+      <c r="B131" s="8"/>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
@@ -1781,7 +1792,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18">
       <c r="A132" s="5"/>
-      <c r="B132" s="6"/>
+      <c r="B132" s="8"/>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
@@ -1790,7 +1801,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18">
       <c r="A133" s="5"/>
-      <c r="B133" s="6"/>
+      <c r="B133" s="8"/>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
@@ -1799,7 +1810,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18">
       <c r="A134" s="5"/>
-      <c r="B134" s="6"/>
+      <c r="B134" s="8"/>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
@@ -1808,7 +1819,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18">
       <c r="A135" s="5"/>
-      <c r="B135" s="6"/>
+      <c r="B135" s="8"/>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
@@ -1817,7 +1828,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18">
       <c r="A136" s="5"/>
-      <c r="B136" s="6"/>
+      <c r="B136" s="8"/>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
@@ -1826,7 +1837,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18">
       <c r="A137" s="5"/>
-      <c r="B137" s="6"/>
+      <c r="B137" s="8"/>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
@@ -1835,7 +1846,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18">
       <c r="A138" s="5"/>
-      <c r="B138" s="6"/>
+      <c r="B138" s="8"/>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
@@ -1844,7 +1855,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18">
       <c r="A139" s="5"/>
-      <c r="B139" s="6"/>
+      <c r="B139" s="8"/>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
@@ -1853,7 +1864,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18">
       <c r="A140" s="5"/>
-      <c r="B140" s="6"/>
+      <c r="B140" s="8"/>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
@@ -1862,7 +1873,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18">
       <c r="A141" s="5"/>
-      <c r="B141" s="6"/>
+      <c r="B141" s="8"/>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
@@ -1871,7 +1882,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18">
       <c r="A142" s="5"/>
-      <c r="B142" s="6"/>
+      <c r="B142" s="8"/>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
@@ -1880,7 +1891,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18">
       <c r="A143" s="5"/>
-      <c r="B143" s="6"/>
+      <c r="B143" s="8"/>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
@@ -1889,7 +1900,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18">
       <c r="A144" s="5"/>
-      <c r="B144" s="6"/>
+      <c r="B144" s="8"/>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
@@ -1898,7 +1909,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18">
       <c r="A145" s="5"/>
-      <c r="B145" s="6"/>
+      <c r="B145" s="8"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
@@ -1907,7 +1918,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18">
       <c r="A146" s="5"/>
-      <c r="B146" s="6"/>
+      <c r="B146" s="8"/>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
@@ -1916,7 +1927,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18">
       <c r="A147" s="5"/>
-      <c r="B147" s="6"/>
+      <c r="B147" s="8"/>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
@@ -1925,7 +1936,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18">
       <c r="A148" s="5"/>
-      <c r="B148" s="6"/>
+      <c r="B148" s="8"/>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
@@ -1934,7 +1945,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18">
       <c r="A149" s="5"/>
-      <c r="B149" s="6"/>
+      <c r="B149" s="8"/>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
@@ -1943,7 +1954,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18">
       <c r="A150" s="5"/>
-      <c r="B150" s="6"/>
+      <c r="B150" s="8"/>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
@@ -1952,7 +1963,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18">
       <c r="A151" s="5"/>
-      <c r="B151" s="6"/>
+      <c r="B151" s="8"/>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
@@ -1961,7 +1972,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18">
       <c r="A152" s="5"/>
-      <c r="B152" s="6"/>
+      <c r="B152" s="8"/>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
@@ -1970,7 +1981,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18">
       <c r="A153" s="5"/>
-      <c r="B153" s="6"/>
+      <c r="B153" s="8"/>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
@@ -1979,7 +1990,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18">
       <c r="A154" s="5"/>
-      <c r="B154" s="6"/>
+      <c r="B154" s="8"/>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
@@ -1988,7 +1999,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18">
       <c r="A155" s="5"/>
-      <c r="B155" s="6"/>
+      <c r="B155" s="8"/>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
@@ -1997,7 +2008,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18">
       <c r="A156" s="5"/>
-      <c r="B156" s="6"/>
+      <c r="B156" s="8"/>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
@@ -2006,7 +2017,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18">
       <c r="A157" s="5"/>
-      <c r="B157" s="6"/>
+      <c r="B157" s="8"/>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
@@ -2015,7 +2026,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18">
       <c r="A158" s="5"/>
-      <c r="B158" s="6"/>
+      <c r="B158" s="8"/>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
@@ -2024,7 +2035,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18">
       <c r="A159" s="5"/>
-      <c r="B159" s="6"/>
+      <c r="B159" s="8"/>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
@@ -2033,7 +2044,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18">
       <c r="A160" s="5"/>
-      <c r="B160" s="6"/>
+      <c r="B160" s="8"/>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
@@ -2042,7 +2053,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18">
       <c r="A161" s="5"/>
-      <c r="B161" s="6"/>
+      <c r="B161" s="8"/>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
@@ -2051,7 +2062,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18">
       <c r="A162" s="5"/>
-      <c r="B162" s="6"/>
+      <c r="B162" s="8"/>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
@@ -2060,7 +2071,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18">
       <c r="A163" s="5"/>
-      <c r="B163" s="6"/>
+      <c r="B163" s="8"/>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
@@ -2069,7 +2080,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18">
       <c r="A164" s="5"/>
-      <c r="B164" s="6"/>
+      <c r="B164" s="8"/>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
@@ -2078,7 +2089,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18">
       <c r="A165" s="5"/>
-      <c r="B165" s="6"/>
+      <c r="B165" s="8"/>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
@@ -2087,7 +2098,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18">
       <c r="A166" s="5"/>
-      <c r="B166" s="6"/>
+      <c r="B166" s="8"/>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
@@ -2096,7 +2107,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18">
       <c r="A167" s="5"/>
-      <c r="B167" s="6"/>
+      <c r="B167" s="8"/>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
@@ -2105,7 +2116,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18">
       <c r="A168" s="5"/>
-      <c r="B168" s="6"/>
+      <c r="B168" s="8"/>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
@@ -2114,7 +2125,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18">
       <c r="A169" s="5"/>
-      <c r="B169" s="6"/>
+      <c r="B169" s="8"/>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
@@ -2123,7 +2134,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18">
       <c r="A170" s="5"/>
-      <c r="B170" s="6"/>
+      <c r="B170" s="8"/>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
@@ -2132,7 +2143,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18">
       <c r="A171" s="5"/>
-      <c r="B171" s="6"/>
+      <c r="B171" s="8"/>
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
@@ -2141,7 +2152,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18">
       <c r="A172" s="5"/>
-      <c r="B172" s="6"/>
+      <c r="B172" s="8"/>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
@@ -2150,7 +2161,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18">
       <c r="A173" s="5"/>
-      <c r="B173" s="6"/>
+      <c r="B173" s="8"/>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
@@ -2159,7 +2170,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18">
       <c r="A174" s="5"/>
-      <c r="B174" s="6"/>
+      <c r="B174" s="8"/>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
@@ -2168,7 +2179,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18">
       <c r="A175" s="5"/>
-      <c r="B175" s="6"/>
+      <c r="B175" s="8"/>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
@@ -2177,7 +2188,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18">
       <c r="A176" s="5"/>
-      <c r="B176" s="6"/>
+      <c r="B176" s="8"/>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
@@ -2186,7 +2197,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18">
       <c r="A177" s="5"/>
-      <c r="B177" s="6"/>
+      <c r="B177" s="8"/>
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
@@ -2195,7 +2206,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18">
       <c r="A178" s="5"/>
-      <c r="B178" s="6"/>
+      <c r="B178" s="8"/>
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
@@ -2204,7 +2215,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18">
       <c r="A179" s="5"/>
-      <c r="B179" s="6"/>
+      <c r="B179" s="8"/>
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
@@ -2213,7 +2224,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18">
       <c r="A180" s="5"/>
-      <c r="B180" s="6"/>
+      <c r="B180" s="8"/>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
@@ -2222,7 +2233,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18">
       <c r="A181" s="5"/>
-      <c r="B181" s="6"/>
+      <c r="B181" s="8"/>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
@@ -2231,7 +2242,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18">
       <c r="A182" s="5"/>
-      <c r="B182" s="6"/>
+      <c r="B182" s="8"/>
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
@@ -2240,7 +2251,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18">
       <c r="A183" s="5"/>
-      <c r="B183" s="6"/>
+      <c r="B183" s="8"/>
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
@@ -2249,7 +2260,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18">
       <c r="A184" s="5"/>
-      <c r="B184" s="6"/>
+      <c r="B184" s="8"/>
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
@@ -2258,7 +2269,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18">
       <c r="A185" s="5"/>
-      <c r="B185" s="6"/>
+      <c r="B185" s="8"/>
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
@@ -2267,7 +2278,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18">
       <c r="A186" s="5"/>
-      <c r="B186" s="6"/>
+      <c r="B186" s="8"/>
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
@@ -2276,7 +2287,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18">
       <c r="A187" s="5"/>
-      <c r="B187" s="6"/>
+      <c r="B187" s="8"/>
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
@@ -2285,7 +2296,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18">
       <c r="A188" s="5"/>
-      <c r="B188" s="6"/>
+      <c r="B188" s="8"/>
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
@@ -2294,7 +2305,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18">
       <c r="A189" s="5"/>
-      <c r="B189" s="6"/>
+      <c r="B189" s="8"/>
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
@@ -2303,7 +2314,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18">
       <c r="A190" s="5"/>
-      <c r="B190" s="6"/>
+      <c r="B190" s="8"/>
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
@@ -2312,7 +2323,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18">
       <c r="A191" s="5"/>
-      <c r="B191" s="6"/>
+      <c r="B191" s="8"/>
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
@@ -2321,7 +2332,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18">
       <c r="A192" s="5"/>
-      <c r="B192" s="6"/>
+      <c r="B192" s="8"/>
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
       <c r="E192" s="5"/>
@@ -2330,7 +2341,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18">
       <c r="A193" s="5"/>
-      <c r="B193" s="6"/>
+      <c r="B193" s="8"/>
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
@@ -2339,7 +2350,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18">
       <c r="A194" s="5"/>
-      <c r="B194" s="6"/>
+      <c r="B194" s="8"/>
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
       <c r="E194" s="5"/>
@@ -2348,7 +2359,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18">
       <c r="A195" s="5"/>
-      <c r="B195" s="6"/>
+      <c r="B195" s="8"/>
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
       <c r="E195" s="5"/>
@@ -2357,7 +2368,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18">
       <c r="A196" s="5"/>
-      <c r="B196" s="6"/>
+      <c r="B196" s="8"/>
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
@@ -2366,7 +2377,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18">
       <c r="A197" s="5"/>
-      <c r="B197" s="6"/>
+      <c r="B197" s="8"/>
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
       <c r="E197" s="5"/>
@@ -2375,7 +2386,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18">
       <c r="A198" s="5"/>
-      <c r="B198" s="6"/>
+      <c r="B198" s="8"/>
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
       <c r="E198" s="5"/>
@@ -2384,7 +2395,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18">
       <c r="A199" s="5"/>
-      <c r="B199" s="6"/>
+      <c r="B199" s="8"/>
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
       <c r="E199" s="5"/>
@@ -2393,7 +2404,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18">
       <c r="A200" s="5"/>
-      <c r="B200" s="6"/>
+      <c r="B200" s="8"/>
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
       <c r="E200" s="5"/>
@@ -2402,7 +2413,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18">
       <c r="A201" s="5"/>
-      <c r="B201" s="6"/>
+      <c r="B201" s="8"/>
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
       <c r="E201" s="5"/>
@@ -2411,7 +2422,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18">
       <c r="A202" s="5"/>
-      <c r="B202" s="6"/>
+      <c r="B202" s="8"/>
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
       <c r="E202" s="5"/>
@@ -2420,7 +2431,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18">
       <c r="A203" s="5"/>
-      <c r="B203" s="6"/>
+      <c r="B203" s="8"/>
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
       <c r="E203" s="5"/>
@@ -2429,7 +2440,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18">
       <c r="A204" s="5"/>
-      <c r="B204" s="6"/>
+      <c r="B204" s="8"/>
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
       <c r="E204" s="5"/>
@@ -2438,7 +2449,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18">
       <c r="A205" s="5"/>
-      <c r="B205" s="6"/>
+      <c r="B205" s="8"/>
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
       <c r="E205" s="5"/>
@@ -2447,7 +2458,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18">
       <c r="A206" s="5"/>
-      <c r="B206" s="6"/>
+      <c r="B206" s="8"/>
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
       <c r="E206" s="5"/>
@@ -2456,7 +2467,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18">
       <c r="A207" s="5"/>
-      <c r="B207" s="6"/>
+      <c r="B207" s="8"/>
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
       <c r="E207" s="5"/>
@@ -2465,7 +2476,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18">
       <c r="A208" s="5"/>
-      <c r="B208" s="6"/>
+      <c r="B208" s="8"/>
       <c r="C208" s="5"/>
       <c r="D208" s="5"/>
       <c r="E208" s="5"/>
@@ -2474,7 +2485,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18">
       <c r="A209" s="5"/>
-      <c r="B209" s="6"/>
+      <c r="B209" s="8"/>
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
       <c r="E209" s="5"/>
@@ -2483,7 +2494,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18">
       <c r="A210" s="5"/>
-      <c r="B210" s="6"/>
+      <c r="B210" s="8"/>
       <c r="C210" s="5"/>
       <c r="D210" s="5"/>
       <c r="E210" s="5"/>
@@ -2492,7 +2503,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18">
       <c r="A211" s="5"/>
-      <c r="B211" s="6"/>
+      <c r="B211" s="8"/>
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
       <c r="E211" s="5"/>
@@ -2501,7 +2512,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18">
       <c r="A212" s="5"/>
-      <c r="B212" s="6"/>
+      <c r="B212" s="8"/>
       <c r="C212" s="5"/>
       <c r="D212" s="5"/>
       <c r="E212" s="5"/>
@@ -2510,7 +2521,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18">
       <c r="A213" s="5"/>
-      <c r="B213" s="6"/>
+      <c r="B213" s="8"/>
       <c r="C213" s="5"/>
       <c r="D213" s="5"/>
       <c r="E213" s="5"/>
@@ -2519,7 +2530,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18">
       <c r="A214" s="5"/>
-      <c r="B214" s="6"/>
+      <c r="B214" s="8"/>
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
       <c r="E214" s="5"/>
@@ -2528,7 +2539,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18">
       <c r="A215" s="5"/>
-      <c r="B215" s="6"/>
+      <c r="B215" s="8"/>
       <c r="C215" s="5"/>
       <c r="D215" s="5"/>
       <c r="E215" s="5"/>
@@ -2537,7 +2548,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18">
       <c r="A216" s="5"/>
-      <c r="B216" s="6"/>
+      <c r="B216" s="8"/>
       <c r="C216" s="5"/>
       <c r="D216" s="5"/>
       <c r="E216" s="5"/>
@@ -2546,7 +2557,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18">
       <c r="A217" s="5"/>
-      <c r="B217" s="6"/>
+      <c r="B217" s="8"/>
       <c r="C217" s="5"/>
       <c r="D217" s="5"/>
       <c r="E217" s="5"/>
@@ -2555,7 +2566,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18">
       <c r="A218" s="5"/>
-      <c r="B218" s="6"/>
+      <c r="B218" s="8"/>
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
       <c r="E218" s="5"/>
@@ -2564,7 +2575,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18">
       <c r="A219" s="5"/>
-      <c r="B219" s="6"/>
+      <c r="B219" s="8"/>
       <c r="C219" s="5"/>
       <c r="D219" s="5"/>
       <c r="E219" s="5"/>
@@ -2573,7 +2584,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18">
       <c r="A220" s="5"/>
-      <c r="B220" s="6"/>
+      <c r="B220" s="8"/>
       <c r="C220" s="5"/>
       <c r="D220" s="5"/>
       <c r="E220" s="5"/>
@@ -2582,7 +2593,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18">
       <c r="A221" s="5"/>
-      <c r="B221" s="6"/>
+      <c r="B221" s="8"/>
       <c r="C221" s="5"/>
       <c r="D221" s="5"/>
       <c r="E221" s="5"/>
@@ -2591,7 +2602,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18">
       <c r="A222" s="5"/>
-      <c r="B222" s="6"/>
+      <c r="B222" s="8"/>
       <c r="C222" s="5"/>
       <c r="D222" s="5"/>
       <c r="E222" s="5"/>
@@ -2600,7 +2611,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18">
       <c r="A223" s="5"/>
-      <c r="B223" s="6"/>
+      <c r="B223" s="8"/>
       <c r="C223" s="5"/>
       <c r="D223" s="5"/>
       <c r="E223" s="5"/>
@@ -2609,7 +2620,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18">
       <c r="A224" s="5"/>
-      <c r="B224" s="6"/>
+      <c r="B224" s="8"/>
       <c r="C224" s="5"/>
       <c r="D224" s="5"/>
       <c r="E224" s="5"/>
@@ -2618,7 +2629,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18">
       <c r="A225" s="5"/>
-      <c r="B225" s="6"/>
+      <c r="B225" s="8"/>
       <c r="C225" s="5"/>
       <c r="D225" s="5"/>
       <c r="E225" s="5"/>
@@ -2627,7 +2638,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18">
       <c r="A226" s="5"/>
-      <c r="B226" s="6"/>
+      <c r="B226" s="8"/>
       <c r="C226" s="5"/>
       <c r="D226" s="5"/>
       <c r="E226" s="5"/>
@@ -2636,7 +2647,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18">
       <c r="A227" s="5"/>
-      <c r="B227" s="6"/>
+      <c r="B227" s="8"/>
       <c r="C227" s="5"/>
       <c r="D227" s="5"/>
       <c r="E227" s="5"/>
@@ -2645,7 +2656,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18">
       <c r="A228" s="5"/>
-      <c r="B228" s="6"/>
+      <c r="B228" s="8"/>
       <c r="C228" s="5"/>
       <c r="D228" s="5"/>
       <c r="E228" s="5"/>
@@ -2654,7 +2665,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18">
       <c r="A229" s="5"/>
-      <c r="B229" s="6"/>
+      <c r="B229" s="8"/>
       <c r="C229" s="5"/>
       <c r="D229" s="5"/>
       <c r="E229" s="5"/>
@@ -2663,7 +2674,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18">
       <c r="A230" s="5"/>
-      <c r="B230" s="6"/>
+      <c r="B230" s="8"/>
       <c r="C230" s="5"/>
       <c r="D230" s="5"/>
       <c r="E230" s="5"/>
@@ -2672,7 +2683,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18">
       <c r="A231" s="5"/>
-      <c r="B231" s="6"/>
+      <c r="B231" s="8"/>
       <c r="C231" s="5"/>
       <c r="D231" s="5"/>
       <c r="E231" s="5"/>
@@ -2681,7 +2692,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18">
       <c r="A232" s="5"/>
-      <c r="B232" s="6"/>
+      <c r="B232" s="8"/>
       <c r="C232" s="5"/>
       <c r="D232" s="5"/>
       <c r="E232" s="5"/>
@@ -2690,7 +2701,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18">
       <c r="A233" s="5"/>
-      <c r="B233" s="6"/>
+      <c r="B233" s="8"/>
       <c r="C233" s="5"/>
       <c r="D233" s="5"/>
       <c r="E233" s="5"/>
@@ -2699,7 +2710,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18">
       <c r="A234" s="5"/>
-      <c r="B234" s="6"/>
+      <c r="B234" s="8"/>
       <c r="C234" s="5"/>
       <c r="D234" s="5"/>
       <c r="E234" s="5"/>
@@ -2708,7 +2719,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18">
       <c r="A235" s="5"/>
-      <c r="B235" s="6"/>
+      <c r="B235" s="8"/>
       <c r="C235" s="5"/>
       <c r="D235" s="5"/>
       <c r="E235" s="5"/>
@@ -2717,7 +2728,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18">
       <c r="A236" s="5"/>
-      <c r="B236" s="6"/>
+      <c r="B236" s="8"/>
       <c r="C236" s="5"/>
       <c r="D236" s="5"/>
       <c r="E236" s="5"/>
@@ -2726,7 +2737,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18">
       <c r="A237" s="5"/>
-      <c r="B237" s="6"/>
+      <c r="B237" s="8"/>
       <c r="C237" s="5"/>
       <c r="D237" s="5"/>
       <c r="E237" s="5"/>
@@ -2735,7 +2746,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18">
       <c r="A238" s="5"/>
-      <c r="B238" s="6"/>
+      <c r="B238" s="8"/>
       <c r="C238" s="5"/>
       <c r="D238" s="5"/>
       <c r="E238" s="5"/>
@@ -2744,7 +2755,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18">
       <c r="A239" s="5"/>
-      <c r="B239" s="6"/>
+      <c r="B239" s="8"/>
       <c r="C239" s="5"/>
       <c r="D239" s="5"/>
       <c r="E239" s="5"/>
@@ -2753,7 +2764,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18">
       <c r="A240" s="5"/>
-      <c r="B240" s="6"/>
+      <c r="B240" s="8"/>
       <c r="C240" s="5"/>
       <c r="D240" s="5"/>
       <c r="E240" s="5"/>
@@ -2762,7 +2773,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18">
       <c r="A241" s="5"/>
-      <c r="B241" s="6"/>
+      <c r="B241" s="8"/>
       <c r="C241" s="5"/>
       <c r="D241" s="5"/>
       <c r="E241" s="5"/>
@@ -2771,7 +2782,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18">
       <c r="A242" s="5"/>
-      <c r="B242" s="6"/>
+      <c r="B242" s="8"/>
       <c r="C242" s="5"/>
       <c r="D242" s="5"/>
       <c r="E242" s="5"/>
@@ -2780,7 +2791,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18">
       <c r="A243" s="5"/>
-      <c r="B243" s="6"/>
+      <c r="B243" s="8"/>
       <c r="C243" s="5"/>
       <c r="D243" s="5"/>
       <c r="E243" s="5"/>
@@ -2789,7 +2800,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18">
       <c r="A244" s="5"/>
-      <c r="B244" s="6"/>
+      <c r="B244" s="8"/>
       <c r="C244" s="5"/>
       <c r="D244" s="5"/>
       <c r="E244" s="5"/>
@@ -2798,7 +2809,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18">
       <c r="A245" s="5"/>
-      <c r="B245" s="6"/>
+      <c r="B245" s="8"/>
       <c r="C245" s="5"/>
       <c r="D245" s="5"/>
       <c r="E245" s="5"/>
@@ -2807,7 +2818,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18">
       <c r="A246" s="5"/>
-      <c r="B246" s="6"/>
+      <c r="B246" s="8"/>
       <c r="C246" s="5"/>
       <c r="D246" s="5"/>
       <c r="E246" s="5"/>
@@ -2816,7 +2827,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18">
       <c r="A247" s="5"/>
-      <c r="B247" s="6"/>
+      <c r="B247" s="8"/>
       <c r="C247" s="5"/>
       <c r="D247" s="5"/>
       <c r="E247" s="5"/>
@@ -2825,7 +2836,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18">
       <c r="A248" s="5"/>
-      <c r="B248" s="6"/>
+      <c r="B248" s="8"/>
       <c r="C248" s="5"/>
       <c r="D248" s="5"/>
       <c r="E248" s="5"/>
@@ -2834,7 +2845,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18">
       <c r="A249" s="5"/>
-      <c r="B249" s="6"/>
+      <c r="B249" s="8"/>
       <c r="C249" s="5"/>
       <c r="D249" s="5"/>
       <c r="E249" s="5"/>
@@ -2843,7 +2854,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18">
       <c r="A250" s="5"/>
-      <c r="B250" s="6"/>
+      <c r="B250" s="8"/>
       <c r="C250" s="5"/>
       <c r="D250" s="5"/>
       <c r="E250" s="5"/>
@@ -2852,7 +2863,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18">
       <c r="A251" s="5"/>
-      <c r="B251" s="6"/>
+      <c r="B251" s="8"/>
       <c r="C251" s="5"/>
       <c r="D251" s="5"/>
       <c r="E251" s="5"/>
@@ -2861,7 +2872,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18">
       <c r="A252" s="5"/>
-      <c r="B252" s="6"/>
+      <c r="B252" s="8"/>
       <c r="C252" s="5"/>
       <c r="D252" s="5"/>
       <c r="E252" s="5"/>
@@ -2870,7 +2881,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18">
       <c r="A253" s="5"/>
-      <c r="B253" s="6"/>
+      <c r="B253" s="8"/>
       <c r="C253" s="5"/>
       <c r="D253" s="5"/>
       <c r="E253" s="5"/>
@@ -2879,7 +2890,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18">
       <c r="A254" s="5"/>
-      <c r="B254" s="6"/>
+      <c r="B254" s="8"/>
       <c r="C254" s="5"/>
       <c r="D254" s="5"/>
       <c r="E254" s="5"/>
@@ -2888,7 +2899,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18">
       <c r="A255" s="5"/>
-      <c r="B255" s="6"/>
+      <c r="B255" s="8"/>
       <c r="C255" s="5"/>
       <c r="D255" s="5"/>
       <c r="E255" s="5"/>
@@ -2897,7 +2908,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18">
       <c r="A256" s="5"/>
-      <c r="B256" s="6"/>
+      <c r="B256" s="8"/>
       <c r="C256" s="5"/>
       <c r="D256" s="5"/>
       <c r="E256" s="5"/>
@@ -2906,7 +2917,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18">
       <c r="A257" s="5"/>
-      <c r="B257" s="6"/>
+      <c r="B257" s="8"/>
       <c r="C257" s="5"/>
       <c r="D257" s="5"/>
       <c r="E257" s="5"/>
@@ -2915,7 +2926,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18">
       <c r="A258" s="5"/>
-      <c r="B258" s="6"/>
+      <c r="B258" s="8"/>
       <c r="C258" s="5"/>
       <c r="D258" s="5"/>
       <c r="E258" s="5"/>
@@ -2924,7 +2935,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18">
       <c r="A259" s="5"/>
-      <c r="B259" s="6"/>
+      <c r="B259" s="8"/>
       <c r="C259" s="5"/>
       <c r="D259" s="5"/>
       <c r="E259" s="5"/>
@@ -2933,7 +2944,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18">
       <c r="A260" s="5"/>
-      <c r="B260" s="6"/>
+      <c r="B260" s="8"/>
       <c r="C260" s="5"/>
       <c r="D260" s="5"/>
       <c r="E260" s="5"/>
@@ -2942,7 +2953,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18">
       <c r="A261" s="5"/>
-      <c r="B261" s="6"/>
+      <c r="B261" s="8"/>
       <c r="C261" s="5"/>
       <c r="D261" s="5"/>
       <c r="E261" s="5"/>
@@ -2951,7 +2962,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18">
       <c r="A262" s="5"/>
-      <c r="B262" s="6"/>
+      <c r="B262" s="8"/>
       <c r="C262" s="5"/>
       <c r="D262" s="5"/>
       <c r="E262" s="5"/>
@@ -2960,7 +2971,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18">
       <c r="A263" s="5"/>
-      <c r="B263" s="6"/>
+      <c r="B263" s="8"/>
       <c r="C263" s="5"/>
       <c r="D263" s="5"/>
       <c r="E263" s="5"/>
@@ -2969,7 +2980,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18">
       <c r="A264" s="5"/>
-      <c r="B264" s="6"/>
+      <c r="B264" s="8"/>
       <c r="C264" s="5"/>
       <c r="D264" s="5"/>
       <c r="E264" s="5"/>
@@ -2978,7 +2989,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18">
       <c r="A265" s="5"/>
-      <c r="B265" s="6"/>
+      <c r="B265" s="8"/>
       <c r="C265" s="5"/>
       <c r="D265" s="5"/>
       <c r="E265" s="5"/>
@@ -2987,7 +2998,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18">
       <c r="A266" s="5"/>
-      <c r="B266" s="6"/>
+      <c r="B266" s="8"/>
       <c r="C266" s="5"/>
       <c r="D266" s="5"/>
       <c r="E266" s="5"/>
@@ -2996,7 +3007,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18">
       <c r="A267" s="5"/>
-      <c r="B267" s="6"/>
+      <c r="B267" s="8"/>
       <c r="C267" s="5"/>
       <c r="D267" s="5"/>
       <c r="E267" s="5"/>
@@ -3005,7 +3016,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18">
       <c r="A268" s="5"/>
-      <c r="B268" s="6"/>
+      <c r="B268" s="8"/>
       <c r="C268" s="5"/>
       <c r="D268" s="5"/>
       <c r="E268" s="5"/>
@@ -3014,7 +3025,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18">
       <c r="A269" s="5"/>
-      <c r="B269" s="6"/>
+      <c r="B269" s="8"/>
       <c r="C269" s="5"/>
       <c r="D269" s="5"/>
       <c r="E269" s="5"/>
@@ -3023,7 +3034,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18">
       <c r="A270" s="5"/>
-      <c r="B270" s="6"/>
+      <c r="B270" s="8"/>
       <c r="C270" s="5"/>
       <c r="D270" s="5"/>
       <c r="E270" s="5"/>
@@ -3032,7 +3043,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18">
       <c r="A271" s="5"/>
-      <c r="B271" s="6"/>
+      <c r="B271" s="8"/>
       <c r="C271" s="5"/>
       <c r="D271" s="5"/>
       <c r="E271" s="5"/>
@@ -3041,7 +3052,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18">
       <c r="A272" s="5"/>
-      <c r="B272" s="6"/>
+      <c r="B272" s="8"/>
       <c r="C272" s="5"/>
       <c r="D272" s="5"/>
       <c r="E272" s="5"/>
@@ -3050,7 +3061,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="18">
       <c r="A273" s="5"/>
-      <c r="B273" s="6"/>
+      <c r="B273" s="8"/>
       <c r="C273" s="5"/>
       <c r="D273" s="5"/>
       <c r="E273" s="5"/>
@@ -3059,7 +3070,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="18">
       <c r="A274" s="5"/>
-      <c r="B274" s="6"/>
+      <c r="B274" s="8"/>
       <c r="C274" s="5"/>
       <c r="D274" s="5"/>
       <c r="E274" s="5"/>
@@ -3068,7 +3079,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18">
       <c r="A275" s="5"/>
-      <c r="B275" s="6"/>
+      <c r="B275" s="8"/>
       <c r="C275" s="5"/>
       <c r="D275" s="5"/>
       <c r="E275" s="5"/>
@@ -3077,7 +3088,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="18">
       <c r="A276" s="5"/>
-      <c r="B276" s="6"/>
+      <c r="B276" s="8"/>
       <c r="C276" s="5"/>
       <c r="D276" s="5"/>
       <c r="E276" s="5"/>
@@ -3086,7 +3097,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="18">
       <c r="A277" s="5"/>
-      <c r="B277" s="6"/>
+      <c r="B277" s="8"/>
       <c r="C277" s="5"/>
       <c r="D277" s="5"/>
       <c r="E277" s="5"/>
@@ -3095,7 +3106,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="18">
       <c r="A278" s="5"/>
-      <c r="B278" s="6"/>
+      <c r="B278" s="8"/>
       <c r="C278" s="5"/>
       <c r="D278" s="5"/>
       <c r="E278" s="5"/>
@@ -3104,7 +3115,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="18">
       <c r="A279" s="5"/>
-      <c r="B279" s="6"/>
+      <c r="B279" s="8"/>
       <c r="C279" s="5"/>
       <c r="D279" s="5"/>
       <c r="E279" s="5"/>
@@ -3113,7 +3124,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="18">
       <c r="A280" s="5"/>
-      <c r="B280" s="6"/>
+      <c r="B280" s="8"/>
       <c r="C280" s="5"/>
       <c r="D280" s="5"/>
       <c r="E280" s="5"/>
@@ -3122,7 +3133,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="18">
       <c r="A281" s="5"/>
-      <c r="B281" s="6"/>
+      <c r="B281" s="8"/>
       <c r="C281" s="5"/>
       <c r="D281" s="5"/>
       <c r="E281" s="5"/>
@@ -3131,7 +3142,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="18">
       <c r="A282" s="5"/>
-      <c r="B282" s="6"/>
+      <c r="B282" s="8"/>
       <c r="C282" s="5"/>
       <c r="D282" s="5"/>
       <c r="E282" s="5"/>
@@ -3140,7 +3151,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="18">
       <c r="A283" s="5"/>
-      <c r="B283" s="6"/>
+      <c r="B283" s="8"/>
       <c r="C283" s="5"/>
       <c r="D283" s="5"/>
       <c r="E283" s="5"/>
@@ -3149,7 +3160,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="18">
       <c r="A284" s="5"/>
-      <c r="B284" s="6"/>
+      <c r="B284" s="8"/>
       <c r="C284" s="5"/>
       <c r="D284" s="5"/>
       <c r="E284" s="5"/>
@@ -3158,7 +3169,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="18">
       <c r="A285" s="5"/>
-      <c r="B285" s="6"/>
+      <c r="B285" s="8"/>
       <c r="C285" s="5"/>
       <c r="D285" s="5"/>
       <c r="E285" s="5"/>
@@ -3167,7 +3178,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="18">
       <c r="A286" s="5"/>
-      <c r="B286" s="6"/>
+      <c r="B286" s="8"/>
       <c r="C286" s="5"/>
       <c r="D286" s="5"/>
       <c r="E286" s="5"/>
@@ -3176,7 +3187,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="18">
       <c r="A287" s="5"/>
-      <c r="B287" s="6"/>
+      <c r="B287" s="8"/>
       <c r="C287" s="5"/>
       <c r="D287" s="5"/>
       <c r="E287" s="5"/>
@@ -3185,7 +3196,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="18">
       <c r="A288" s="5"/>
-      <c r="B288" s="6"/>
+      <c r="B288" s="8"/>
       <c r="C288" s="5"/>
       <c r="D288" s="5"/>
       <c r="E288" s="5"/>
@@ -3194,7 +3205,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="18">
       <c r="A289" s="5"/>
-      <c r="B289" s="6"/>
+      <c r="B289" s="8"/>
       <c r="C289" s="5"/>
       <c r="D289" s="5"/>
       <c r="E289" s="5"/>
@@ -3203,7 +3214,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="18">
       <c r="A290" s="5"/>
-      <c r="B290" s="6"/>
+      <c r="B290" s="8"/>
       <c r="C290" s="5"/>
       <c r="D290" s="5"/>
       <c r="E290" s="5"/>
@@ -3212,7 +3223,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="18">
       <c r="A291" s="5"/>
-      <c r="B291" s="6"/>
+      <c r="B291" s="8"/>
       <c r="C291" s="5"/>
       <c r="D291" s="5"/>
       <c r="E291" s="5"/>
@@ -3221,7 +3232,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="18">
       <c r="A292" s="5"/>
-      <c r="B292" s="6"/>
+      <c r="B292" s="8"/>
       <c r="C292" s="5"/>
       <c r="D292" s="5"/>
       <c r="E292" s="5"/>
@@ -3230,7 +3241,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="18">
       <c r="A293" s="5"/>
-      <c r="B293" s="6"/>
+      <c r="B293" s="8"/>
       <c r="C293" s="5"/>
       <c r="D293" s="5"/>
       <c r="E293" s="5"/>
@@ -3239,7 +3250,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="18">
       <c r="A294" s="5"/>
-      <c r="B294" s="6"/>
+      <c r="B294" s="8"/>
       <c r="C294" s="5"/>
       <c r="D294" s="5"/>
       <c r="E294" s="5"/>
@@ -3248,7 +3259,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="18">
       <c r="A295" s="5"/>
-      <c r="B295" s="6"/>
+      <c r="B295" s="8"/>
       <c r="C295" s="5"/>
       <c r="D295" s="5"/>
       <c r="E295" s="5"/>
@@ -3257,7 +3268,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="18">
       <c r="A296" s="5"/>
-      <c r="B296" s="6"/>
+      <c r="B296" s="8"/>
       <c r="C296" s="5"/>
       <c r="D296" s="5"/>
       <c r="E296" s="5"/>
@@ -3266,7 +3277,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="18">
       <c r="A297" s="5"/>
-      <c r="B297" s="6"/>
+      <c r="B297" s="8"/>
       <c r="C297" s="5"/>
       <c r="D297" s="5"/>
       <c r="E297" s="5"/>
@@ -3275,7 +3286,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="18">
       <c r="A298" s="5"/>
-      <c r="B298" s="6"/>
+      <c r="B298" s="8"/>
       <c r="C298" s="5"/>
       <c r="D298" s="5"/>
       <c r="E298" s="5"/>
@@ -3284,7 +3295,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="18">
       <c r="A299" s="5"/>
-      <c r="B299" s="6"/>
+      <c r="B299" s="8"/>
       <c r="C299" s="5"/>
       <c r="D299" s="5"/>
       <c r="E299" s="5"/>
@@ -3293,7 +3304,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="18">
       <c r="A300" s="5"/>
-      <c r="B300" s="6"/>
+      <c r="B300" s="8"/>
       <c r="C300" s="5"/>
       <c r="D300" s="5"/>
       <c r="E300" s="5"/>
@@ -3302,7 +3313,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="18">
       <c r="A301" s="5"/>
-      <c r="B301" s="6"/>
+      <c r="B301" s="8"/>
       <c r="C301" s="5"/>
       <c r="D301" s="5"/>
       <c r="E301" s="5"/>
@@ -3311,7 +3322,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="18">
       <c r="A302" s="5"/>
-      <c r="B302" s="6"/>
+      <c r="B302" s="8"/>
       <c r="C302" s="5"/>
       <c r="D302" s="5"/>
       <c r="E302" s="5"/>
@@ -3320,7 +3331,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="18">
       <c r="A303" s="5"/>
-      <c r="B303" s="6"/>
+      <c r="B303" s="8"/>
       <c r="C303" s="5"/>
       <c r="D303" s="5"/>
       <c r="E303" s="5"/>
@@ -3329,7 +3340,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="18">
       <c r="A304" s="5"/>
-      <c r="B304" s="6"/>
+      <c r="B304" s="8"/>
       <c r="C304" s="5"/>
       <c r="D304" s="5"/>
       <c r="E304" s="5"/>
@@ -3338,7 +3349,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="18">
       <c r="A305" s="5"/>
-      <c r="B305" s="6"/>
+      <c r="B305" s="8"/>
       <c r="C305" s="5"/>
       <c r="D305" s="5"/>
       <c r="E305" s="5"/>
@@ -3347,7 +3358,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="18">
       <c r="A306" s="5"/>
-      <c r="B306" s="6"/>
+      <c r="B306" s="8"/>
       <c r="C306" s="5"/>
       <c r="D306" s="5"/>
       <c r="E306" s="5"/>
@@ -3356,7 +3367,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="18">
       <c r="A307" s="5"/>
-      <c r="B307" s="6"/>
+      <c r="B307" s="8"/>
       <c r="C307" s="5"/>
       <c r="D307" s="5"/>
       <c r="E307" s="5"/>
@@ -3365,7 +3376,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="18">
       <c r="A308" s="5"/>
-      <c r="B308" s="6"/>
+      <c r="B308" s="8"/>
       <c r="C308" s="5"/>
       <c r="D308" s="5"/>
       <c r="E308" s="5"/>
@@ -3374,7 +3385,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="18">
       <c r="A309" s="5"/>
-      <c r="B309" s="6"/>
+      <c r="B309" s="8"/>
       <c r="C309" s="5"/>
       <c r="D309" s="5"/>
       <c r="E309" s="5"/>
@@ -3383,7 +3394,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="18">
       <c r="A310" s="5"/>
-      <c r="B310" s="6"/>
+      <c r="B310" s="8"/>
       <c r="C310" s="5"/>
       <c r="D310" s="5"/>
       <c r="E310" s="5"/>
@@ -3392,7 +3403,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="18">
       <c r="A311" s="5"/>
-      <c r="B311" s="6"/>
+      <c r="B311" s="8"/>
       <c r="C311" s="5"/>
       <c r="D311" s="5"/>
       <c r="E311" s="5"/>
@@ -3401,7 +3412,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="18">
       <c r="A312" s="5"/>
-      <c r="B312" s="6"/>
+      <c r="B312" s="8"/>
       <c r="C312" s="5"/>
       <c r="D312" s="5"/>
       <c r="E312" s="5"/>
@@ -3410,7 +3421,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="18">
       <c r="A313" s="5"/>
-      <c r="B313" s="6"/>
+      <c r="B313" s="8"/>
       <c r="C313" s="5"/>
       <c r="D313" s="5"/>
       <c r="E313" s="5"/>
@@ -3419,7 +3430,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="18">
       <c r="A314" s="5"/>
-      <c r="B314" s="6"/>
+      <c r="B314" s="8"/>
       <c r="C314" s="5"/>
       <c r="D314" s="5"/>
       <c r="E314" s="5"/>
@@ -3428,7 +3439,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="18">
       <c r="A315" s="5"/>
-      <c r="B315" s="6"/>
+      <c r="B315" s="8"/>
       <c r="C315" s="5"/>
       <c r="D315" s="5"/>
       <c r="E315" s="5"/>
@@ -3437,7 +3448,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="18">
       <c r="A316" s="5"/>
-      <c r="B316" s="6"/>
+      <c r="B316" s="8"/>
       <c r="C316" s="5"/>
       <c r="D316" s="5"/>
       <c r="E316" s="5"/>
@@ -3446,7 +3457,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="18">
       <c r="A317" s="5"/>
-      <c r="B317" s="6"/>
+      <c r="B317" s="8"/>
       <c r="C317" s="5"/>
       <c r="D317" s="5"/>
       <c r="E317" s="5"/>
@@ -3455,7 +3466,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="18">
       <c r="A318" s="5"/>
-      <c r="B318" s="6"/>
+      <c r="B318" s="8"/>
       <c r="C318" s="5"/>
       <c r="D318" s="5"/>
       <c r="E318" s="5"/>
@@ -3464,7 +3475,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="18">
       <c r="A319" s="5"/>
-      <c r="B319" s="6"/>
+      <c r="B319" s="8"/>
       <c r="C319" s="5"/>
       <c r="D319" s="5"/>
       <c r="E319" s="5"/>
@@ -3473,7 +3484,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="18">
       <c r="A320" s="5"/>
-      <c r="B320" s="6"/>
+      <c r="B320" s="8"/>
       <c r="C320" s="5"/>
       <c r="D320" s="5"/>
       <c r="E320" s="5"/>
@@ -3482,7 +3493,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="18">
       <c r="A321" s="5"/>
-      <c r="B321" s="6"/>
+      <c r="B321" s="8"/>
       <c r="C321" s="5"/>
       <c r="D321" s="5"/>
       <c r="E321" s="5"/>
@@ -3491,7 +3502,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="18">
       <c r="A322" s="5"/>
-      <c r="B322" s="6"/>
+      <c r="B322" s="8"/>
       <c r="C322" s="5"/>
       <c r="D322" s="5"/>
       <c r="E322" s="5"/>
@@ -3500,7 +3511,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="18">
       <c r="A323" s="5"/>
-      <c r="B323" s="6"/>
+      <c r="B323" s="8"/>
       <c r="C323" s="5"/>
       <c r="D323" s="5"/>
       <c r="E323" s="5"/>
@@ -3509,7 +3520,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="18">
       <c r="A324" s="5"/>
-      <c r="B324" s="6"/>
+      <c r="B324" s="8"/>
       <c r="C324" s="5"/>
       <c r="D324" s="5"/>
       <c r="E324" s="5"/>
@@ -3518,7 +3529,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="18">
       <c r="A325" s="5"/>
-      <c r="B325" s="6"/>
+      <c r="B325" s="8"/>
       <c r="C325" s="5"/>
       <c r="D325" s="5"/>
       <c r="E325" s="5"/>
@@ -3527,7 +3538,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="18">
       <c r="A326" s="5"/>
-      <c r="B326" s="6"/>
+      <c r="B326" s="8"/>
       <c r="C326" s="5"/>
       <c r="D326" s="5"/>
       <c r="E326" s="5"/>
@@ -3536,7 +3547,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="18">
       <c r="A327" s="5"/>
-      <c r="B327" s="6"/>
+      <c r="B327" s="8"/>
       <c r="C327" s="5"/>
       <c r="D327" s="5"/>
       <c r="E327" s="5"/>
@@ -3545,7 +3556,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="18">
       <c r="A328" s="5"/>
-      <c r="B328" s="6"/>
+      <c r="B328" s="8"/>
       <c r="C328" s="5"/>
       <c r="D328" s="5"/>
       <c r="E328" s="5"/>
@@ -3554,7 +3565,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="18">
       <c r="A329" s="5"/>
-      <c r="B329" s="6"/>
+      <c r="B329" s="8"/>
       <c r="C329" s="5"/>
       <c r="D329" s="5"/>
       <c r="E329" s="5"/>
@@ -3563,7 +3574,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="18">
       <c r="A330" s="5"/>
-      <c r="B330" s="6"/>
+      <c r="B330" s="8"/>
       <c r="C330" s="5"/>
       <c r="D330" s="5"/>
       <c r="E330" s="5"/>
@@ -3572,7 +3583,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="18">
       <c r="A331" s="5"/>
-      <c r="B331" s="6"/>
+      <c r="B331" s="8"/>
       <c r="C331" s="5"/>
       <c r="D331" s="5"/>
       <c r="E331" s="5"/>
@@ -3581,7 +3592,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="18">
       <c r="A332" s="5"/>
-      <c r="B332" s="6"/>
+      <c r="B332" s="8"/>
       <c r="C332" s="5"/>
       <c r="D332" s="5"/>
       <c r="E332" s="5"/>
@@ -3590,7 +3601,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="18">
       <c r="A333" s="5"/>
-      <c r="B333" s="6"/>
+      <c r="B333" s="8"/>
       <c r="C333" s="5"/>
       <c r="D333" s="5"/>
       <c r="E333" s="5"/>
@@ -3599,7 +3610,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="18">
       <c r="A334" s="5"/>
-      <c r="B334" s="6"/>
+      <c r="B334" s="8"/>
       <c r="C334" s="5"/>
       <c r="D334" s="5"/>
       <c r="E334" s="5"/>
@@ -3608,7 +3619,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="18">
       <c r="A335" s="5"/>
-      <c r="B335" s="6"/>
+      <c r="B335" s="8"/>
       <c r="C335" s="5"/>
       <c r="D335" s="5"/>
       <c r="E335" s="5"/>
@@ -3617,7 +3628,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="18">
       <c r="A336" s="5"/>
-      <c r="B336" s="6"/>
+      <c r="B336" s="8"/>
       <c r="C336" s="5"/>
       <c r="D336" s="5"/>
       <c r="E336" s="5"/>
@@ -3626,7 +3637,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="18">
       <c r="A337" s="5"/>
-      <c r="B337" s="6"/>
+      <c r="B337" s="8"/>
       <c r="C337" s="5"/>
       <c r="D337" s="5"/>
       <c r="E337" s="5"/>
@@ -3635,7 +3646,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="18">
       <c r="A338" s="5"/>
-      <c r="B338" s="6"/>
+      <c r="B338" s="8"/>
       <c r="C338" s="5"/>
       <c r="D338" s="5"/>
       <c r="E338" s="5"/>
@@ -3644,7 +3655,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="18">
       <c r="A339" s="5"/>
-      <c r="B339" s="6"/>
+      <c r="B339" s="8"/>
       <c r="C339" s="5"/>
       <c r="D339" s="5"/>
       <c r="E339" s="5"/>
@@ -3653,7 +3664,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="18">
       <c r="A340" s="5"/>
-      <c r="B340" s="6"/>
+      <c r="B340" s="8"/>
       <c r="C340" s="5"/>
       <c r="D340" s="5"/>
       <c r="E340" s="5"/>
@@ -3662,7 +3673,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="18">
       <c r="A341" s="5"/>
-      <c r="B341" s="6"/>
+      <c r="B341" s="8"/>
       <c r="C341" s="5"/>
       <c r="D341" s="5"/>
       <c r="E341" s="5"/>
@@ -3671,7 +3682,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="18">
       <c r="A342" s="5"/>
-      <c r="B342" s="6"/>
+      <c r="B342" s="8"/>
       <c r="C342" s="5"/>
       <c r="D342" s="5"/>
       <c r="E342" s="5"/>
@@ -3680,7 +3691,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="18">
       <c r="A343" s="5"/>
-      <c r="B343" s="6"/>
+      <c r="B343" s="8"/>
       <c r="C343" s="5"/>
       <c r="D343" s="5"/>
       <c r="E343" s="5"/>
@@ -3689,7 +3700,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="18">
       <c r="A344" s="5"/>
-      <c r="B344" s="6"/>
+      <c r="B344" s="8"/>
       <c r="C344" s="5"/>
       <c r="D344" s="5"/>
       <c r="E344" s="5"/>
@@ -3698,7 +3709,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="18">
       <c r="A345" s="5"/>
-      <c r="B345" s="6"/>
+      <c r="B345" s="8"/>
       <c r="C345" s="5"/>
       <c r="D345" s="5"/>
       <c r="E345" s="5"/>
@@ -3707,7 +3718,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="18">
       <c r="A346" s="5"/>
-      <c r="B346" s="6"/>
+      <c r="B346" s="8"/>
       <c r="C346" s="5"/>
       <c r="D346" s="5"/>
       <c r="E346" s="5"/>
@@ -3716,7 +3727,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="18">
       <c r="A347" s="5"/>
-      <c r="B347" s="6"/>
+      <c r="B347" s="8"/>
       <c r="C347" s="5"/>
       <c r="D347" s="5"/>
       <c r="E347" s="5"/>
@@ -3725,7 +3736,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="18">
       <c r="A348" s="5"/>
-      <c r="B348" s="6"/>
+      <c r="B348" s="8"/>
       <c r="C348" s="5"/>
       <c r="D348" s="5"/>
       <c r="E348" s="5"/>
@@ -3734,7 +3745,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="18">
       <c r="A349" s="5"/>
-      <c r="B349" s="6"/>
+      <c r="B349" s="8"/>
       <c r="C349" s="5"/>
       <c r="D349" s="5"/>
       <c r="E349" s="5"/>
@@ -3743,7 +3754,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="18">
       <c r="A350" s="5"/>
-      <c r="B350" s="6"/>
+      <c r="B350" s="8"/>
       <c r="C350" s="5"/>
       <c r="D350" s="5"/>
       <c r="E350" s="5"/>
@@ -3752,7 +3763,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="18">
       <c r="A351" s="5"/>
-      <c r="B351" s="6"/>
+      <c r="B351" s="8"/>
       <c r="C351" s="5"/>
       <c r="D351" s="5"/>
       <c r="E351" s="5"/>
@@ -3761,7 +3772,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="18">
       <c r="A352" s="5"/>
-      <c r="B352" s="6"/>
+      <c r="B352" s="8"/>
       <c r="C352" s="5"/>
       <c r="D352" s="5"/>
       <c r="E352" s="5"/>
@@ -3770,7 +3781,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="18">
       <c r="A353" s="5"/>
-      <c r="B353" s="6"/>
+      <c r="B353" s="8"/>
       <c r="C353" s="5"/>
       <c r="D353" s="5"/>
       <c r="E353" s="5"/>
@@ -3779,7 +3790,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="18">
       <c r="A354" s="5"/>
-      <c r="B354" s="6"/>
+      <c r="B354" s="8"/>
       <c r="C354" s="5"/>
       <c r="D354" s="5"/>
       <c r="E354" s="5"/>
@@ -3788,7 +3799,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="18">
       <c r="A355" s="5"/>
-      <c r="B355" s="6"/>
+      <c r="B355" s="8"/>
       <c r="C355" s="5"/>
       <c r="D355" s="5"/>
       <c r="E355" s="5"/>
@@ -3797,7 +3808,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="18">
       <c r="A356" s="5"/>
-      <c r="B356" s="6"/>
+      <c r="B356" s="8"/>
       <c r="C356" s="5"/>
       <c r="D356" s="5"/>
       <c r="E356" s="5"/>
@@ -3806,7 +3817,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="18">
       <c r="A357" s="5"/>
-      <c r="B357" s="6"/>
+      <c r="B357" s="8"/>
       <c r="C357" s="5"/>
       <c r="D357" s="5"/>
       <c r="E357" s="5"/>
@@ -3815,7 +3826,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="18">
       <c r="A358" s="5"/>
-      <c r="B358" s="6"/>
+      <c r="B358" s="8"/>
       <c r="C358" s="5"/>
       <c r="D358" s="5"/>
       <c r="E358" s="5"/>
@@ -3824,7 +3835,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="18">
       <c r="A359" s="5"/>
-      <c r="B359" s="6"/>
+      <c r="B359" s="8"/>
       <c r="C359" s="5"/>
       <c r="D359" s="5"/>
       <c r="E359" s="5"/>
@@ -3833,7 +3844,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="18">
       <c r="A360" s="5"/>
-      <c r="B360" s="6"/>
+      <c r="B360" s="8"/>
       <c r="C360" s="5"/>
       <c r="D360" s="5"/>
       <c r="E360" s="5"/>
@@ -3842,7 +3853,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="18">
       <c r="A361" s="5"/>
-      <c r="B361" s="6"/>
+      <c r="B361" s="8"/>
       <c r="C361" s="5"/>
       <c r="D361" s="5"/>
       <c r="E361" s="5"/>
@@ -3851,7 +3862,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="18">
       <c r="A362" s="5"/>
-      <c r="B362" s="6"/>
+      <c r="B362" s="8"/>
       <c r="C362" s="5"/>
       <c r="D362" s="5"/>
       <c r="E362" s="5"/>
@@ -3860,7 +3871,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="18">
       <c r="A363" s="5"/>
-      <c r="B363" s="6"/>
+      <c r="B363" s="8"/>
       <c r="C363" s="5"/>
       <c r="D363" s="5"/>
       <c r="E363" s="5"/>
@@ -3869,7 +3880,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="18">
       <c r="A364" s="5"/>
-      <c r="B364" s="6"/>
+      <c r="B364" s="8"/>
       <c r="C364" s="5"/>
       <c r="D364" s="5"/>
       <c r="E364" s="5"/>
@@ -3878,7 +3889,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="18">
       <c r="A365" s="5"/>
-      <c r="B365" s="6"/>
+      <c r="B365" s="8"/>
       <c r="C365" s="5"/>
       <c r="D365" s="5"/>
       <c r="E365" s="5"/>
@@ -3887,7 +3898,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="18">
       <c r="A366" s="5"/>
-      <c r="B366" s="6"/>
+      <c r="B366" s="8"/>
       <c r="C366" s="5"/>
       <c r="D366" s="5"/>
       <c r="E366" s="5"/>
@@ -3896,7 +3907,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="18">
       <c r="A367" s="5"/>
-      <c r="B367" s="6"/>
+      <c r="B367" s="8"/>
       <c r="C367" s="5"/>
       <c r="D367" s="5"/>
       <c r="E367" s="5"/>
@@ -3905,7 +3916,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="18">
       <c r="A368" s="5"/>
-      <c r="B368" s="6"/>
+      <c r="B368" s="8"/>
       <c r="C368" s="5"/>
       <c r="D368" s="5"/>
       <c r="E368" s="5"/>
@@ -3914,7 +3925,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="18">
       <c r="A369" s="5"/>
-      <c r="B369" s="6"/>
+      <c r="B369" s="8"/>
       <c r="C369" s="5"/>
       <c r="D369" s="5"/>
       <c r="E369" s="5"/>
@@ -3923,7 +3934,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="18">
       <c r="A370" s="5"/>
-      <c r="B370" s="6"/>
+      <c r="B370" s="8"/>
       <c r="C370" s="5"/>
       <c r="D370" s="5"/>
       <c r="E370" s="5"/>
@@ -3932,7 +3943,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="18">
       <c r="A371" s="5"/>
-      <c r="B371" s="6"/>
+      <c r="B371" s="8"/>
       <c r="C371" s="5"/>
       <c r="D371" s="5"/>
       <c r="E371" s="5"/>
@@ -3941,7 +3952,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="18">
       <c r="A372" s="5"/>
-      <c r="B372" s="6"/>
+      <c r="B372" s="8"/>
       <c r="C372" s="5"/>
       <c r="D372" s="5"/>
       <c r="E372" s="5"/>
@@ -3950,7 +3961,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="18">
       <c r="A373" s="5"/>
-      <c r="B373" s="6"/>
+      <c r="B373" s="8"/>
       <c r="C373" s="5"/>
       <c r="D373" s="5"/>
       <c r="E373" s="5"/>
@@ -3959,7 +3970,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="18">
       <c r="A374" s="5"/>
-      <c r="B374" s="6"/>
+      <c r="B374" s="8"/>
       <c r="C374" s="5"/>
       <c r="D374" s="5"/>
       <c r="E374" s="5"/>
@@ -3968,7 +3979,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="18">
       <c r="A375" s="5"/>
-      <c r="B375" s="6"/>
+      <c r="B375" s="8"/>
       <c r="C375" s="5"/>
       <c r="D375" s="5"/>
       <c r="E375" s="5"/>
@@ -3977,7 +3988,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="18">
       <c r="A376" s="5"/>
-      <c r="B376" s="6"/>
+      <c r="B376" s="8"/>
       <c r="C376" s="5"/>
       <c r="D376" s="5"/>
       <c r="E376" s="5"/>
@@ -3986,7 +3997,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="18">
       <c r="A377" s="5"/>
-      <c r="B377" s="6"/>
+      <c r="B377" s="8"/>
       <c r="C377" s="5"/>
       <c r="D377" s="5"/>
       <c r="E377" s="5"/>
@@ -3995,7 +4006,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="18">
       <c r="A378" s="5"/>
-      <c r="B378" s="6"/>
+      <c r="B378" s="8"/>
       <c r="C378" s="5"/>
       <c r="D378" s="5"/>
       <c r="E378" s="5"/>
@@ -4004,7 +4015,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="18">
       <c r="A379" s="5"/>
-      <c r="B379" s="6"/>
+      <c r="B379" s="8"/>
       <c r="C379" s="5"/>
       <c r="D379" s="5"/>
       <c r="E379" s="5"/>
@@ -4013,7 +4024,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="18">
       <c r="A380" s="5"/>
-      <c r="B380" s="6"/>
+      <c r="B380" s="8"/>
       <c r="C380" s="5"/>
       <c r="D380" s="5"/>
       <c r="E380" s="5"/>
@@ -4022,7 +4033,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="18">
       <c r="A381" s="5"/>
-      <c r="B381" s="6"/>
+      <c r="B381" s="8"/>
       <c r="C381" s="5"/>
       <c r="D381" s="5"/>
       <c r="E381" s="5"/>
@@ -4031,7 +4042,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="18">
       <c r="A382" s="5"/>
-      <c r="B382" s="6"/>
+      <c r="B382" s="8"/>
       <c r="C382" s="5"/>
       <c r="D382" s="5"/>
       <c r="E382" s="5"/>
@@ -4040,7 +4051,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="18">
       <c r="A383" s="5"/>
-      <c r="B383" s="6"/>
+      <c r="B383" s="8"/>
       <c r="C383" s="5"/>
       <c r="D383" s="5"/>
       <c r="E383" s="5"/>
@@ -4049,7 +4060,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="18">
       <c r="A384" s="5"/>
-      <c r="B384" s="6"/>
+      <c r="B384" s="8"/>
       <c r="C384" s="5"/>
       <c r="D384" s="5"/>
       <c r="E384" s="5"/>
@@ -4058,7 +4069,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="18">
       <c r="A385" s="5"/>
-      <c r="B385" s="6"/>
+      <c r="B385" s="8"/>
       <c r="C385" s="5"/>
       <c r="D385" s="5"/>
       <c r="E385" s="5"/>
@@ -4067,7 +4078,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="18">
       <c r="A386" s="5"/>
-      <c r="B386" s="6"/>
+      <c r="B386" s="8"/>
       <c r="C386" s="5"/>
       <c r="D386" s="5"/>
       <c r="E386" s="5"/>
@@ -4076,7 +4087,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="18">
       <c r="A387" s="5"/>
-      <c r="B387" s="6"/>
+      <c r="B387" s="8"/>
       <c r="C387" s="5"/>
       <c r="D387" s="5"/>
       <c r="E387" s="5"/>
@@ -4085,7 +4096,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="18">
       <c r="A388" s="5"/>
-      <c r="B388" s="6"/>
+      <c r="B388" s="8"/>
       <c r="C388" s="5"/>
       <c r="D388" s="5"/>
       <c r="E388" s="5"/>
@@ -4094,7 +4105,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="18">
       <c r="A389" s="5"/>
-      <c r="B389" s="6"/>
+      <c r="B389" s="8"/>
       <c r="C389" s="5"/>
       <c r="D389" s="5"/>
       <c r="E389" s="5"/>
@@ -4103,7 +4114,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="18">
       <c r="A390" s="5"/>
-      <c r="B390" s="6"/>
+      <c r="B390" s="8"/>
       <c r="C390" s="5"/>
       <c r="D390" s="5"/>
       <c r="E390" s="5"/>
@@ -4112,7 +4123,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="18">
       <c r="A391" s="5"/>
-      <c r="B391" s="6"/>
+      <c r="B391" s="8"/>
       <c r="C391" s="5"/>
       <c r="D391" s="5"/>
       <c r="E391" s="5"/>
@@ -4121,7 +4132,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="18">
       <c r="A392" s="5"/>
-      <c r="B392" s="6"/>
+      <c r="B392" s="8"/>
       <c r="C392" s="5"/>
       <c r="D392" s="5"/>
       <c r="E392" s="5"/>
@@ -4130,7 +4141,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="18">
       <c r="A393" s="5"/>
-      <c r="B393" s="6"/>
+      <c r="B393" s="8"/>
       <c r="C393" s="5"/>
       <c r="D393" s="5"/>
       <c r="E393" s="5"/>
@@ -4139,7 +4150,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="18">
       <c r="A394" s="5"/>
-      <c r="B394" s="6"/>
+      <c r="B394" s="8"/>
       <c r="C394" s="5"/>
       <c r="D394" s="5"/>
       <c r="E394" s="5"/>
@@ -4148,7 +4159,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="18">
       <c r="A395" s="5"/>
-      <c r="B395" s="6"/>
+      <c r="B395" s="8"/>
       <c r="C395" s="5"/>
       <c r="D395" s="5"/>
       <c r="E395" s="5"/>
@@ -4157,7 +4168,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="18">
       <c r="A396" s="5"/>
-      <c r="B396" s="6"/>
+      <c r="B396" s="8"/>
       <c r="C396" s="5"/>
       <c r="D396" s="5"/>
       <c r="E396" s="5"/>
@@ -4166,7 +4177,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="18">
       <c r="A397" s="5"/>
-      <c r="B397" s="6"/>
+      <c r="B397" s="8"/>
       <c r="C397" s="5"/>
       <c r="D397" s="5"/>
       <c r="E397" s="5"/>
@@ -4175,7 +4186,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="18">
       <c r="A398" s="5"/>
-      <c r="B398" s="6"/>
+      <c r="B398" s="8"/>
       <c r="C398" s="5"/>
       <c r="D398" s="5"/>
       <c r="E398" s="5"/>
@@ -4184,7 +4195,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="18">
       <c r="A399" s="5"/>
-      <c r="B399" s="6"/>
+      <c r="B399" s="8"/>
       <c r="C399" s="5"/>
       <c r="D399" s="5"/>
       <c r="E399" s="5"/>
@@ -4193,7 +4204,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="18">
       <c r="A400" s="5"/>
-      <c r="B400" s="6"/>
+      <c r="B400" s="8"/>
       <c r="C400" s="5"/>
       <c r="D400" s="5"/>
       <c r="E400" s="5"/>
@@ -4202,7 +4213,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="18">
       <c r="A401" s="5"/>
-      <c r="B401" s="6"/>
+      <c r="B401" s="8"/>
       <c r="C401" s="5"/>
       <c r="D401" s="5"/>
       <c r="E401" s="5"/>
@@ -4211,7 +4222,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="18">
       <c r="A402" s="5"/>
-      <c r="B402" s="6"/>
+      <c r="B402" s="8"/>
       <c r="C402" s="5"/>
       <c r="D402" s="5"/>
       <c r="E402" s="5"/>
@@ -4220,7 +4231,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="18">
       <c r="A403" s="5"/>
-      <c r="B403" s="6"/>
+      <c r="B403" s="8"/>
       <c r="C403" s="5"/>
       <c r="D403" s="5"/>
       <c r="E403" s="5"/>
@@ -4229,7 +4240,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="18">
       <c r="A404" s="5"/>
-      <c r="B404" s="6"/>
+      <c r="B404" s="8"/>
       <c r="C404" s="5"/>
       <c r="D404" s="5"/>
       <c r="E404" s="5"/>
@@ -4238,7 +4249,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="18">
       <c r="A405" s="5"/>
-      <c r="B405" s="6"/>
+      <c r="B405" s="8"/>
       <c r="C405" s="5"/>
       <c r="D405" s="5"/>
       <c r="E405" s="5"/>
@@ -4247,7 +4258,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="18">
       <c r="A406" s="5"/>
-      <c r="B406" s="6"/>
+      <c r="B406" s="8"/>
       <c r="C406" s="5"/>
       <c r="D406" s="5"/>
       <c r="E406" s="5"/>
@@ -4256,7 +4267,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="18">
       <c r="A407" s="5"/>
-      <c r="B407" s="6"/>
+      <c r="B407" s="8"/>
       <c r="C407" s="5"/>
       <c r="D407" s="5"/>
       <c r="E407" s="5"/>
@@ -4265,7 +4276,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="18">
       <c r="A408" s="5"/>
-      <c r="B408" s="6"/>
+      <c r="B408" s="8"/>
       <c r="C408" s="5"/>
       <c r="D408" s="5"/>
       <c r="E408" s="5"/>
@@ -4274,7 +4285,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="18">
       <c r="A409" s="5"/>
-      <c r="B409" s="6"/>
+      <c r="B409" s="8"/>
       <c r="C409" s="5"/>
       <c r="D409" s="5"/>
       <c r="E409" s="5"/>
@@ -4283,7 +4294,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="18">
       <c r="A410" s="5"/>
-      <c r="B410" s="6"/>
+      <c r="B410" s="8"/>
       <c r="C410" s="5"/>
       <c r="D410" s="5"/>
       <c r="E410" s="5"/>
@@ -4292,7 +4303,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="18">
       <c r="A411" s="5"/>
-      <c r="B411" s="6"/>
+      <c r="B411" s="8"/>
       <c r="C411" s="5"/>
       <c r="D411" s="5"/>
       <c r="E411" s="5"/>
@@ -4301,7 +4312,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="18">
       <c r="A412" s="5"/>
-      <c r="B412" s="6"/>
+      <c r="B412" s="8"/>
       <c r="C412" s="5"/>
       <c r="D412" s="5"/>
       <c r="E412" s="5"/>
@@ -4310,7 +4321,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="18">
       <c r="A413" s="5"/>
-      <c r="B413" s="6"/>
+      <c r="B413" s="8"/>
       <c r="C413" s="5"/>
       <c r="D413" s="5"/>
       <c r="E413" s="5"/>
@@ -4319,7 +4330,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="18">
       <c r="A414" s="5"/>
-      <c r="B414" s="6"/>
+      <c r="B414" s="8"/>
       <c r="C414" s="5"/>
       <c r="D414" s="5"/>
       <c r="E414" s="5"/>
@@ -4328,7 +4339,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="18">
       <c r="A415" s="5"/>
-      <c r="B415" s="6"/>
+      <c r="B415" s="8"/>
       <c r="C415" s="5"/>
       <c r="D415" s="5"/>
       <c r="E415" s="5"/>
@@ -4337,7 +4348,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="18">
       <c r="A416" s="5"/>
-      <c r="B416" s="6"/>
+      <c r="B416" s="8"/>
       <c r="C416" s="5"/>
       <c r="D416" s="5"/>
       <c r="E416" s="5"/>
@@ -4346,7 +4357,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="18">
       <c r="A417" s="5"/>
-      <c r="B417" s="6"/>
+      <c r="B417" s="8"/>
       <c r="C417" s="5"/>
       <c r="D417" s="5"/>
       <c r="E417" s="5"/>
@@ -4355,7 +4366,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="18">
       <c r="A418" s="5"/>
-      <c r="B418" s="6"/>
+      <c r="B418" s="8"/>
       <c r="C418" s="5"/>
       <c r="D418" s="5"/>
       <c r="E418" s="5"/>
@@ -4364,7 +4375,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="18">
       <c r="A419" s="5"/>
-      <c r="B419" s="6"/>
+      <c r="B419" s="8"/>
       <c r="C419" s="5"/>
       <c r="D419" s="5"/>
       <c r="E419" s="5"/>
@@ -4373,7 +4384,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="18">
       <c r="A420" s="5"/>
-      <c r="B420" s="6"/>
+      <c r="B420" s="8"/>
       <c r="C420" s="5"/>
       <c r="D420" s="5"/>
       <c r="E420" s="5"/>
@@ -4382,7 +4393,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="18">
       <c r="A421" s="5"/>
-      <c r="B421" s="6"/>
+      <c r="B421" s="8"/>
       <c r="C421" s="5"/>
       <c r="D421" s="5"/>
       <c r="E421" s="5"/>
@@ -4391,7 +4402,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="18">
       <c r="A422" s="5"/>
-      <c r="B422" s="6"/>
+      <c r="B422" s="8"/>
       <c r="C422" s="5"/>
       <c r="D422" s="5"/>
       <c r="E422" s="5"/>
@@ -4400,7 +4411,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="18">
       <c r="A423" s="5"/>
-      <c r="B423" s="6"/>
+      <c r="B423" s="8"/>
       <c r="C423" s="5"/>
       <c r="D423" s="5"/>
       <c r="E423" s="5"/>
@@ -4409,7 +4420,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="18">
       <c r="A424" s="5"/>
-      <c r="B424" s="6"/>
+      <c r="B424" s="8"/>
       <c r="C424" s="5"/>
       <c r="D424" s="5"/>
       <c r="E424" s="5"/>
@@ -4418,7 +4429,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="18">
       <c r="A425" s="5"/>
-      <c r="B425" s="6"/>
+      <c r="B425" s="8"/>
       <c r="C425" s="5"/>
       <c r="D425" s="5"/>
       <c r="E425" s="5"/>
@@ -4427,7 +4438,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="18">
       <c r="A426" s="5"/>
-      <c r="B426" s="6"/>
+      <c r="B426" s="8"/>
       <c r="C426" s="5"/>
       <c r="D426" s="5"/>
       <c r="E426" s="5"/>
@@ -4436,7 +4447,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="18">
       <c r="A427" s="5"/>
-      <c r="B427" s="6"/>
+      <c r="B427" s="8"/>
       <c r="C427" s="5"/>
       <c r="D427" s="5"/>
       <c r="E427" s="5"/>
@@ -4445,7 +4456,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="18">
       <c r="A428" s="5"/>
-      <c r="B428" s="6"/>
+      <c r="B428" s="8"/>
       <c r="C428" s="5"/>
       <c r="D428" s="5"/>
       <c r="E428" s="5"/>
@@ -4454,7 +4465,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="18">
       <c r="A429" s="5"/>
-      <c r="B429" s="6"/>
+      <c r="B429" s="8"/>
       <c r="C429" s="5"/>
       <c r="D429" s="5"/>
       <c r="E429" s="5"/>
@@ -4463,7 +4474,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="18">
       <c r="A430" s="5"/>
-      <c r="B430" s="6"/>
+      <c r="B430" s="8"/>
       <c r="C430" s="5"/>
       <c r="D430" s="5"/>
       <c r="E430" s="5"/>
@@ -4472,7 +4483,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="18">
       <c r="A431" s="5"/>
-      <c r="B431" s="6"/>
+      <c r="B431" s="8"/>
       <c r="C431" s="5"/>
       <c r="D431" s="5"/>
       <c r="E431" s="5"/>
@@ -4481,7 +4492,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="18">
       <c r="A432" s="5"/>
-      <c r="B432" s="6"/>
+      <c r="B432" s="8"/>
       <c r="C432" s="5"/>
       <c r="D432" s="5"/>
       <c r="E432" s="5"/>
@@ -4490,7 +4501,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="18">
       <c r="A433" s="5"/>
-      <c r="B433" s="6"/>
+      <c r="B433" s="8"/>
       <c r="C433" s="5"/>
       <c r="D433" s="5"/>
       <c r="E433" s="5"/>
@@ -4499,7 +4510,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="18">
       <c r="A434" s="5"/>
-      <c r="B434" s="6"/>
+      <c r="B434" s="8"/>
       <c r="C434" s="5"/>
       <c r="D434" s="5"/>
       <c r="E434" s="5"/>
@@ -4508,7 +4519,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="18">
       <c r="A435" s="5"/>
-      <c r="B435" s="6"/>
+      <c r="B435" s="8"/>
       <c r="C435" s="5"/>
       <c r="D435" s="5"/>
       <c r="E435" s="5"/>
@@ -4517,7 +4528,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="18">
       <c r="A436" s="5"/>
-      <c r="B436" s="6"/>
+      <c r="B436" s="8"/>
       <c r="C436" s="5"/>
       <c r="D436" s="5"/>
       <c r="E436" s="5"/>
@@ -4526,7 +4537,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="18">
       <c r="A437" s="5"/>
-      <c r="B437" s="6"/>
+      <c r="B437" s="8"/>
       <c r="C437" s="5"/>
       <c r="D437" s="5"/>
       <c r="E437" s="5"/>
@@ -4535,7 +4546,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="18">
       <c r="A438" s="5"/>
-      <c r="B438" s="6"/>
+      <c r="B438" s="8"/>
       <c r="C438" s="5"/>
       <c r="D438" s="5"/>
       <c r="E438" s="5"/>
@@ -4544,7 +4555,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="18">
       <c r="A439" s="5"/>
-      <c r="B439" s="6"/>
+      <c r="B439" s="8"/>
       <c r="C439" s="5"/>
       <c r="D439" s="5"/>
       <c r="E439" s="5"/>
@@ -4553,7 +4564,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="18">
       <c r="A440" s="5"/>
-      <c r="B440" s="6"/>
+      <c r="B440" s="8"/>
       <c r="C440" s="5"/>
       <c r="D440" s="5"/>
       <c r="E440" s="5"/>
@@ -4562,7 +4573,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="18">
       <c r="A441" s="5"/>
-      <c r="B441" s="6"/>
+      <c r="B441" s="8"/>
       <c r="C441" s="5"/>
       <c r="D441" s="5"/>
       <c r="E441" s="5"/>
@@ -4571,7 +4582,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="18">
       <c r="A442" s="5"/>
-      <c r="B442" s="6"/>
+      <c r="B442" s="8"/>
       <c r="C442" s="5"/>
       <c r="D442" s="5"/>
       <c r="E442" s="5"/>
@@ -4580,7 +4591,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="18">
       <c r="A443" s="5"/>
-      <c r="B443" s="6"/>
+      <c r="B443" s="8"/>
       <c r="C443" s="5"/>
       <c r="D443" s="5"/>
       <c r="E443" s="5"/>
@@ -4589,7 +4600,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="18">
       <c r="A444" s="5"/>
-      <c r="B444" s="6"/>
+      <c r="B444" s="8"/>
       <c r="C444" s="5"/>
       <c r="D444" s="5"/>
       <c r="E444" s="5"/>
@@ -4598,7 +4609,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="18">
       <c r="A445" s="5"/>
-      <c r="B445" s="6"/>
+      <c r="B445" s="8"/>
       <c r="C445" s="5"/>
       <c r="D445" s="5"/>
       <c r="E445" s="5"/>
@@ -4607,7 +4618,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="18">
       <c r="A446" s="5"/>
-      <c r="B446" s="6"/>
+      <c r="B446" s="8"/>
       <c r="C446" s="5"/>
       <c r="D446" s="5"/>
       <c r="E446" s="5"/>
@@ -4616,7 +4627,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="18">
       <c r="A447" s="5"/>
-      <c r="B447" s="6"/>
+      <c r="B447" s="8"/>
       <c r="C447" s="5"/>
       <c r="D447" s="5"/>
       <c r="E447" s="5"/>
@@ -4625,7 +4636,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="18">
       <c r="A448" s="5"/>
-      <c r="B448" s="6"/>
+      <c r="B448" s="8"/>
       <c r="C448" s="5"/>
       <c r="D448" s="5"/>
       <c r="E448" s="5"/>
@@ -4634,7 +4645,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="18">
       <c r="A449" s="5"/>
-      <c r="B449" s="6"/>
+      <c r="B449" s="8"/>
       <c r="C449" s="5"/>
       <c r="D449" s="5"/>
       <c r="E449" s="5"/>
@@ -4643,7 +4654,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="18">
       <c r="A450" s="5"/>
-      <c r="B450" s="6"/>
+      <c r="B450" s="8"/>
       <c r="C450" s="5"/>
       <c r="D450" s="5"/>
       <c r="E450" s="5"/>
@@ -4652,7 +4663,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="18">
       <c r="A451" s="5"/>
-      <c r="B451" s="6"/>
+      <c r="B451" s="8"/>
       <c r="C451" s="5"/>
       <c r="D451" s="5"/>
       <c r="E451" s="5"/>
@@ -4661,7 +4672,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="18">
       <c r="A452" s="5"/>
-      <c r="B452" s="6"/>
+      <c r="B452" s="8"/>
       <c r="C452" s="5"/>
       <c r="D452" s="5"/>
       <c r="E452" s="5"/>
@@ -4670,7 +4681,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="18">
       <c r="A453" s="5"/>
-      <c r="B453" s="6"/>
+      <c r="B453" s="8"/>
       <c r="C453" s="5"/>
       <c r="D453" s="5"/>
       <c r="E453" s="5"/>
@@ -4679,7 +4690,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="18">
       <c r="A454" s="5"/>
-      <c r="B454" s="6"/>
+      <c r="B454" s="8"/>
       <c r="C454" s="5"/>
       <c r="D454" s="5"/>
       <c r="E454" s="5"/>
@@ -4688,7 +4699,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="18">
       <c r="A455" s="5"/>
-      <c r="B455" s="6"/>
+      <c r="B455" s="8"/>
       <c r="C455" s="5"/>
       <c r="D455" s="5"/>
       <c r="E455" s="5"/>
@@ -4697,7 +4708,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="18">
       <c r="A456" s="5"/>
-      <c r="B456" s="6"/>
+      <c r="B456" s="8"/>
       <c r="C456" s="5"/>
       <c r="D456" s="5"/>
       <c r="E456" s="5"/>
@@ -4706,7 +4717,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="18">
       <c r="A457" s="5"/>
-      <c r="B457" s="6"/>
+      <c r="B457" s="8"/>
       <c r="C457" s="5"/>
       <c r="D457" s="5"/>
       <c r="E457" s="5"/>
@@ -4715,7 +4726,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="18">
       <c r="A458" s="5"/>
-      <c r="B458" s="6"/>
+      <c r="B458" s="8"/>
       <c r="C458" s="5"/>
       <c r="D458" s="5"/>
       <c r="E458" s="5"/>
@@ -4724,7 +4735,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="18">
       <c r="A459" s="5"/>
-      <c r="B459" s="6"/>
+      <c r="B459" s="8"/>
       <c r="C459" s="5"/>
       <c r="D459" s="5"/>
       <c r="E459" s="5"/>
@@ -4733,7 +4744,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="18">
       <c r="A460" s="5"/>
-      <c r="B460" s="6"/>
+      <c r="B460" s="8"/>
       <c r="C460" s="5"/>
       <c r="D460" s="5"/>
       <c r="E460" s="5"/>
@@ -4742,7 +4753,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="18">
       <c r="A461" s="5"/>
-      <c r="B461" s="6"/>
+      <c r="B461" s="8"/>
       <c r="C461" s="5"/>
       <c r="D461" s="5"/>
       <c r="E461" s="5"/>
@@ -4751,7 +4762,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="18">
       <c r="A462" s="5"/>
-      <c r="B462" s="6"/>
+      <c r="B462" s="8"/>
       <c r="C462" s="5"/>
       <c r="D462" s="5"/>
       <c r="E462" s="5"/>
@@ -4760,7 +4771,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="18">
       <c r="A463" s="5"/>
-      <c r="B463" s="6"/>
+      <c r="B463" s="8"/>
       <c r="C463" s="5"/>
       <c r="D463" s="5"/>
       <c r="E463" s="5"/>
@@ -4769,7 +4780,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="18">
       <c r="A464" s="5"/>
-      <c r="B464" s="6"/>
+      <c r="B464" s="8"/>
       <c r="C464" s="5"/>
       <c r="D464" s="5"/>
       <c r="E464" s="5"/>
@@ -4778,7 +4789,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="18">
       <c r="A465" s="5"/>
-      <c r="B465" s="6"/>
+      <c r="B465" s="8"/>
       <c r="C465" s="5"/>
       <c r="D465" s="5"/>
       <c r="E465" s="5"/>
@@ -4787,7 +4798,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="18">
       <c r="A466" s="5"/>
-      <c r="B466" s="6"/>
+      <c r="B466" s="8"/>
       <c r="C466" s="5"/>
       <c r="D466" s="5"/>
       <c r="E466" s="5"/>
@@ -4796,7 +4807,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="18">
       <c r="A467" s="5"/>
-      <c r="B467" s="6"/>
+      <c r="B467" s="8"/>
       <c r="C467" s="5"/>
       <c r="D467" s="5"/>
       <c r="E467" s="5"/>
@@ -4805,7 +4816,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="18">
       <c r="A468" s="5"/>
-      <c r="B468" s="6"/>
+      <c r="B468" s="8"/>
       <c r="C468" s="5"/>
       <c r="D468" s="5"/>
       <c r="E468" s="5"/>
@@ -4814,7 +4825,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="18">
       <c r="A469" s="5"/>
-      <c r="B469" s="6"/>
+      <c r="B469" s="8"/>
       <c r="C469" s="5"/>
       <c r="D469" s="5"/>
       <c r="E469" s="5"/>
@@ -4823,7 +4834,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="470" customHeight="1" ht="18">
       <c r="A470" s="5"/>
-      <c r="B470" s="6"/>
+      <c r="B470" s="8"/>
       <c r="C470" s="5"/>
       <c r="D470" s="5"/>
       <c r="E470" s="5"/>
@@ -4832,7 +4843,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="471" customHeight="1" ht="18">
       <c r="A471" s="5"/>
-      <c r="B471" s="6"/>
+      <c r="B471" s="8"/>
       <c r="C471" s="5"/>
       <c r="D471" s="5"/>
       <c r="E471" s="5"/>
@@ -4841,7 +4852,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="18">
       <c r="A472" s="5"/>
-      <c r="B472" s="6"/>
+      <c r="B472" s="8"/>
       <c r="C472" s="5"/>
       <c r="D472" s="5"/>
       <c r="E472" s="5"/>
@@ -4850,7 +4861,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="18">
       <c r="A473" s="5"/>
-      <c r="B473" s="6"/>
+      <c r="B473" s="8"/>
       <c r="C473" s="5"/>
       <c r="D473" s="5"/>
       <c r="E473" s="5"/>
@@ -4859,7 +4870,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="18">
       <c r="A474" s="5"/>
-      <c r="B474" s="6"/>
+      <c r="B474" s="8"/>
       <c r="C474" s="5"/>
       <c r="D474" s="5"/>
       <c r="E474" s="5"/>
@@ -4868,7 +4879,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="18">
       <c r="A475" s="5"/>
-      <c r="B475" s="6"/>
+      <c r="B475" s="8"/>
       <c r="C475" s="5"/>
       <c r="D475" s="5"/>
       <c r="E475" s="5"/>
@@ -4877,7 +4888,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="18">
       <c r="A476" s="5"/>
-      <c r="B476" s="6"/>
+      <c r="B476" s="8"/>
       <c r="C476" s="5"/>
       <c r="D476" s="5"/>
       <c r="E476" s="5"/>
@@ -4886,7 +4897,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="18">
       <c r="A477" s="5"/>
-      <c r="B477" s="6"/>
+      <c r="B477" s="8"/>
       <c r="C477" s="5"/>
       <c r="D477" s="5"/>
       <c r="E477" s="5"/>
@@ -4895,7 +4906,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="18">
       <c r="A478" s="5"/>
-      <c r="B478" s="6"/>
+      <c r="B478" s="8"/>
       <c r="C478" s="5"/>
       <c r="D478" s="5"/>
       <c r="E478" s="5"/>
@@ -4904,7 +4915,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="18">
       <c r="A479" s="5"/>
-      <c r="B479" s="6"/>
+      <c r="B479" s="8"/>
       <c r="C479" s="5"/>
       <c r="D479" s="5"/>
       <c r="E479" s="5"/>
@@ -4913,7 +4924,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="18">
       <c r="A480" s="5"/>
-      <c r="B480" s="6"/>
+      <c r="B480" s="8"/>
       <c r="C480" s="5"/>
       <c r="D480" s="5"/>
       <c r="E480" s="5"/>
@@ -4922,7 +4933,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="18">
       <c r="A481" s="5"/>
-      <c r="B481" s="6"/>
+      <c r="B481" s="8"/>
       <c r="C481" s="5"/>
       <c r="D481" s="5"/>
       <c r="E481" s="5"/>
@@ -4931,7 +4942,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="482" customHeight="1" ht="18">
       <c r="A482" s="5"/>
-      <c r="B482" s="6"/>
+      <c r="B482" s="8"/>
       <c r="C482" s="5"/>
       <c r="D482" s="5"/>
       <c r="E482" s="5"/>
@@ -4940,7 +4951,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="483" customHeight="1" ht="18">
       <c r="A483" s="5"/>
-      <c r="B483" s="6"/>
+      <c r="B483" s="8"/>
       <c r="C483" s="5"/>
       <c r="D483" s="5"/>
       <c r="E483" s="5"/>
@@ -4949,7 +4960,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="484" customHeight="1" ht="18">
       <c r="A484" s="5"/>
-      <c r="B484" s="6"/>
+      <c r="B484" s="8"/>
       <c r="C484" s="5"/>
       <c r="D484" s="5"/>
       <c r="E484" s="5"/>
@@ -4958,7 +4969,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="485" customHeight="1" ht="18">
       <c r="A485" s="5"/>
-      <c r="B485" s="6"/>
+      <c r="B485" s="8"/>
       <c r="C485" s="5"/>
       <c r="D485" s="5"/>
       <c r="E485" s="5"/>
@@ -4967,7 +4978,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="486" customHeight="1" ht="18">
       <c r="A486" s="5"/>
-      <c r="B486" s="6"/>
+      <c r="B486" s="8"/>
       <c r="C486" s="5"/>
       <c r="D486" s="5"/>
       <c r="E486" s="5"/>
@@ -4976,7 +4987,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="487" customHeight="1" ht="18">
       <c r="A487" s="5"/>
-      <c r="B487" s="6"/>
+      <c r="B487" s="8"/>
       <c r="C487" s="5"/>
       <c r="D487" s="5"/>
       <c r="E487" s="5"/>
@@ -4985,7 +4996,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="488" customHeight="1" ht="18">
       <c r="A488" s="5"/>
-      <c r="B488" s="6"/>
+      <c r="B488" s="8"/>
       <c r="C488" s="5"/>
       <c r="D488" s="5"/>
       <c r="E488" s="5"/>
@@ -4994,7 +5005,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="489" customHeight="1" ht="18">
       <c r="A489" s="5"/>
-      <c r="B489" s="6"/>
+      <c r="B489" s="8"/>
       <c r="C489" s="5"/>
       <c r="D489" s="5"/>
       <c r="E489" s="5"/>
@@ -5003,7 +5014,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="490" customHeight="1" ht="18">
       <c r="A490" s="5"/>
-      <c r="B490" s="6"/>
+      <c r="B490" s="8"/>
       <c r="C490" s="5"/>
       <c r="D490" s="5"/>
       <c r="E490" s="5"/>
@@ -5012,7 +5023,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="491" customHeight="1" ht="18">
       <c r="A491" s="5"/>
-      <c r="B491" s="6"/>
+      <c r="B491" s="8"/>
       <c r="C491" s="5"/>
       <c r="D491" s="5"/>
       <c r="E491" s="5"/>
@@ -5021,7 +5032,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="492" customHeight="1" ht="18">
       <c r="A492" s="5"/>
-      <c r="B492" s="6"/>
+      <c r="B492" s="8"/>
       <c r="C492" s="5"/>
       <c r="D492" s="5"/>
       <c r="E492" s="5"/>
@@ -5030,7 +5041,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="493" customHeight="1" ht="18">
       <c r="A493" s="5"/>
-      <c r="B493" s="6"/>
+      <c r="B493" s="8"/>
       <c r="C493" s="5"/>
       <c r="D493" s="5"/>
       <c r="E493" s="5"/>
@@ -5039,7 +5050,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="494" customHeight="1" ht="18">
       <c r="A494" s="5"/>
-      <c r="B494" s="6"/>
+      <c r="B494" s="8"/>
       <c r="C494" s="5"/>
       <c r="D494" s="5"/>
       <c r="E494" s="5"/>
@@ -5048,7 +5059,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="495" customHeight="1" ht="18">
       <c r="A495" s="5"/>
-      <c r="B495" s="6"/>
+      <c r="B495" s="8"/>
       <c r="C495" s="5"/>
       <c r="D495" s="5"/>
       <c r="E495" s="5"/>
@@ -5057,7 +5068,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="496" customHeight="1" ht="18">
       <c r="A496" s="5"/>
-      <c r="B496" s="6"/>
+      <c r="B496" s="8"/>
       <c r="C496" s="5"/>
       <c r="D496" s="5"/>
       <c r="E496" s="5"/>
@@ -5066,7 +5077,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="497" customHeight="1" ht="18">
       <c r="A497" s="5"/>
-      <c r="B497" s="6"/>
+      <c r="B497" s="8"/>
       <c r="C497" s="5"/>
       <c r="D497" s="5"/>
       <c r="E497" s="5"/>
@@ -5075,7 +5086,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="498" customHeight="1" ht="18">
       <c r="A498" s="5"/>
-      <c r="B498" s="6"/>
+      <c r="B498" s="8"/>
       <c r="C498" s="5"/>
       <c r="D498" s="5"/>
       <c r="E498" s="5"/>
@@ -5084,7 +5095,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="499" customHeight="1" ht="18">
       <c r="A499" s="5"/>
-      <c r="B499" s="6"/>
+      <c r="B499" s="8"/>
       <c r="C499" s="5"/>
       <c r="D499" s="5"/>
       <c r="E499" s="5"/>
@@ -5093,7 +5104,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="500" customHeight="1" ht="18">
       <c r="A500" s="5"/>
-      <c r="B500" s="6"/>
+      <c r="B500" s="8"/>
       <c r="C500" s="5"/>
       <c r="D500" s="5"/>
       <c r="E500" s="5"/>
@@ -5102,7 +5113,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="501" customHeight="1" ht="18">
       <c r="A501" s="5"/>
-      <c r="B501" s="6"/>
+      <c r="B501" s="8"/>
       <c r="C501" s="5"/>
       <c r="D501" s="5"/>
       <c r="E501" s="5"/>
@@ -5111,7 +5122,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="502" customHeight="1" ht="18">
       <c r="A502" s="5"/>
-      <c r="B502" s="6"/>
+      <c r="B502" s="8"/>
       <c r="C502" s="5"/>
       <c r="D502" s="5"/>
       <c r="E502" s="5"/>
@@ -5120,7 +5131,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="503" customHeight="1" ht="18">
       <c r="A503" s="5"/>
-      <c r="B503" s="6"/>
+      <c r="B503" s="8"/>
       <c r="C503" s="5"/>
       <c r="D503" s="5"/>
       <c r="E503" s="5"/>
@@ -5129,7 +5140,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="504" customHeight="1" ht="18">
       <c r="A504" s="5"/>
-      <c r="B504" s="6"/>
+      <c r="B504" s="8"/>
       <c r="C504" s="5"/>
       <c r="D504" s="5"/>
       <c r="E504" s="5"/>
@@ -5138,7 +5149,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="505" customHeight="1" ht="18">
       <c r="A505" s="5"/>
-      <c r="B505" s="6"/>
+      <c r="B505" s="8"/>
       <c r="C505" s="5"/>
       <c r="D505" s="5"/>
       <c r="E505" s="5"/>
@@ -5147,7 +5158,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="506" customHeight="1" ht="18">
       <c r="A506" s="5"/>
-      <c r="B506" s="6"/>
+      <c r="B506" s="8"/>
       <c r="C506" s="5"/>
       <c r="D506" s="5"/>
       <c r="E506" s="5"/>
@@ -5156,7 +5167,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="507" customHeight="1" ht="18">
       <c r="A507" s="5"/>
-      <c r="B507" s="6"/>
+      <c r="B507" s="8"/>
       <c r="C507" s="5"/>
       <c r="D507" s="5"/>
       <c r="E507" s="5"/>
@@ -5165,7 +5176,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="508" customHeight="1" ht="18">
       <c r="A508" s="5"/>
-      <c r="B508" s="6"/>
+      <c r="B508" s="8"/>
       <c r="C508" s="5"/>
       <c r="D508" s="5"/>
       <c r="E508" s="5"/>
@@ -5174,7 +5185,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="509" customHeight="1" ht="18">
       <c r="A509" s="5"/>
-      <c r="B509" s="6"/>
+      <c r="B509" s="8"/>
       <c r="C509" s="5"/>
       <c r="D509" s="5"/>
       <c r="E509" s="5"/>
@@ -5183,7 +5194,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="510" customHeight="1" ht="18">
       <c r="A510" s="5"/>
-      <c r="B510" s="6"/>
+      <c r="B510" s="8"/>
       <c r="C510" s="5"/>
       <c r="D510" s="5"/>
       <c r="E510" s="5"/>
@@ -5192,7 +5203,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="511" customHeight="1" ht="18">
       <c r="A511" s="5"/>
-      <c r="B511" s="6"/>
+      <c r="B511" s="8"/>
       <c r="C511" s="5"/>
       <c r="D511" s="5"/>
       <c r="E511" s="5"/>
@@ -5201,7 +5212,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="512" customHeight="1" ht="18">
       <c r="A512" s="5"/>
-      <c r="B512" s="6"/>
+      <c r="B512" s="8"/>
       <c r="C512" s="5"/>
       <c r="D512" s="5"/>
       <c r="E512" s="5"/>
@@ -5210,7 +5221,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="513" customHeight="1" ht="18">
       <c r="A513" s="5"/>
-      <c r="B513" s="6"/>
+      <c r="B513" s="8"/>
       <c r="C513" s="5"/>
       <c r="D513" s="5"/>
       <c r="E513" s="5"/>
@@ -5219,7 +5230,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="514" customHeight="1" ht="18">
       <c r="A514" s="5"/>
-      <c r="B514" s="6"/>
+      <c r="B514" s="8"/>
       <c r="C514" s="5"/>
       <c r="D514" s="5"/>
       <c r="E514" s="5"/>
@@ -5228,7 +5239,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="515" customHeight="1" ht="18">
       <c r="A515" s="5"/>
-      <c r="B515" s="6"/>
+      <c r="B515" s="8"/>
       <c r="C515" s="5"/>
       <c r="D515" s="5"/>
       <c r="E515" s="5"/>
@@ -5237,7 +5248,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="516" customHeight="1" ht="18">
       <c r="A516" s="5"/>
-      <c r="B516" s="6"/>
+      <c r="B516" s="8"/>
       <c r="C516" s="5"/>
       <c r="D516" s="5"/>
       <c r="E516" s="5"/>
@@ -5246,7 +5257,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="517" customHeight="1" ht="18">
       <c r="A517" s="5"/>
-      <c r="B517" s="6"/>
+      <c r="B517" s="8"/>
       <c r="C517" s="5"/>
       <c r="D517" s="5"/>
       <c r="E517" s="5"/>
@@ -5255,7 +5266,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="518" customHeight="1" ht="18">
       <c r="A518" s="5"/>
-      <c r="B518" s="6"/>
+      <c r="B518" s="8"/>
       <c r="C518" s="5"/>
       <c r="D518" s="5"/>
       <c r="E518" s="5"/>
@@ -5264,7 +5275,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="519" customHeight="1" ht="18">
       <c r="A519" s="5"/>
-      <c r="B519" s="6"/>
+      <c r="B519" s="8"/>
       <c r="C519" s="5"/>
       <c r="D519" s="5"/>
       <c r="E519" s="5"/>
@@ -5273,7 +5284,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="520" customHeight="1" ht="18">
       <c r="A520" s="5"/>
-      <c r="B520" s="6"/>
+      <c r="B520" s="8"/>
       <c r="C520" s="5"/>
       <c r="D520" s="5"/>
       <c r="E520" s="5"/>
@@ -5282,7 +5293,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="521" customHeight="1" ht="18">
       <c r="A521" s="5"/>
-      <c r="B521" s="6"/>
+      <c r="B521" s="8"/>
       <c r="C521" s="5"/>
       <c r="D521" s="5"/>
       <c r="E521" s="5"/>
@@ -5291,7 +5302,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="522" customHeight="1" ht="18">
       <c r="A522" s="5"/>
-      <c r="B522" s="6"/>
+      <c r="B522" s="8"/>
       <c r="C522" s="5"/>
       <c r="D522" s="5"/>
       <c r="E522" s="5"/>
@@ -5300,7 +5311,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="523" customHeight="1" ht="18">
       <c r="A523" s="5"/>
-      <c r="B523" s="6"/>
+      <c r="B523" s="8"/>
       <c r="C523" s="5"/>
       <c r="D523" s="5"/>
       <c r="E523" s="5"/>
@@ -5309,7 +5320,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="524" customHeight="1" ht="18">
       <c r="A524" s="5"/>
-      <c r="B524" s="6"/>
+      <c r="B524" s="8"/>
       <c r="C524" s="5"/>
       <c r="D524" s="5"/>
       <c r="E524" s="5"/>
@@ -5318,7 +5329,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="525" customHeight="1" ht="18">
       <c r="A525" s="5"/>
-      <c r="B525" s="6"/>
+      <c r="B525" s="8"/>
       <c r="C525" s="5"/>
       <c r="D525" s="5"/>
       <c r="E525" s="5"/>
@@ -5327,7 +5338,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="526" customHeight="1" ht="18">
       <c r="A526" s="5"/>
-      <c r="B526" s="6"/>
+      <c r="B526" s="8"/>
       <c r="C526" s="5"/>
       <c r="D526" s="5"/>
       <c r="E526" s="5"/>
@@ -5336,7 +5347,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="527" customHeight="1" ht="18">
       <c r="A527" s="5"/>
-      <c r="B527" s="6"/>
+      <c r="B527" s="8"/>
       <c r="C527" s="5"/>
       <c r="D527" s="5"/>
       <c r="E527" s="5"/>
@@ -5345,7 +5356,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="528" customHeight="1" ht="18">
       <c r="A528" s="5"/>
-      <c r="B528" s="6"/>
+      <c r="B528" s="8"/>
       <c r="C528" s="5"/>
       <c r="D528" s="5"/>
       <c r="E528" s="5"/>
@@ -5354,7 +5365,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="529" customHeight="1" ht="18">
       <c r="A529" s="5"/>
-      <c r="B529" s="6"/>
+      <c r="B529" s="8"/>
       <c r="C529" s="5"/>
       <c r="D529" s="5"/>
       <c r="E529" s="5"/>
@@ -5363,7 +5374,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="530" customHeight="1" ht="18">
       <c r="A530" s="5"/>
-      <c r="B530" s="6"/>
+      <c r="B530" s="8"/>
       <c r="C530" s="5"/>
       <c r="D530" s="5"/>
       <c r="E530" s="5"/>
@@ -5372,7 +5383,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="531" customHeight="1" ht="18">
       <c r="A531" s="5"/>
-      <c r="B531" s="6"/>
+      <c r="B531" s="8"/>
       <c r="C531" s="5"/>
       <c r="D531" s="5"/>
       <c r="E531" s="5"/>
@@ -5381,7 +5392,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="532" customHeight="1" ht="18">
       <c r="A532" s="5"/>
-      <c r="B532" s="6"/>
+      <c r="B532" s="8"/>
       <c r="C532" s="5"/>
       <c r="D532" s="5"/>
       <c r="E532" s="5"/>
@@ -5390,7 +5401,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="533" customHeight="1" ht="18">
       <c r="A533" s="5"/>
-      <c r="B533" s="6"/>
+      <c r="B533" s="8"/>
       <c r="C533" s="5"/>
       <c r="D533" s="5"/>
       <c r="E533" s="5"/>
@@ -5399,7 +5410,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="534" customHeight="1" ht="18">
       <c r="A534" s="5"/>
-      <c r="B534" s="6"/>
+      <c r="B534" s="8"/>
       <c r="C534" s="5"/>
       <c r="D534" s="5"/>
       <c r="E534" s="5"/>
@@ -5408,7 +5419,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="535" customHeight="1" ht="18">
       <c r="A535" s="5"/>
-      <c r="B535" s="6"/>
+      <c r="B535" s="8"/>
       <c r="C535" s="5"/>
       <c r="D535" s="5"/>
       <c r="E535" s="5"/>
@@ -5417,7 +5428,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="536" customHeight="1" ht="18">
       <c r="A536" s="5"/>
-      <c r="B536" s="6"/>
+      <c r="B536" s="8"/>
       <c r="C536" s="5"/>
       <c r="D536" s="5"/>
       <c r="E536" s="5"/>
@@ -5426,7 +5437,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="537" customHeight="1" ht="18">
       <c r="A537" s="5"/>
-      <c r="B537" s="6"/>
+      <c r="B537" s="8"/>
       <c r="C537" s="5"/>
       <c r="D537" s="5"/>
       <c r="E537" s="5"/>
@@ -5435,7 +5446,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="538" customHeight="1" ht="18">
       <c r="A538" s="5"/>
-      <c r="B538" s="6"/>
+      <c r="B538" s="8"/>
       <c r="C538" s="5"/>
       <c r="D538" s="5"/>
       <c r="E538" s="5"/>
@@ -5444,7 +5455,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="539" customHeight="1" ht="18">
       <c r="A539" s="5"/>
-      <c r="B539" s="6"/>
+      <c r="B539" s="8"/>
       <c r="C539" s="5"/>
       <c r="D539" s="5"/>
       <c r="E539" s="5"/>
@@ -5453,7 +5464,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="540" customHeight="1" ht="18">
       <c r="A540" s="5"/>
-      <c r="B540" s="6"/>
+      <c r="B540" s="8"/>
       <c r="C540" s="5"/>
       <c r="D540" s="5"/>
       <c r="E540" s="5"/>
@@ -5462,7 +5473,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="541" customHeight="1" ht="18">
       <c r="A541" s="5"/>
-      <c r="B541" s="6"/>
+      <c r="B541" s="8"/>
       <c r="C541" s="5"/>
       <c r="D541" s="5"/>
       <c r="E541" s="5"/>
@@ -5471,7 +5482,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="542" customHeight="1" ht="18">
       <c r="A542" s="5"/>
-      <c r="B542" s="6"/>
+      <c r="B542" s="8"/>
       <c r="C542" s="5"/>
       <c r="D542" s="5"/>
       <c r="E542" s="5"/>
@@ -5480,7 +5491,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="543" customHeight="1" ht="18">
       <c r="A543" s="5"/>
-      <c r="B543" s="6"/>
+      <c r="B543" s="8"/>
       <c r="C543" s="5"/>
       <c r="D543" s="5"/>
       <c r="E543" s="5"/>
@@ -5489,7 +5500,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="544" customHeight="1" ht="18">
       <c r="A544" s="5"/>
-      <c r="B544" s="6"/>
+      <c r="B544" s="8"/>
       <c r="C544" s="5"/>
       <c r="D544" s="5"/>
       <c r="E544" s="5"/>
@@ -5498,7 +5509,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="545" customHeight="1" ht="18">
       <c r="A545" s="5"/>
-      <c r="B545" s="6"/>
+      <c r="B545" s="8"/>
       <c r="C545" s="5"/>
       <c r="D545" s="5"/>
       <c r="E545" s="5"/>
@@ -5507,7 +5518,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="546" customHeight="1" ht="18">
       <c r="A546" s="5"/>
-      <c r="B546" s="6"/>
+      <c r="B546" s="8"/>
       <c r="C546" s="5"/>
       <c r="D546" s="5"/>
       <c r="E546" s="5"/>
@@ -5516,7 +5527,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="547" customHeight="1" ht="18">
       <c r="A547" s="5"/>
-      <c r="B547" s="6"/>
+      <c r="B547" s="8"/>
       <c r="C547" s="5"/>
       <c r="D547" s="5"/>
       <c r="E547" s="5"/>
@@ -5525,7 +5536,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="548" customHeight="1" ht="18">
       <c r="A548" s="5"/>
-      <c r="B548" s="6"/>
+      <c r="B548" s="8"/>
       <c r="C548" s="5"/>
       <c r="D548" s="5"/>
       <c r="E548" s="5"/>
@@ -5534,7 +5545,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="549" customHeight="1" ht="18">
       <c r="A549" s="5"/>
-      <c r="B549" s="6"/>
+      <c r="B549" s="8"/>
       <c r="C549" s="5"/>
       <c r="D549" s="5"/>
       <c r="E549" s="5"/>
@@ -5543,7 +5554,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="550" customHeight="1" ht="18">
       <c r="A550" s="5"/>
-      <c r="B550" s="6"/>
+      <c r="B550" s="8"/>
       <c r="C550" s="5"/>
       <c r="D550" s="5"/>
       <c r="E550" s="5"/>
@@ -5552,7 +5563,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="551" customHeight="1" ht="18">
       <c r="A551" s="5"/>
-      <c r="B551" s="6"/>
+      <c r="B551" s="8"/>
       <c r="C551" s="5"/>
       <c r="D551" s="5"/>
       <c r="E551" s="5"/>
@@ -5561,7 +5572,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="552" customHeight="1" ht="18">
       <c r="A552" s="5"/>
-      <c r="B552" s="6"/>
+      <c r="B552" s="8"/>
       <c r="C552" s="5"/>
       <c r="D552" s="5"/>
       <c r="E552" s="5"/>
@@ -5570,7 +5581,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="553" customHeight="1" ht="18">
       <c r="A553" s="5"/>
-      <c r="B553" s="6"/>
+      <c r="B553" s="8"/>
       <c r="C553" s="5"/>
       <c r="D553" s="5"/>
       <c r="E553" s="5"/>
@@ -5579,7 +5590,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="554" customHeight="1" ht="18">
       <c r="A554" s="5"/>
-      <c r="B554" s="6"/>
+      <c r="B554" s="8"/>
       <c r="C554" s="5"/>
       <c r="D554" s="5"/>
       <c r="E554" s="5"/>
@@ -5588,7 +5599,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="555" customHeight="1" ht="18">
       <c r="A555" s="5"/>
-      <c r="B555" s="6"/>
+      <c r="B555" s="8"/>
       <c r="C555" s="5"/>
       <c r="D555" s="5"/>
       <c r="E555" s="5"/>
@@ -5597,7 +5608,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="556" customHeight="1" ht="18">
       <c r="A556" s="5"/>
-      <c r="B556" s="6"/>
+      <c r="B556" s="8"/>
       <c r="C556" s="5"/>
       <c r="D556" s="5"/>
       <c r="E556" s="5"/>
@@ -5606,7 +5617,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="557" customHeight="1" ht="18">
       <c r="A557" s="5"/>
-      <c r="B557" s="6"/>
+      <c r="B557" s="8"/>
       <c r="C557" s="5"/>
       <c r="D557" s="5"/>
       <c r="E557" s="5"/>
@@ -5615,7 +5626,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="558" customHeight="1" ht="18">
       <c r="A558" s="5"/>
-      <c r="B558" s="6"/>
+      <c r="B558" s="8"/>
       <c r="C558" s="5"/>
       <c r="D558" s="5"/>
       <c r="E558" s="5"/>
@@ -5624,7 +5635,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="559" customHeight="1" ht="18">
       <c r="A559" s="5"/>
-      <c r="B559" s="6"/>
+      <c r="B559" s="8"/>
       <c r="C559" s="5"/>
       <c r="D559" s="5"/>
       <c r="E559" s="5"/>
@@ -5633,7 +5644,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="560" customHeight="1" ht="18">
       <c r="A560" s="5"/>
-      <c r="B560" s="6"/>
+      <c r="B560" s="8"/>
       <c r="C560" s="5"/>
       <c r="D560" s="5"/>
       <c r="E560" s="5"/>
@@ -5642,7 +5653,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="561" customHeight="1" ht="18">
       <c r="A561" s="5"/>
-      <c r="B561" s="6"/>
+      <c r="B561" s="8"/>
       <c r="C561" s="5"/>
       <c r="D561" s="5"/>
       <c r="E561" s="5"/>
@@ -5651,7 +5662,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="562" customHeight="1" ht="18">
       <c r="A562" s="5"/>
-      <c r="B562" s="6"/>
+      <c r="B562" s="8"/>
       <c r="C562" s="5"/>
       <c r="D562" s="5"/>
       <c r="E562" s="5"/>
@@ -5660,7 +5671,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="563" customHeight="1" ht="18">
       <c r="A563" s="5"/>
-      <c r="B563" s="6"/>
+      <c r="B563" s="8"/>
       <c r="C563" s="5"/>
       <c r="D563" s="5"/>
       <c r="E563" s="5"/>
@@ -5669,7 +5680,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="564" customHeight="1" ht="18">
       <c r="A564" s="5"/>
-      <c r="B564" s="6"/>
+      <c r="B564" s="8"/>
       <c r="C564" s="5"/>
       <c r="D564" s="5"/>
       <c r="E564" s="5"/>
@@ -5678,7 +5689,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="565" customHeight="1" ht="18">
       <c r="A565" s="5"/>
-      <c r="B565" s="6"/>
+      <c r="B565" s="8"/>
       <c r="C565" s="5"/>
       <c r="D565" s="5"/>
       <c r="E565" s="5"/>
@@ -5687,7 +5698,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="566" customHeight="1" ht="18">
       <c r="A566" s="5"/>
-      <c r="B566" s="6"/>
+      <c r="B566" s="8"/>
       <c r="C566" s="5"/>
       <c r="D566" s="5"/>
       <c r="E566" s="5"/>
@@ -5696,7 +5707,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="567" customHeight="1" ht="18">
       <c r="A567" s="5"/>
-      <c r="B567" s="6"/>
+      <c r="B567" s="8"/>
       <c r="C567" s="5"/>
       <c r="D567" s="5"/>
       <c r="E567" s="5"/>
@@ -5705,7 +5716,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="568" customHeight="1" ht="18">
       <c r="A568" s="5"/>
-      <c r="B568" s="6"/>
+      <c r="B568" s="8"/>
       <c r="C568" s="5"/>
       <c r="D568" s="5"/>
       <c r="E568" s="5"/>
@@ -5714,7 +5725,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="569" customHeight="1" ht="18">
       <c r="A569" s="5"/>
-      <c r="B569" s="6"/>
+      <c r="B569" s="8"/>
       <c r="C569" s="5"/>
       <c r="D569" s="5"/>
       <c r="E569" s="5"/>
@@ -5723,7 +5734,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="570" customHeight="1" ht="18">
       <c r="A570" s="5"/>
-      <c r="B570" s="6"/>
+      <c r="B570" s="8"/>
       <c r="C570" s="5"/>
       <c r="D570" s="5"/>
       <c r="E570" s="5"/>
@@ -5732,7 +5743,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="571" customHeight="1" ht="18">
       <c r="A571" s="5"/>
-      <c r="B571" s="6"/>
+      <c r="B571" s="8"/>
       <c r="C571" s="5"/>
       <c r="D571" s="5"/>
       <c r="E571" s="5"/>
@@ -5741,7 +5752,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="572" customHeight="1" ht="18">
       <c r="A572" s="5"/>
-      <c r="B572" s="6"/>
+      <c r="B572" s="8"/>
       <c r="C572" s="5"/>
       <c r="D572" s="5"/>
       <c r="E572" s="5"/>
@@ -5750,7 +5761,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="573" customHeight="1" ht="18">
       <c r="A573" s="5"/>
-      <c r="B573" s="6"/>
+      <c r="B573" s="8"/>
       <c r="C573" s="5"/>
       <c r="D573" s="5"/>
       <c r="E573" s="5"/>
@@ -5759,7 +5770,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="574" customHeight="1" ht="18">
       <c r="A574" s="5"/>
-      <c r="B574" s="6"/>
+      <c r="B574" s="8"/>
       <c r="C574" s="5"/>
       <c r="D574" s="5"/>
       <c r="E574" s="5"/>
@@ -5768,7 +5779,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="575" customHeight="1" ht="18">
       <c r="A575" s="5"/>
-      <c r="B575" s="6"/>
+      <c r="B575" s="8"/>
       <c r="C575" s="5"/>
       <c r="D575" s="5"/>
       <c r="E575" s="5"/>
@@ -5777,7 +5788,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="576" customHeight="1" ht="18">
       <c r="A576" s="5"/>
-      <c r="B576" s="6"/>
+      <c r="B576" s="8"/>
       <c r="C576" s="5"/>
       <c r="D576" s="5"/>
       <c r="E576" s="5"/>
@@ -5786,7 +5797,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="577" customHeight="1" ht="18">
       <c r="A577" s="5"/>
-      <c r="B577" s="6"/>
+      <c r="B577" s="8"/>
       <c r="C577" s="5"/>
       <c r="D577" s="5"/>
       <c r="E577" s="5"/>
@@ -5795,7 +5806,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="578" customHeight="1" ht="18">
       <c r="A578" s="5"/>
-      <c r="B578" s="6"/>
+      <c r="B578" s="8"/>
       <c r="C578" s="5"/>
       <c r="D578" s="5"/>
       <c r="E578" s="5"/>
@@ -5804,7 +5815,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="579" customHeight="1" ht="18">
       <c r="A579" s="5"/>
-      <c r="B579" s="6"/>
+      <c r="B579" s="8"/>
       <c r="C579" s="5"/>
       <c r="D579" s="5"/>
       <c r="E579" s="5"/>
@@ -5813,7 +5824,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="580" customHeight="1" ht="18">
       <c r="A580" s="5"/>
-      <c r="B580" s="6"/>
+      <c r="B580" s="8"/>
       <c r="C580" s="5"/>
       <c r="D580" s="5"/>
       <c r="E580" s="5"/>
@@ -5822,7 +5833,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="581" customHeight="1" ht="18">
       <c r="A581" s="5"/>
-      <c r="B581" s="6"/>
+      <c r="B581" s="8"/>
       <c r="C581" s="5"/>
       <c r="D581" s="5"/>
       <c r="E581" s="5"/>
@@ -5831,7 +5842,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="582" customHeight="1" ht="18">
       <c r="A582" s="5"/>
-      <c r="B582" s="6"/>
+      <c r="B582" s="8"/>
       <c r="C582" s="5"/>
       <c r="D582" s="5"/>
       <c r="E582" s="5"/>
@@ -5840,7 +5851,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="583" customHeight="1" ht="18">
       <c r="A583" s="5"/>
-      <c r="B583" s="6"/>
+      <c r="B583" s="8"/>
       <c r="C583" s="5"/>
       <c r="D583" s="5"/>
       <c r="E583" s="5"/>
@@ -5849,7 +5860,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="584" customHeight="1" ht="18">
       <c r="A584" s="5"/>
-      <c r="B584" s="6"/>
+      <c r="B584" s="8"/>
       <c r="C584" s="5"/>
       <c r="D584" s="5"/>
       <c r="E584" s="5"/>
@@ -5858,7 +5869,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="585" customHeight="1" ht="18">
       <c r="A585" s="5"/>
-      <c r="B585" s="6"/>
+      <c r="B585" s="8"/>
       <c r="C585" s="5"/>
       <c r="D585" s="5"/>
       <c r="E585" s="5"/>
@@ -5867,7 +5878,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="586" customHeight="1" ht="18">
       <c r="A586" s="5"/>
-      <c r="B586" s="6"/>
+      <c r="B586" s="8"/>
       <c r="C586" s="5"/>
       <c r="D586" s="5"/>
       <c r="E586" s="5"/>
@@ -5876,7 +5887,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="587" customHeight="1" ht="18">
       <c r="A587" s="5"/>
-      <c r="B587" s="6"/>
+      <c r="B587" s="8"/>
       <c r="C587" s="5"/>
       <c r="D587" s="5"/>
       <c r="E587" s="5"/>
@@ -5885,7 +5896,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="588" customHeight="1" ht="18">
       <c r="A588" s="5"/>
-      <c r="B588" s="6"/>
+      <c r="B588" s="8"/>
       <c r="C588" s="5"/>
       <c r="D588" s="5"/>
       <c r="E588" s="5"/>
@@ -5894,7 +5905,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="589" customHeight="1" ht="18">
       <c r="A589" s="5"/>
-      <c r="B589" s="6"/>
+      <c r="B589" s="8"/>
       <c r="C589" s="5"/>
       <c r="D589" s="5"/>
       <c r="E589" s="5"/>
@@ -5903,7 +5914,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="590" customHeight="1" ht="18">
       <c r="A590" s="5"/>
-      <c r="B590" s="6"/>
+      <c r="B590" s="8"/>
       <c r="C590" s="5"/>
       <c r="D590" s="5"/>
       <c r="E590" s="5"/>
@@ -5912,7 +5923,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="591" customHeight="1" ht="18">
       <c r="A591" s="5"/>
-      <c r="B591" s="6"/>
+      <c r="B591" s="8"/>
       <c r="C591" s="5"/>
       <c r="D591" s="5"/>
       <c r="E591" s="5"/>
@@ -5921,7 +5932,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="592" customHeight="1" ht="18">
       <c r="A592" s="5"/>
-      <c r="B592" s="6"/>
+      <c r="B592" s="8"/>
       <c r="C592" s="5"/>
       <c r="D592" s="5"/>
       <c r="E592" s="5"/>
@@ -5930,7 +5941,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="593" customHeight="1" ht="18">
       <c r="A593" s="5"/>
-      <c r="B593" s="6"/>
+      <c r="B593" s="8"/>
       <c r="C593" s="5"/>
       <c r="D593" s="5"/>
       <c r="E593" s="5"/>
@@ -5939,7 +5950,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="594" customHeight="1" ht="18">
       <c r="A594" s="5"/>
-      <c r="B594" s="6"/>
+      <c r="B594" s="8"/>
       <c r="C594" s="5"/>
       <c r="D594" s="5"/>
       <c r="E594" s="5"/>
@@ -5948,7 +5959,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="595" customHeight="1" ht="18">
       <c r="A595" s="5"/>
-      <c r="B595" s="6"/>
+      <c r="B595" s="8"/>
       <c r="C595" s="5"/>
       <c r="D595" s="5"/>
       <c r="E595" s="5"/>
@@ -5957,7 +5968,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="596" customHeight="1" ht="18">
       <c r="A596" s="5"/>
-      <c r="B596" s="6"/>
+      <c r="B596" s="8"/>
       <c r="C596" s="5"/>
       <c r="D596" s="5"/>
       <c r="E596" s="5"/>
@@ -5966,7 +5977,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="597" customHeight="1" ht="18">
       <c r="A597" s="5"/>
-      <c r="B597" s="6"/>
+      <c r="B597" s="8"/>
       <c r="C597" s="5"/>
       <c r="D597" s="5"/>
       <c r="E597" s="5"/>
@@ -5975,7 +5986,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="598" customHeight="1" ht="18">
       <c r="A598" s="5"/>
-      <c r="B598" s="6"/>
+      <c r="B598" s="8"/>
       <c r="C598" s="5"/>
       <c r="D598" s="5"/>
       <c r="E598" s="5"/>
@@ -5984,7 +5995,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="599" customHeight="1" ht="18">
       <c r="A599" s="5"/>
-      <c r="B599" s="6"/>
+      <c r="B599" s="8"/>
       <c r="C599" s="5"/>
       <c r="D599" s="5"/>
       <c r="E599" s="5"/>
@@ -5993,7 +6004,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="600" customHeight="1" ht="18">
       <c r="A600" s="5"/>
-      <c r="B600" s="6"/>
+      <c r="B600" s="8"/>
       <c r="C600" s="5"/>
       <c r="D600" s="5"/>
       <c r="E600" s="5"/>
@@ -6002,7 +6013,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="601" customHeight="1" ht="18">
       <c r="A601" s="5"/>
-      <c r="B601" s="6"/>
+      <c r="B601" s="8"/>
       <c r="C601" s="5"/>
       <c r="D601" s="5"/>
       <c r="E601" s="5"/>
@@ -6011,7 +6022,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="602" customHeight="1" ht="18">
       <c r="A602" s="5"/>
-      <c r="B602" s="6"/>
+      <c r="B602" s="8"/>
       <c r="C602" s="5"/>
       <c r="D602" s="5"/>
       <c r="E602" s="5"/>
@@ -6020,7 +6031,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="603" customHeight="1" ht="18">
       <c r="A603" s="5"/>
-      <c r="B603" s="6"/>
+      <c r="B603" s="8"/>
       <c r="C603" s="5"/>
       <c r="D603" s="5"/>
       <c r="E603" s="5"/>
@@ -6029,7 +6040,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="604" customHeight="1" ht="18">
       <c r="A604" s="5"/>
-      <c r="B604" s="6"/>
+      <c r="B604" s="8"/>
       <c r="C604" s="5"/>
       <c r="D604" s="5"/>
       <c r="E604" s="5"/>
@@ -6038,7 +6049,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="605" customHeight="1" ht="18">
       <c r="A605" s="5"/>
-      <c r="B605" s="6"/>
+      <c r="B605" s="8"/>
       <c r="C605" s="5"/>
       <c r="D605" s="5"/>
       <c r="E605" s="5"/>
@@ -6047,7 +6058,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="606" customHeight="1" ht="18">
       <c r="A606" s="5"/>
-      <c r="B606" s="6"/>
+      <c r="B606" s="8"/>
       <c r="C606" s="5"/>
       <c r="D606" s="5"/>
       <c r="E606" s="5"/>
@@ -6056,7 +6067,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="607" customHeight="1" ht="18">
       <c r="A607" s="5"/>
-      <c r="B607" s="6"/>
+      <c r="B607" s="8"/>
       <c r="C607" s="5"/>
       <c r="D607" s="5"/>
       <c r="E607" s="5"/>
@@ -6065,7 +6076,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="608" customHeight="1" ht="18">
       <c r="A608" s="5"/>
-      <c r="B608" s="6"/>
+      <c r="B608" s="8"/>
       <c r="C608" s="5"/>
       <c r="D608" s="5"/>
       <c r="E608" s="5"/>
@@ -6074,7 +6085,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="609" customHeight="1" ht="18">
       <c r="A609" s="5"/>
-      <c r="B609" s="6"/>
+      <c r="B609" s="8"/>
       <c r="C609" s="5"/>
       <c r="D609" s="5"/>
       <c r="E609" s="5"/>
@@ -6083,7 +6094,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="610" customHeight="1" ht="18">
       <c r="A610" s="5"/>
-      <c r="B610" s="6"/>
+      <c r="B610" s="8"/>
       <c r="C610" s="5"/>
       <c r="D610" s="5"/>
       <c r="E610" s="5"/>
@@ -6092,7 +6103,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="611" customHeight="1" ht="18">
       <c r="A611" s="5"/>
-      <c r="B611" s="6"/>
+      <c r="B611" s="8"/>
       <c r="C611" s="5"/>
       <c r="D611" s="5"/>
       <c r="E611" s="5"/>
@@ -6101,7 +6112,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="612" customHeight="1" ht="18">
       <c r="A612" s="5"/>
-      <c r="B612" s="6"/>
+      <c r="B612" s="8"/>
       <c r="C612" s="5"/>
       <c r="D612" s="5"/>
       <c r="E612" s="5"/>
@@ -6110,7 +6121,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="613" customHeight="1" ht="18">
       <c r="A613" s="5"/>
-      <c r="B613" s="6"/>
+      <c r="B613" s="8"/>
       <c r="C613" s="5"/>
       <c r="D613" s="5"/>
       <c r="E613" s="5"/>
@@ -6119,7 +6130,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="614" customHeight="1" ht="18">
       <c r="A614" s="5"/>
-      <c r="B614" s="6"/>
+      <c r="B614" s="8"/>
       <c r="C614" s="5"/>
       <c r="D614" s="5"/>
       <c r="E614" s="5"/>
@@ -6128,7 +6139,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="615" customHeight="1" ht="18">
       <c r="A615" s="5"/>
-      <c r="B615" s="6"/>
+      <c r="B615" s="8"/>
       <c r="C615" s="5"/>
       <c r="D615" s="5"/>
       <c r="E615" s="5"/>
@@ -6137,7 +6148,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="616" customHeight="1" ht="18">
       <c r="A616" s="5"/>
-      <c r="B616" s="6"/>
+      <c r="B616" s="8"/>
       <c r="C616" s="5"/>
       <c r="D616" s="5"/>
       <c r="E616" s="5"/>
@@ -6146,7 +6157,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="617" customHeight="1" ht="18">
       <c r="A617" s="5"/>
-      <c r="B617" s="6"/>
+      <c r="B617" s="8"/>
       <c r="C617" s="5"/>
       <c r="D617" s="5"/>
       <c r="E617" s="5"/>
@@ -6155,7 +6166,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="618" customHeight="1" ht="18">
       <c r="A618" s="5"/>
-      <c r="B618" s="6"/>
+      <c r="B618" s="8"/>
       <c r="C618" s="5"/>
       <c r="D618" s="5"/>
       <c r="E618" s="5"/>
@@ -6164,7 +6175,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="619" customHeight="1" ht="18">
       <c r="A619" s="5"/>
-      <c r="B619" s="6"/>
+      <c r="B619" s="8"/>
       <c r="C619" s="5"/>
       <c r="D619" s="5"/>
       <c r="E619" s="5"/>
@@ -6173,7 +6184,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="620" customHeight="1" ht="18">
       <c r="A620" s="5"/>
-      <c r="B620" s="6"/>
+      <c r="B620" s="8"/>
       <c r="C620" s="5"/>
       <c r="D620" s="5"/>
       <c r="E620" s="5"/>
@@ -6182,7 +6193,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="621" customHeight="1" ht="18">
       <c r="A621" s="5"/>
-      <c r="B621" s="6"/>
+      <c r="B621" s="8"/>
       <c r="C621" s="5"/>
       <c r="D621" s="5"/>
       <c r="E621" s="5"/>
@@ -6191,7 +6202,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="622" customHeight="1" ht="18">
       <c r="A622" s="5"/>
-      <c r="B622" s="6"/>
+      <c r="B622" s="8"/>
       <c r="C622" s="5"/>
       <c r="D622" s="5"/>
       <c r="E622" s="5"/>
@@ -6200,7 +6211,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="623" customHeight="1" ht="18">
       <c r="A623" s="5"/>
-      <c r="B623" s="6"/>
+      <c r="B623" s="8"/>
       <c r="C623" s="5"/>
       <c r="D623" s="5"/>
       <c r="E623" s="5"/>
@@ -6209,7 +6220,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="624" customHeight="1" ht="18">
       <c r="A624" s="5"/>
-      <c r="B624" s="6"/>
+      <c r="B624" s="8"/>
       <c r="C624" s="5"/>
       <c r="D624" s="5"/>
       <c r="E624" s="5"/>
@@ -6218,7 +6229,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="625" customHeight="1" ht="18">
       <c r="A625" s="5"/>
-      <c r="B625" s="6"/>
+      <c r="B625" s="8"/>
       <c r="C625" s="5"/>
       <c r="D625" s="5"/>
       <c r="E625" s="5"/>
@@ -6227,7 +6238,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="626" customHeight="1" ht="18">
       <c r="A626" s="5"/>
-      <c r="B626" s="6"/>
+      <c r="B626" s="8"/>
       <c r="C626" s="5"/>
       <c r="D626" s="5"/>
       <c r="E626" s="5"/>
@@ -6236,7 +6247,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="627" customHeight="1" ht="18">
       <c r="A627" s="5"/>
-      <c r="B627" s="6"/>
+      <c r="B627" s="8"/>
       <c r="C627" s="5"/>
       <c r="D627" s="5"/>
       <c r="E627" s="5"/>
@@ -6245,7 +6256,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="628" customHeight="1" ht="18">
       <c r="A628" s="5"/>
-      <c r="B628" s="6"/>
+      <c r="B628" s="8"/>
       <c r="C628" s="5"/>
       <c r="D628" s="5"/>
       <c r="E628" s="5"/>
@@ -6254,7 +6265,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="629" customHeight="1" ht="18">
       <c r="A629" s="5"/>
-      <c r="B629" s="6"/>
+      <c r="B629" s="8"/>
       <c r="C629" s="5"/>
       <c r="D629" s="5"/>
       <c r="E629" s="5"/>
@@ -6263,7 +6274,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="630" customHeight="1" ht="18">
       <c r="A630" s="5"/>
-      <c r="B630" s="6"/>
+      <c r="B630" s="8"/>
       <c r="C630" s="5"/>
       <c r="D630" s="5"/>
       <c r="E630" s="5"/>
@@ -6272,7 +6283,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="631" customHeight="1" ht="18">
       <c r="A631" s="5"/>
-      <c r="B631" s="6"/>
+      <c r="B631" s="8"/>
       <c r="C631" s="5"/>
       <c r="D631" s="5"/>
       <c r="E631" s="5"/>
@@ -6281,7 +6292,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="632" customHeight="1" ht="18">
       <c r="A632" s="5"/>
-      <c r="B632" s="6"/>
+      <c r="B632" s="8"/>
       <c r="C632" s="5"/>
       <c r="D632" s="5"/>
       <c r="E632" s="5"/>
@@ -6290,7 +6301,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="633" customHeight="1" ht="18">
       <c r="A633" s="5"/>
-      <c r="B633" s="6"/>
+      <c r="B633" s="8"/>
       <c r="C633" s="5"/>
       <c r="D633" s="5"/>
       <c r="E633" s="5"/>
@@ -6299,7 +6310,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="634" customHeight="1" ht="18">
       <c r="A634" s="5"/>
-      <c r="B634" s="6"/>
+      <c r="B634" s="8"/>
       <c r="C634" s="5"/>
       <c r="D634" s="5"/>
       <c r="E634" s="5"/>
@@ -6308,7 +6319,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="635" customHeight="1" ht="18">
       <c r="A635" s="5"/>
-      <c r="B635" s="6"/>
+      <c r="B635" s="8"/>
       <c r="C635" s="5"/>
       <c r="D635" s="5"/>
       <c r="E635" s="5"/>
@@ -6317,7 +6328,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="636" customHeight="1" ht="18">
       <c r="A636" s="5"/>
-      <c r="B636" s="6"/>
+      <c r="B636" s="8"/>
       <c r="C636" s="5"/>
       <c r="D636" s="5"/>
       <c r="E636" s="5"/>
@@ -6326,7 +6337,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="637" customHeight="1" ht="18">
       <c r="A637" s="5"/>
-      <c r="B637" s="6"/>
+      <c r="B637" s="8"/>
       <c r="C637" s="5"/>
       <c r="D637" s="5"/>
       <c r="E637" s="5"/>
@@ -6335,7 +6346,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="638" customHeight="1" ht="18">
       <c r="A638" s="5"/>
-      <c r="B638" s="6"/>
+      <c r="B638" s="8"/>
       <c r="C638" s="5"/>
       <c r="D638" s="5"/>
       <c r="E638" s="5"/>
@@ -6344,7 +6355,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="639" customHeight="1" ht="18">
       <c r="A639" s="5"/>
-      <c r="B639" s="6"/>
+      <c r="B639" s="8"/>
       <c r="C639" s="5"/>
       <c r="D639" s="5"/>
       <c r="E639" s="5"/>
@@ -6353,7 +6364,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="640" customHeight="1" ht="18">
       <c r="A640" s="5"/>
-      <c r="B640" s="6"/>
+      <c r="B640" s="8"/>
       <c r="C640" s="5"/>
       <c r="D640" s="5"/>
       <c r="E640" s="5"/>
@@ -6362,7 +6373,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="641" customHeight="1" ht="18">
       <c r="A641" s="5"/>
-      <c r="B641" s="6"/>
+      <c r="B641" s="8"/>
       <c r="C641" s="5"/>
       <c r="D641" s="5"/>
       <c r="E641" s="5"/>
@@ -6371,7 +6382,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="642" customHeight="1" ht="18">
       <c r="A642" s="5"/>
-      <c r="B642" s="6"/>
+      <c r="B642" s="8"/>
       <c r="C642" s="5"/>
       <c r="D642" s="5"/>
       <c r="E642" s="5"/>
@@ -6380,7 +6391,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="643" customHeight="1" ht="18">
       <c r="A643" s="5"/>
-      <c r="B643" s="6"/>
+      <c r="B643" s="8"/>
       <c r="C643" s="5"/>
       <c r="D643" s="5"/>
       <c r="E643" s="5"/>
@@ -6389,7 +6400,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="644" customHeight="1" ht="18">
       <c r="A644" s="5"/>
-      <c r="B644" s="6"/>
+      <c r="B644" s="8"/>
       <c r="C644" s="5"/>
       <c r="D644" s="5"/>
       <c r="E644" s="5"/>
@@ -6398,7 +6409,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="645" customHeight="1" ht="18">
       <c r="A645" s="5"/>
-      <c r="B645" s="6"/>
+      <c r="B645" s="8"/>
       <c r="C645" s="5"/>
       <c r="D645" s="5"/>
       <c r="E645" s="5"/>
@@ -6407,7 +6418,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="646" customHeight="1" ht="18">
       <c r="A646" s="5"/>
-      <c r="B646" s="6"/>
+      <c r="B646" s="8"/>
       <c r="C646" s="5"/>
       <c r="D646" s="5"/>
       <c r="E646" s="5"/>
@@ -6416,7 +6427,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="647" customHeight="1" ht="18">
       <c r="A647" s="5"/>
-      <c r="B647" s="6"/>
+      <c r="B647" s="8"/>
       <c r="C647" s="5"/>
       <c r="D647" s="5"/>
       <c r="E647" s="5"/>
@@ -6425,7 +6436,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="648" customHeight="1" ht="18">
       <c r="A648" s="5"/>
-      <c r="B648" s="6"/>
+      <c r="B648" s="8"/>
       <c r="C648" s="5"/>
       <c r="D648" s="5"/>
       <c r="E648" s="5"/>
@@ -6434,7 +6445,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="649" customHeight="1" ht="18">
       <c r="A649" s="5"/>
-      <c r="B649" s="6"/>
+      <c r="B649" s="8"/>
       <c r="C649" s="5"/>
       <c r="D649" s="5"/>
       <c r="E649" s="5"/>
@@ -6443,7 +6454,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="650" customHeight="1" ht="18">
       <c r="A650" s="5"/>
-      <c r="B650" s="6"/>
+      <c r="B650" s="8"/>
       <c r="C650" s="5"/>
       <c r="D650" s="5"/>
       <c r="E650" s="5"/>
@@ -6452,7 +6463,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="651" customHeight="1" ht="18">
       <c r="A651" s="5"/>
-      <c r="B651" s="6"/>
+      <c r="B651" s="8"/>
       <c r="C651" s="5"/>
       <c r="D651" s="5"/>
       <c r="E651" s="5"/>
@@ -6461,7 +6472,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="652" customHeight="1" ht="18">
       <c r="A652" s="5"/>
-      <c r="B652" s="6"/>
+      <c r="B652" s="8"/>
       <c r="C652" s="5"/>
       <c r="D652" s="5"/>
       <c r="E652" s="5"/>
@@ -6470,7 +6481,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="653" customHeight="1" ht="18">
       <c r="A653" s="5"/>
-      <c r="B653" s="6"/>
+      <c r="B653" s="8"/>
       <c r="C653" s="5"/>
       <c r="D653" s="5"/>
       <c r="E653" s="5"/>
@@ -6479,7 +6490,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="654" customHeight="1" ht="18">
       <c r="A654" s="5"/>
-      <c r="B654" s="6"/>
+      <c r="B654" s="8"/>
       <c r="C654" s="5"/>
       <c r="D654" s="5"/>
       <c r="E654" s="5"/>
@@ -6488,7 +6499,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="655" customHeight="1" ht="18">
       <c r="A655" s="5"/>
-      <c r="B655" s="6"/>
+      <c r="B655" s="8"/>
       <c r="C655" s="5"/>
       <c r="D655" s="5"/>
       <c r="E655" s="5"/>
@@ -6497,7 +6508,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="656" customHeight="1" ht="18">
       <c r="A656" s="5"/>
-      <c r="B656" s="6"/>
+      <c r="B656" s="8"/>
       <c r="C656" s="5"/>
       <c r="D656" s="5"/>
       <c r="E656" s="5"/>
@@ -6506,7 +6517,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="657" customHeight="1" ht="18">
       <c r="A657" s="5"/>
-      <c r="B657" s="6"/>
+      <c r="B657" s="8"/>
       <c r="C657" s="5"/>
       <c r="D657" s="5"/>
       <c r="E657" s="5"/>
@@ -6515,7 +6526,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="658" customHeight="1" ht="18">
       <c r="A658" s="5"/>
-      <c r="B658" s="6"/>
+      <c r="B658" s="8"/>
       <c r="C658" s="5"/>
       <c r="D658" s="5"/>
       <c r="E658" s="5"/>
@@ -6524,7 +6535,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="659" customHeight="1" ht="18">
       <c r="A659" s="5"/>
-      <c r="B659" s="6"/>
+      <c r="B659" s="8"/>
       <c r="C659" s="5"/>
       <c r="D659" s="5"/>
       <c r="E659" s="5"/>
@@ -6533,7 +6544,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="660" customHeight="1" ht="18">
       <c r="A660" s="5"/>
-      <c r="B660" s="6"/>
+      <c r="B660" s="8"/>
       <c r="C660" s="5"/>
       <c r="D660" s="5"/>
       <c r="E660" s="5"/>
@@ -6542,7 +6553,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="661" customHeight="1" ht="18">
       <c r="A661" s="5"/>
-      <c r="B661" s="6"/>
+      <c r="B661" s="8"/>
       <c r="C661" s="5"/>
       <c r="D661" s="5"/>
       <c r="E661" s="5"/>
@@ -6551,7 +6562,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="662" customHeight="1" ht="18">
       <c r="A662" s="5"/>
-      <c r="B662" s="6"/>
+      <c r="B662" s="8"/>
       <c r="C662" s="5"/>
       <c r="D662" s="5"/>
       <c r="E662" s="5"/>
@@ -6560,7 +6571,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="663" customHeight="1" ht="18">
       <c r="A663" s="5"/>
-      <c r="B663" s="6"/>
+      <c r="B663" s="8"/>
       <c r="C663" s="5"/>
       <c r="D663" s="5"/>
       <c r="E663" s="5"/>
@@ -6569,7 +6580,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="664" customHeight="1" ht="18">
       <c r="A664" s="5"/>
-      <c r="B664" s="6"/>
+      <c r="B664" s="8"/>
       <c r="C664" s="5"/>
       <c r="D664" s="5"/>
       <c r="E664" s="5"/>
@@ -6578,7 +6589,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="665" customHeight="1" ht="18">
       <c r="A665" s="5"/>
-      <c r="B665" s="6"/>
+      <c r="B665" s="8"/>
       <c r="C665" s="5"/>
       <c r="D665" s="5"/>
       <c r="E665" s="5"/>
@@ -6587,7 +6598,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="666" customHeight="1" ht="18">
       <c r="A666" s="5"/>
-      <c r="B666" s="6"/>
+      <c r="B666" s="8"/>
       <c r="C666" s="5"/>
       <c r="D666" s="5"/>
       <c r="E666" s="5"/>
@@ -6596,7 +6607,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="667" customHeight="1" ht="18">
       <c r="A667" s="5"/>
-      <c r="B667" s="6"/>
+      <c r="B667" s="8"/>
       <c r="C667" s="5"/>
       <c r="D667" s="5"/>
       <c r="E667" s="5"/>
@@ -6605,7 +6616,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="668" customHeight="1" ht="18">
       <c r="A668" s="5"/>
-      <c r="B668" s="6"/>
+      <c r="B668" s="8"/>
       <c r="C668" s="5"/>
       <c r="D668" s="5"/>
       <c r="E668" s="5"/>
@@ -6614,7 +6625,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="669" customHeight="1" ht="18">
       <c r="A669" s="5"/>
-      <c r="B669" s="6"/>
+      <c r="B669" s="8"/>
       <c r="C669" s="5"/>
       <c r="D669" s="5"/>
       <c r="E669" s="5"/>
@@ -6623,7 +6634,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="670" customHeight="1" ht="18">
       <c r="A670" s="5"/>
-      <c r="B670" s="6"/>
+      <c r="B670" s="8"/>
       <c r="C670" s="5"/>
       <c r="D670" s="5"/>
       <c r="E670" s="5"/>
@@ -6632,7 +6643,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="671" customHeight="1" ht="18">
       <c r="A671" s="5"/>
-      <c r="B671" s="6"/>
+      <c r="B671" s="8"/>
       <c r="C671" s="5"/>
       <c r="D671" s="5"/>
       <c r="E671" s="5"/>
@@ -6641,7 +6652,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="672" customHeight="1" ht="18">
       <c r="A672" s="5"/>
-      <c r="B672" s="6"/>
+      <c r="B672" s="8"/>
       <c r="C672" s="5"/>
       <c r="D672" s="5"/>
       <c r="E672" s="5"/>
@@ -6650,7 +6661,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="673" customHeight="1" ht="18">
       <c r="A673" s="5"/>
-      <c r="B673" s="6"/>
+      <c r="B673" s="8"/>
       <c r="C673" s="5"/>
       <c r="D673" s="5"/>
       <c r="E673" s="5"/>
@@ -6659,7 +6670,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="674" customHeight="1" ht="18">
       <c r="A674" s="5"/>
-      <c r="B674" s="6"/>
+      <c r="B674" s="8"/>
       <c r="C674" s="5"/>
       <c r="D674" s="5"/>
       <c r="E674" s="5"/>
@@ -6668,7 +6679,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="675" customHeight="1" ht="18">
       <c r="A675" s="5"/>
-      <c r="B675" s="6"/>
+      <c r="B675" s="8"/>
       <c r="C675" s="5"/>
       <c r="D675" s="5"/>
       <c r="E675" s="5"/>
@@ -6677,7 +6688,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="676" customHeight="1" ht="18">
       <c r="A676" s="5"/>
-      <c r="B676" s="6"/>
+      <c r="B676" s="8"/>
       <c r="C676" s="5"/>
       <c r="D676" s="5"/>
       <c r="E676" s="5"/>
@@ -6686,7 +6697,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="677" customHeight="1" ht="18">
       <c r="A677" s="5"/>
-      <c r="B677" s="6"/>
+      <c r="B677" s="8"/>
       <c r="C677" s="5"/>
       <c r="D677" s="5"/>
       <c r="E677" s="5"/>
@@ -6695,7 +6706,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="678" customHeight="1" ht="18">
       <c r="A678" s="5"/>
-      <c r="B678" s="6"/>
+      <c r="B678" s="8"/>
       <c r="C678" s="5"/>
       <c r="D678" s="5"/>
       <c r="E678" s="5"/>
@@ -6704,7 +6715,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="679" customHeight="1" ht="18">
       <c r="A679" s="5"/>
-      <c r="B679" s="6"/>
+      <c r="B679" s="8"/>
       <c r="C679" s="5"/>
       <c r="D679" s="5"/>
       <c r="E679" s="5"/>
@@ -6713,7 +6724,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="680" customHeight="1" ht="18">
       <c r="A680" s="5"/>
-      <c r="B680" s="6"/>
+      <c r="B680" s="8"/>
       <c r="C680" s="5"/>
       <c r="D680" s="5"/>
       <c r="E680" s="5"/>
@@ -6722,7 +6733,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="681" customHeight="1" ht="18">
       <c r="A681" s="5"/>
-      <c r="B681" s="6"/>
+      <c r="B681" s="8"/>
       <c r="C681" s="5"/>
       <c r="D681" s="5"/>
       <c r="E681" s="5"/>
@@ -6731,7 +6742,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="682" customHeight="1" ht="18">
       <c r="A682" s="5"/>
-      <c r="B682" s="6"/>
+      <c r="B682" s="8"/>
       <c r="C682" s="5"/>
       <c r="D682" s="5"/>
       <c r="E682" s="5"/>
@@ -6740,7 +6751,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="683" customHeight="1" ht="18">
       <c r="A683" s="5"/>
-      <c r="B683" s="6"/>
+      <c r="B683" s="8"/>
       <c r="C683" s="5"/>
       <c r="D683" s="5"/>
       <c r="E683" s="5"/>
@@ -6749,7 +6760,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="684" customHeight="1" ht="18">
       <c r="A684" s="5"/>
-      <c r="B684" s="6"/>
+      <c r="B684" s="8"/>
       <c r="C684" s="5"/>
       <c r="D684" s="5"/>
       <c r="E684" s="5"/>
@@ -6758,7 +6769,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="685" customHeight="1" ht="18">
       <c r="A685" s="5"/>
-      <c r="B685" s="6"/>
+      <c r="B685" s="8"/>
       <c r="C685" s="5"/>
       <c r="D685" s="5"/>
       <c r="E685" s="5"/>
@@ -6767,7 +6778,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="686" customHeight="1" ht="18">
       <c r="A686" s="5"/>
-      <c r="B686" s="6"/>
+      <c r="B686" s="8"/>
       <c r="C686" s="5"/>
       <c r="D686" s="5"/>
       <c r="E686" s="5"/>
@@ -6776,7 +6787,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="687" customHeight="1" ht="18">
       <c r="A687" s="5"/>
-      <c r="B687" s="6"/>
+      <c r="B687" s="8"/>
       <c r="C687" s="5"/>
       <c r="D687" s="5"/>
       <c r="E687" s="5"/>
@@ -6785,7 +6796,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="688" customHeight="1" ht="18">
       <c r="A688" s="5"/>
-      <c r="B688" s="6"/>
+      <c r="B688" s="8"/>
       <c r="C688" s="5"/>
       <c r="D688" s="5"/>
       <c r="E688" s="5"/>
@@ -6794,7 +6805,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="689" customHeight="1" ht="18">
       <c r="A689" s="5"/>
-      <c r="B689" s="6"/>
+      <c r="B689" s="8"/>
       <c r="C689" s="5"/>
       <c r="D689" s="5"/>
       <c r="E689" s="5"/>
@@ -6803,7 +6814,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="690" customHeight="1" ht="18">
       <c r="A690" s="5"/>
-      <c r="B690" s="6"/>
+      <c r="B690" s="8"/>
       <c r="C690" s="5"/>
       <c r="D690" s="5"/>
       <c r="E690" s="5"/>
@@ -6812,7 +6823,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="691" customHeight="1" ht="18">
       <c r="A691" s="5"/>
-      <c r="B691" s="6"/>
+      <c r="B691" s="8"/>
       <c r="C691" s="5"/>
       <c r="D691" s="5"/>
       <c r="E691" s="5"/>
@@ -6821,7 +6832,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="692" customHeight="1" ht="18">
       <c r="A692" s="5"/>
-      <c r="B692" s="6"/>
+      <c r="B692" s="8"/>
       <c r="C692" s="5"/>
       <c r="D692" s="5"/>
       <c r="E692" s="5"/>
@@ -6830,7 +6841,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="693" customHeight="1" ht="18">
       <c r="A693" s="5"/>
-      <c r="B693" s="6"/>
+      <c r="B693" s="8"/>
       <c r="C693" s="5"/>
       <c r="D693" s="5"/>
       <c r="E693" s="5"/>
@@ -6839,7 +6850,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="694" customHeight="1" ht="18">
       <c r="A694" s="5"/>
-      <c r="B694" s="6"/>
+      <c r="B694" s="8"/>
       <c r="C694" s="5"/>
       <c r="D694" s="5"/>
       <c r="E694" s="5"/>
@@ -6848,7 +6859,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="695" customHeight="1" ht="18">
       <c r="A695" s="5"/>
-      <c r="B695" s="6"/>
+      <c r="B695" s="8"/>
       <c r="C695" s="5"/>
       <c r="D695" s="5"/>
       <c r="E695" s="5"/>
@@ -6857,7 +6868,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="696" customHeight="1" ht="18">
       <c r="A696" s="5"/>
-      <c r="B696" s="6"/>
+      <c r="B696" s="8"/>
       <c r="C696" s="5"/>
       <c r="D696" s="5"/>
       <c r="E696" s="5"/>
@@ -6866,7 +6877,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="697" customHeight="1" ht="18">
       <c r="A697" s="5"/>
-      <c r="B697" s="6"/>
+      <c r="B697" s="8"/>
       <c r="C697" s="5"/>
       <c r="D697" s="5"/>
       <c r="E697" s="5"/>
@@ -6875,7 +6886,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="698" customHeight="1" ht="18">
       <c r="A698" s="5"/>
-      <c r="B698" s="6"/>
+      <c r="B698" s="8"/>
       <c r="C698" s="5"/>
       <c r="D698" s="5"/>
       <c r="E698" s="5"/>
@@ -6884,7 +6895,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="699" customHeight="1" ht="18">
       <c r="A699" s="5"/>
-      <c r="B699" s="6"/>
+      <c r="B699" s="8"/>
       <c r="C699" s="5"/>
       <c r="D699" s="5"/>
       <c r="E699" s="5"/>
@@ -6893,7 +6904,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="700" customHeight="1" ht="18">
       <c r="A700" s="5"/>
-      <c r="B700" s="6"/>
+      <c r="B700" s="8"/>
       <c r="C700" s="5"/>
       <c r="D700" s="5"/>
       <c r="E700" s="5"/>
@@ -6902,7 +6913,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="701" customHeight="1" ht="18">
       <c r="A701" s="5"/>
-      <c r="B701" s="6"/>
+      <c r="B701" s="8"/>
       <c r="C701" s="5"/>
       <c r="D701" s="5"/>
       <c r="E701" s="5"/>
@@ -6911,7 +6922,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="702" customHeight="1" ht="18">
       <c r="A702" s="5"/>
-      <c r="B702" s="6"/>
+      <c r="B702" s="8"/>
       <c r="C702" s="5"/>
       <c r="D702" s="5"/>
       <c r="E702" s="5"/>
@@ -6920,7 +6931,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="703" customHeight="1" ht="18">
       <c r="A703" s="5"/>
-      <c r="B703" s="6"/>
+      <c r="B703" s="8"/>
       <c r="C703" s="5"/>
       <c r="D703" s="5"/>
       <c r="E703" s="5"/>
@@ -6929,7 +6940,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="704" customHeight="1" ht="18">
       <c r="A704" s="5"/>
-      <c r="B704" s="6"/>
+      <c r="B704" s="8"/>
       <c r="C704" s="5"/>
       <c r="D704" s="5"/>
       <c r="E704" s="5"/>
@@ -6938,7 +6949,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="705" customHeight="1" ht="18">
       <c r="A705" s="5"/>
-      <c r="B705" s="6"/>
+      <c r="B705" s="8"/>
       <c r="C705" s="5"/>
       <c r="D705" s="5"/>
       <c r="E705" s="5"/>
@@ -6947,7 +6958,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="706" customHeight="1" ht="18">
       <c r="A706" s="5"/>
-      <c r="B706" s="6"/>
+      <c r="B706" s="8"/>
       <c r="C706" s="5"/>
       <c r="D706" s="5"/>
       <c r="E706" s="5"/>
@@ -6956,7 +6967,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="707" customHeight="1" ht="18">
       <c r="A707" s="5"/>
-      <c r="B707" s="6"/>
+      <c r="B707" s="8"/>
       <c r="C707" s="5"/>
       <c r="D707" s="5"/>
       <c r="E707" s="5"/>
@@ -6965,7 +6976,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="708" customHeight="1" ht="18">
       <c r="A708" s="5"/>
-      <c r="B708" s="6"/>
+      <c r="B708" s="8"/>
       <c r="C708" s="5"/>
       <c r="D708" s="5"/>
       <c r="E708" s="5"/>
@@ -6974,7 +6985,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="709" customHeight="1" ht="18">
       <c r="A709" s="5"/>
-      <c r="B709" s="6"/>
+      <c r="B709" s="8"/>
       <c r="C709" s="5"/>
       <c r="D709" s="5"/>
       <c r="E709" s="5"/>
@@ -6983,7 +6994,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="710" customHeight="1" ht="18">
       <c r="A710" s="5"/>
-      <c r="B710" s="6"/>
+      <c r="B710" s="8"/>
       <c r="C710" s="5"/>
       <c r="D710" s="5"/>
       <c r="E710" s="5"/>
@@ -6992,7 +7003,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="711" customHeight="1" ht="18">
       <c r="A711" s="5"/>
-      <c r="B711" s="6"/>
+      <c r="B711" s="8"/>
       <c r="C711" s="5"/>
       <c r="D711" s="5"/>
       <c r="E711" s="5"/>
@@ -7001,7 +7012,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="712" customHeight="1" ht="18">
       <c r="A712" s="5"/>
-      <c r="B712" s="6"/>
+      <c r="B712" s="8"/>
       <c r="C712" s="5"/>
       <c r="D712" s="5"/>
       <c r="E712" s="5"/>
@@ -7010,7 +7021,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="713" customHeight="1" ht="18">
       <c r="A713" s="5"/>
-      <c r="B713" s="6"/>
+      <c r="B713" s="8"/>
       <c r="C713" s="5"/>
       <c r="D713" s="5"/>
       <c r="E713" s="5"/>
@@ -7019,7 +7030,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="714" customHeight="1" ht="18">
       <c r="A714" s="5"/>
-      <c r="B714" s="6"/>
+      <c r="B714" s="8"/>
       <c r="C714" s="5"/>
       <c r="D714" s="5"/>
       <c r="E714" s="5"/>
@@ -7028,7 +7039,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="715" customHeight="1" ht="18">
       <c r="A715" s="5"/>
-      <c r="B715" s="6"/>
+      <c r="B715" s="8"/>
       <c r="C715" s="5"/>
       <c r="D715" s="5"/>
       <c r="E715" s="5"/>
@@ -7037,7 +7048,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="716" customHeight="1" ht="18">
       <c r="A716" s="5"/>
-      <c r="B716" s="6"/>
+      <c r="B716" s="8"/>
       <c r="C716" s="5"/>
       <c r="D716" s="5"/>
       <c r="E716" s="5"/>
@@ -7046,7 +7057,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="717" customHeight="1" ht="18">
       <c r="A717" s="5"/>
-      <c r="B717" s="6"/>
+      <c r="B717" s="8"/>
       <c r="C717" s="5"/>
       <c r="D717" s="5"/>
       <c r="E717" s="5"/>
@@ -7055,7 +7066,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="718" customHeight="1" ht="18">
       <c r="A718" s="5"/>
-      <c r="B718" s="6"/>
+      <c r="B718" s="8"/>
       <c r="C718" s="5"/>
       <c r="D718" s="5"/>
       <c r="E718" s="5"/>
@@ -7064,7 +7075,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="719" customHeight="1" ht="18">
       <c r="A719" s="5"/>
-      <c r="B719" s="6"/>
+      <c r="B719" s="8"/>
       <c r="C719" s="5"/>
       <c r="D719" s="5"/>
       <c r="E719" s="5"/>
@@ -7073,7 +7084,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="720" customHeight="1" ht="18">
       <c r="A720" s="5"/>
-      <c r="B720" s="6"/>
+      <c r="B720" s="8"/>
       <c r="C720" s="5"/>
       <c r="D720" s="5"/>
       <c r="E720" s="5"/>
@@ -7082,7 +7093,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="721" customHeight="1" ht="18">
       <c r="A721" s="5"/>
-      <c r="B721" s="6"/>
+      <c r="B721" s="8"/>
       <c r="C721" s="5"/>
       <c r="D721" s="5"/>
       <c r="E721" s="5"/>
@@ -7091,7 +7102,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="722" customHeight="1" ht="18">
       <c r="A722" s="5"/>
-      <c r="B722" s="6"/>
+      <c r="B722" s="8"/>
       <c r="C722" s="5"/>
       <c r="D722" s="5"/>
       <c r="E722" s="5"/>
@@ -7100,7 +7111,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="723" customHeight="1" ht="18">
       <c r="A723" s="5"/>
-      <c r="B723" s="6"/>
+      <c r="B723" s="8"/>
       <c r="C723" s="5"/>
       <c r="D723" s="5"/>
       <c r="E723" s="5"/>
@@ -7109,7 +7120,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="724" customHeight="1" ht="18">
       <c r="A724" s="5"/>
-      <c r="B724" s="6"/>
+      <c r="B724" s="8"/>
       <c r="C724" s="5"/>
       <c r="D724" s="5"/>
       <c r="E724" s="5"/>
@@ -7118,7 +7129,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="725" customHeight="1" ht="18">
       <c r="A725" s="5"/>
-      <c r="B725" s="6"/>
+      <c r="B725" s="8"/>
       <c r="C725" s="5"/>
       <c r="D725" s="5"/>
       <c r="E725" s="5"/>
@@ -7127,7 +7138,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="726" customHeight="1" ht="18">
       <c r="A726" s="5"/>
-      <c r="B726" s="6"/>
+      <c r="B726" s="8"/>
       <c r="C726" s="5"/>
       <c r="D726" s="5"/>
       <c r="E726" s="5"/>
@@ -7136,7 +7147,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="727" customHeight="1" ht="18">
       <c r="A727" s="5"/>
-      <c r="B727" s="6"/>
+      <c r="B727" s="8"/>
       <c r="C727" s="5"/>
       <c r="D727" s="5"/>
       <c r="E727" s="5"/>
@@ -7145,7 +7156,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="728" customHeight="1" ht="18">
       <c r="A728" s="5"/>
-      <c r="B728" s="6"/>
+      <c r="B728" s="8"/>
       <c r="C728" s="5"/>
       <c r="D728" s="5"/>
       <c r="E728" s="5"/>
@@ -7154,7 +7165,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="729" customHeight="1" ht="18">
       <c r="A729" s="5"/>
-      <c r="B729" s="6"/>
+      <c r="B729" s="8"/>
       <c r="C729" s="5"/>
       <c r="D729" s="5"/>
       <c r="E729" s="5"/>
@@ -7163,7 +7174,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="730" customHeight="1" ht="18">
       <c r="A730" s="5"/>
-      <c r="B730" s="6"/>
+      <c r="B730" s="8"/>
       <c r="C730" s="5"/>
       <c r="D730" s="5"/>
       <c r="E730" s="5"/>
@@ -7172,7 +7183,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="731" customHeight="1" ht="18">
       <c r="A731" s="5"/>
-      <c r="B731" s="6"/>
+      <c r="B731" s="8"/>
       <c r="C731" s="5"/>
       <c r="D731" s="5"/>
       <c r="E731" s="5"/>
@@ -7181,7 +7192,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="732" customHeight="1" ht="18">
       <c r="A732" s="5"/>
-      <c r="B732" s="6"/>
+      <c r="B732" s="8"/>
       <c r="C732" s="5"/>
       <c r="D732" s="5"/>
       <c r="E732" s="5"/>
@@ -7190,7 +7201,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="733" customHeight="1" ht="18">
       <c r="A733" s="5"/>
-      <c r="B733" s="6"/>
+      <c r="B733" s="8"/>
       <c r="C733" s="5"/>
       <c r="D733" s="5"/>
       <c r="E733" s="5"/>
@@ -7199,7 +7210,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="734" customHeight="1" ht="18">
       <c r="A734" s="5"/>
-      <c r="B734" s="6"/>
+      <c r="B734" s="8"/>
       <c r="C734" s="5"/>
       <c r="D734" s="5"/>
       <c r="E734" s="5"/>
@@ -7208,7 +7219,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="735" customHeight="1" ht="18">
       <c r="A735" s="5"/>
-      <c r="B735" s="6"/>
+      <c r="B735" s="8"/>
       <c r="C735" s="5"/>
       <c r="D735" s="5"/>
       <c r="E735" s="5"/>
@@ -7217,7 +7228,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="736" customHeight="1" ht="18">
       <c r="A736" s="5"/>
-      <c r="B736" s="6"/>
+      <c r="B736" s="8"/>
       <c r="C736" s="5"/>
       <c r="D736" s="5"/>
       <c r="E736" s="5"/>
@@ -7226,7 +7237,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="737" customHeight="1" ht="18">
       <c r="A737" s="5"/>
-      <c r="B737" s="6"/>
+      <c r="B737" s="8"/>
       <c r="C737" s="5"/>
       <c r="D737" s="5"/>
       <c r="E737" s="5"/>
@@ -7235,7 +7246,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="738" customHeight="1" ht="18">
       <c r="A738" s="5"/>
-      <c r="B738" s="6"/>
+      <c r="B738" s="8"/>
       <c r="C738" s="5"/>
       <c r="D738" s="5"/>
       <c r="E738" s="5"/>
@@ -7244,7 +7255,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="739" customHeight="1" ht="18">
       <c r="A739" s="5"/>
-      <c r="B739" s="6"/>
+      <c r="B739" s="8"/>
       <c r="C739" s="5"/>
       <c r="D739" s="5"/>
       <c r="E739" s="5"/>
@@ -7253,7 +7264,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="740" customHeight="1" ht="18">
       <c r="A740" s="5"/>
-      <c r="B740" s="6"/>
+      <c r="B740" s="8"/>
       <c r="C740" s="5"/>
       <c r="D740" s="5"/>
       <c r="E740" s="5"/>
@@ -7262,7 +7273,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="741" customHeight="1" ht="18">
       <c r="A741" s="5"/>
-      <c r="B741" s="6"/>
+      <c r="B741" s="8"/>
       <c r="C741" s="5"/>
       <c r="D741" s="5"/>
       <c r="E741" s="5"/>
@@ -7271,7 +7282,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="742" customHeight="1" ht="18">
       <c r="A742" s="5"/>
-      <c r="B742" s="6"/>
+      <c r="B742" s="8"/>
       <c r="C742" s="5"/>
       <c r="D742" s="5"/>
       <c r="E742" s="5"/>
@@ -7280,7 +7291,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="743" customHeight="1" ht="18">
       <c r="A743" s="5"/>
-      <c r="B743" s="6"/>
+      <c r="B743" s="8"/>
       <c r="C743" s="5"/>
       <c r="D743" s="5"/>
       <c r="E743" s="5"/>
@@ -7289,7 +7300,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="744" customHeight="1" ht="18">
       <c r="A744" s="5"/>
-      <c r="B744" s="6"/>
+      <c r="B744" s="8"/>
       <c r="C744" s="5"/>
       <c r="D744" s="5"/>
       <c r="E744" s="5"/>
@@ -7298,7 +7309,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="745" customHeight="1" ht="18">
       <c r="A745" s="5"/>
-      <c r="B745" s="6"/>
+      <c r="B745" s="8"/>
       <c r="C745" s="5"/>
       <c r="D745" s="5"/>
       <c r="E745" s="5"/>
@@ -7307,7 +7318,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="746" customHeight="1" ht="18">
       <c r="A746" s="5"/>
-      <c r="B746" s="6"/>
+      <c r="B746" s="8"/>
       <c r="C746" s="5"/>
       <c r="D746" s="5"/>
       <c r="E746" s="5"/>
@@ -7316,7 +7327,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="747" customHeight="1" ht="18">
       <c r="A747" s="5"/>
-      <c r="B747" s="6"/>
+      <c r="B747" s="8"/>
       <c r="C747" s="5"/>
       <c r="D747" s="5"/>
       <c r="E747" s="5"/>
@@ -7325,7 +7336,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="748" customHeight="1" ht="18">
       <c r="A748" s="5"/>
-      <c r="B748" s="6"/>
+      <c r="B748" s="8"/>
       <c r="C748" s="5"/>
       <c r="D748" s="5"/>
       <c r="E748" s="5"/>
@@ -7334,7 +7345,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="749" customHeight="1" ht="18">
       <c r="A749" s="5"/>
-      <c r="B749" s="6"/>
+      <c r="B749" s="8"/>
       <c r="C749" s="5"/>
       <c r="D749" s="5"/>
       <c r="E749" s="5"/>
@@ -7343,7 +7354,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="750" customHeight="1" ht="18">
       <c r="A750" s="5"/>
-      <c r="B750" s="6"/>
+      <c r="B750" s="8"/>
       <c r="C750" s="5"/>
       <c r="D750" s="5"/>
       <c r="E750" s="5"/>
@@ -7352,7 +7363,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="751" customHeight="1" ht="18">
       <c r="A751" s="5"/>
-      <c r="B751" s="6"/>
+      <c r="B751" s="8"/>
       <c r="C751" s="5"/>
       <c r="D751" s="5"/>
       <c r="E751" s="5"/>
@@ -7361,7 +7372,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="752" customHeight="1" ht="18">
       <c r="A752" s="5"/>
-      <c r="B752" s="6"/>
+      <c r="B752" s="8"/>
       <c r="C752" s="5"/>
       <c r="D752" s="5"/>
       <c r="E752" s="5"/>
@@ -7370,7 +7381,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="753" customHeight="1" ht="18">
       <c r="A753" s="5"/>
-      <c r="B753" s="6"/>
+      <c r="B753" s="8"/>
       <c r="C753" s="5"/>
       <c r="D753" s="5"/>
       <c r="E753" s="5"/>
@@ -7379,7 +7390,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="754" customHeight="1" ht="18">
       <c r="A754" s="5"/>
-      <c r="B754" s="6"/>
+      <c r="B754" s="8"/>
       <c r="C754" s="5"/>
       <c r="D754" s="5"/>
       <c r="E754" s="5"/>
@@ -7388,7 +7399,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="755" customHeight="1" ht="18">
       <c r="A755" s="5"/>
-      <c r="B755" s="6"/>
+      <c r="B755" s="8"/>
       <c r="C755" s="5"/>
       <c r="D755" s="5"/>
       <c r="E755" s="5"/>
@@ -7397,7 +7408,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="756" customHeight="1" ht="18">
       <c r="A756" s="5"/>
-      <c r="B756" s="6"/>
+      <c r="B756" s="8"/>
       <c r="C756" s="5"/>
       <c r="D756" s="5"/>
       <c r="E756" s="5"/>
@@ -7406,7 +7417,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="757" customHeight="1" ht="18">
       <c r="A757" s="5"/>
-      <c r="B757" s="6"/>
+      <c r="B757" s="8"/>
       <c r="C757" s="5"/>
       <c r="D757" s="5"/>
       <c r="E757" s="5"/>
@@ -7415,7 +7426,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="758" customHeight="1" ht="18">
       <c r="A758" s="5"/>
-      <c r="B758" s="6"/>
+      <c r="B758" s="8"/>
       <c r="C758" s="5"/>
       <c r="D758" s="5"/>
       <c r="E758" s="5"/>
@@ -7424,7 +7435,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="759" customHeight="1" ht="18">
       <c r="A759" s="5"/>
-      <c r="B759" s="6"/>
+      <c r="B759" s="8"/>
       <c r="C759" s="5"/>
       <c r="D759" s="5"/>
       <c r="E759" s="5"/>
@@ -7433,7 +7444,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="760" customHeight="1" ht="18">
       <c r="A760" s="5"/>
-      <c r="B760" s="6"/>
+      <c r="B760" s="8"/>
       <c r="C760" s="5"/>
       <c r="D760" s="5"/>
       <c r="E760" s="5"/>
@@ -7442,7 +7453,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="761" customHeight="1" ht="18">
       <c r="A761" s="5"/>
-      <c r="B761" s="6"/>
+      <c r="B761" s="8"/>
       <c r="C761" s="5"/>
       <c r="D761" s="5"/>
       <c r="E761" s="5"/>
@@ -7451,7 +7462,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="762" customHeight="1" ht="18">
       <c r="A762" s="5"/>
-      <c r="B762" s="6"/>
+      <c r="B762" s="8"/>
       <c r="C762" s="5"/>
       <c r="D762" s="5"/>
       <c r="E762" s="5"/>
@@ -7460,7 +7471,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="763" customHeight="1" ht="18">
       <c r="A763" s="5"/>
-      <c r="B763" s="6"/>
+      <c r="B763" s="8"/>
       <c r="C763" s="5"/>
       <c r="D763" s="5"/>
       <c r="E763" s="5"/>
@@ -7469,7 +7480,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="764" customHeight="1" ht="18">
       <c r="A764" s="5"/>
-      <c r="B764" s="6"/>
+      <c r="B764" s="8"/>
       <c r="C764" s="5"/>
       <c r="D764" s="5"/>
       <c r="E764" s="5"/>
@@ -7478,7 +7489,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="765" customHeight="1" ht="18">
       <c r="A765" s="5"/>
-      <c r="B765" s="6"/>
+      <c r="B765" s="8"/>
       <c r="C765" s="5"/>
       <c r="D765" s="5"/>
       <c r="E765" s="5"/>
@@ -7487,7 +7498,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="766" customHeight="1" ht="18">
       <c r="A766" s="5"/>
-      <c r="B766" s="6"/>
+      <c r="B766" s="8"/>
       <c r="C766" s="5"/>
       <c r="D766" s="5"/>
       <c r="E766" s="5"/>
@@ -7496,7 +7507,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="767" customHeight="1" ht="18">
       <c r="A767" s="5"/>
-      <c r="B767" s="6"/>
+      <c r="B767" s="8"/>
       <c r="C767" s="5"/>
       <c r="D767" s="5"/>
       <c r="E767" s="5"/>
@@ -7505,7 +7516,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="768" customHeight="1" ht="18">
       <c r="A768" s="5"/>
-      <c r="B768" s="6"/>
+      <c r="B768" s="8"/>
       <c r="C768" s="5"/>
       <c r="D768" s="5"/>
       <c r="E768" s="5"/>
@@ -7514,7 +7525,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="769" customHeight="1" ht="18">
       <c r="A769" s="5"/>
-      <c r="B769" s="6"/>
+      <c r="B769" s="8"/>
       <c r="C769" s="5"/>
       <c r="D769" s="5"/>
       <c r="E769" s="5"/>
@@ -7523,7 +7534,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="770" customHeight="1" ht="18">
       <c r="A770" s="5"/>
-      <c r="B770" s="6"/>
+      <c r="B770" s="8"/>
       <c r="C770" s="5"/>
       <c r="D770" s="5"/>
       <c r="E770" s="5"/>
@@ -7532,7 +7543,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="771" customHeight="1" ht="18">
       <c r="A771" s="5"/>
-      <c r="B771" s="6"/>
+      <c r="B771" s="8"/>
       <c r="C771" s="5"/>
       <c r="D771" s="5"/>
       <c r="E771" s="5"/>
@@ -7541,7 +7552,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="772" customHeight="1" ht="18">
       <c r="A772" s="5"/>
-      <c r="B772" s="6"/>
+      <c r="B772" s="8"/>
       <c r="C772" s="5"/>
       <c r="D772" s="5"/>
       <c r="E772" s="5"/>
@@ -7550,7 +7561,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="773" customHeight="1" ht="18">
       <c r="A773" s="5"/>
-      <c r="B773" s="6"/>
+      <c r="B773" s="8"/>
       <c r="C773" s="5"/>
       <c r="D773" s="5"/>
       <c r="E773" s="5"/>
@@ -7559,7 +7570,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="774" customHeight="1" ht="18">
       <c r="A774" s="5"/>
-      <c r="B774" s="6"/>
+      <c r="B774" s="8"/>
       <c r="C774" s="5"/>
       <c r="D774" s="5"/>
       <c r="E774" s="5"/>
@@ -7568,7 +7579,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="775" customHeight="1" ht="18">
       <c r="A775" s="5"/>
-      <c r="B775" s="6"/>
+      <c r="B775" s="8"/>
       <c r="C775" s="5"/>
       <c r="D775" s="5"/>
       <c r="E775" s="5"/>
@@ -7577,7 +7588,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="776" customHeight="1" ht="18">
       <c r="A776" s="5"/>
-      <c r="B776" s="6"/>
+      <c r="B776" s="8"/>
       <c r="C776" s="5"/>
       <c r="D776" s="5"/>
       <c r="E776" s="5"/>
@@ -7586,7 +7597,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="777" customHeight="1" ht="18">
       <c r="A777" s="5"/>
-      <c r="B777" s="6"/>
+      <c r="B777" s="8"/>
       <c r="C777" s="5"/>
       <c r="D777" s="5"/>
       <c r="E777" s="5"/>
@@ -7595,7 +7606,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="778" customHeight="1" ht="18">
       <c r="A778" s="5"/>
-      <c r="B778" s="6"/>
+      <c r="B778" s="8"/>
       <c r="C778" s="5"/>
       <c r="D778" s="5"/>
       <c r="E778" s="5"/>
@@ -7604,7 +7615,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="779" customHeight="1" ht="18">
       <c r="A779" s="5"/>
-      <c r="B779" s="6"/>
+      <c r="B779" s="8"/>
       <c r="C779" s="5"/>
       <c r="D779" s="5"/>
       <c r="E779" s="5"/>
@@ -7613,7 +7624,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="780" customHeight="1" ht="18">
       <c r="A780" s="5"/>
-      <c r="B780" s="6"/>
+      <c r="B780" s="8"/>
       <c r="C780" s="5"/>
       <c r="D780" s="5"/>
       <c r="E780" s="5"/>
@@ -7622,7 +7633,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="781" customHeight="1" ht="18">
       <c r="A781" s="5"/>
-      <c r="B781" s="6"/>
+      <c r="B781" s="8"/>
       <c r="C781" s="5"/>
       <c r="D781" s="5"/>
       <c r="E781" s="5"/>
@@ -7631,7 +7642,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="782" customHeight="1" ht="18">
       <c r="A782" s="5"/>
-      <c r="B782" s="6"/>
+      <c r="B782" s="8"/>
       <c r="C782" s="5"/>
       <c r="D782" s="5"/>
       <c r="E782" s="5"/>
@@ -7640,7 +7651,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="783" customHeight="1" ht="18">
       <c r="A783" s="5"/>
-      <c r="B783" s="6"/>
+      <c r="B783" s="8"/>
       <c r="C783" s="5"/>
       <c r="D783" s="5"/>
       <c r="E783" s="5"/>
@@ -7649,7 +7660,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="784" customHeight="1" ht="18">
       <c r="A784" s="5"/>
-      <c r="B784" s="6"/>
+      <c r="B784" s="8"/>
       <c r="C784" s="5"/>
       <c r="D784" s="5"/>
       <c r="E784" s="5"/>
@@ -7658,7 +7669,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="785" customHeight="1" ht="18">
       <c r="A785" s="5"/>
-      <c r="B785" s="6"/>
+      <c r="B785" s="8"/>
       <c r="C785" s="5"/>
       <c r="D785" s="5"/>
       <c r="E785" s="5"/>
@@ -7667,7 +7678,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="786" customHeight="1" ht="18">
       <c r="A786" s="5"/>
-      <c r="B786" s="6"/>
+      <c r="B786" s="8"/>
       <c r="C786" s="5"/>
       <c r="D786" s="5"/>
       <c r="E786" s="5"/>
@@ -7676,7 +7687,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="787" customHeight="1" ht="18">
       <c r="A787" s="5"/>
-      <c r="B787" s="6"/>
+      <c r="B787" s="8"/>
       <c r="C787" s="5"/>
       <c r="D787" s="5"/>
       <c r="E787" s="5"/>
@@ -7685,7 +7696,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="788" customHeight="1" ht="18">
       <c r="A788" s="5"/>
-      <c r="B788" s="6"/>
+      <c r="B788" s="8"/>
       <c r="C788" s="5"/>
       <c r="D788" s="5"/>
       <c r="E788" s="5"/>
@@ -7694,7 +7705,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="789" customHeight="1" ht="18">
       <c r="A789" s="5"/>
-      <c r="B789" s="6"/>
+      <c r="B789" s="8"/>
       <c r="C789" s="5"/>
       <c r="D789" s="5"/>
       <c r="E789" s="5"/>
@@ -7703,7 +7714,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="790" customHeight="1" ht="18">
       <c r="A790" s="5"/>
-      <c r="B790" s="6"/>
+      <c r="B790" s="8"/>
       <c r="C790" s="5"/>
       <c r="D790" s="5"/>
       <c r="E790" s="5"/>
@@ -7712,7 +7723,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="791" customHeight="1" ht="18">
       <c r="A791" s="5"/>
-      <c r="B791" s="6"/>
+      <c r="B791" s="8"/>
       <c r="C791" s="5"/>
       <c r="D791" s="5"/>
       <c r="E791" s="5"/>
@@ -7721,7 +7732,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="792" customHeight="1" ht="18">
       <c r="A792" s="5"/>
-      <c r="B792" s="6"/>
+      <c r="B792" s="8"/>
       <c r="C792" s="5"/>
       <c r="D792" s="5"/>
       <c r="E792" s="5"/>
@@ -7730,7 +7741,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="793" customHeight="1" ht="18">
       <c r="A793" s="5"/>
-      <c r="B793" s="6"/>
+      <c r="B793" s="8"/>
       <c r="C793" s="5"/>
       <c r="D793" s="5"/>
       <c r="E793" s="5"/>
@@ -7739,7 +7750,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="794" customHeight="1" ht="18">
       <c r="A794" s="5"/>
-      <c r="B794" s="6"/>
+      <c r="B794" s="8"/>
       <c r="C794" s="5"/>
       <c r="D794" s="5"/>
       <c r="E794" s="5"/>
@@ -7748,7 +7759,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="795" customHeight="1" ht="18">
       <c r="A795" s="5"/>
-      <c r="B795" s="6"/>
+      <c r="B795" s="8"/>
       <c r="C795" s="5"/>
       <c r="D795" s="5"/>
       <c r="E795" s="5"/>
@@ -7757,7 +7768,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="796" customHeight="1" ht="18">
       <c r="A796" s="5"/>
-      <c r="B796" s="6"/>
+      <c r="B796" s="8"/>
       <c r="C796" s="5"/>
       <c r="D796" s="5"/>
       <c r="E796" s="5"/>
@@ -7766,7 +7777,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="797" customHeight="1" ht="18">
       <c r="A797" s="5"/>
-      <c r="B797" s="6"/>
+      <c r="B797" s="8"/>
       <c r="C797" s="5"/>
       <c r="D797" s="5"/>
       <c r="E797" s="5"/>
@@ -7775,7 +7786,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="798" customHeight="1" ht="18">
       <c r="A798" s="5"/>
-      <c r="B798" s="6"/>
+      <c r="B798" s="8"/>
       <c r="C798" s="5"/>
       <c r="D798" s="5"/>
       <c r="E798" s="5"/>
@@ -7784,7 +7795,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="799" customHeight="1" ht="18">
       <c r="A799" s="5"/>
-      <c r="B799" s="6"/>
+      <c r="B799" s="8"/>
       <c r="C799" s="5"/>
       <c r="D799" s="5"/>
       <c r="E799" s="5"/>
@@ -7793,7 +7804,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="800" customHeight="1" ht="18">
       <c r="A800" s="5"/>
-      <c r="B800" s="6"/>
+      <c r="B800" s="8"/>
       <c r="C800" s="5"/>
       <c r="D800" s="5"/>
       <c r="E800" s="5"/>
@@ -7802,7 +7813,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="801" customHeight="1" ht="18">
       <c r="A801" s="5"/>
-      <c r="B801" s="6"/>
+      <c r="B801" s="8"/>
       <c r="C801" s="5"/>
       <c r="D801" s="5"/>
       <c r="E801" s="5"/>
@@ -7811,7 +7822,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="802" customHeight="1" ht="18">
       <c r="A802" s="5"/>
-      <c r="B802" s="6"/>
+      <c r="B802" s="8"/>
       <c r="C802" s="5"/>
       <c r="D802" s="5"/>
       <c r="E802" s="5"/>
@@ -7820,7 +7831,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="803" customHeight="1" ht="18">
       <c r="A803" s="5"/>
-      <c r="B803" s="6"/>
+      <c r="B803" s="8"/>
       <c r="C803" s="5"/>
       <c r="D803" s="5"/>
       <c r="E803" s="5"/>
@@ -7829,7 +7840,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="804" customHeight="1" ht="18">
       <c r="A804" s="5"/>
-      <c r="B804" s="6"/>
+      <c r="B804" s="8"/>
       <c r="C804" s="5"/>
       <c r="D804" s="5"/>
       <c r="E804" s="5"/>
@@ -7838,7 +7849,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="805" customHeight="1" ht="18">
       <c r="A805" s="5"/>
-      <c r="B805" s="6"/>
+      <c r="B805" s="8"/>
       <c r="C805" s="5"/>
       <c r="D805" s="5"/>
       <c r="E805" s="5"/>
@@ -7847,7 +7858,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="806" customHeight="1" ht="18">
       <c r="A806" s="5"/>
-      <c r="B806" s="6"/>
+      <c r="B806" s="8"/>
       <c r="C806" s="5"/>
       <c r="D806" s="5"/>
       <c r="E806" s="5"/>
@@ -7856,7 +7867,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="807" customHeight="1" ht="18">
       <c r="A807" s="5"/>
-      <c r="B807" s="6"/>
+      <c r="B807" s="8"/>
       <c r="C807" s="5"/>
       <c r="D807" s="5"/>
       <c r="E807" s="5"/>
@@ -7865,7 +7876,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="808" customHeight="1" ht="18">
       <c r="A808" s="5"/>
-      <c r="B808" s="6"/>
+      <c r="B808" s="8"/>
       <c r="C808" s="5"/>
       <c r="D808" s="5"/>
       <c r="E808" s="5"/>
@@ -7874,7 +7885,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="809" customHeight="1" ht="18">
       <c r="A809" s="5"/>
-      <c r="B809" s="6"/>
+      <c r="B809" s="8"/>
       <c r="C809" s="5"/>
       <c r="D809" s="5"/>
       <c r="E809" s="5"/>
@@ -7883,7 +7894,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="810" customHeight="1" ht="18">
       <c r="A810" s="5"/>
-      <c r="B810" s="6"/>
+      <c r="B810" s="8"/>
       <c r="C810" s="5"/>
       <c r="D810" s="5"/>
       <c r="E810" s="5"/>
@@ -7892,7 +7903,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="811" customHeight="1" ht="18">
       <c r="A811" s="5"/>
-      <c r="B811" s="6"/>
+      <c r="B811" s="8"/>
       <c r="C811" s="5"/>
       <c r="D811" s="5"/>
       <c r="E811" s="5"/>
@@ -7901,7 +7912,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="812" customHeight="1" ht="18">
       <c r="A812" s="5"/>
-      <c r="B812" s="6"/>
+      <c r="B812" s="8"/>
       <c r="C812" s="5"/>
       <c r="D812" s="5"/>
       <c r="E812" s="5"/>
@@ -7910,7 +7921,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="813" customHeight="1" ht="18">
       <c r="A813" s="5"/>
-      <c r="B813" s="6"/>
+      <c r="B813" s="8"/>
       <c r="C813" s="5"/>
       <c r="D813" s="5"/>
       <c r="E813" s="5"/>
@@ -7919,7 +7930,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="814" customHeight="1" ht="18">
       <c r="A814" s="5"/>
-      <c r="B814" s="6"/>
+      <c r="B814" s="8"/>
       <c r="C814" s="5"/>
       <c r="D814" s="5"/>
       <c r="E814" s="5"/>
@@ -7928,7 +7939,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="815" customHeight="1" ht="18">
       <c r="A815" s="5"/>
-      <c r="B815" s="6"/>
+      <c r="B815" s="8"/>
       <c r="C815" s="5"/>
       <c r="D815" s="5"/>
       <c r="E815" s="5"/>
@@ -7937,7 +7948,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="816" customHeight="1" ht="18">
       <c r="A816" s="5"/>
-      <c r="B816" s="6"/>
+      <c r="B816" s="8"/>
       <c r="C816" s="5"/>
       <c r="D816" s="5"/>
       <c r="E816" s="5"/>
@@ -7946,7 +7957,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="817" customHeight="1" ht="18">
       <c r="A817" s="5"/>
-      <c r="B817" s="6"/>
+      <c r="B817" s="8"/>
       <c r="C817" s="5"/>
       <c r="D817" s="5"/>
       <c r="E817" s="5"/>
@@ -7955,7 +7966,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="818" customHeight="1" ht="18">
       <c r="A818" s="5"/>
-      <c r="B818" s="6"/>
+      <c r="B818" s="8"/>
       <c r="C818" s="5"/>
       <c r="D818" s="5"/>
       <c r="E818" s="5"/>
@@ -7964,7 +7975,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="819" customHeight="1" ht="18">
       <c r="A819" s="5"/>
-      <c r="B819" s="6"/>
+      <c r="B819" s="8"/>
       <c r="C819" s="5"/>
       <c r="D819" s="5"/>
       <c r="E819" s="5"/>
@@ -7973,7 +7984,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="820" customHeight="1" ht="18">
       <c r="A820" s="5"/>
-      <c r="B820" s="6"/>
+      <c r="B820" s="8"/>
       <c r="C820" s="5"/>
       <c r="D820" s="5"/>
       <c r="E820" s="5"/>
@@ -7982,7 +7993,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="821" customHeight="1" ht="18">
       <c r="A821" s="5"/>
-      <c r="B821" s="6"/>
+      <c r="B821" s="8"/>
       <c r="C821" s="5"/>
       <c r="D821" s="5"/>
       <c r="E821" s="5"/>
@@ -7991,7 +8002,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="822" customHeight="1" ht="18">
       <c r="A822" s="5"/>
-      <c r="B822" s="6"/>
+      <c r="B822" s="8"/>
       <c r="C822" s="5"/>
       <c r="D822" s="5"/>
       <c r="E822" s="5"/>
@@ -8000,7 +8011,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="823" customHeight="1" ht="18">
       <c r="A823" s="5"/>
-      <c r="B823" s="6"/>
+      <c r="B823" s="8"/>
       <c r="C823" s="5"/>
       <c r="D823" s="5"/>
       <c r="E823" s="5"/>
@@ -8009,7 +8020,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="824" customHeight="1" ht="18">
       <c r="A824" s="5"/>
-      <c r="B824" s="6"/>
+      <c r="B824" s="8"/>
       <c r="C824" s="5"/>
       <c r="D824" s="5"/>
       <c r="E824" s="5"/>
@@ -8018,7 +8029,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="825" customHeight="1" ht="18">
       <c r="A825" s="5"/>
-      <c r="B825" s="6"/>
+      <c r="B825" s="8"/>
       <c r="C825" s="5"/>
       <c r="D825" s="5"/>
       <c r="E825" s="5"/>
@@ -8027,7 +8038,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="826" customHeight="1" ht="18">
       <c r="A826" s="5"/>
-      <c r="B826" s="6"/>
+      <c r="B826" s="8"/>
       <c r="C826" s="5"/>
       <c r="D826" s="5"/>
       <c r="E826" s="5"/>
@@ -8036,7 +8047,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="827" customHeight="1" ht="18">
       <c r="A827" s="5"/>
-      <c r="B827" s="6"/>
+      <c r="B827" s="8"/>
       <c r="C827" s="5"/>
       <c r="D827" s="5"/>
       <c r="E827" s="5"/>
@@ -8045,7 +8056,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="828" customHeight="1" ht="18">
       <c r="A828" s="5"/>
-      <c r="B828" s="6"/>
+      <c r="B828" s="8"/>
       <c r="C828" s="5"/>
       <c r="D828" s="5"/>
       <c r="E828" s="5"/>
@@ -8054,7 +8065,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="829" customHeight="1" ht="18">
       <c r="A829" s="5"/>
-      <c r="B829" s="6"/>
+      <c r="B829" s="8"/>
       <c r="C829" s="5"/>
       <c r="D829" s="5"/>
       <c r="E829" s="5"/>
@@ -8063,7 +8074,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="830" customHeight="1" ht="18">
       <c r="A830" s="5"/>
-      <c r="B830" s="6"/>
+      <c r="B830" s="8"/>
       <c r="C830" s="5"/>
       <c r="D830" s="5"/>
       <c r="E830" s="5"/>
@@ -8072,7 +8083,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="831" customHeight="1" ht="18">
       <c r="A831" s="5"/>
-      <c r="B831" s="6"/>
+      <c r="B831" s="8"/>
       <c r="C831" s="5"/>
       <c r="D831" s="5"/>
       <c r="E831" s="5"/>
@@ -8081,7 +8092,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="832" customHeight="1" ht="18">
       <c r="A832" s="5"/>
-      <c r="B832" s="6"/>
+      <c r="B832" s="8"/>
       <c r="C832" s="5"/>
       <c r="D832" s="5"/>
       <c r="E832" s="5"/>
@@ -8090,7 +8101,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="833" customHeight="1" ht="18">
       <c r="A833" s="5"/>
-      <c r="B833" s="6"/>
+      <c r="B833" s="8"/>
       <c r="C833" s="5"/>
       <c r="D833" s="5"/>
       <c r="E833" s="5"/>
@@ -8099,7 +8110,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="834" customHeight="1" ht="18">
       <c r="A834" s="5"/>
-      <c r="B834" s="6"/>
+      <c r="B834" s="8"/>
       <c r="C834" s="5"/>
       <c r="D834" s="5"/>
       <c r="E834" s="5"/>
@@ -8108,7 +8119,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="835" customHeight="1" ht="18">
       <c r="A835" s="5"/>
-      <c r="B835" s="6"/>
+      <c r="B835" s="8"/>
       <c r="C835" s="5"/>
       <c r="D835" s="5"/>
       <c r="E835" s="5"/>
@@ -8117,7 +8128,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="836" customHeight="1" ht="18">
       <c r="A836" s="5"/>
-      <c r="B836" s="6"/>
+      <c r="B836" s="8"/>
       <c r="C836" s="5"/>
       <c r="D836" s="5"/>
       <c r="E836" s="5"/>
@@ -8126,7 +8137,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="837" customHeight="1" ht="18">
       <c r="A837" s="5"/>
-      <c r="B837" s="6"/>
+      <c r="B837" s="8"/>
       <c r="C837" s="5"/>
       <c r="D837" s="5"/>
       <c r="E837" s="5"/>
@@ -8135,7 +8146,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="838" customHeight="1" ht="18">
       <c r="A838" s="5"/>
-      <c r="B838" s="6"/>
+      <c r="B838" s="8"/>
       <c r="C838" s="5"/>
       <c r="D838" s="5"/>
       <c r="E838" s="5"/>
@@ -8144,7 +8155,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="839" customHeight="1" ht="18">
       <c r="A839" s="5"/>
-      <c r="B839" s="6"/>
+      <c r="B839" s="8"/>
       <c r="C839" s="5"/>
       <c r="D839" s="5"/>
       <c r="E839" s="5"/>
@@ -8153,7 +8164,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="840" customHeight="1" ht="18">
       <c r="A840" s="5"/>
-      <c r="B840" s="6"/>
+      <c r="B840" s="8"/>
       <c r="C840" s="5"/>
       <c r="D840" s="5"/>
       <c r="E840" s="5"/>
@@ -8162,7 +8173,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="841" customHeight="1" ht="18">
       <c r="A841" s="5"/>
-      <c r="B841" s="6"/>
+      <c r="B841" s="8"/>
       <c r="C841" s="5"/>
       <c r="D841" s="5"/>
       <c r="E841" s="5"/>
@@ -8171,7 +8182,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="842" customHeight="1" ht="18">
       <c r="A842" s="5"/>
-      <c r="B842" s="6"/>
+      <c r="B842" s="8"/>
       <c r="C842" s="5"/>
       <c r="D842" s="5"/>
       <c r="E842" s="5"/>
@@ -8180,7 +8191,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="843" customHeight="1" ht="18">
       <c r="A843" s="5"/>
-      <c r="B843" s="6"/>
+      <c r="B843" s="8"/>
       <c r="C843" s="5"/>
       <c r="D843" s="5"/>
       <c r="E843" s="5"/>
@@ -8189,7 +8200,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="844" customHeight="1" ht="18">
       <c r="A844" s="5"/>
-      <c r="B844" s="6"/>
+      <c r="B844" s="8"/>
       <c r="C844" s="5"/>
       <c r="D844" s="5"/>
       <c r="E844" s="5"/>
@@ -8198,7 +8209,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="845" customHeight="1" ht="18">
       <c r="A845" s="5"/>
-      <c r="B845" s="6"/>
+      <c r="B845" s="8"/>
       <c r="C845" s="5"/>
       <c r="D845" s="5"/>
       <c r="E845" s="5"/>
@@ -8207,7 +8218,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="846" customHeight="1" ht="18">
       <c r="A846" s="5"/>
-      <c r="B846" s="6"/>
+      <c r="B846" s="8"/>
       <c r="C846" s="5"/>
       <c r="D846" s="5"/>
       <c r="E846" s="5"/>
@@ -8216,7 +8227,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="847" customHeight="1" ht="18">
       <c r="A847" s="5"/>
-      <c r="B847" s="6"/>
+      <c r="B847" s="8"/>
       <c r="C847" s="5"/>
       <c r="D847" s="5"/>
       <c r="E847" s="5"/>
@@ -8225,7 +8236,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="848" customHeight="1" ht="18">
       <c r="A848" s="5"/>
-      <c r="B848" s="6"/>
+      <c r="B848" s="8"/>
       <c r="C848" s="5"/>
       <c r="D848" s="5"/>
       <c r="E848" s="5"/>
@@ -8234,7 +8245,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="849" customHeight="1" ht="18">
       <c r="A849" s="5"/>
-      <c r="B849" s="6"/>
+      <c r="B849" s="8"/>
       <c r="C849" s="5"/>
       <c r="D849" s="5"/>
       <c r="E849" s="5"/>
@@ -8243,7 +8254,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="850" customHeight="1" ht="18">
       <c r="A850" s="5"/>
-      <c r="B850" s="6"/>
+      <c r="B850" s="8"/>
       <c r="C850" s="5"/>
       <c r="D850" s="5"/>
       <c r="E850" s="5"/>
@@ -8252,7 +8263,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="851" customHeight="1" ht="18">
       <c r="A851" s="5"/>
-      <c r="B851" s="6"/>
+      <c r="B851" s="8"/>
       <c r="C851" s="5"/>
       <c r="D851" s="5"/>
       <c r="E851" s="5"/>
@@ -8261,7 +8272,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="852" customHeight="1" ht="18">
       <c r="A852" s="5"/>
-      <c r="B852" s="6"/>
+      <c r="B852" s="8"/>
       <c r="C852" s="5"/>
       <c r="D852" s="5"/>
       <c r="E852" s="5"/>
@@ -8270,7 +8281,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="853" customHeight="1" ht="18">
       <c r="A853" s="5"/>
-      <c r="B853" s="6"/>
+      <c r="B853" s="8"/>
       <c r="C853" s="5"/>
       <c r="D853" s="5"/>
       <c r="E853" s="5"/>
@@ -8279,7 +8290,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="854" customHeight="1" ht="18">
       <c r="A854" s="5"/>
-      <c r="B854" s="6"/>
+      <c r="B854" s="8"/>
       <c r="C854" s="5"/>
       <c r="D854" s="5"/>
       <c r="E854" s="5"/>
@@ -8288,7 +8299,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="855" customHeight="1" ht="18">
       <c r="A855" s="5"/>
-      <c r="B855" s="6"/>
+      <c r="B855" s="8"/>
       <c r="C855" s="5"/>
       <c r="D855" s="5"/>
       <c r="E855" s="5"/>
@@ -8297,7 +8308,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="856" customHeight="1" ht="18">
       <c r="A856" s="5"/>
-      <c r="B856" s="6"/>
+      <c r="B856" s="8"/>
       <c r="C856" s="5"/>
       <c r="D856" s="5"/>
       <c r="E856" s="5"/>
@@ -8306,7 +8317,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="857" customHeight="1" ht="18">
       <c r="A857" s="5"/>
-      <c r="B857" s="6"/>
+      <c r="B857" s="8"/>
       <c r="C857" s="5"/>
       <c r="D857" s="5"/>
       <c r="E857" s="5"/>
@@ -8315,7 +8326,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="858" customHeight="1" ht="18">
       <c r="A858" s="5"/>
-      <c r="B858" s="6"/>
+      <c r="B858" s="8"/>
       <c r="C858" s="5"/>
       <c r="D858" s="5"/>
       <c r="E858" s="5"/>
@@ -8324,7 +8335,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="859" customHeight="1" ht="18">
       <c r="A859" s="5"/>
-      <c r="B859" s="6"/>
+      <c r="B859" s="8"/>
       <c r="C859" s="5"/>
       <c r="D859" s="5"/>
       <c r="E859" s="5"/>
@@ -8333,7 +8344,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="860" customHeight="1" ht="18">
       <c r="A860" s="5"/>
-      <c r="B860" s="6"/>
+      <c r="B860" s="8"/>
       <c r="C860" s="5"/>
       <c r="D860" s="5"/>
       <c r="E860" s="5"/>
@@ -8342,7 +8353,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="861" customHeight="1" ht="18">
       <c r="A861" s="5"/>
-      <c r="B861" s="6"/>
+      <c r="B861" s="8"/>
       <c r="C861" s="5"/>
       <c r="D861" s="5"/>
       <c r="E861" s="5"/>
@@ -8351,7 +8362,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="862" customHeight="1" ht="18">
       <c r="A862" s="5"/>
-      <c r="B862" s="6"/>
+      <c r="B862" s="8"/>
       <c r="C862" s="5"/>
       <c r="D862" s="5"/>
       <c r="E862" s="5"/>
@@ -8360,7 +8371,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="863" customHeight="1" ht="18">
       <c r="A863" s="5"/>
-      <c r="B863" s="6"/>
+      <c r="B863" s="8"/>
       <c r="C863" s="5"/>
       <c r="D863" s="5"/>
       <c r="E863" s="5"/>
@@ -8369,7 +8380,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="864" customHeight="1" ht="18">
       <c r="A864" s="5"/>
-      <c r="B864" s="6"/>
+      <c r="B864" s="8"/>
       <c r="C864" s="5"/>
       <c r="D864" s="5"/>
       <c r="E864" s="5"/>
@@ -8378,7 +8389,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="865" customHeight="1" ht="18">
       <c r="A865" s="5"/>
-      <c r="B865" s="6"/>
+      <c r="B865" s="8"/>
       <c r="C865" s="5"/>
       <c r="D865" s="5"/>
       <c r="E865" s="5"/>
@@ -8387,7 +8398,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="866" customHeight="1" ht="18">
       <c r="A866" s="5"/>
-      <c r="B866" s="6"/>
+      <c r="B866" s="8"/>
       <c r="C866" s="5"/>
       <c r="D866" s="5"/>
       <c r="E866" s="5"/>
@@ -8396,7 +8407,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="867" customHeight="1" ht="18">
       <c r="A867" s="5"/>
-      <c r="B867" s="6"/>
+      <c r="B867" s="8"/>
       <c r="C867" s="5"/>
       <c r="D867" s="5"/>
       <c r="E867" s="5"/>
@@ -8405,7 +8416,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="868" customHeight="1" ht="18">
       <c r="A868" s="5"/>
-      <c r="B868" s="6"/>
+      <c r="B868" s="8"/>
       <c r="C868" s="5"/>
       <c r="D868" s="5"/>
       <c r="E868" s="5"/>
@@ -8414,7 +8425,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="869" customHeight="1" ht="18">
       <c r="A869" s="5"/>
-      <c r="B869" s="6"/>
+      <c r="B869" s="8"/>
       <c r="C869" s="5"/>
       <c r="D869" s="5"/>
       <c r="E869" s="5"/>
@@ -8423,7 +8434,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="870" customHeight="1" ht="18">
       <c r="A870" s="5"/>
-      <c r="B870" s="6"/>
+      <c r="B870" s="8"/>
       <c r="C870" s="5"/>
       <c r="D870" s="5"/>
       <c r="E870" s="5"/>
@@ -8432,7 +8443,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="871" customHeight="1" ht="18">
       <c r="A871" s="5"/>
-      <c r="B871" s="6"/>
+      <c r="B871" s="8"/>
       <c r="C871" s="5"/>
       <c r="D871" s="5"/>
       <c r="E871" s="5"/>
@@ -8441,7 +8452,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="872" customHeight="1" ht="18">
       <c r="A872" s="5"/>
-      <c r="B872" s="6"/>
+      <c r="B872" s="8"/>
       <c r="C872" s="5"/>
       <c r="D872" s="5"/>
       <c r="E872" s="5"/>
@@ -8450,7 +8461,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="873" customHeight="1" ht="18">
       <c r="A873" s="5"/>
-      <c r="B873" s="6"/>
+      <c r="B873" s="8"/>
       <c r="C873" s="5"/>
       <c r="D873" s="5"/>
       <c r="E873" s="5"/>
@@ -8459,7 +8470,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="874" customHeight="1" ht="18">
       <c r="A874" s="5"/>
-      <c r="B874" s="6"/>
+      <c r="B874" s="8"/>
       <c r="C874" s="5"/>
       <c r="D874" s="5"/>
       <c r="E874" s="5"/>
@@ -8468,7 +8479,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="875" customHeight="1" ht="18">
       <c r="A875" s="5"/>
-      <c r="B875" s="6"/>
+      <c r="B875" s="8"/>
       <c r="C875" s="5"/>
       <c r="D875" s="5"/>
       <c r="E875" s="5"/>
@@ -8477,7 +8488,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="876" customHeight="1" ht="18">
       <c r="A876" s="5"/>
-      <c r="B876" s="6"/>
+      <c r="B876" s="8"/>
       <c r="C876" s="5"/>
       <c r="D876" s="5"/>
       <c r="E876" s="5"/>
@@ -8486,7 +8497,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="877" customHeight="1" ht="18">
       <c r="A877" s="5"/>
-      <c r="B877" s="6"/>
+      <c r="B877" s="8"/>
       <c r="C877" s="5"/>
       <c r="D877" s="5"/>
       <c r="E877" s="5"/>
@@ -8495,7 +8506,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="878" customHeight="1" ht="18">
       <c r="A878" s="5"/>
-      <c r="B878" s="6"/>
+      <c r="B878" s="8"/>
       <c r="C878" s="5"/>
       <c r="D878" s="5"/>
       <c r="E878" s="5"/>
@@ -8504,7 +8515,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="879" customHeight="1" ht="18">
       <c r="A879" s="5"/>
-      <c r="B879" s="6"/>
+      <c r="B879" s="8"/>
       <c r="C879" s="5"/>
       <c r="D879" s="5"/>
       <c r="E879" s="5"/>
@@ -8513,7 +8524,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="880" customHeight="1" ht="18">
       <c r="A880" s="5"/>
-      <c r="B880" s="6"/>
+      <c r="B880" s="8"/>
       <c r="C880" s="5"/>
       <c r="D880" s="5"/>
       <c r="E880" s="5"/>
@@ -8522,7 +8533,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="881" customHeight="1" ht="18">
       <c r="A881" s="5"/>
-      <c r="B881" s="6"/>
+      <c r="B881" s="8"/>
       <c r="C881" s="5"/>
       <c r="D881" s="5"/>
       <c r="E881" s="5"/>
@@ -8531,7 +8542,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="882" customHeight="1" ht="18">
       <c r="A882" s="5"/>
-      <c r="B882" s="6"/>
+      <c r="B882" s="8"/>
       <c r="C882" s="5"/>
       <c r="D882" s="5"/>
       <c r="E882" s="5"/>
@@ -8540,7 +8551,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="883" customHeight="1" ht="18">
       <c r="A883" s="5"/>
-      <c r="B883" s="6"/>
+      <c r="B883" s="8"/>
       <c r="C883" s="5"/>
       <c r="D883" s="5"/>
       <c r="E883" s="5"/>
@@ -8549,7 +8560,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="884" customHeight="1" ht="18">
       <c r="A884" s="5"/>
-      <c r="B884" s="6"/>
+      <c r="B884" s="8"/>
       <c r="C884" s="5"/>
       <c r="D884" s="5"/>
       <c r="E884" s="5"/>
@@ -8558,7 +8569,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="885" customHeight="1" ht="18">
       <c r="A885" s="5"/>
-      <c r="B885" s="6"/>
+      <c r="B885" s="8"/>
       <c r="C885" s="5"/>
       <c r="D885" s="5"/>
       <c r="E885" s="5"/>
@@ -8567,7 +8578,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="886" customHeight="1" ht="18">
       <c r="A886" s="5"/>
-      <c r="B886" s="6"/>
+      <c r="B886" s="8"/>
       <c r="C886" s="5"/>
       <c r="D886" s="5"/>
       <c r="E886" s="5"/>
@@ -8576,7 +8587,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="887" customHeight="1" ht="18">
       <c r="A887" s="5"/>
-      <c r="B887" s="6"/>
+      <c r="B887" s="8"/>
       <c r="C887" s="5"/>
       <c r="D887" s="5"/>
       <c r="E887" s="5"/>
@@ -8585,7 +8596,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="888" customHeight="1" ht="18">
       <c r="A888" s="5"/>
-      <c r="B888" s="6"/>
+      <c r="B888" s="8"/>
       <c r="C888" s="5"/>
       <c r="D888" s="5"/>
       <c r="E888" s="5"/>
@@ -8594,7 +8605,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="889" customHeight="1" ht="18">
       <c r="A889" s="5"/>
-      <c r="B889" s="6"/>
+      <c r="B889" s="8"/>
       <c r="C889" s="5"/>
       <c r="D889" s="5"/>
       <c r="E889" s="5"/>
@@ -8603,7 +8614,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="890" customHeight="1" ht="18">
       <c r="A890" s="5"/>
-      <c r="B890" s="6"/>
+      <c r="B890" s="8"/>
       <c r="C890" s="5"/>
       <c r="D890" s="5"/>
       <c r="E890" s="5"/>
@@ -8612,7 +8623,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="891" customHeight="1" ht="18">
       <c r="A891" s="5"/>
-      <c r="B891" s="6"/>
+      <c r="B891" s="8"/>
       <c r="C891" s="5"/>
       <c r="D891" s="5"/>
       <c r="E891" s="5"/>
@@ -8621,7 +8632,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="892" customHeight="1" ht="18">
       <c r="A892" s="5"/>
-      <c r="B892" s="6"/>
+      <c r="B892" s="8"/>
       <c r="C892" s="5"/>
       <c r="D892" s="5"/>
       <c r="E892" s="5"/>
@@ -8630,7 +8641,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="893" customHeight="1" ht="18">
       <c r="A893" s="5"/>
-      <c r="B893" s="6"/>
+      <c r="B893" s="8"/>
       <c r="C893" s="5"/>
       <c r="D893" s="5"/>
       <c r="E893" s="5"/>
@@ -8639,7 +8650,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="894" customHeight="1" ht="18">
       <c r="A894" s="5"/>
-      <c r="B894" s="6"/>
+      <c r="B894" s="8"/>
       <c r="C894" s="5"/>
       <c r="D894" s="5"/>
       <c r="E894" s="5"/>
@@ -8648,7 +8659,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="895" customHeight="1" ht="18">
       <c r="A895" s="5"/>
-      <c r="B895" s="6"/>
+      <c r="B895" s="8"/>
       <c r="C895" s="5"/>
       <c r="D895" s="5"/>
       <c r="E895" s="5"/>
@@ -8657,7 +8668,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="896" customHeight="1" ht="18">
       <c r="A896" s="5"/>
-      <c r="B896" s="6"/>
+      <c r="B896" s="8"/>
       <c r="C896" s="5"/>
       <c r="D896" s="5"/>
       <c r="E896" s="5"/>
@@ -8666,7 +8677,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="897" customHeight="1" ht="18">
       <c r="A897" s="5"/>
-      <c r="B897" s="6"/>
+      <c r="B897" s="8"/>
       <c r="C897" s="5"/>
       <c r="D897" s="5"/>
       <c r="E897" s="5"/>
@@ -8675,7 +8686,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="898" customHeight="1" ht="18">
       <c r="A898" s="5"/>
-      <c r="B898" s="6"/>
+      <c r="B898" s="8"/>
       <c r="C898" s="5"/>
       <c r="D898" s="5"/>
       <c r="E898" s="5"/>
@@ -8684,7 +8695,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="899" customHeight="1" ht="18">
       <c r="A899" s="5"/>
-      <c r="B899" s="6"/>
+      <c r="B899" s="8"/>
       <c r="C899" s="5"/>
       <c r="D899" s="5"/>
       <c r="E899" s="5"/>
@@ -8693,7 +8704,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="900" customHeight="1" ht="18">
       <c r="A900" s="5"/>
-      <c r="B900" s="6"/>
+      <c r="B900" s="8"/>
       <c r="C900" s="5"/>
       <c r="D900" s="5"/>
       <c r="E900" s="5"/>
@@ -8702,7 +8713,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="901" customHeight="1" ht="18">
       <c r="A901" s="5"/>
-      <c r="B901" s="6"/>
+      <c r="B901" s="8"/>
       <c r="C901" s="5"/>
       <c r="D901" s="5"/>
       <c r="E901" s="5"/>
@@ -8711,7 +8722,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="902" customHeight="1" ht="18">
       <c r="A902" s="5"/>
-      <c r="B902" s="6"/>
+      <c r="B902" s="8"/>
       <c r="C902" s="5"/>
       <c r="D902" s="5"/>
       <c r="E902" s="5"/>
@@ -8720,7 +8731,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="903" customHeight="1" ht="18">
       <c r="A903" s="5"/>
-      <c r="B903" s="6"/>
+      <c r="B903" s="8"/>
       <c r="C903" s="5"/>
       <c r="D903" s="5"/>
       <c r="E903" s="5"/>
@@ -8729,7 +8740,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="904" customHeight="1" ht="18">
       <c r="A904" s="5"/>
-      <c r="B904" s="6"/>
+      <c r="B904" s="8"/>
       <c r="C904" s="5"/>
       <c r="D904" s="5"/>
       <c r="E904" s="5"/>
@@ -8738,7 +8749,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="905" customHeight="1" ht="18">
       <c r="A905" s="5"/>
-      <c r="B905" s="6"/>
+      <c r="B905" s="8"/>
       <c r="C905" s="5"/>
       <c r="D905" s="5"/>
       <c r="E905" s="5"/>
@@ -8747,7 +8758,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="906" customHeight="1" ht="18">
       <c r="A906" s="5"/>
-      <c r="B906" s="6"/>
+      <c r="B906" s="8"/>
       <c r="C906" s="5"/>
       <c r="D906" s="5"/>
       <c r="E906" s="5"/>
@@ -8756,7 +8767,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="907" customHeight="1" ht="18">
       <c r="A907" s="5"/>
-      <c r="B907" s="6"/>
+      <c r="B907" s="8"/>
       <c r="C907" s="5"/>
       <c r="D907" s="5"/>
       <c r="E907" s="5"/>
@@ -8765,7 +8776,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="908" customHeight="1" ht="18">
       <c r="A908" s="5"/>
-      <c r="B908" s="6"/>
+      <c r="B908" s="8"/>
       <c r="C908" s="5"/>
       <c r="D908" s="5"/>
       <c r="E908" s="5"/>
@@ -8774,7 +8785,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="909" customHeight="1" ht="18">
       <c r="A909" s="5"/>
-      <c r="B909" s="6"/>
+      <c r="B909" s="8"/>
       <c r="C909" s="5"/>
       <c r="D909" s="5"/>
       <c r="E909" s="5"/>
@@ -8783,7 +8794,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="910" customHeight="1" ht="18">
       <c r="A910" s="5"/>
-      <c r="B910" s="6"/>
+      <c r="B910" s="8"/>
       <c r="C910" s="5"/>
       <c r="D910" s="5"/>
       <c r="E910" s="5"/>
@@ -8792,7 +8803,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="911" customHeight="1" ht="18">
       <c r="A911" s="5"/>
-      <c r="B911" s="6"/>
+      <c r="B911" s="8"/>
       <c r="C911" s="5"/>
       <c r="D911" s="5"/>
       <c r="E911" s="5"/>
@@ -8801,7 +8812,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="912" customHeight="1" ht="18">
       <c r="A912" s="5"/>
-      <c r="B912" s="6"/>
+      <c r="B912" s="8"/>
       <c r="C912" s="5"/>
       <c r="D912" s="5"/>
       <c r="E912" s="5"/>
@@ -8810,7 +8821,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="913" customHeight="1" ht="18">
       <c r="A913" s="5"/>
-      <c r="B913" s="6"/>
+      <c r="B913" s="8"/>
       <c r="C913" s="5"/>
       <c r="D913" s="5"/>
       <c r="E913" s="5"/>
@@ -8819,7 +8830,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="914" customHeight="1" ht="18">
       <c r="A914" s="5"/>
-      <c r="B914" s="6"/>
+      <c r="B914" s="8"/>
       <c r="C914" s="5"/>
       <c r="D914" s="5"/>
       <c r="E914" s="5"/>
@@ -8828,7 +8839,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="915" customHeight="1" ht="18">
       <c r="A915" s="5"/>
-      <c r="B915" s="6"/>
+      <c r="B915" s="8"/>
       <c r="C915" s="5"/>
       <c r="D915" s="5"/>
       <c r="E915" s="5"/>
@@ -8837,7 +8848,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="916" customHeight="1" ht="18">
       <c r="A916" s="5"/>
-      <c r="B916" s="6"/>
+      <c r="B916" s="8"/>
       <c r="C916" s="5"/>
       <c r="D916" s="5"/>
       <c r="E916" s="5"/>
@@ -8846,7 +8857,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="917" customHeight="1" ht="18">
       <c r="A917" s="5"/>
-      <c r="B917" s="6"/>
+      <c r="B917" s="8"/>
       <c r="C917" s="5"/>
       <c r="D917" s="5"/>
       <c r="E917" s="5"/>
@@ -8855,7 +8866,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="918" customHeight="1" ht="18">
       <c r="A918" s="5"/>
-      <c r="B918" s="6"/>
+      <c r="B918" s="8"/>
       <c r="C918" s="5"/>
       <c r="D918" s="5"/>
       <c r="E918" s="5"/>
@@ -8864,7 +8875,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="919" customHeight="1" ht="18">
       <c r="A919" s="5"/>
-      <c r="B919" s="6"/>
+      <c r="B919" s="8"/>
       <c r="C919" s="5"/>
       <c r="D919" s="5"/>
       <c r="E919" s="5"/>
@@ -8873,7 +8884,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="920" customHeight="1" ht="18">
       <c r="A920" s="5"/>
-      <c r="B920" s="6"/>
+      <c r="B920" s="8"/>
       <c r="C920" s="5"/>
       <c r="D920" s="5"/>
       <c r="E920" s="5"/>
@@ -8882,7 +8893,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="921" customHeight="1" ht="18">
       <c r="A921" s="5"/>
-      <c r="B921" s="6"/>
+      <c r="B921" s="8"/>
       <c r="C921" s="5"/>
       <c r="D921" s="5"/>
       <c r="E921" s="5"/>
@@ -8891,7 +8902,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="922" customHeight="1" ht="18">
       <c r="A922" s="5"/>
-      <c r="B922" s="6"/>
+      <c r="B922" s="8"/>
       <c r="C922" s="5"/>
       <c r="D922" s="5"/>
       <c r="E922" s="5"/>
@@ -8900,7 +8911,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="923" customHeight="1" ht="18">
       <c r="A923" s="5"/>
-      <c r="B923" s="6"/>
+      <c r="B923" s="8"/>
       <c r="C923" s="5"/>
       <c r="D923" s="5"/>
       <c r="E923" s="5"/>
@@ -8909,7 +8920,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="924" customHeight="1" ht="18">
       <c r="A924" s="5"/>
-      <c r="B924" s="6"/>
+      <c r="B924" s="8"/>
       <c r="C924" s="5"/>
       <c r="D924" s="5"/>
       <c r="E924" s="5"/>
@@ -8918,7 +8929,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="925" customHeight="1" ht="18">
       <c r="A925" s="5"/>
-      <c r="B925" s="6"/>
+      <c r="B925" s="8"/>
       <c r="C925" s="5"/>
       <c r="D925" s="5"/>
       <c r="E925" s="5"/>
@@ -8927,7 +8938,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="926" customHeight="1" ht="18">
       <c r="A926" s="5"/>
-      <c r="B926" s="6"/>
+      <c r="B926" s="8"/>
       <c r="C926" s="5"/>
       <c r="D926" s="5"/>
       <c r="E926" s="5"/>
@@ -8936,7 +8947,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="927" customHeight="1" ht="18">
       <c r="A927" s="5"/>
-      <c r="B927" s="6"/>
+      <c r="B927" s="8"/>
       <c r="C927" s="5"/>
       <c r="D927" s="5"/>
       <c r="E927" s="5"/>
@@ -8945,7 +8956,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="928" customHeight="1" ht="18">
       <c r="A928" s="5"/>
-      <c r="B928" s="6"/>
+      <c r="B928" s="8"/>
       <c r="C928" s="5"/>
       <c r="D928" s="5"/>
       <c r="E928" s="5"/>
@@ -8954,7 +8965,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="929" customHeight="1" ht="18">
       <c r="A929" s="5"/>
-      <c r="B929" s="6"/>
+      <c r="B929" s="8"/>
       <c r="C929" s="5"/>
       <c r="D929" s="5"/>
       <c r="E929" s="5"/>
@@ -8963,7 +8974,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="930" customHeight="1" ht="18">
       <c r="A930" s="5"/>
-      <c r="B930" s="6"/>
+      <c r="B930" s="8"/>
       <c r="C930" s="5"/>
       <c r="D930" s="5"/>
       <c r="E930" s="5"/>
@@ -8972,7 +8983,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="931" customHeight="1" ht="18">
       <c r="A931" s="5"/>
-      <c r="B931" s="6"/>
+      <c r="B931" s="8"/>
       <c r="C931" s="5"/>
       <c r="D931" s="5"/>
       <c r="E931" s="5"/>
@@ -8981,7 +8992,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="932" customHeight="1" ht="18">
       <c r="A932" s="5"/>
-      <c r="B932" s="6"/>
+      <c r="B932" s="8"/>
       <c r="C932" s="5"/>
       <c r="D932" s="5"/>
       <c r="E932" s="5"/>
@@ -8990,7 +9001,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="933" customHeight="1" ht="18">
       <c r="A933" s="5"/>
-      <c r="B933" s="6"/>
+      <c r="B933" s="8"/>
       <c r="C933" s="5"/>
       <c r="D933" s="5"/>
       <c r="E933" s="5"/>
@@ -8999,7 +9010,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="934" customHeight="1" ht="18">
       <c r="A934" s="5"/>
-      <c r="B934" s="6"/>
+      <c r="B934" s="8"/>
       <c r="C934" s="5"/>
       <c r="D934" s="5"/>
       <c r="E934" s="5"/>
@@ -9008,7 +9019,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="935" customHeight="1" ht="18">
       <c r="A935" s="5"/>
-      <c r="B935" s="6"/>
+      <c r="B935" s="8"/>
       <c r="C935" s="5"/>
       <c r="D935" s="5"/>
       <c r="E935" s="5"/>
@@ -9017,7 +9028,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="936" customHeight="1" ht="18">
       <c r="A936" s="5"/>
-      <c r="B936" s="6"/>
+      <c r="B936" s="8"/>
       <c r="C936" s="5"/>
       <c r="D936" s="5"/>
       <c r="E936" s="5"/>
@@ -9026,7 +9037,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="937" customHeight="1" ht="18">
       <c r="A937" s="5"/>
-      <c r="B937" s="6"/>
+      <c r="B937" s="8"/>
       <c r="C937" s="5"/>
       <c r="D937" s="5"/>
       <c r="E937" s="5"/>
@@ -9035,7 +9046,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="938" customHeight="1" ht="18">
       <c r="A938" s="5"/>
-      <c r="B938" s="6"/>
+      <c r="B938" s="8"/>
       <c r="C938" s="5"/>
       <c r="D938" s="5"/>
       <c r="E938" s="5"/>
@@ -9044,7 +9055,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="939" customHeight="1" ht="18">
       <c r="A939" s="5"/>
-      <c r="B939" s="6"/>
+      <c r="B939" s="8"/>
       <c r="C939" s="5"/>
       <c r="D939" s="5"/>
       <c r="E939" s="5"/>
@@ -9053,7 +9064,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="940" customHeight="1" ht="18">
       <c r="A940" s="5"/>
-      <c r="B940" s="6"/>
+      <c r="B940" s="8"/>
       <c r="C940" s="5"/>
       <c r="D940" s="5"/>
       <c r="E940" s="5"/>
@@ -9062,7 +9073,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="941" customHeight="1" ht="18">
       <c r="A941" s="5"/>
-      <c r="B941" s="6"/>
+      <c r="B941" s="8"/>
       <c r="C941" s="5"/>
       <c r="D941" s="5"/>
       <c r="E941" s="5"/>
@@ -9071,7 +9082,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="942" customHeight="1" ht="18">
       <c r="A942" s="5"/>
-      <c r="B942" s="6"/>
+      <c r="B942" s="8"/>
       <c r="C942" s="5"/>
       <c r="D942" s="5"/>
       <c r="E942" s="5"/>
@@ -9080,7 +9091,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="943" customHeight="1" ht="18">
       <c r="A943" s="5"/>
-      <c r="B943" s="6"/>
+      <c r="B943" s="8"/>
       <c r="C943" s="5"/>
       <c r="D943" s="5"/>
       <c r="E943" s="5"/>
@@ -9089,7 +9100,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="944" customHeight="1" ht="18">
       <c r="A944" s="5"/>
-      <c r="B944" s="6"/>
+      <c r="B944" s="8"/>
       <c r="C944" s="5"/>
       <c r="D944" s="5"/>
       <c r="E944" s="5"/>
@@ -9098,7 +9109,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="945" customHeight="1" ht="18">
       <c r="A945" s="5"/>
-      <c r="B945" s="6"/>
+      <c r="B945" s="8"/>
       <c r="C945" s="5"/>
       <c r="D945" s="5"/>
       <c r="E945" s="5"/>
@@ -9107,7 +9118,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="946" customHeight="1" ht="18">
       <c r="A946" s="5"/>
-      <c r="B946" s="6"/>
+      <c r="B946" s="8"/>
       <c r="C946" s="5"/>
       <c r="D946" s="5"/>
       <c r="E946" s="5"/>
@@ -9116,7 +9127,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="947" customHeight="1" ht="18">
       <c r="A947" s="5"/>
-      <c r="B947" s="6"/>
+      <c r="B947" s="8"/>
       <c r="C947" s="5"/>
       <c r="D947" s="5"/>
       <c r="E947" s="5"/>
@@ -9125,7 +9136,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="948" customHeight="1" ht="18">
       <c r="A948" s="5"/>
-      <c r="B948" s="6"/>
+      <c r="B948" s="8"/>
       <c r="C948" s="5"/>
       <c r="D948" s="5"/>
       <c r="E948" s="5"/>
@@ -9134,7 +9145,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="949" customHeight="1" ht="18">
       <c r="A949" s="5"/>
-      <c r="B949" s="6"/>
+      <c r="B949" s="8"/>
       <c r="C949" s="5"/>
       <c r="D949" s="5"/>
       <c r="E949" s="5"/>
@@ -9143,7 +9154,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="950" customHeight="1" ht="18">
       <c r="A950" s="5"/>
-      <c r="B950" s="6"/>
+      <c r="B950" s="8"/>
       <c r="C950" s="5"/>
       <c r="D950" s="5"/>
       <c r="E950" s="5"/>
@@ -9152,7 +9163,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="951" customHeight="1" ht="18">
       <c r="A951" s="5"/>
-      <c r="B951" s="6"/>
+      <c r="B951" s="8"/>
       <c r="C951" s="5"/>
       <c r="D951" s="5"/>
       <c r="E951" s="5"/>
@@ -9161,7 +9172,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="952" customHeight="1" ht="18">
       <c r="A952" s="5"/>
-      <c r="B952" s="6"/>
+      <c r="B952" s="8"/>
       <c r="C952" s="5"/>
       <c r="D952" s="5"/>
       <c r="E952" s="5"/>
@@ -9170,7 +9181,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="953" customHeight="1" ht="18">
       <c r="A953" s="5"/>
-      <c r="B953" s="6"/>
+      <c r="B953" s="8"/>
       <c r="C953" s="5"/>
       <c r="D953" s="5"/>
       <c r="E953" s="5"/>
@@ -9179,7 +9190,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="954" customHeight="1" ht="18">
       <c r="A954" s="5"/>
-      <c r="B954" s="6"/>
+      <c r="B954" s="8"/>
       <c r="C954" s="5"/>
       <c r="D954" s="5"/>
       <c r="E954" s="5"/>
@@ -9188,7 +9199,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="955" customHeight="1" ht="18">
       <c r="A955" s="5"/>
-      <c r="B955" s="6"/>
+      <c r="B955" s="8"/>
       <c r="C955" s="5"/>
       <c r="D955" s="5"/>
       <c r="E955" s="5"/>
@@ -9197,7 +9208,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="956" customHeight="1" ht="18">
       <c r="A956" s="5"/>
-      <c r="B956" s="6"/>
+      <c r="B956" s="8"/>
       <c r="C956" s="5"/>
       <c r="D956" s="5"/>
       <c r="E956" s="5"/>
@@ -9206,7 +9217,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="957" customHeight="1" ht="18">
       <c r="A957" s="5"/>
-      <c r="B957" s="6"/>
+      <c r="B957" s="8"/>
       <c r="C957" s="5"/>
       <c r="D957" s="5"/>
       <c r="E957" s="5"/>
@@ -9215,7 +9226,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="958" customHeight="1" ht="18">
       <c r="A958" s="5"/>
-      <c r="B958" s="6"/>
+      <c r="B958" s="8"/>
       <c r="C958" s="5"/>
       <c r="D958" s="5"/>
       <c r="E958" s="5"/>
@@ -9224,7 +9235,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="959" customHeight="1" ht="18">
       <c r="A959" s="5"/>
-      <c r="B959" s="6"/>
+      <c r="B959" s="8"/>
       <c r="C959" s="5"/>
       <c r="D959" s="5"/>
       <c r="E959" s="5"/>
@@ -9233,7 +9244,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="960" customHeight="1" ht="18">
       <c r="A960" s="5"/>
-      <c r="B960" s="6"/>
+      <c r="B960" s="8"/>
       <c r="C960" s="5"/>
       <c r="D960" s="5"/>
       <c r="E960" s="5"/>
@@ -9242,7 +9253,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="961" customHeight="1" ht="18">
       <c r="A961" s="5"/>
-      <c r="B961" s="6"/>
+      <c r="B961" s="8"/>
       <c r="C961" s="5"/>
       <c r="D961" s="5"/>
       <c r="E961" s="5"/>
@@ -9251,7 +9262,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="962" customHeight="1" ht="18">
       <c r="A962" s="5"/>
-      <c r="B962" s="6"/>
+      <c r="B962" s="8"/>
       <c r="C962" s="5"/>
       <c r="D962" s="5"/>
       <c r="E962" s="5"/>
@@ -9260,7 +9271,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="963" customHeight="1" ht="18">
       <c r="A963" s="5"/>
-      <c r="B963" s="6"/>
+      <c r="B963" s="8"/>
       <c r="C963" s="5"/>
       <c r="D963" s="5"/>
       <c r="E963" s="5"/>
@@ -9269,7 +9280,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="964" customHeight="1" ht="18">
       <c r="A964" s="5"/>
-      <c r="B964" s="6"/>
+      <c r="B964" s="8"/>
       <c r="C964" s="5"/>
       <c r="D964" s="5"/>
       <c r="E964" s="5"/>
@@ -9278,7 +9289,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="965" customHeight="1" ht="18">
       <c r="A965" s="5"/>
-      <c r="B965" s="6"/>
+      <c r="B965" s="8"/>
       <c r="C965" s="5"/>
       <c r="D965" s="5"/>
       <c r="E965" s="5"/>
@@ -9287,7 +9298,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="966" customHeight="1" ht="18">
       <c r="A966" s="5"/>
-      <c r="B966" s="6"/>
+      <c r="B966" s="8"/>
       <c r="C966" s="5"/>
       <c r="D966" s="5"/>
       <c r="E966" s="5"/>
@@ -9296,7 +9307,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="967" customHeight="1" ht="18">
       <c r="A967" s="5"/>
-      <c r="B967" s="6"/>
+      <c r="B967" s="8"/>
       <c r="C967" s="5"/>
       <c r="D967" s="5"/>
       <c r="E967" s="5"/>
@@ -9305,7 +9316,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="968" customHeight="1" ht="18">
       <c r="A968" s="5"/>
-      <c r="B968" s="6"/>
+      <c r="B968" s="8"/>
       <c r="C968" s="5"/>
       <c r="D968" s="5"/>
       <c r="E968" s="5"/>
@@ -9314,7 +9325,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="969" customHeight="1" ht="18">
       <c r="A969" s="5"/>
-      <c r="B969" s="6"/>
+      <c r="B969" s="8"/>
       <c r="C969" s="5"/>
       <c r="D969" s="5"/>
       <c r="E969" s="5"/>
@@ -9323,7 +9334,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="970" customHeight="1" ht="18">
       <c r="A970" s="5"/>
-      <c r="B970" s="6"/>
+      <c r="B970" s="8"/>
       <c r="C970" s="5"/>
       <c r="D970" s="5"/>
       <c r="E970" s="5"/>
@@ -9332,7 +9343,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="971" customHeight="1" ht="18">
       <c r="A971" s="5"/>
-      <c r="B971" s="6"/>
+      <c r="B971" s="8"/>
       <c r="C971" s="5"/>
       <c r="D971" s="5"/>
       <c r="E971" s="5"/>
@@ -9341,7 +9352,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="972" customHeight="1" ht="18">
       <c r="A972" s="5"/>
-      <c r="B972" s="6"/>
+      <c r="B972" s="8"/>
       <c r="C972" s="5"/>
       <c r="D972" s="5"/>
       <c r="E972" s="5"/>
@@ -9350,7 +9361,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="973" customHeight="1" ht="18">
       <c r="A973" s="5"/>
-      <c r="B973" s="6"/>
+      <c r="B973" s="8"/>
       <c r="C973" s="5"/>
       <c r="D973" s="5"/>
       <c r="E973" s="5"/>
@@ -9359,7 +9370,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="974" customHeight="1" ht="18">
       <c r="A974" s="5"/>
-      <c r="B974" s="6"/>
+      <c r="B974" s="8"/>
       <c r="C974" s="5"/>
       <c r="D974" s="5"/>
       <c r="E974" s="5"/>
@@ -9368,7 +9379,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="975" customHeight="1" ht="18">
       <c r="A975" s="5"/>
-      <c r="B975" s="6"/>
+      <c r="B975" s="8"/>
       <c r="C975" s="5"/>
       <c r="D975" s="5"/>
       <c r="E975" s="5"/>
@@ -9377,7 +9388,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="976" customHeight="1" ht="18">
       <c r="A976" s="5"/>
-      <c r="B976" s="6"/>
+      <c r="B976" s="8"/>
       <c r="C976" s="5"/>
       <c r="D976" s="5"/>
       <c r="E976" s="5"/>
@@ -9386,7 +9397,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="977" customHeight="1" ht="18">
       <c r="A977" s="5"/>
-      <c r="B977" s="6"/>
+      <c r="B977" s="8"/>
       <c r="C977" s="5"/>
       <c r="D977" s="5"/>
       <c r="E977" s="5"/>
@@ -9395,7 +9406,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="978" customHeight="1" ht="18">
       <c r="A978" s="5"/>
-      <c r="B978" s="6"/>
+      <c r="B978" s="8"/>
       <c r="C978" s="5"/>
       <c r="D978" s="5"/>
       <c r="E978" s="5"/>
@@ -9404,7 +9415,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="979" customHeight="1" ht="18">
       <c r="A979" s="5"/>
-      <c r="B979" s="6"/>
+      <c r="B979" s="8"/>
       <c r="C979" s="5"/>
       <c r="D979" s="5"/>
       <c r="E979" s="5"/>
@@ -9413,7 +9424,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="980" customHeight="1" ht="18">
       <c r="A980" s="5"/>
-      <c r="B980" s="6"/>
+      <c r="B980" s="8"/>
       <c r="C980" s="5"/>
       <c r="D980" s="5"/>
       <c r="E980" s="5"/>
@@ -9422,7 +9433,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="981" customHeight="1" ht="18">
       <c r="A981" s="5"/>
-      <c r="B981" s="6"/>
+      <c r="B981" s="8"/>
       <c r="C981" s="5"/>
       <c r="D981" s="5"/>
       <c r="E981" s="5"/>
@@ -9431,7 +9442,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="982" customHeight="1" ht="18">
       <c r="A982" s="5"/>
-      <c r="B982" s="6"/>
+      <c r="B982" s="8"/>
       <c r="C982" s="5"/>
       <c r="D982" s="5"/>
       <c r="E982" s="5"/>
@@ -9440,7 +9451,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="983" customHeight="1" ht="18">
       <c r="A983" s="5"/>
-      <c r="B983" s="6"/>
+      <c r="B983" s="8"/>
       <c r="C983" s="5"/>
       <c r="D983" s="5"/>
       <c r="E983" s="5"/>
@@ -9449,7 +9460,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="984" customHeight="1" ht="18">
       <c r="A984" s="5"/>
-      <c r="B984" s="6"/>
+      <c r="B984" s="8"/>
       <c r="C984" s="5"/>
       <c r="D984" s="5"/>
       <c r="E984" s="5"/>
@@ -9458,7 +9469,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="985" customHeight="1" ht="18">
       <c r="A985" s="5"/>
-      <c r="B985" s="6"/>
+      <c r="B985" s="8"/>
       <c r="C985" s="5"/>
       <c r="D985" s="5"/>
       <c r="E985" s="5"/>
@@ -9467,7 +9478,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="986" customHeight="1" ht="18">
       <c r="A986" s="5"/>
-      <c r="B986" s="6"/>
+      <c r="B986" s="8"/>
       <c r="C986" s="5"/>
       <c r="D986" s="5"/>
       <c r="E986" s="5"/>
@@ -9476,7 +9487,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="987" customHeight="1" ht="18">
       <c r="A987" s="5"/>
-      <c r="B987" s="6"/>
+      <c r="B987" s="8"/>
       <c r="C987" s="5"/>
       <c r="D987" s="5"/>
       <c r="E987" s="5"/>
@@ -9485,7 +9496,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="988" customHeight="1" ht="18">
       <c r="A988" s="5"/>
-      <c r="B988" s="6"/>
+      <c r="B988" s="8"/>
       <c r="C988" s="5"/>
       <c r="D988" s="5"/>
       <c r="E988" s="5"/>
@@ -9494,7 +9505,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="989" customHeight="1" ht="18">
       <c r="A989" s="5"/>
-      <c r="B989" s="6"/>
+      <c r="B989" s="8"/>
       <c r="C989" s="5"/>
       <c r="D989" s="5"/>
       <c r="E989" s="5"/>
@@ -9503,7 +9514,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="990" customHeight="1" ht="18">
       <c r="A990" s="5"/>
-      <c r="B990" s="6"/>
+      <c r="B990" s="8"/>
       <c r="C990" s="5"/>
       <c r="D990" s="5"/>
       <c r="E990" s="5"/>
@@ -9512,7 +9523,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="991" customHeight="1" ht="18">
       <c r="A991" s="5"/>
-      <c r="B991" s="6"/>
+      <c r="B991" s="8"/>
       <c r="C991" s="5"/>
       <c r="D991" s="5"/>
       <c r="E991" s="5"/>
@@ -9521,7 +9532,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="992" customHeight="1" ht="18">
       <c r="A992" s="5"/>
-      <c r="B992" s="6"/>
+      <c r="B992" s="8"/>
       <c r="C992" s="5"/>
       <c r="D992" s="5"/>
       <c r="E992" s="5"/>
@@ -9530,7 +9541,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="993" customHeight="1" ht="18">
       <c r="A993" s="5"/>
-      <c r="B993" s="6"/>
+      <c r="B993" s="8"/>
       <c r="C993" s="5"/>
       <c r="D993" s="5"/>
       <c r="E993" s="5"/>
@@ -9539,7 +9550,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="994" customHeight="1" ht="18">
       <c r="A994" s="5"/>
-      <c r="B994" s="6"/>
+      <c r="B994" s="8"/>
       <c r="C994" s="5"/>
       <c r="D994" s="5"/>
       <c r="E994" s="5"/>
@@ -9548,7 +9559,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="995" customHeight="1" ht="18">
       <c r="A995" s="5"/>
-      <c r="B995" s="6"/>
+      <c r="B995" s="8"/>
       <c r="C995" s="5"/>
       <c r="D995" s="5"/>
       <c r="E995" s="5"/>
@@ -9557,7 +9568,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="996" customHeight="1" ht="18">
       <c r="A996" s="5"/>
-      <c r="B996" s="6"/>
+      <c r="B996" s="8"/>
       <c r="C996" s="5"/>
       <c r="D996" s="5"/>
       <c r="E996" s="5"/>
@@ -9566,7 +9577,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="997" customHeight="1" ht="18">
       <c r="A997" s="5"/>
-      <c r="B997" s="6"/>
+      <c r="B997" s="8"/>
       <c r="C997" s="5"/>
       <c r="D997" s="5"/>
       <c r="E997" s="5"/>
@@ -9575,7 +9586,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="998" customHeight="1" ht="18">
       <c r="A998" s="5"/>
-      <c r="B998" s="6"/>
+      <c r="B998" s="8"/>
       <c r="C998" s="5"/>
       <c r="D998" s="5"/>
       <c r="E998" s="5"/>
@@ -9584,7 +9595,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="999" customHeight="1" ht="18">
       <c r="A999" s="5"/>
-      <c r="B999" s="6"/>
+      <c r="B999" s="8"/>
       <c r="C999" s="5"/>
       <c r="D999" s="5"/>
       <c r="E999" s="5"/>
@@ -9593,7 +9604,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1000" customHeight="1" ht="18">
       <c r="A1000" s="5"/>
-      <c r="B1000" s="6"/>
+      <c r="B1000" s="8"/>
       <c r="C1000" s="5"/>
       <c r="D1000" s="5"/>
       <c r="E1000" s="5"/>

--- a/parameters_dev.xlsx
+++ b/parameters_dev.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
   <si>
     <t>Test case name</t>
   </si>
@@ -40,7 +40,7 @@
     <t>Guest_USD</t>
   </si>
   <si>
-    <t>bdb2522e-8955-4c41-8b6a-bef29f9b55da</t>
+    <t>046bf91d-f328-4d30-bbc9-31806acb4b11</t>
   </si>
   <si>
     <t>LINK_DE_PAGO</t>
@@ -52,16 +52,10 @@
     <t>Register_MXN</t>
   </si>
   <si>
-    <t>9131e884-faf2-4416-ad26-4e29a8a8a0fd</t>
-  </si>
-  <si>
     <t>REGISTER</t>
   </si>
   <si>
     <t>Guest_MXN_Installments</t>
-  </si>
-  <si>
-    <t>1ff71e00-dc73-4dd6-a01c-f63887a95542</t>
   </si>
   <si>
     <t>Guest_MXN_DCC</t>
@@ -74,9 +68,6 @@
   </si>
   <si>
     <t>MXN</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -113,7 +104,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -145,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -162,13 +153,10 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -176,9 +164,6 @@
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,13 +473,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="33.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="32.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="31.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="20.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="9" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="33.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="32.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="31.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="9" width="13.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -525,7 +510,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="4">
-        <v>4065503514846523</v>
+        <v>9065503514846524</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
@@ -547,26 +532,26 @@
         <v>5215956400364553</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="4">
         <v>5581168067405507</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>9</v>
@@ -579,13 +564,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="4">
         <v>4766944332216006</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>9</v>
@@ -598,16 +583,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="4">
         <v>4766944332216006</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>10</v>
@@ -616,21 +601,21 @@
         <v>150</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="4">
         <v>4766944332216006</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>10</v>
@@ -639,21 +624,21 @@
         <v>510</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="4">
         <v>4766944332216006</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>10</v>
@@ -662,21 +647,21 @@
         <v>400</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="4">
         <v>4766944332216006</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>10</v>
@@ -685,14 +670,12 @@
         <v>1200</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="5"/>
-      <c r="B10" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="B10" s="6"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -701,7 +684,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="5"/>
-      <c r="B11" s="8"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -710,7 +693,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="5"/>
-      <c r="B12" s="8"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -719,7 +702,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="5"/>
-      <c r="B13" s="8"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -728,9 +711,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="5"/>
-      <c r="B14" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="B14" s="6"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -739,7 +720,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="5"/>
-      <c r="B15" s="8"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -748,7 +729,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="5"/>
-      <c r="B16" s="8"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -757,7 +738,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="5"/>
-      <c r="B17" s="8"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -766,7 +747,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="5"/>
-      <c r="B18" s="8"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -775,7 +756,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="5"/>
-      <c r="B19" s="8"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -784,7 +765,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="5"/>
-      <c r="B20" s="8"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -793,7 +774,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="5"/>
-      <c r="B21" s="8"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -802,7 +783,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
       <c r="A22" s="5"/>
-      <c r="B22" s="8"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -811,7 +792,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18">
       <c r="A23" s="5"/>
-      <c r="B23" s="8"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -820,7 +801,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18">
       <c r="A24" s="5"/>
-      <c r="B24" s="8"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -829,7 +810,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
       <c r="A25" s="5"/>
-      <c r="B25" s="8"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -838,7 +819,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18">
       <c r="A26" s="5"/>
-      <c r="B26" s="8"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -847,7 +828,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18">
       <c r="A27" s="5"/>
-      <c r="B27" s="8"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -856,7 +837,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18">
       <c r="A28" s="5"/>
-      <c r="B28" s="8"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -865,7 +846,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18">
       <c r="A29" s="5"/>
-      <c r="B29" s="8"/>
+      <c r="B29" s="6"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -874,7 +855,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
       <c r="A30" s="5"/>
-      <c r="B30" s="8"/>
+      <c r="B30" s="6"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -883,7 +864,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">
       <c r="A31" s="5"/>
-      <c r="B31" s="8"/>
+      <c r="B31" s="6"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -892,7 +873,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18">
       <c r="A32" s="5"/>
-      <c r="B32" s="8"/>
+      <c r="B32" s="6"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -901,7 +882,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18">
       <c r="A33" s="5"/>
-      <c r="B33" s="8"/>
+      <c r="B33" s="6"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -910,7 +891,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18">
       <c r="A34" s="5"/>
-      <c r="B34" s="8"/>
+      <c r="B34" s="6"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -919,7 +900,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18">
       <c r="A35" s="5"/>
-      <c r="B35" s="8"/>
+      <c r="B35" s="6"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -928,7 +909,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18">
       <c r="A36" s="5"/>
-      <c r="B36" s="8"/>
+      <c r="B36" s="6"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -937,7 +918,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18">
       <c r="A37" s="5"/>
-      <c r="B37" s="8"/>
+      <c r="B37" s="6"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -946,7 +927,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18">
       <c r="A38" s="5"/>
-      <c r="B38" s="8"/>
+      <c r="B38" s="6"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -955,7 +936,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18">
       <c r="A39" s="5"/>
-      <c r="B39" s="8"/>
+      <c r="B39" s="6"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -964,7 +945,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18">
       <c r="A40" s="5"/>
-      <c r="B40" s="8"/>
+      <c r="B40" s="6"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -973,7 +954,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18">
       <c r="A41" s="5"/>
-      <c r="B41" s="8"/>
+      <c r="B41" s="6"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -982,7 +963,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18">
       <c r="A42" s="5"/>
-      <c r="B42" s="8"/>
+      <c r="B42" s="6"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -991,7 +972,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18">
       <c r="A43" s="5"/>
-      <c r="B43" s="8"/>
+      <c r="B43" s="6"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -1000,7 +981,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18">
       <c r="A44" s="5"/>
-      <c r="B44" s="8"/>
+      <c r="B44" s="6"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -1009,7 +990,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18">
       <c r="A45" s="5"/>
-      <c r="B45" s="8"/>
+      <c r="B45" s="6"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -1018,7 +999,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18">
       <c r="A46" s="5"/>
-      <c r="B46" s="8"/>
+      <c r="B46" s="6"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -1027,7 +1008,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18">
       <c r="A47" s="5"/>
-      <c r="B47" s="8"/>
+      <c r="B47" s="6"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -1036,7 +1017,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18">
       <c r="A48" s="5"/>
-      <c r="B48" s="8"/>
+      <c r="B48" s="6"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -1045,7 +1026,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18">
       <c r="A49" s="5"/>
-      <c r="B49" s="8"/>
+      <c r="B49" s="6"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -1054,7 +1035,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18">
       <c r="A50" s="5"/>
-      <c r="B50" s="8"/>
+      <c r="B50" s="6"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -1063,7 +1044,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18">
       <c r="A51" s="5"/>
-      <c r="B51" s="8"/>
+      <c r="B51" s="6"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -1072,7 +1053,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18">
       <c r="A52" s="5"/>
-      <c r="B52" s="8"/>
+      <c r="B52" s="6"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -1081,7 +1062,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18">
       <c r="A53" s="5"/>
-      <c r="B53" s="8"/>
+      <c r="B53" s="6"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -1090,7 +1071,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18">
       <c r="A54" s="5"/>
-      <c r="B54" s="8"/>
+      <c r="B54" s="6"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -1099,7 +1080,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18">
       <c r="A55" s="5"/>
-      <c r="B55" s="8"/>
+      <c r="B55" s="6"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -1108,7 +1089,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18">
       <c r="A56" s="5"/>
-      <c r="B56" s="8"/>
+      <c r="B56" s="6"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -1117,7 +1098,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18">
       <c r="A57" s="5"/>
-      <c r="B57" s="8"/>
+      <c r="B57" s="6"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -1126,7 +1107,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18">
       <c r="A58" s="5"/>
-      <c r="B58" s="8"/>
+      <c r="B58" s="6"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -1135,7 +1116,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18">
       <c r="A59" s="5"/>
-      <c r="B59" s="8"/>
+      <c r="B59" s="6"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -1144,7 +1125,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18">
       <c r="A60" s="5"/>
-      <c r="B60" s="8"/>
+      <c r="B60" s="6"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -1153,7 +1134,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18">
       <c r="A61" s="5"/>
-      <c r="B61" s="8"/>
+      <c r="B61" s="6"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -1162,7 +1143,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18">
       <c r="A62" s="5"/>
-      <c r="B62" s="8"/>
+      <c r="B62" s="6"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -1171,7 +1152,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18">
       <c r="A63" s="5"/>
-      <c r="B63" s="8"/>
+      <c r="B63" s="6"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
@@ -1180,7 +1161,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18">
       <c r="A64" s="5"/>
-      <c r="B64" s="8"/>
+      <c r="B64" s="6"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -1189,7 +1170,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18">
       <c r="A65" s="5"/>
-      <c r="B65" s="8"/>
+      <c r="B65" s="6"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
@@ -1198,7 +1179,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18">
       <c r="A66" s="5"/>
-      <c r="B66" s="8"/>
+      <c r="B66" s="6"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
@@ -1207,7 +1188,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18">
       <c r="A67" s="5"/>
-      <c r="B67" s="8"/>
+      <c r="B67" s="6"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
@@ -1216,7 +1197,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18">
       <c r="A68" s="5"/>
-      <c r="B68" s="8"/>
+      <c r="B68" s="6"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
@@ -1225,7 +1206,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18">
       <c r="A69" s="5"/>
-      <c r="B69" s="8"/>
+      <c r="B69" s="6"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -1234,7 +1215,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18">
       <c r="A70" s="5"/>
-      <c r="B70" s="8"/>
+      <c r="B70" s="6"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
@@ -1243,7 +1224,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18">
       <c r="A71" s="5"/>
-      <c r="B71" s="8"/>
+      <c r="B71" s="6"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
@@ -1252,7 +1233,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18">
       <c r="A72" s="5"/>
-      <c r="B72" s="8"/>
+      <c r="B72" s="6"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -1261,7 +1242,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18">
       <c r="A73" s="5"/>
-      <c r="B73" s="8"/>
+      <c r="B73" s="6"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -1270,7 +1251,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18">
       <c r="A74" s="5"/>
-      <c r="B74" s="8"/>
+      <c r="B74" s="6"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -1279,7 +1260,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18">
       <c r="A75" s="5"/>
-      <c r="B75" s="8"/>
+      <c r="B75" s="6"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -1288,7 +1269,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18">
       <c r="A76" s="5"/>
-      <c r="B76" s="8"/>
+      <c r="B76" s="6"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -1297,7 +1278,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18">
       <c r="A77" s="5"/>
-      <c r="B77" s="8"/>
+      <c r="B77" s="6"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
@@ -1306,7 +1287,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18">
       <c r="A78" s="5"/>
-      <c r="B78" s="8"/>
+      <c r="B78" s="6"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -1315,7 +1296,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18">
       <c r="A79" s="5"/>
-      <c r="B79" s="8"/>
+      <c r="B79" s="6"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
@@ -1324,7 +1305,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18">
       <c r="A80" s="5"/>
-      <c r="B80" s="8"/>
+      <c r="B80" s="6"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
@@ -1333,7 +1314,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18">
       <c r="A81" s="5"/>
-      <c r="B81" s="8"/>
+      <c r="B81" s="6"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -1342,7 +1323,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18">
       <c r="A82" s="5"/>
-      <c r="B82" s="8"/>
+      <c r="B82" s="6"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
@@ -1351,7 +1332,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18">
       <c r="A83" s="5"/>
-      <c r="B83" s="8"/>
+      <c r="B83" s="6"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
@@ -1360,7 +1341,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18">
       <c r="A84" s="5"/>
-      <c r="B84" s="8"/>
+      <c r="B84" s="6"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -1369,7 +1350,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18">
       <c r="A85" s="5"/>
-      <c r="B85" s="8"/>
+      <c r="B85" s="6"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -1378,7 +1359,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18">
       <c r="A86" s="5"/>
-      <c r="B86" s="8"/>
+      <c r="B86" s="6"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -1387,7 +1368,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18">
       <c r="A87" s="5"/>
-      <c r="B87" s="8"/>
+      <c r="B87" s="6"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -1396,7 +1377,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18">
       <c r="A88" s="5"/>
-      <c r="B88" s="8"/>
+      <c r="B88" s="6"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -1405,7 +1386,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18">
       <c r="A89" s="5"/>
-      <c r="B89" s="8"/>
+      <c r="B89" s="6"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -1414,7 +1395,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18">
       <c r="A90" s="5"/>
-      <c r="B90" s="8"/>
+      <c r="B90" s="6"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -1423,7 +1404,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18">
       <c r="A91" s="5"/>
-      <c r="B91" s="8"/>
+      <c r="B91" s="6"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -1432,7 +1413,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18">
       <c r="A92" s="5"/>
-      <c r="B92" s="8"/>
+      <c r="B92" s="6"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -1441,7 +1422,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18">
       <c r="A93" s="5"/>
-      <c r="B93" s="8"/>
+      <c r="B93" s="6"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -1450,7 +1431,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18">
       <c r="A94" s="5"/>
-      <c r="B94" s="8"/>
+      <c r="B94" s="6"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
@@ -1459,7 +1440,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18">
       <c r="A95" s="5"/>
-      <c r="B95" s="8"/>
+      <c r="B95" s="6"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -1468,7 +1449,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18">
       <c r="A96" s="5"/>
-      <c r="B96" s="8"/>
+      <c r="B96" s="6"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
@@ -1477,7 +1458,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18">
       <c r="A97" s="5"/>
-      <c r="B97" s="8"/>
+      <c r="B97" s="6"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
@@ -1486,7 +1467,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18">
       <c r="A98" s="5"/>
-      <c r="B98" s="8"/>
+      <c r="B98" s="6"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
@@ -1495,7 +1476,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18">
       <c r="A99" s="5"/>
-      <c r="B99" s="8"/>
+      <c r="B99" s="6"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
@@ -1504,7 +1485,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18">
       <c r="A100" s="5"/>
-      <c r="B100" s="8"/>
+      <c r="B100" s="6"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
@@ -1513,7 +1494,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18">
       <c r="A101" s="5"/>
-      <c r="B101" s="8"/>
+      <c r="B101" s="6"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
@@ -1522,7 +1503,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18">
       <c r="A102" s="5"/>
-      <c r="B102" s="8"/>
+      <c r="B102" s="6"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
@@ -1531,7 +1512,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18">
       <c r="A103" s="5"/>
-      <c r="B103" s="8"/>
+      <c r="B103" s="6"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
@@ -1540,7 +1521,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18">
       <c r="A104" s="5"/>
-      <c r="B104" s="8"/>
+      <c r="B104" s="6"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -1549,7 +1530,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18">
       <c r="A105" s="5"/>
-      <c r="B105" s="8"/>
+      <c r="B105" s="6"/>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
@@ -1558,7 +1539,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18">
       <c r="A106" s="5"/>
-      <c r="B106" s="8"/>
+      <c r="B106" s="6"/>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
@@ -1567,7 +1548,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18">
       <c r="A107" s="5"/>
-      <c r="B107" s="8"/>
+      <c r="B107" s="6"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
@@ -1576,7 +1557,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18">
       <c r="A108" s="5"/>
-      <c r="B108" s="8"/>
+      <c r="B108" s="6"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
@@ -1585,7 +1566,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18">
       <c r="A109" s="5"/>
-      <c r="B109" s="8"/>
+      <c r="B109" s="6"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
@@ -1594,7 +1575,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18">
       <c r="A110" s="5"/>
-      <c r="B110" s="8"/>
+      <c r="B110" s="6"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
@@ -1603,7 +1584,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18">
       <c r="A111" s="5"/>
-      <c r="B111" s="8"/>
+      <c r="B111" s="6"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
@@ -1612,7 +1593,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18">
       <c r="A112" s="5"/>
-      <c r="B112" s="8"/>
+      <c r="B112" s="6"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
@@ -1621,7 +1602,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18">
       <c r="A113" s="5"/>
-      <c r="B113" s="8"/>
+      <c r="B113" s="6"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
@@ -1630,7 +1611,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18">
       <c r="A114" s="5"/>
-      <c r="B114" s="8"/>
+      <c r="B114" s="6"/>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
@@ -1639,7 +1620,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18">
       <c r="A115" s="5"/>
-      <c r="B115" s="8"/>
+      <c r="B115" s="6"/>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
@@ -1648,7 +1629,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18">
       <c r="A116" s="5"/>
-      <c r="B116" s="8"/>
+      <c r="B116" s="6"/>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
@@ -1657,7 +1638,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18">
       <c r="A117" s="5"/>
-      <c r="B117" s="8"/>
+      <c r="B117" s="6"/>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
@@ -1666,7 +1647,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18">
       <c r="A118" s="5"/>
-      <c r="B118" s="8"/>
+      <c r="B118" s="6"/>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
@@ -1675,7 +1656,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18">
       <c r="A119" s="5"/>
-      <c r="B119" s="8"/>
+      <c r="B119" s="6"/>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
@@ -1684,7 +1665,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18">
       <c r="A120" s="5"/>
-      <c r="B120" s="8"/>
+      <c r="B120" s="6"/>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
@@ -1693,7 +1674,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18">
       <c r="A121" s="5"/>
-      <c r="B121" s="8"/>
+      <c r="B121" s="6"/>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
@@ -1702,7 +1683,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18">
       <c r="A122" s="5"/>
-      <c r="B122" s="8"/>
+      <c r="B122" s="6"/>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
@@ -1711,7 +1692,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18">
       <c r="A123" s="5"/>
-      <c r="B123" s="8"/>
+      <c r="B123" s="6"/>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
@@ -1720,7 +1701,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18">
       <c r="A124" s="5"/>
-      <c r="B124" s="8"/>
+      <c r="B124" s="6"/>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
@@ -1729,7 +1710,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18">
       <c r="A125" s="5"/>
-      <c r="B125" s="8"/>
+      <c r="B125" s="6"/>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
@@ -1738,7 +1719,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18">
       <c r="A126" s="5"/>
-      <c r="B126" s="8"/>
+      <c r="B126" s="6"/>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
@@ -1747,7 +1728,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18">
       <c r="A127" s="5"/>
-      <c r="B127" s="8"/>
+      <c r="B127" s="6"/>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
@@ -1756,7 +1737,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18">
       <c r="A128" s="5"/>
-      <c r="B128" s="8"/>
+      <c r="B128" s="6"/>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
@@ -1765,7 +1746,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18">
       <c r="A129" s="5"/>
-      <c r="B129" s="8"/>
+      <c r="B129" s="6"/>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
@@ -1774,7 +1755,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18">
       <c r="A130" s="5"/>
-      <c r="B130" s="8"/>
+      <c r="B130" s="6"/>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
@@ -1783,7 +1764,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18">
       <c r="A131" s="5"/>
-      <c r="B131" s="8"/>
+      <c r="B131" s="6"/>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
@@ -1792,7 +1773,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18">
       <c r="A132" s="5"/>
-      <c r="B132" s="8"/>
+      <c r="B132" s="6"/>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
@@ -1801,7 +1782,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18">
       <c r="A133" s="5"/>
-      <c r="B133" s="8"/>
+      <c r="B133" s="6"/>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
@@ -1810,7 +1791,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18">
       <c r="A134" s="5"/>
-      <c r="B134" s="8"/>
+      <c r="B134" s="6"/>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
@@ -1819,7 +1800,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18">
       <c r="A135" s="5"/>
-      <c r="B135" s="8"/>
+      <c r="B135" s="6"/>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
@@ -1828,7 +1809,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18">
       <c r="A136" s="5"/>
-      <c r="B136" s="8"/>
+      <c r="B136" s="6"/>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
@@ -1837,7 +1818,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18">
       <c r="A137" s="5"/>
-      <c r="B137" s="8"/>
+      <c r="B137" s="6"/>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
@@ -1846,7 +1827,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18">
       <c r="A138" s="5"/>
-      <c r="B138" s="8"/>
+      <c r="B138" s="6"/>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
@@ -1855,7 +1836,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18">
       <c r="A139" s="5"/>
-      <c r="B139" s="8"/>
+      <c r="B139" s="6"/>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
@@ -1864,7 +1845,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18">
       <c r="A140" s="5"/>
-      <c r="B140" s="8"/>
+      <c r="B140" s="6"/>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
@@ -1873,7 +1854,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18">
       <c r="A141" s="5"/>
-      <c r="B141" s="8"/>
+      <c r="B141" s="6"/>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
@@ -1882,7 +1863,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18">
       <c r="A142" s="5"/>
-      <c r="B142" s="8"/>
+      <c r="B142" s="6"/>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
@@ -1891,7 +1872,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18">
       <c r="A143" s="5"/>
-      <c r="B143" s="8"/>
+      <c r="B143" s="6"/>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
@@ -1900,7 +1881,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18">
       <c r="A144" s="5"/>
-      <c r="B144" s="8"/>
+      <c r="B144" s="6"/>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
@@ -1909,7 +1890,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18">
       <c r="A145" s="5"/>
-      <c r="B145" s="8"/>
+      <c r="B145" s="6"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
@@ -1918,7 +1899,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18">
       <c r="A146" s="5"/>
-      <c r="B146" s="8"/>
+      <c r="B146" s="6"/>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
@@ -1927,7 +1908,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18">
       <c r="A147" s="5"/>
-      <c r="B147" s="8"/>
+      <c r="B147" s="6"/>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
@@ -1936,7 +1917,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18">
       <c r="A148" s="5"/>
-      <c r="B148" s="8"/>
+      <c r="B148" s="6"/>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
@@ -1945,7 +1926,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18">
       <c r="A149" s="5"/>
-      <c r="B149" s="8"/>
+      <c r="B149" s="6"/>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
@@ -1954,7 +1935,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18">
       <c r="A150" s="5"/>
-      <c r="B150" s="8"/>
+      <c r="B150" s="6"/>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
@@ -1963,7 +1944,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18">
       <c r="A151" s="5"/>
-      <c r="B151" s="8"/>
+      <c r="B151" s="6"/>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
@@ -1972,7 +1953,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18">
       <c r="A152" s="5"/>
-      <c r="B152" s="8"/>
+      <c r="B152" s="6"/>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
@@ -1981,7 +1962,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18">
       <c r="A153" s="5"/>
-      <c r="B153" s="8"/>
+      <c r="B153" s="6"/>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
@@ -1990,7 +1971,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18">
       <c r="A154" s="5"/>
-      <c r="B154" s="8"/>
+      <c r="B154" s="6"/>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
@@ -1999,7 +1980,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18">
       <c r="A155" s="5"/>
-      <c r="B155" s="8"/>
+      <c r="B155" s="6"/>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
@@ -2008,7 +1989,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18">
       <c r="A156" s="5"/>
-      <c r="B156" s="8"/>
+      <c r="B156" s="6"/>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
@@ -2017,7 +1998,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18">
       <c r="A157" s="5"/>
-      <c r="B157" s="8"/>
+      <c r="B157" s="6"/>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
@@ -2026,7 +2007,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18">
       <c r="A158" s="5"/>
-      <c r="B158" s="8"/>
+      <c r="B158" s="6"/>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
@@ -2035,7 +2016,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18">
       <c r="A159" s="5"/>
-      <c r="B159" s="8"/>
+      <c r="B159" s="6"/>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
@@ -2044,7 +2025,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18">
       <c r="A160" s="5"/>
-      <c r="B160" s="8"/>
+      <c r="B160" s="6"/>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
@@ -2053,7 +2034,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18">
       <c r="A161" s="5"/>
-      <c r="B161" s="8"/>
+      <c r="B161" s="6"/>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
@@ -2062,7 +2043,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18">
       <c r="A162" s="5"/>
-      <c r="B162" s="8"/>
+      <c r="B162" s="6"/>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
@@ -2071,7 +2052,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18">
       <c r="A163" s="5"/>
-      <c r="B163" s="8"/>
+      <c r="B163" s="6"/>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
@@ -2080,7 +2061,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18">
       <c r="A164" s="5"/>
-      <c r="B164" s="8"/>
+      <c r="B164" s="6"/>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
@@ -2089,7 +2070,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18">
       <c r="A165" s="5"/>
-      <c r="B165" s="8"/>
+      <c r="B165" s="6"/>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
@@ -2098,7 +2079,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18">
       <c r="A166" s="5"/>
-      <c r="B166" s="8"/>
+      <c r="B166" s="6"/>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
@@ -2107,7 +2088,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18">
       <c r="A167" s="5"/>
-      <c r="B167" s="8"/>
+      <c r="B167" s="6"/>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
@@ -2116,7 +2097,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18">
       <c r="A168" s="5"/>
-      <c r="B168" s="8"/>
+      <c r="B168" s="6"/>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
@@ -2125,7 +2106,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18">
       <c r="A169" s="5"/>
-      <c r="B169" s="8"/>
+      <c r="B169" s="6"/>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
@@ -2134,7 +2115,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18">
       <c r="A170" s="5"/>
-      <c r="B170" s="8"/>
+      <c r="B170" s="6"/>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
@@ -2143,7 +2124,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18">
       <c r="A171" s="5"/>
-      <c r="B171" s="8"/>
+      <c r="B171" s="6"/>
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
@@ -2152,7 +2133,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18">
       <c r="A172" s="5"/>
-      <c r="B172" s="8"/>
+      <c r="B172" s="6"/>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
@@ -2161,7 +2142,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18">
       <c r="A173" s="5"/>
-      <c r="B173" s="8"/>
+      <c r="B173" s="6"/>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
@@ -2170,7 +2151,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18">
       <c r="A174" s="5"/>
-      <c r="B174" s="8"/>
+      <c r="B174" s="6"/>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
@@ -2179,7 +2160,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18">
       <c r="A175" s="5"/>
-      <c r="B175" s="8"/>
+      <c r="B175" s="6"/>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
@@ -2188,7 +2169,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18">
       <c r="A176" s="5"/>
-      <c r="B176" s="8"/>
+      <c r="B176" s="6"/>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
@@ -2197,7 +2178,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18">
       <c r="A177" s="5"/>
-      <c r="B177" s="8"/>
+      <c r="B177" s="6"/>
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
@@ -2206,7 +2187,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18">
       <c r="A178" s="5"/>
-      <c r="B178" s="8"/>
+      <c r="B178" s="6"/>
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
@@ -2215,7 +2196,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18">
       <c r="A179" s="5"/>
-      <c r="B179" s="8"/>
+      <c r="B179" s="6"/>
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
@@ -2224,7 +2205,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18">
       <c r="A180" s="5"/>
-      <c r="B180" s="8"/>
+      <c r="B180" s="6"/>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
@@ -2233,7 +2214,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18">
       <c r="A181" s="5"/>
-      <c r="B181" s="8"/>
+      <c r="B181" s="6"/>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
@@ -2242,7 +2223,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18">
       <c r="A182" s="5"/>
-      <c r="B182" s="8"/>
+      <c r="B182" s="6"/>
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
@@ -2251,7 +2232,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18">
       <c r="A183" s="5"/>
-      <c r="B183" s="8"/>
+      <c r="B183" s="6"/>
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
@@ -2260,7 +2241,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18">
       <c r="A184" s="5"/>
-      <c r="B184" s="8"/>
+      <c r="B184" s="6"/>
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
@@ -2269,7 +2250,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18">
       <c r="A185" s="5"/>
-      <c r="B185" s="8"/>
+      <c r="B185" s="6"/>
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
@@ -2278,7 +2259,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18">
       <c r="A186" s="5"/>
-      <c r="B186" s="8"/>
+      <c r="B186" s="6"/>
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
@@ -2287,7 +2268,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18">
       <c r="A187" s="5"/>
-      <c r="B187" s="8"/>
+      <c r="B187" s="6"/>
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
@@ -2296,7 +2277,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18">
       <c r="A188" s="5"/>
-      <c r="B188" s="8"/>
+      <c r="B188" s="6"/>
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
@@ -2305,7 +2286,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18">
       <c r="A189" s="5"/>
-      <c r="B189" s="8"/>
+      <c r="B189" s="6"/>
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
@@ -2314,7 +2295,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18">
       <c r="A190" s="5"/>
-      <c r="B190" s="8"/>
+      <c r="B190" s="6"/>
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
@@ -2323,7 +2304,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18">
       <c r="A191" s="5"/>
-      <c r="B191" s="8"/>
+      <c r="B191" s="6"/>
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
@@ -2332,7 +2313,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18">
       <c r="A192" s="5"/>
-      <c r="B192" s="8"/>
+      <c r="B192" s="6"/>
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
       <c r="E192" s="5"/>
@@ -2341,7 +2322,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18">
       <c r="A193" s="5"/>
-      <c r="B193" s="8"/>
+      <c r="B193" s="6"/>
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
@@ -2350,7 +2331,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18">
       <c r="A194" s="5"/>
-      <c r="B194" s="8"/>
+      <c r="B194" s="6"/>
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
       <c r="E194" s="5"/>
@@ -2359,7 +2340,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18">
       <c r="A195" s="5"/>
-      <c r="B195" s="8"/>
+      <c r="B195" s="6"/>
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
       <c r="E195" s="5"/>
@@ -2368,7 +2349,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18">
       <c r="A196" s="5"/>
-      <c r="B196" s="8"/>
+      <c r="B196" s="6"/>
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
@@ -2377,7 +2358,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18">
       <c r="A197" s="5"/>
-      <c r="B197" s="8"/>
+      <c r="B197" s="6"/>
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
       <c r="E197" s="5"/>
@@ -2386,7 +2367,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18">
       <c r="A198" s="5"/>
-      <c r="B198" s="8"/>
+      <c r="B198" s="6"/>
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
       <c r="E198" s="5"/>
@@ -2395,7 +2376,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18">
       <c r="A199" s="5"/>
-      <c r="B199" s="8"/>
+      <c r="B199" s="6"/>
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
       <c r="E199" s="5"/>
@@ -2404,7 +2385,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18">
       <c r="A200" s="5"/>
-      <c r="B200" s="8"/>
+      <c r="B200" s="6"/>
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
       <c r="E200" s="5"/>
@@ -2413,7 +2394,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18">
       <c r="A201" s="5"/>
-      <c r="B201" s="8"/>
+      <c r="B201" s="6"/>
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
       <c r="E201" s="5"/>
@@ -2422,7 +2403,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18">
       <c r="A202" s="5"/>
-      <c r="B202" s="8"/>
+      <c r="B202" s="6"/>
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
       <c r="E202" s="5"/>
@@ -2431,7 +2412,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18">
       <c r="A203" s="5"/>
-      <c r="B203" s="8"/>
+      <c r="B203" s="6"/>
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
       <c r="E203" s="5"/>
@@ -2440,7 +2421,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18">
       <c r="A204" s="5"/>
-      <c r="B204" s="8"/>
+      <c r="B204" s="6"/>
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
       <c r="E204" s="5"/>
@@ -2449,7 +2430,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18">
       <c r="A205" s="5"/>
-      <c r="B205" s="8"/>
+      <c r="B205" s="6"/>
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
       <c r="E205" s="5"/>
@@ -2458,7 +2439,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18">
       <c r="A206" s="5"/>
-      <c r="B206" s="8"/>
+      <c r="B206" s="6"/>
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
       <c r="E206" s="5"/>
@@ -2467,7 +2448,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18">
       <c r="A207" s="5"/>
-      <c r="B207" s="8"/>
+      <c r="B207" s="6"/>
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
       <c r="E207" s="5"/>
@@ -2476,7 +2457,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18">
       <c r="A208" s="5"/>
-      <c r="B208" s="8"/>
+      <c r="B208" s="6"/>
       <c r="C208" s="5"/>
       <c r="D208" s="5"/>
       <c r="E208" s="5"/>
@@ -2485,7 +2466,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18">
       <c r="A209" s="5"/>
-      <c r="B209" s="8"/>
+      <c r="B209" s="6"/>
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
       <c r="E209" s="5"/>
@@ -2494,7 +2475,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18">
       <c r="A210" s="5"/>
-      <c r="B210" s="8"/>
+      <c r="B210" s="6"/>
       <c r="C210" s="5"/>
       <c r="D210" s="5"/>
       <c r="E210" s="5"/>
@@ -2503,7 +2484,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18">
       <c r="A211" s="5"/>
-      <c r="B211" s="8"/>
+      <c r="B211" s="6"/>
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
       <c r="E211" s="5"/>
@@ -2512,7 +2493,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18">
       <c r="A212" s="5"/>
-      <c r="B212" s="8"/>
+      <c r="B212" s="6"/>
       <c r="C212" s="5"/>
       <c r="D212" s="5"/>
       <c r="E212" s="5"/>
@@ -2521,7 +2502,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18">
       <c r="A213" s="5"/>
-      <c r="B213" s="8"/>
+      <c r="B213" s="6"/>
       <c r="C213" s="5"/>
       <c r="D213" s="5"/>
       <c r="E213" s="5"/>
@@ -2530,7 +2511,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18">
       <c r="A214" s="5"/>
-      <c r="B214" s="8"/>
+      <c r="B214" s="6"/>
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
       <c r="E214" s="5"/>
@@ -2539,7 +2520,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18">
       <c r="A215" s="5"/>
-      <c r="B215" s="8"/>
+      <c r="B215" s="6"/>
       <c r="C215" s="5"/>
       <c r="D215" s="5"/>
       <c r="E215" s="5"/>
@@ -2548,7 +2529,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18">
       <c r="A216" s="5"/>
-      <c r="B216" s="8"/>
+      <c r="B216" s="6"/>
       <c r="C216" s="5"/>
       <c r="D216" s="5"/>
       <c r="E216" s="5"/>
@@ -2557,7 +2538,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18">
       <c r="A217" s="5"/>
-      <c r="B217" s="8"/>
+      <c r="B217" s="6"/>
       <c r="C217" s="5"/>
       <c r="D217" s="5"/>
       <c r="E217" s="5"/>
@@ -2566,7 +2547,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18">
       <c r="A218" s="5"/>
-      <c r="B218" s="8"/>
+      <c r="B218" s="6"/>
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
       <c r="E218" s="5"/>
@@ -2575,7 +2556,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18">
       <c r="A219" s="5"/>
-      <c r="B219" s="8"/>
+      <c r="B219" s="6"/>
       <c r="C219" s="5"/>
       <c r="D219" s="5"/>
       <c r="E219" s="5"/>
@@ -2584,7 +2565,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18">
       <c r="A220" s="5"/>
-      <c r="B220" s="8"/>
+      <c r="B220" s="6"/>
       <c r="C220" s="5"/>
       <c r="D220" s="5"/>
       <c r="E220" s="5"/>
@@ -2593,7 +2574,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18">
       <c r="A221" s="5"/>
-      <c r="B221" s="8"/>
+      <c r="B221" s="6"/>
       <c r="C221" s="5"/>
       <c r="D221" s="5"/>
       <c r="E221" s="5"/>
@@ -2602,7 +2583,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18">
       <c r="A222" s="5"/>
-      <c r="B222" s="8"/>
+      <c r="B222" s="6"/>
       <c r="C222" s="5"/>
       <c r="D222" s="5"/>
       <c r="E222" s="5"/>
@@ -2611,7 +2592,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18">
       <c r="A223" s="5"/>
-      <c r="B223" s="8"/>
+      <c r="B223" s="6"/>
       <c r="C223" s="5"/>
       <c r="D223" s="5"/>
       <c r="E223" s="5"/>
@@ -2620,7 +2601,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18">
       <c r="A224" s="5"/>
-      <c r="B224" s="8"/>
+      <c r="B224" s="6"/>
       <c r="C224" s="5"/>
       <c r="D224" s="5"/>
       <c r="E224" s="5"/>
@@ -2629,7 +2610,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18">
       <c r="A225" s="5"/>
-      <c r="B225" s="8"/>
+      <c r="B225" s="6"/>
       <c r="C225" s="5"/>
       <c r="D225" s="5"/>
       <c r="E225" s="5"/>
@@ -2638,7 +2619,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18">
       <c r="A226" s="5"/>
-      <c r="B226" s="8"/>
+      <c r="B226" s="6"/>
       <c r="C226" s="5"/>
       <c r="D226" s="5"/>
       <c r="E226" s="5"/>
@@ -2647,7 +2628,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18">
       <c r="A227" s="5"/>
-      <c r="B227" s="8"/>
+      <c r="B227" s="6"/>
       <c r="C227" s="5"/>
       <c r="D227" s="5"/>
       <c r="E227" s="5"/>
@@ -2656,7 +2637,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18">
       <c r="A228" s="5"/>
-      <c r="B228" s="8"/>
+      <c r="B228" s="6"/>
       <c r="C228" s="5"/>
       <c r="D228" s="5"/>
       <c r="E228" s="5"/>
@@ -2665,7 +2646,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18">
       <c r="A229" s="5"/>
-      <c r="B229" s="8"/>
+      <c r="B229" s="6"/>
       <c r="C229" s="5"/>
       <c r="D229" s="5"/>
       <c r="E229" s="5"/>
@@ -2674,7 +2655,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18">
       <c r="A230" s="5"/>
-      <c r="B230" s="8"/>
+      <c r="B230" s="6"/>
       <c r="C230" s="5"/>
       <c r="D230" s="5"/>
       <c r="E230" s="5"/>
@@ -2683,7 +2664,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18">
       <c r="A231" s="5"/>
-      <c r="B231" s="8"/>
+      <c r="B231" s="6"/>
       <c r="C231" s="5"/>
       <c r="D231" s="5"/>
       <c r="E231" s="5"/>
@@ -2692,7 +2673,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18">
       <c r="A232" s="5"/>
-      <c r="B232" s="8"/>
+      <c r="B232" s="6"/>
       <c r="C232" s="5"/>
       <c r="D232" s="5"/>
       <c r="E232" s="5"/>
@@ -2701,7 +2682,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18">
       <c r="A233" s="5"/>
-      <c r="B233" s="8"/>
+      <c r="B233" s="6"/>
       <c r="C233" s="5"/>
       <c r="D233" s="5"/>
       <c r="E233" s="5"/>
@@ -2710,7 +2691,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18">
       <c r="A234" s="5"/>
-      <c r="B234" s="8"/>
+      <c r="B234" s="6"/>
       <c r="C234" s="5"/>
       <c r="D234" s="5"/>
       <c r="E234" s="5"/>
@@ -2719,7 +2700,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18">
       <c r="A235" s="5"/>
-      <c r="B235" s="8"/>
+      <c r="B235" s="6"/>
       <c r="C235" s="5"/>
       <c r="D235" s="5"/>
       <c r="E235" s="5"/>
@@ -2728,7 +2709,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18">
       <c r="A236" s="5"/>
-      <c r="B236" s="8"/>
+      <c r="B236" s="6"/>
       <c r="C236" s="5"/>
       <c r="D236" s="5"/>
       <c r="E236" s="5"/>
@@ -2737,7 +2718,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18">
       <c r="A237" s="5"/>
-      <c r="B237" s="8"/>
+      <c r="B237" s="6"/>
       <c r="C237" s="5"/>
       <c r="D237" s="5"/>
       <c r="E237" s="5"/>
@@ -2746,7 +2727,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18">
       <c r="A238" s="5"/>
-      <c r="B238" s="8"/>
+      <c r="B238" s="6"/>
       <c r="C238" s="5"/>
       <c r="D238" s="5"/>
       <c r="E238" s="5"/>
@@ -2755,7 +2736,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18">
       <c r="A239" s="5"/>
-      <c r="B239" s="8"/>
+      <c r="B239" s="6"/>
       <c r="C239" s="5"/>
       <c r="D239" s="5"/>
       <c r="E239" s="5"/>
@@ -2764,7 +2745,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18">
       <c r="A240" s="5"/>
-      <c r="B240" s="8"/>
+      <c r="B240" s="6"/>
       <c r="C240" s="5"/>
       <c r="D240" s="5"/>
       <c r="E240" s="5"/>
@@ -2773,7 +2754,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18">
       <c r="A241" s="5"/>
-      <c r="B241" s="8"/>
+      <c r="B241" s="6"/>
       <c r="C241" s="5"/>
       <c r="D241" s="5"/>
       <c r="E241" s="5"/>
@@ -2782,7 +2763,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18">
       <c r="A242" s="5"/>
-      <c r="B242" s="8"/>
+      <c r="B242" s="6"/>
       <c r="C242" s="5"/>
       <c r="D242" s="5"/>
       <c r="E242" s="5"/>
@@ -2791,7 +2772,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18">
       <c r="A243" s="5"/>
-      <c r="B243" s="8"/>
+      <c r="B243" s="6"/>
       <c r="C243" s="5"/>
       <c r="D243" s="5"/>
       <c r="E243" s="5"/>
@@ -2800,7 +2781,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18">
       <c r="A244" s="5"/>
-      <c r="B244" s="8"/>
+      <c r="B244" s="6"/>
       <c r="C244" s="5"/>
       <c r="D244" s="5"/>
       <c r="E244" s="5"/>
@@ -2809,7 +2790,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18">
       <c r="A245" s="5"/>
-      <c r="B245" s="8"/>
+      <c r="B245" s="6"/>
       <c r="C245" s="5"/>
       <c r="D245" s="5"/>
       <c r="E245" s="5"/>
@@ -2818,7 +2799,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18">
       <c r="A246" s="5"/>
-      <c r="B246" s="8"/>
+      <c r="B246" s="6"/>
       <c r="C246" s="5"/>
       <c r="D246" s="5"/>
       <c r="E246" s="5"/>
@@ -2827,7 +2808,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18">
       <c r="A247" s="5"/>
-      <c r="B247" s="8"/>
+      <c r="B247" s="6"/>
       <c r="C247" s="5"/>
       <c r="D247" s="5"/>
       <c r="E247" s="5"/>
@@ -2836,7 +2817,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18">
       <c r="A248" s="5"/>
-      <c r="B248" s="8"/>
+      <c r="B248" s="6"/>
       <c r="C248" s="5"/>
       <c r="D248" s="5"/>
       <c r="E248" s="5"/>
@@ -2845,7 +2826,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18">
       <c r="A249" s="5"/>
-      <c r="B249" s="8"/>
+      <c r="B249" s="6"/>
       <c r="C249" s="5"/>
       <c r="D249" s="5"/>
       <c r="E249" s="5"/>
@@ -2854,7 +2835,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18">
       <c r="A250" s="5"/>
-      <c r="B250" s="8"/>
+      <c r="B250" s="6"/>
       <c r="C250" s="5"/>
       <c r="D250" s="5"/>
       <c r="E250" s="5"/>
@@ -2863,7 +2844,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18">
       <c r="A251" s="5"/>
-      <c r="B251" s="8"/>
+      <c r="B251" s="6"/>
       <c r="C251" s="5"/>
       <c r="D251" s="5"/>
       <c r="E251" s="5"/>
@@ -2872,7 +2853,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18">
       <c r="A252" s="5"/>
-      <c r="B252" s="8"/>
+      <c r="B252" s="6"/>
       <c r="C252" s="5"/>
       <c r="D252" s="5"/>
       <c r="E252" s="5"/>
@@ -2881,7 +2862,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18">
       <c r="A253" s="5"/>
-      <c r="B253" s="8"/>
+      <c r="B253" s="6"/>
       <c r="C253" s="5"/>
       <c r="D253" s="5"/>
       <c r="E253" s="5"/>
@@ -2890,7 +2871,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18">
       <c r="A254" s="5"/>
-      <c r="B254" s="8"/>
+      <c r="B254" s="6"/>
       <c r="C254" s="5"/>
       <c r="D254" s="5"/>
       <c r="E254" s="5"/>
@@ -2899,7 +2880,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18">
       <c r="A255" s="5"/>
-      <c r="B255" s="8"/>
+      <c r="B255" s="6"/>
       <c r="C255" s="5"/>
       <c r="D255" s="5"/>
       <c r="E255" s="5"/>
@@ -2908,7 +2889,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18">
       <c r="A256" s="5"/>
-      <c r="B256" s="8"/>
+      <c r="B256" s="6"/>
       <c r="C256" s="5"/>
       <c r="D256" s="5"/>
       <c r="E256" s="5"/>
@@ -2917,7 +2898,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18">
       <c r="A257" s="5"/>
-      <c r="B257" s="8"/>
+      <c r="B257" s="6"/>
       <c r="C257" s="5"/>
       <c r="D257" s="5"/>
       <c r="E257" s="5"/>
@@ -2926,7 +2907,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18">
       <c r="A258" s="5"/>
-      <c r="B258" s="8"/>
+      <c r="B258" s="6"/>
       <c r="C258" s="5"/>
       <c r="D258" s="5"/>
       <c r="E258" s="5"/>
@@ -2935,7 +2916,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18">
       <c r="A259" s="5"/>
-      <c r="B259" s="8"/>
+      <c r="B259" s="6"/>
       <c r="C259" s="5"/>
       <c r="D259" s="5"/>
       <c r="E259" s="5"/>
@@ -2944,7 +2925,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18">
       <c r="A260" s="5"/>
-      <c r="B260" s="8"/>
+      <c r="B260" s="6"/>
       <c r="C260" s="5"/>
       <c r="D260" s="5"/>
       <c r="E260" s="5"/>
@@ -2953,7 +2934,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18">
       <c r="A261" s="5"/>
-      <c r="B261" s="8"/>
+      <c r="B261" s="6"/>
       <c r="C261" s="5"/>
       <c r="D261" s="5"/>
       <c r="E261" s="5"/>
@@ -2962,7 +2943,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18">
       <c r="A262" s="5"/>
-      <c r="B262" s="8"/>
+      <c r="B262" s="6"/>
       <c r="C262" s="5"/>
       <c r="D262" s="5"/>
       <c r="E262" s="5"/>
@@ -2971,7 +2952,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18">
       <c r="A263" s="5"/>
-      <c r="B263" s="8"/>
+      <c r="B263" s="6"/>
       <c r="C263" s="5"/>
       <c r="D263" s="5"/>
       <c r="E263" s="5"/>
@@ -2980,7 +2961,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18">
       <c r="A264" s="5"/>
-      <c r="B264" s="8"/>
+      <c r="B264" s="6"/>
       <c r="C264" s="5"/>
       <c r="D264" s="5"/>
       <c r="E264" s="5"/>
@@ -2989,7 +2970,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18">
       <c r="A265" s="5"/>
-      <c r="B265" s="8"/>
+      <c r="B265" s="6"/>
       <c r="C265" s="5"/>
       <c r="D265" s="5"/>
       <c r="E265" s="5"/>
@@ -2998,7 +2979,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18">
       <c r="A266" s="5"/>
-      <c r="B266" s="8"/>
+      <c r="B266" s="6"/>
       <c r="C266" s="5"/>
       <c r="D266" s="5"/>
       <c r="E266" s="5"/>
@@ -3007,7 +2988,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18">
       <c r="A267" s="5"/>
-      <c r="B267" s="8"/>
+      <c r="B267" s="6"/>
       <c r="C267" s="5"/>
       <c r="D267" s="5"/>
       <c r="E267" s="5"/>
@@ -3016,7 +2997,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18">
       <c r="A268" s="5"/>
-      <c r="B268" s="8"/>
+      <c r="B268" s="6"/>
       <c r="C268" s="5"/>
       <c r="D268" s="5"/>
       <c r="E268" s="5"/>
@@ -3025,7 +3006,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18">
       <c r="A269" s="5"/>
-      <c r="B269" s="8"/>
+      <c r="B269" s="6"/>
       <c r="C269" s="5"/>
       <c r="D269" s="5"/>
       <c r="E269" s="5"/>
@@ -3034,7 +3015,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18">
       <c r="A270" s="5"/>
-      <c r="B270" s="8"/>
+      <c r="B270" s="6"/>
       <c r="C270" s="5"/>
       <c r="D270" s="5"/>
       <c r="E270" s="5"/>
@@ -3043,7 +3024,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18">
       <c r="A271" s="5"/>
-      <c r="B271" s="8"/>
+      <c r="B271" s="6"/>
       <c r="C271" s="5"/>
       <c r="D271" s="5"/>
       <c r="E271" s="5"/>
@@ -3052,7 +3033,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18">
       <c r="A272" s="5"/>
-      <c r="B272" s="8"/>
+      <c r="B272" s="6"/>
       <c r="C272" s="5"/>
       <c r="D272" s="5"/>
       <c r="E272" s="5"/>
@@ -3061,7 +3042,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="18">
       <c r="A273" s="5"/>
-      <c r="B273" s="8"/>
+      <c r="B273" s="6"/>
       <c r="C273" s="5"/>
       <c r="D273" s="5"/>
       <c r="E273" s="5"/>
@@ -3070,7 +3051,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="18">
       <c r="A274" s="5"/>
-      <c r="B274" s="8"/>
+      <c r="B274" s="6"/>
       <c r="C274" s="5"/>
       <c r="D274" s="5"/>
       <c r="E274" s="5"/>
@@ -3079,7 +3060,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18">
       <c r="A275" s="5"/>
-      <c r="B275" s="8"/>
+      <c r="B275" s="6"/>
       <c r="C275" s="5"/>
       <c r="D275" s="5"/>
       <c r="E275" s="5"/>
@@ -3088,7 +3069,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="18">
       <c r="A276" s="5"/>
-      <c r="B276" s="8"/>
+      <c r="B276" s="6"/>
       <c r="C276" s="5"/>
       <c r="D276" s="5"/>
       <c r="E276" s="5"/>
@@ -3097,7 +3078,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="18">
       <c r="A277" s="5"/>
-      <c r="B277" s="8"/>
+      <c r="B277" s="6"/>
       <c r="C277" s="5"/>
       <c r="D277" s="5"/>
       <c r="E277" s="5"/>
@@ -3106,7 +3087,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="18">
       <c r="A278" s="5"/>
-      <c r="B278" s="8"/>
+      <c r="B278" s="6"/>
       <c r="C278" s="5"/>
       <c r="D278" s="5"/>
       <c r="E278" s="5"/>
@@ -3115,7 +3096,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="18">
       <c r="A279" s="5"/>
-      <c r="B279" s="8"/>
+      <c r="B279" s="6"/>
       <c r="C279" s="5"/>
       <c r="D279" s="5"/>
       <c r="E279" s="5"/>
@@ -3124,7 +3105,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="18">
       <c r="A280" s="5"/>
-      <c r="B280" s="8"/>
+      <c r="B280" s="6"/>
       <c r="C280" s="5"/>
       <c r="D280" s="5"/>
       <c r="E280" s="5"/>
@@ -3133,7 +3114,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="18">
       <c r="A281" s="5"/>
-      <c r="B281" s="8"/>
+      <c r="B281" s="6"/>
       <c r="C281" s="5"/>
       <c r="D281" s="5"/>
       <c r="E281" s="5"/>
@@ -3142,7 +3123,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="18">
       <c r="A282" s="5"/>
-      <c r="B282" s="8"/>
+      <c r="B282" s="6"/>
       <c r="C282" s="5"/>
       <c r="D282" s="5"/>
       <c r="E282" s="5"/>
@@ -3151,7 +3132,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="18">
       <c r="A283" s="5"/>
-      <c r="B283" s="8"/>
+      <c r="B283" s="6"/>
       <c r="C283" s="5"/>
       <c r="D283" s="5"/>
       <c r="E283" s="5"/>
@@ -3160,7 +3141,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="18">
       <c r="A284" s="5"/>
-      <c r="B284" s="8"/>
+      <c r="B284" s="6"/>
       <c r="C284" s="5"/>
       <c r="D284" s="5"/>
       <c r="E284" s="5"/>
@@ -3169,7 +3150,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="18">
       <c r="A285" s="5"/>
-      <c r="B285" s="8"/>
+      <c r="B285" s="6"/>
       <c r="C285" s="5"/>
       <c r="D285" s="5"/>
       <c r="E285" s="5"/>
@@ -3178,7 +3159,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="18">
       <c r="A286" s="5"/>
-      <c r="B286" s="8"/>
+      <c r="B286" s="6"/>
       <c r="C286" s="5"/>
       <c r="D286" s="5"/>
       <c r="E286" s="5"/>
@@ -3187,7 +3168,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="18">
       <c r="A287" s="5"/>
-      <c r="B287" s="8"/>
+      <c r="B287" s="6"/>
       <c r="C287" s="5"/>
       <c r="D287" s="5"/>
       <c r="E287" s="5"/>
@@ -3196,7 +3177,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="18">
       <c r="A288" s="5"/>
-      <c r="B288" s="8"/>
+      <c r="B288" s="6"/>
       <c r="C288" s="5"/>
       <c r="D288" s="5"/>
       <c r="E288" s="5"/>
@@ -3205,7 +3186,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="18">
       <c r="A289" s="5"/>
-      <c r="B289" s="8"/>
+      <c r="B289" s="6"/>
       <c r="C289" s="5"/>
       <c r="D289" s="5"/>
       <c r="E289" s="5"/>
@@ -3214,7 +3195,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="18">
       <c r="A290" s="5"/>
-      <c r="B290" s="8"/>
+      <c r="B290" s="6"/>
       <c r="C290" s="5"/>
       <c r="D290" s="5"/>
       <c r="E290" s="5"/>
@@ -3223,7 +3204,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="18">
       <c r="A291" s="5"/>
-      <c r="B291" s="8"/>
+      <c r="B291" s="6"/>
       <c r="C291" s="5"/>
       <c r="D291" s="5"/>
       <c r="E291" s="5"/>
@@ -3232,7 +3213,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="18">
       <c r="A292" s="5"/>
-      <c r="B292" s="8"/>
+      <c r="B292" s="6"/>
       <c r="C292" s="5"/>
       <c r="D292" s="5"/>
       <c r="E292" s="5"/>
@@ -3241,7 +3222,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="18">
       <c r="A293" s="5"/>
-      <c r="B293" s="8"/>
+      <c r="B293" s="6"/>
       <c r="C293" s="5"/>
       <c r="D293" s="5"/>
       <c r="E293" s="5"/>
@@ -3250,7 +3231,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="18">
       <c r="A294" s="5"/>
-      <c r="B294" s="8"/>
+      <c r="B294" s="6"/>
       <c r="C294" s="5"/>
       <c r="D294" s="5"/>
       <c r="E294" s="5"/>
@@ -3259,7 +3240,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="18">
       <c r="A295" s="5"/>
-      <c r="B295" s="8"/>
+      <c r="B295" s="6"/>
       <c r="C295" s="5"/>
       <c r="D295" s="5"/>
       <c r="E295" s="5"/>
@@ -3268,7 +3249,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="18">
       <c r="A296" s="5"/>
-      <c r="B296" s="8"/>
+      <c r="B296" s="6"/>
       <c r="C296" s="5"/>
       <c r="D296" s="5"/>
       <c r="E296" s="5"/>
@@ -3277,7 +3258,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="18">
       <c r="A297" s="5"/>
-      <c r="B297" s="8"/>
+      <c r="B297" s="6"/>
       <c r="C297" s="5"/>
       <c r="D297" s="5"/>
       <c r="E297" s="5"/>
@@ -3286,7 +3267,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="18">
       <c r="A298" s="5"/>
-      <c r="B298" s="8"/>
+      <c r="B298" s="6"/>
       <c r="C298" s="5"/>
       <c r="D298" s="5"/>
       <c r="E298" s="5"/>
@@ -3295,7 +3276,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="18">
       <c r="A299" s="5"/>
-      <c r="B299" s="8"/>
+      <c r="B299" s="6"/>
       <c r="C299" s="5"/>
       <c r="D299" s="5"/>
       <c r="E299" s="5"/>
@@ -3304,7 +3285,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="18">
       <c r="A300" s="5"/>
-      <c r="B300" s="8"/>
+      <c r="B300" s="6"/>
       <c r="C300" s="5"/>
       <c r="D300" s="5"/>
       <c r="E300" s="5"/>
@@ -3313,7 +3294,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="18">
       <c r="A301" s="5"/>
-      <c r="B301" s="8"/>
+      <c r="B301" s="6"/>
       <c r="C301" s="5"/>
       <c r="D301" s="5"/>
       <c r="E301" s="5"/>
@@ -3322,7 +3303,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="18">
       <c r="A302" s="5"/>
-      <c r="B302" s="8"/>
+      <c r="B302" s="6"/>
       <c r="C302" s="5"/>
       <c r="D302" s="5"/>
       <c r="E302" s="5"/>
@@ -3331,7 +3312,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="18">
       <c r="A303" s="5"/>
-      <c r="B303" s="8"/>
+      <c r="B303" s="6"/>
       <c r="C303" s="5"/>
       <c r="D303" s="5"/>
       <c r="E303" s="5"/>
@@ -3340,7 +3321,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="18">
       <c r="A304" s="5"/>
-      <c r="B304" s="8"/>
+      <c r="B304" s="6"/>
       <c r="C304" s="5"/>
       <c r="D304" s="5"/>
       <c r="E304" s="5"/>
@@ -3349,7 +3330,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="18">
       <c r="A305" s="5"/>
-      <c r="B305" s="8"/>
+      <c r="B305" s="6"/>
       <c r="C305" s="5"/>
       <c r="D305" s="5"/>
       <c r="E305" s="5"/>
@@ -3358,7 +3339,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="18">
       <c r="A306" s="5"/>
-      <c r="B306" s="8"/>
+      <c r="B306" s="6"/>
       <c r="C306" s="5"/>
       <c r="D306" s="5"/>
       <c r="E306" s="5"/>
@@ -3367,7 +3348,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="18">
       <c r="A307" s="5"/>
-      <c r="B307" s="8"/>
+      <c r="B307" s="6"/>
       <c r="C307" s="5"/>
       <c r="D307" s="5"/>
       <c r="E307" s="5"/>
@@ -3376,7 +3357,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="18">
       <c r="A308" s="5"/>
-      <c r="B308" s="8"/>
+      <c r="B308" s="6"/>
       <c r="C308" s="5"/>
       <c r="D308" s="5"/>
       <c r="E308" s="5"/>
@@ -3385,7 +3366,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="18">
       <c r="A309" s="5"/>
-      <c r="B309" s="8"/>
+      <c r="B309" s="6"/>
       <c r="C309" s="5"/>
       <c r="D309" s="5"/>
       <c r="E309" s="5"/>
@@ -3394,7 +3375,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="18">
       <c r="A310" s="5"/>
-      <c r="B310" s="8"/>
+      <c r="B310" s="6"/>
       <c r="C310" s="5"/>
       <c r="D310" s="5"/>
       <c r="E310" s="5"/>
@@ -3403,7 +3384,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="18">
       <c r="A311" s="5"/>
-      <c r="B311" s="8"/>
+      <c r="B311" s="6"/>
       <c r="C311" s="5"/>
       <c r="D311" s="5"/>
       <c r="E311" s="5"/>
@@ -3412,7 +3393,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="18">
       <c r="A312" s="5"/>
-      <c r="B312" s="8"/>
+      <c r="B312" s="6"/>
       <c r="C312" s="5"/>
       <c r="D312" s="5"/>
       <c r="E312" s="5"/>
@@ -3421,7 +3402,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="18">
       <c r="A313" s="5"/>
-      <c r="B313" s="8"/>
+      <c r="B313" s="6"/>
       <c r="C313" s="5"/>
       <c r="D313" s="5"/>
       <c r="E313" s="5"/>
@@ -3430,7 +3411,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="18">
       <c r="A314" s="5"/>
-      <c r="B314" s="8"/>
+      <c r="B314" s="6"/>
       <c r="C314" s="5"/>
       <c r="D314" s="5"/>
       <c r="E314" s="5"/>
@@ -3439,7 +3420,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="18">
       <c r="A315" s="5"/>
-      <c r="B315" s="8"/>
+      <c r="B315" s="6"/>
       <c r="C315" s="5"/>
       <c r="D315" s="5"/>
       <c r="E315" s="5"/>
@@ -3448,7 +3429,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="18">
       <c r="A316" s="5"/>
-      <c r="B316" s="8"/>
+      <c r="B316" s="6"/>
       <c r="C316" s="5"/>
       <c r="D316" s="5"/>
       <c r="E316" s="5"/>
@@ -3457,7 +3438,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="18">
       <c r="A317" s="5"/>
-      <c r="B317" s="8"/>
+      <c r="B317" s="6"/>
       <c r="C317" s="5"/>
       <c r="D317" s="5"/>
       <c r="E317" s="5"/>
@@ -3466,7 +3447,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="18">
       <c r="A318" s="5"/>
-      <c r="B318" s="8"/>
+      <c r="B318" s="6"/>
       <c r="C318" s="5"/>
       <c r="D318" s="5"/>
       <c r="E318" s="5"/>
@@ -3475,7 +3456,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="18">
       <c r="A319" s="5"/>
-      <c r="B319" s="8"/>
+      <c r="B319" s="6"/>
       <c r="C319" s="5"/>
       <c r="D319" s="5"/>
       <c r="E319" s="5"/>
@@ -3484,7 +3465,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="18">
       <c r="A320" s="5"/>
-      <c r="B320" s="8"/>
+      <c r="B320" s="6"/>
       <c r="C320" s="5"/>
       <c r="D320" s="5"/>
       <c r="E320" s="5"/>
@@ -3493,7 +3474,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="18">
       <c r="A321" s="5"/>
-      <c r="B321" s="8"/>
+      <c r="B321" s="6"/>
       <c r="C321" s="5"/>
       <c r="D321" s="5"/>
       <c r="E321" s="5"/>
@@ -3502,7 +3483,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="18">
       <c r="A322" s="5"/>
-      <c r="B322" s="8"/>
+      <c r="B322" s="6"/>
       <c r="C322" s="5"/>
       <c r="D322" s="5"/>
       <c r="E322" s="5"/>
@@ -3511,7 +3492,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="18">
       <c r="A323" s="5"/>
-      <c r="B323" s="8"/>
+      <c r="B323" s="6"/>
       <c r="C323" s="5"/>
       <c r="D323" s="5"/>
       <c r="E323" s="5"/>
@@ -3520,7 +3501,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="18">
       <c r="A324" s="5"/>
-      <c r="B324" s="8"/>
+      <c r="B324" s="6"/>
       <c r="C324" s="5"/>
       <c r="D324" s="5"/>
       <c r="E324" s="5"/>
@@ -3529,7 +3510,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="18">
       <c r="A325" s="5"/>
-      <c r="B325" s="8"/>
+      <c r="B325" s="6"/>
       <c r="C325" s="5"/>
       <c r="D325" s="5"/>
       <c r="E325" s="5"/>
@@ -3538,7 +3519,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="18">
       <c r="A326" s="5"/>
-      <c r="B326" s="8"/>
+      <c r="B326" s="6"/>
       <c r="C326" s="5"/>
       <c r="D326" s="5"/>
       <c r="E326" s="5"/>
@@ -3547,7 +3528,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="18">
       <c r="A327" s="5"/>
-      <c r="B327" s="8"/>
+      <c r="B327" s="6"/>
       <c r="C327" s="5"/>
       <c r="D327" s="5"/>
       <c r="E327" s="5"/>
@@ -3556,7 +3537,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="18">
       <c r="A328" s="5"/>
-      <c r="B328" s="8"/>
+      <c r="B328" s="6"/>
       <c r="C328" s="5"/>
       <c r="D328" s="5"/>
       <c r="E328" s="5"/>
@@ -3565,7 +3546,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="18">
       <c r="A329" s="5"/>
-      <c r="B329" s="8"/>
+      <c r="B329" s="6"/>
       <c r="C329" s="5"/>
       <c r="D329" s="5"/>
       <c r="E329" s="5"/>
@@ -3574,7 +3555,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="18">
       <c r="A330" s="5"/>
-      <c r="B330" s="8"/>
+      <c r="B330" s="6"/>
       <c r="C330" s="5"/>
       <c r="D330" s="5"/>
       <c r="E330" s="5"/>
@@ -3583,7 +3564,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="18">
       <c r="A331" s="5"/>
-      <c r="B331" s="8"/>
+      <c r="B331" s="6"/>
       <c r="C331" s="5"/>
       <c r="D331" s="5"/>
       <c r="E331" s="5"/>
@@ -3592,7 +3573,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="18">
       <c r="A332" s="5"/>
-      <c r="B332" s="8"/>
+      <c r="B332" s="6"/>
       <c r="C332" s="5"/>
       <c r="D332" s="5"/>
       <c r="E332" s="5"/>
@@ -3601,7 +3582,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="18">
       <c r="A333" s="5"/>
-      <c r="B333" s="8"/>
+      <c r="B333" s="6"/>
       <c r="C333" s="5"/>
       <c r="D333" s="5"/>
       <c r="E333" s="5"/>
@@ -3610,7 +3591,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="18">
       <c r="A334" s="5"/>
-      <c r="B334" s="8"/>
+      <c r="B334" s="6"/>
       <c r="C334" s="5"/>
       <c r="D334" s="5"/>
       <c r="E334" s="5"/>
@@ -3619,7 +3600,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="18">
       <c r="A335" s="5"/>
-      <c r="B335" s="8"/>
+      <c r="B335" s="6"/>
       <c r="C335" s="5"/>
       <c r="D335" s="5"/>
       <c r="E335" s="5"/>
@@ -3628,7 +3609,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="18">
       <c r="A336" s="5"/>
-      <c r="B336" s="8"/>
+      <c r="B336" s="6"/>
       <c r="C336" s="5"/>
       <c r="D336" s="5"/>
       <c r="E336" s="5"/>
@@ -3637,7 +3618,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="18">
       <c r="A337" s="5"/>
-      <c r="B337" s="8"/>
+      <c r="B337" s="6"/>
       <c r="C337" s="5"/>
       <c r="D337" s="5"/>
       <c r="E337" s="5"/>
@@ -3646,7 +3627,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="18">
       <c r="A338" s="5"/>
-      <c r="B338" s="8"/>
+      <c r="B338" s="6"/>
       <c r="C338" s="5"/>
       <c r="D338" s="5"/>
       <c r="E338" s="5"/>
@@ -3655,7 +3636,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="18">
       <c r="A339" s="5"/>
-      <c r="B339" s="8"/>
+      <c r="B339" s="6"/>
       <c r="C339" s="5"/>
       <c r="D339" s="5"/>
       <c r="E339" s="5"/>
@@ -3664,7 +3645,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="18">
       <c r="A340" s="5"/>
-      <c r="B340" s="8"/>
+      <c r="B340" s="6"/>
       <c r="C340" s="5"/>
       <c r="D340" s="5"/>
       <c r="E340" s="5"/>
@@ -3673,7 +3654,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="18">
       <c r="A341" s="5"/>
-      <c r="B341" s="8"/>
+      <c r="B341" s="6"/>
       <c r="C341" s="5"/>
       <c r="D341" s="5"/>
       <c r="E341" s="5"/>
@@ -3682,7 +3663,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="18">
       <c r="A342" s="5"/>
-      <c r="B342" s="8"/>
+      <c r="B342" s="6"/>
       <c r="C342" s="5"/>
       <c r="D342" s="5"/>
       <c r="E342" s="5"/>
@@ -3691,7 +3672,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="18">
       <c r="A343" s="5"/>
-      <c r="B343" s="8"/>
+      <c r="B343" s="6"/>
       <c r="C343" s="5"/>
       <c r="D343" s="5"/>
       <c r="E343" s="5"/>
@@ -3700,7 +3681,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="18">
       <c r="A344" s="5"/>
-      <c r="B344" s="8"/>
+      <c r="B344" s="6"/>
       <c r="C344" s="5"/>
       <c r="D344" s="5"/>
       <c r="E344" s="5"/>
@@ -3709,7 +3690,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="18">
       <c r="A345" s="5"/>
-      <c r="B345" s="8"/>
+      <c r="B345" s="6"/>
       <c r="C345" s="5"/>
       <c r="D345" s="5"/>
       <c r="E345" s="5"/>
@@ -3718,7 +3699,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="18">
       <c r="A346" s="5"/>
-      <c r="B346" s="8"/>
+      <c r="B346" s="6"/>
       <c r="C346" s="5"/>
       <c r="D346" s="5"/>
       <c r="E346" s="5"/>
@@ -3727,7 +3708,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="18">
       <c r="A347" s="5"/>
-      <c r="B347" s="8"/>
+      <c r="B347" s="6"/>
       <c r="C347" s="5"/>
       <c r="D347" s="5"/>
       <c r="E347" s="5"/>
@@ -3736,7 +3717,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="18">
       <c r="A348" s="5"/>
-      <c r="B348" s="8"/>
+      <c r="B348" s="6"/>
       <c r="C348" s="5"/>
       <c r="D348" s="5"/>
       <c r="E348" s="5"/>
@@ -3745,7 +3726,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="18">
       <c r="A349" s="5"/>
-      <c r="B349" s="8"/>
+      <c r="B349" s="6"/>
       <c r="C349" s="5"/>
       <c r="D349" s="5"/>
       <c r="E349" s="5"/>
@@ -3754,7 +3735,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="18">
       <c r="A350" s="5"/>
-      <c r="B350" s="8"/>
+      <c r="B350" s="6"/>
       <c r="C350" s="5"/>
       <c r="D350" s="5"/>
       <c r="E350" s="5"/>
@@ -3763,7 +3744,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="18">
       <c r="A351" s="5"/>
-      <c r="B351" s="8"/>
+      <c r="B351" s="6"/>
       <c r="C351" s="5"/>
       <c r="D351" s="5"/>
       <c r="E351" s="5"/>
@@ -3772,7 +3753,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="18">
       <c r="A352" s="5"/>
-      <c r="B352" s="8"/>
+      <c r="B352" s="6"/>
       <c r="C352" s="5"/>
       <c r="D352" s="5"/>
       <c r="E352" s="5"/>
@@ -3781,7 +3762,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="18">
       <c r="A353" s="5"/>
-      <c r="B353" s="8"/>
+      <c r="B353" s="6"/>
       <c r="C353" s="5"/>
       <c r="D353" s="5"/>
       <c r="E353" s="5"/>
@@ -3790,7 +3771,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="18">
       <c r="A354" s="5"/>
-      <c r="B354" s="8"/>
+      <c r="B354" s="6"/>
       <c r="C354" s="5"/>
       <c r="D354" s="5"/>
       <c r="E354" s="5"/>
@@ -3799,7 +3780,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="18">
       <c r="A355" s="5"/>
-      <c r="B355" s="8"/>
+      <c r="B355" s="6"/>
       <c r="C355" s="5"/>
       <c r="D355" s="5"/>
       <c r="E355" s="5"/>
@@ -3808,7 +3789,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="18">
       <c r="A356" s="5"/>
-      <c r="B356" s="8"/>
+      <c r="B356" s="6"/>
       <c r="C356" s="5"/>
       <c r="D356" s="5"/>
       <c r="E356" s="5"/>
@@ -3817,7 +3798,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="18">
       <c r="A357" s="5"/>
-      <c r="B357" s="8"/>
+      <c r="B357" s="6"/>
       <c r="C357" s="5"/>
       <c r="D357" s="5"/>
       <c r="E357" s="5"/>
@@ -3826,7 +3807,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="18">
       <c r="A358" s="5"/>
-      <c r="B358" s="8"/>
+      <c r="B358" s="6"/>
       <c r="C358" s="5"/>
       <c r="D358" s="5"/>
       <c r="E358" s="5"/>
@@ -3835,7 +3816,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="18">
       <c r="A359" s="5"/>
-      <c r="B359" s="8"/>
+      <c r="B359" s="6"/>
       <c r="C359" s="5"/>
       <c r="D359" s="5"/>
       <c r="E359" s="5"/>
@@ -3844,7 +3825,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="18">
       <c r="A360" s="5"/>
-      <c r="B360" s="8"/>
+      <c r="B360" s="6"/>
       <c r="C360" s="5"/>
       <c r="D360" s="5"/>
       <c r="E360" s="5"/>
@@ -3853,7 +3834,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="18">
       <c r="A361" s="5"/>
-      <c r="B361" s="8"/>
+      <c r="B361" s="6"/>
       <c r="C361" s="5"/>
       <c r="D361" s="5"/>
       <c r="E361" s="5"/>
@@ -3862,7 +3843,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="18">
       <c r="A362" s="5"/>
-      <c r="B362" s="8"/>
+      <c r="B362" s="6"/>
       <c r="C362" s="5"/>
       <c r="D362" s="5"/>
       <c r="E362" s="5"/>
@@ -3871,7 +3852,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="18">
       <c r="A363" s="5"/>
-      <c r="B363" s="8"/>
+      <c r="B363" s="6"/>
       <c r="C363" s="5"/>
       <c r="D363" s="5"/>
       <c r="E363" s="5"/>
@@ -3880,7 +3861,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="18">
       <c r="A364" s="5"/>
-      <c r="B364" s="8"/>
+      <c r="B364" s="6"/>
       <c r="C364" s="5"/>
       <c r="D364" s="5"/>
       <c r="E364" s="5"/>
@@ -3889,7 +3870,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="18">
       <c r="A365" s="5"/>
-      <c r="B365" s="8"/>
+      <c r="B365" s="6"/>
       <c r="C365" s="5"/>
       <c r="D365" s="5"/>
       <c r="E365" s="5"/>
@@ -3898,7 +3879,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="18">
       <c r="A366" s="5"/>
-      <c r="B366" s="8"/>
+      <c r="B366" s="6"/>
       <c r="C366" s="5"/>
       <c r="D366" s="5"/>
       <c r="E366" s="5"/>
@@ -3907,7 +3888,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="18">
       <c r="A367" s="5"/>
-      <c r="B367" s="8"/>
+      <c r="B367" s="6"/>
       <c r="C367" s="5"/>
       <c r="D367" s="5"/>
       <c r="E367" s="5"/>
@@ -3916,7 +3897,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="18">
       <c r="A368" s="5"/>
-      <c r="B368" s="8"/>
+      <c r="B368" s="6"/>
       <c r="C368" s="5"/>
       <c r="D368" s="5"/>
       <c r="E368" s="5"/>
@@ -3925,7 +3906,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="18">
       <c r="A369" s="5"/>
-      <c r="B369" s="8"/>
+      <c r="B369" s="6"/>
       <c r="C369" s="5"/>
       <c r="D369" s="5"/>
       <c r="E369" s="5"/>
@@ -3934,7 +3915,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="18">
       <c r="A370" s="5"/>
-      <c r="B370" s="8"/>
+      <c r="B370" s="6"/>
       <c r="C370" s="5"/>
       <c r="D370" s="5"/>
       <c r="E370" s="5"/>
@@ -3943,7 +3924,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="18">
       <c r="A371" s="5"/>
-      <c r="B371" s="8"/>
+      <c r="B371" s="6"/>
       <c r="C371" s="5"/>
       <c r="D371" s="5"/>
       <c r="E371" s="5"/>
@@ -3952,7 +3933,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="18">
       <c r="A372" s="5"/>
-      <c r="B372" s="8"/>
+      <c r="B372" s="6"/>
       <c r="C372" s="5"/>
       <c r="D372" s="5"/>
       <c r="E372" s="5"/>
@@ -3961,7 +3942,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="18">
       <c r="A373" s="5"/>
-      <c r="B373" s="8"/>
+      <c r="B373" s="6"/>
       <c r="C373" s="5"/>
       <c r="D373" s="5"/>
       <c r="E373" s="5"/>
@@ -3970,7 +3951,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="18">
       <c r="A374" s="5"/>
-      <c r="B374" s="8"/>
+      <c r="B374" s="6"/>
       <c r="C374" s="5"/>
       <c r="D374" s="5"/>
       <c r="E374" s="5"/>
@@ -3979,7 +3960,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="18">
       <c r="A375" s="5"/>
-      <c r="B375" s="8"/>
+      <c r="B375" s="6"/>
       <c r="C375" s="5"/>
       <c r="D375" s="5"/>
       <c r="E375" s="5"/>
@@ -3988,7 +3969,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="18">
       <c r="A376" s="5"/>
-      <c r="B376" s="8"/>
+      <c r="B376" s="6"/>
       <c r="C376" s="5"/>
       <c r="D376" s="5"/>
       <c r="E376" s="5"/>
@@ -3997,7 +3978,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="18">
       <c r="A377" s="5"/>
-      <c r="B377" s="8"/>
+      <c r="B377" s="6"/>
       <c r="C377" s="5"/>
       <c r="D377" s="5"/>
       <c r="E377" s="5"/>
@@ -4006,7 +3987,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="18">
       <c r="A378" s="5"/>
-      <c r="B378" s="8"/>
+      <c r="B378" s="6"/>
       <c r="C378" s="5"/>
       <c r="D378" s="5"/>
       <c r="E378" s="5"/>
@@ -4015,7 +3996,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="18">
       <c r="A379" s="5"/>
-      <c r="B379" s="8"/>
+      <c r="B379" s="6"/>
       <c r="C379" s="5"/>
       <c r="D379" s="5"/>
       <c r="E379" s="5"/>
@@ -4024,7 +4005,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="18">
       <c r="A380" s="5"/>
-      <c r="B380" s="8"/>
+      <c r="B380" s="6"/>
       <c r="C380" s="5"/>
       <c r="D380" s="5"/>
       <c r="E380" s="5"/>
@@ -4033,7 +4014,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="18">
       <c r="A381" s="5"/>
-      <c r="B381" s="8"/>
+      <c r="B381" s="6"/>
       <c r="C381" s="5"/>
       <c r="D381" s="5"/>
       <c r="E381" s="5"/>
@@ -4042,7 +4023,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="18">
       <c r="A382" s="5"/>
-      <c r="B382" s="8"/>
+      <c r="B382" s="6"/>
       <c r="C382" s="5"/>
       <c r="D382" s="5"/>
       <c r="E382" s="5"/>
@@ -4051,7 +4032,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="18">
       <c r="A383" s="5"/>
-      <c r="B383" s="8"/>
+      <c r="B383" s="6"/>
       <c r="C383" s="5"/>
       <c r="D383" s="5"/>
       <c r="E383" s="5"/>
@@ -4060,7 +4041,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="18">
       <c r="A384" s="5"/>
-      <c r="B384" s="8"/>
+      <c r="B384" s="6"/>
       <c r="C384" s="5"/>
       <c r="D384" s="5"/>
       <c r="E384" s="5"/>
@@ -4069,7 +4050,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="18">
       <c r="A385" s="5"/>
-      <c r="B385" s="8"/>
+      <c r="B385" s="6"/>
       <c r="C385" s="5"/>
       <c r="D385" s="5"/>
       <c r="E385" s="5"/>
@@ -4078,7 +4059,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="18">
       <c r="A386" s="5"/>
-      <c r="B386" s="8"/>
+      <c r="B386" s="6"/>
       <c r="C386" s="5"/>
       <c r="D386" s="5"/>
       <c r="E386" s="5"/>
@@ -4087,7 +4068,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="18">
       <c r="A387" s="5"/>
-      <c r="B387" s="8"/>
+      <c r="B387" s="6"/>
       <c r="C387" s="5"/>
       <c r="D387" s="5"/>
       <c r="E387" s="5"/>
@@ -4096,7 +4077,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="18">
       <c r="A388" s="5"/>
-      <c r="B388" s="8"/>
+      <c r="B388" s="6"/>
       <c r="C388" s="5"/>
       <c r="D388" s="5"/>
       <c r="E388" s="5"/>
@@ -4105,7 +4086,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="18">
       <c r="A389" s="5"/>
-      <c r="B389" s="8"/>
+      <c r="B389" s="6"/>
       <c r="C389" s="5"/>
       <c r="D389" s="5"/>
       <c r="E389" s="5"/>
@@ -4114,7 +4095,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="18">
       <c r="A390" s="5"/>
-      <c r="B390" s="8"/>
+      <c r="B390" s="6"/>
       <c r="C390" s="5"/>
       <c r="D390" s="5"/>
       <c r="E390" s="5"/>
@@ -4123,7 +4104,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="18">
       <c r="A391" s="5"/>
-      <c r="B391" s="8"/>
+      <c r="B391" s="6"/>
       <c r="C391" s="5"/>
       <c r="D391" s="5"/>
       <c r="E391" s="5"/>
@@ -4132,7 +4113,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="18">
       <c r="A392" s="5"/>
-      <c r="B392" s="8"/>
+      <c r="B392" s="6"/>
       <c r="C392" s="5"/>
       <c r="D392" s="5"/>
       <c r="E392" s="5"/>
@@ -4141,7 +4122,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="18">
       <c r="A393" s="5"/>
-      <c r="B393" s="8"/>
+      <c r="B393" s="6"/>
       <c r="C393" s="5"/>
       <c r="D393" s="5"/>
       <c r="E393" s="5"/>
@@ -4150,7 +4131,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="18">
       <c r="A394" s="5"/>
-      <c r="B394" s="8"/>
+      <c r="B394" s="6"/>
       <c r="C394" s="5"/>
       <c r="D394" s="5"/>
       <c r="E394" s="5"/>
@@ -4159,7 +4140,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="18">
       <c r="A395" s="5"/>
-      <c r="B395" s="8"/>
+      <c r="B395" s="6"/>
       <c r="C395" s="5"/>
       <c r="D395" s="5"/>
       <c r="E395" s="5"/>
@@ -4168,7 +4149,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="18">
       <c r="A396" s="5"/>
-      <c r="B396" s="8"/>
+      <c r="B396" s="6"/>
       <c r="C396" s="5"/>
       <c r="D396" s="5"/>
       <c r="E396" s="5"/>
@@ -4177,7 +4158,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="18">
       <c r="A397" s="5"/>
-      <c r="B397" s="8"/>
+      <c r="B397" s="6"/>
       <c r="C397" s="5"/>
       <c r="D397" s="5"/>
       <c r="E397" s="5"/>
@@ -4186,7 +4167,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="18">
       <c r="A398" s="5"/>
-      <c r="B398" s="8"/>
+      <c r="B398" s="6"/>
       <c r="C398" s="5"/>
       <c r="D398" s="5"/>
       <c r="E398" s="5"/>
@@ -4195,7 +4176,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="18">
       <c r="A399" s="5"/>
-      <c r="B399" s="8"/>
+      <c r="B399" s="6"/>
       <c r="C399" s="5"/>
       <c r="D399" s="5"/>
       <c r="E399" s="5"/>
@@ -4204,7 +4185,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="18">
       <c r="A400" s="5"/>
-      <c r="B400" s="8"/>
+      <c r="B400" s="6"/>
       <c r="C400" s="5"/>
       <c r="D400" s="5"/>
       <c r="E400" s="5"/>
@@ -4213,7 +4194,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="18">
       <c r="A401" s="5"/>
-      <c r="B401" s="8"/>
+      <c r="B401" s="6"/>
       <c r="C401" s="5"/>
       <c r="D401" s="5"/>
       <c r="E401" s="5"/>
@@ -4222,7 +4203,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="18">
       <c r="A402" s="5"/>
-      <c r="B402" s="8"/>
+      <c r="B402" s="6"/>
       <c r="C402" s="5"/>
       <c r="D402" s="5"/>
       <c r="E402" s="5"/>
@@ -4231,7 +4212,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="18">
       <c r="A403" s="5"/>
-      <c r="B403" s="8"/>
+      <c r="B403" s="6"/>
       <c r="C403" s="5"/>
       <c r="D403" s="5"/>
       <c r="E403" s="5"/>
@@ -4240,7 +4221,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="18">
       <c r="A404" s="5"/>
-      <c r="B404" s="8"/>
+      <c r="B404" s="6"/>
       <c r="C404" s="5"/>
       <c r="D404" s="5"/>
       <c r="E404" s="5"/>
@@ -4249,7 +4230,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="18">
       <c r="A405" s="5"/>
-      <c r="B405" s="8"/>
+      <c r="B405" s="6"/>
       <c r="C405" s="5"/>
       <c r="D405" s="5"/>
       <c r="E405" s="5"/>
@@ -4258,7 +4239,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="18">
       <c r="A406" s="5"/>
-      <c r="B406" s="8"/>
+      <c r="B406" s="6"/>
       <c r="C406" s="5"/>
       <c r="D406" s="5"/>
       <c r="E406" s="5"/>
@@ -4267,7 +4248,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="18">
       <c r="A407" s="5"/>
-      <c r="B407" s="8"/>
+      <c r="B407" s="6"/>
       <c r="C407" s="5"/>
       <c r="D407" s="5"/>
       <c r="E407" s="5"/>
@@ -4276,7 +4257,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="18">
       <c r="A408" s="5"/>
-      <c r="B408" s="8"/>
+      <c r="B408" s="6"/>
       <c r="C408" s="5"/>
       <c r="D408" s="5"/>
       <c r="E408" s="5"/>
@@ -4285,7 +4266,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="18">
       <c r="A409" s="5"/>
-      <c r="B409" s="8"/>
+      <c r="B409" s="6"/>
       <c r="C409" s="5"/>
       <c r="D409" s="5"/>
       <c r="E409" s="5"/>
@@ -4294,7 +4275,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="18">
       <c r="A410" s="5"/>
-      <c r="B410" s="8"/>
+      <c r="B410" s="6"/>
       <c r="C410" s="5"/>
       <c r="D410" s="5"/>
       <c r="E410" s="5"/>
@@ -4303,7 +4284,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="18">
       <c r="A411" s="5"/>
-      <c r="B411" s="8"/>
+      <c r="B411" s="6"/>
       <c r="C411" s="5"/>
       <c r="D411" s="5"/>
       <c r="E411" s="5"/>
@@ -4312,7 +4293,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="18">
       <c r="A412" s="5"/>
-      <c r="B412" s="8"/>
+      <c r="B412" s="6"/>
       <c r="C412" s="5"/>
       <c r="D412" s="5"/>
       <c r="E412" s="5"/>
@@ -4321,7 +4302,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="18">
       <c r="A413" s="5"/>
-      <c r="B413" s="8"/>
+      <c r="B413" s="6"/>
       <c r="C413" s="5"/>
       <c r="D413" s="5"/>
       <c r="E413" s="5"/>
@@ -4330,7 +4311,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="18">
       <c r="A414" s="5"/>
-      <c r="B414" s="8"/>
+      <c r="B414" s="6"/>
       <c r="C414" s="5"/>
       <c r="D414" s="5"/>
       <c r="E414" s="5"/>
@@ -4339,7 +4320,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="18">
       <c r="A415" s="5"/>
-      <c r="B415" s="8"/>
+      <c r="B415" s="6"/>
       <c r="C415" s="5"/>
       <c r="D415" s="5"/>
       <c r="E415" s="5"/>
@@ -4348,7 +4329,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="18">
       <c r="A416" s="5"/>
-      <c r="B416" s="8"/>
+      <c r="B416" s="6"/>
       <c r="C416" s="5"/>
       <c r="D416" s="5"/>
       <c r="E416" s="5"/>
@@ -4357,7 +4338,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="18">
       <c r="A417" s="5"/>
-      <c r="B417" s="8"/>
+      <c r="B417" s="6"/>
       <c r="C417" s="5"/>
       <c r="D417" s="5"/>
       <c r="E417" s="5"/>
@@ -4366,7 +4347,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="18">
       <c r="A418" s="5"/>
-      <c r="B418" s="8"/>
+      <c r="B418" s="6"/>
       <c r="C418" s="5"/>
       <c r="D418" s="5"/>
       <c r="E418" s="5"/>
@@ -4375,7 +4356,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="18">
       <c r="A419" s="5"/>
-      <c r="B419" s="8"/>
+      <c r="B419" s="6"/>
       <c r="C419" s="5"/>
       <c r="D419" s="5"/>
       <c r="E419" s="5"/>
@@ -4384,7 +4365,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="18">
       <c r="A420" s="5"/>
-      <c r="B420" s="8"/>
+      <c r="B420" s="6"/>
       <c r="C420" s="5"/>
       <c r="D420" s="5"/>
       <c r="E420" s="5"/>
@@ -4393,7 +4374,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="18">
       <c r="A421" s="5"/>
-      <c r="B421" s="8"/>
+      <c r="B421" s="6"/>
       <c r="C421" s="5"/>
       <c r="D421" s="5"/>
       <c r="E421" s="5"/>
@@ -4402,7 +4383,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="18">
       <c r="A422" s="5"/>
-      <c r="B422" s="8"/>
+      <c r="B422" s="6"/>
       <c r="C422" s="5"/>
       <c r="D422" s="5"/>
       <c r="E422" s="5"/>
@@ -4411,7 +4392,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="18">
       <c r="A423" s="5"/>
-      <c r="B423" s="8"/>
+      <c r="B423" s="6"/>
       <c r="C423" s="5"/>
       <c r="D423" s="5"/>
       <c r="E423" s="5"/>
@@ -4420,7 +4401,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="18">
       <c r="A424" s="5"/>
-      <c r="B424" s="8"/>
+      <c r="B424" s="6"/>
       <c r="C424" s="5"/>
       <c r="D424" s="5"/>
       <c r="E424" s="5"/>
@@ -4429,7 +4410,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="18">
       <c r="A425" s="5"/>
-      <c r="B425" s="8"/>
+      <c r="B425" s="6"/>
       <c r="C425" s="5"/>
       <c r="D425" s="5"/>
       <c r="E425" s="5"/>
@@ -4438,7 +4419,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="18">
       <c r="A426" s="5"/>
-      <c r="B426" s="8"/>
+      <c r="B426" s="6"/>
       <c r="C426" s="5"/>
       <c r="D426" s="5"/>
       <c r="E426" s="5"/>
@@ -4447,7 +4428,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="18">
       <c r="A427" s="5"/>
-      <c r="B427" s="8"/>
+      <c r="B427" s="6"/>
       <c r="C427" s="5"/>
       <c r="D427" s="5"/>
       <c r="E427" s="5"/>
@@ -4456,7 +4437,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="18">
       <c r="A428" s="5"/>
-      <c r="B428" s="8"/>
+      <c r="B428" s="6"/>
       <c r="C428" s="5"/>
       <c r="D428" s="5"/>
       <c r="E428" s="5"/>
@@ -4465,7 +4446,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="18">
       <c r="A429" s="5"/>
-      <c r="B429" s="8"/>
+      <c r="B429" s="6"/>
       <c r="C429" s="5"/>
       <c r="D429" s="5"/>
       <c r="E429" s="5"/>
@@ -4474,7 +4455,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="18">
       <c r="A430" s="5"/>
-      <c r="B430" s="8"/>
+      <c r="B430" s="6"/>
       <c r="C430" s="5"/>
       <c r="D430" s="5"/>
       <c r="E430" s="5"/>
@@ -4483,7 +4464,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="18">
       <c r="A431" s="5"/>
-      <c r="B431" s="8"/>
+      <c r="B431" s="6"/>
       <c r="C431" s="5"/>
       <c r="D431" s="5"/>
       <c r="E431" s="5"/>
@@ -4492,7 +4473,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="18">
       <c r="A432" s="5"/>
-      <c r="B432" s="8"/>
+      <c r="B432" s="6"/>
       <c r="C432" s="5"/>
       <c r="D432" s="5"/>
       <c r="E432" s="5"/>
@@ -4501,7 +4482,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="18">
       <c r="A433" s="5"/>
-      <c r="B433" s="8"/>
+      <c r="B433" s="6"/>
       <c r="C433" s="5"/>
       <c r="D433" s="5"/>
       <c r="E433" s="5"/>
@@ -4510,7 +4491,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="18">
       <c r="A434" s="5"/>
-      <c r="B434" s="8"/>
+      <c r="B434" s="6"/>
       <c r="C434" s="5"/>
       <c r="D434" s="5"/>
       <c r="E434" s="5"/>
@@ -4519,7 +4500,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="18">
       <c r="A435" s="5"/>
-      <c r="B435" s="8"/>
+      <c r="B435" s="6"/>
       <c r="C435" s="5"/>
       <c r="D435" s="5"/>
       <c r="E435" s="5"/>
@@ -4528,7 +4509,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="18">
       <c r="A436" s="5"/>
-      <c r="B436" s="8"/>
+      <c r="B436" s="6"/>
       <c r="C436" s="5"/>
       <c r="D436" s="5"/>
       <c r="E436" s="5"/>
@@ -4537,7 +4518,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="18">
       <c r="A437" s="5"/>
-      <c r="B437" s="8"/>
+      <c r="B437" s="6"/>
       <c r="C437" s="5"/>
       <c r="D437" s="5"/>
       <c r="E437" s="5"/>
@@ -4546,7 +4527,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="18">
       <c r="A438" s="5"/>
-      <c r="B438" s="8"/>
+      <c r="B438" s="6"/>
       <c r="C438" s="5"/>
       <c r="D438" s="5"/>
       <c r="E438" s="5"/>
@@ -4555,7 +4536,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="18">
       <c r="A439" s="5"/>
-      <c r="B439" s="8"/>
+      <c r="B439" s="6"/>
       <c r="C439" s="5"/>
       <c r="D439" s="5"/>
       <c r="E439" s="5"/>
@@ -4564,7 +4545,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="18">
       <c r="A440" s="5"/>
-      <c r="B440" s="8"/>
+      <c r="B440" s="6"/>
       <c r="C440" s="5"/>
       <c r="D440" s="5"/>
       <c r="E440" s="5"/>
@@ -4573,7 +4554,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="18">
       <c r="A441" s="5"/>
-      <c r="B441" s="8"/>
+      <c r="B441" s="6"/>
       <c r="C441" s="5"/>
       <c r="D441" s="5"/>
       <c r="E441" s="5"/>
@@ -4582,7 +4563,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="18">
       <c r="A442" s="5"/>
-      <c r="B442" s="8"/>
+      <c r="B442" s="6"/>
       <c r="C442" s="5"/>
       <c r="D442" s="5"/>
       <c r="E442" s="5"/>
@@ -4591,7 +4572,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="18">
       <c r="A443" s="5"/>
-      <c r="B443" s="8"/>
+      <c r="B443" s="6"/>
       <c r="C443" s="5"/>
       <c r="D443" s="5"/>
       <c r="E443" s="5"/>
@@ -4600,7 +4581,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="18">
       <c r="A444" s="5"/>
-      <c r="B444" s="8"/>
+      <c r="B444" s="6"/>
       <c r="C444" s="5"/>
       <c r="D444" s="5"/>
       <c r="E444" s="5"/>
@@ -4609,7 +4590,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="18">
       <c r="A445" s="5"/>
-      <c r="B445" s="8"/>
+      <c r="B445" s="6"/>
       <c r="C445" s="5"/>
       <c r="D445" s="5"/>
       <c r="E445" s="5"/>
@@ -4618,7 +4599,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="18">
       <c r="A446" s="5"/>
-      <c r="B446" s="8"/>
+      <c r="B446" s="6"/>
       <c r="C446" s="5"/>
       <c r="D446" s="5"/>
       <c r="E446" s="5"/>
@@ -4627,7 +4608,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="18">
       <c r="A447" s="5"/>
-      <c r="B447" s="8"/>
+      <c r="B447" s="6"/>
       <c r="C447" s="5"/>
       <c r="D447" s="5"/>
       <c r="E447" s="5"/>
@@ -4636,7 +4617,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="18">
       <c r="A448" s="5"/>
-      <c r="B448" s="8"/>
+      <c r="B448" s="6"/>
       <c r="C448" s="5"/>
       <c r="D448" s="5"/>
       <c r="E448" s="5"/>
@@ -4645,7 +4626,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="18">
       <c r="A449" s="5"/>
-      <c r="B449" s="8"/>
+      <c r="B449" s="6"/>
       <c r="C449" s="5"/>
       <c r="D449" s="5"/>
       <c r="E449" s="5"/>
@@ -4654,7 +4635,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="18">
       <c r="A450" s="5"/>
-      <c r="B450" s="8"/>
+      <c r="B450" s="6"/>
       <c r="C450" s="5"/>
       <c r="D450" s="5"/>
       <c r="E450" s="5"/>
@@ -4663,7 +4644,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="18">
       <c r="A451" s="5"/>
-      <c r="B451" s="8"/>
+      <c r="B451" s="6"/>
       <c r="C451" s="5"/>
       <c r="D451" s="5"/>
       <c r="E451" s="5"/>
@@ -4672,7 +4653,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="18">
       <c r="A452" s="5"/>
-      <c r="B452" s="8"/>
+      <c r="B452" s="6"/>
       <c r="C452" s="5"/>
       <c r="D452" s="5"/>
       <c r="E452" s="5"/>
@@ -4681,7 +4662,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="18">
       <c r="A453" s="5"/>
-      <c r="B453" s="8"/>
+      <c r="B453" s="6"/>
       <c r="C453" s="5"/>
       <c r="D453" s="5"/>
       <c r="E453" s="5"/>
@@ -4690,7 +4671,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="18">
       <c r="A454" s="5"/>
-      <c r="B454" s="8"/>
+      <c r="B454" s="6"/>
       <c r="C454" s="5"/>
       <c r="D454" s="5"/>
       <c r="E454" s="5"/>
@@ -4699,7 +4680,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="18">
       <c r="A455" s="5"/>
-      <c r="B455" s="8"/>
+      <c r="B455" s="6"/>
       <c r="C455" s="5"/>
       <c r="D455" s="5"/>
       <c r="E455" s="5"/>
@@ -4708,7 +4689,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="18">
       <c r="A456" s="5"/>
-      <c r="B456" s="8"/>
+      <c r="B456" s="6"/>
       <c r="C456" s="5"/>
       <c r="D456" s="5"/>
       <c r="E456" s="5"/>
@@ -4717,7 +4698,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="18">
       <c r="A457" s="5"/>
-      <c r="B457" s="8"/>
+      <c r="B457" s="6"/>
       <c r="C457" s="5"/>
       <c r="D457" s="5"/>
       <c r="E457" s="5"/>
@@ -4726,7 +4707,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="18">
       <c r="A458" s="5"/>
-      <c r="B458" s="8"/>
+      <c r="B458" s="6"/>
       <c r="C458" s="5"/>
       <c r="D458" s="5"/>
       <c r="E458" s="5"/>
@@ -4735,7 +4716,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="18">
       <c r="A459" s="5"/>
-      <c r="B459" s="8"/>
+      <c r="B459" s="6"/>
       <c r="C459" s="5"/>
       <c r="D459" s="5"/>
       <c r="E459" s="5"/>
@@ -4744,7 +4725,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="18">
       <c r="A460" s="5"/>
-      <c r="B460" s="8"/>
+      <c r="B460" s="6"/>
       <c r="C460" s="5"/>
       <c r="D460" s="5"/>
       <c r="E460" s="5"/>
@@ -4753,7 +4734,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="18">
       <c r="A461" s="5"/>
-      <c r="B461" s="8"/>
+      <c r="B461" s="6"/>
       <c r="C461" s="5"/>
       <c r="D461" s="5"/>
       <c r="E461" s="5"/>
@@ -4762,7 +4743,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="18">
       <c r="A462" s="5"/>
-      <c r="B462" s="8"/>
+      <c r="B462" s="6"/>
       <c r="C462" s="5"/>
       <c r="D462" s="5"/>
       <c r="E462" s="5"/>
@@ -4771,7 +4752,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="18">
       <c r="A463" s="5"/>
-      <c r="B463" s="8"/>
+      <c r="B463" s="6"/>
       <c r="C463" s="5"/>
       <c r="D463" s="5"/>
       <c r="E463" s="5"/>
@@ -4780,7 +4761,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="18">
       <c r="A464" s="5"/>
-      <c r="B464" s="8"/>
+      <c r="B464" s="6"/>
       <c r="C464" s="5"/>
       <c r="D464" s="5"/>
       <c r="E464" s="5"/>
@@ -4789,7 +4770,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="18">
       <c r="A465" s="5"/>
-      <c r="B465" s="8"/>
+      <c r="B465" s="6"/>
       <c r="C465" s="5"/>
       <c r="D465" s="5"/>
       <c r="E465" s="5"/>
@@ -4798,7 +4779,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="18">
       <c r="A466" s="5"/>
-      <c r="B466" s="8"/>
+      <c r="B466" s="6"/>
       <c r="C466" s="5"/>
       <c r="D466" s="5"/>
       <c r="E466" s="5"/>
@@ -4807,7 +4788,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="18">
       <c r="A467" s="5"/>
-      <c r="B467" s="8"/>
+      <c r="B467" s="6"/>
       <c r="C467" s="5"/>
       <c r="D467" s="5"/>
       <c r="E467" s="5"/>
@@ -4816,7 +4797,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="18">
       <c r="A468" s="5"/>
-      <c r="B468" s="8"/>
+      <c r="B468" s="6"/>
       <c r="C468" s="5"/>
       <c r="D468" s="5"/>
       <c r="E468" s="5"/>
@@ -4825,7 +4806,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="18">
       <c r="A469" s="5"/>
-      <c r="B469" s="8"/>
+      <c r="B469" s="6"/>
       <c r="C469" s="5"/>
       <c r="D469" s="5"/>
       <c r="E469" s="5"/>
@@ -4834,7 +4815,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="470" customHeight="1" ht="18">
       <c r="A470" s="5"/>
-      <c r="B470" s="8"/>
+      <c r="B470" s="6"/>
       <c r="C470" s="5"/>
       <c r="D470" s="5"/>
       <c r="E470" s="5"/>
@@ -4843,7 +4824,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="471" customHeight="1" ht="18">
       <c r="A471" s="5"/>
-      <c r="B471" s="8"/>
+      <c r="B471" s="6"/>
       <c r="C471" s="5"/>
       <c r="D471" s="5"/>
       <c r="E471" s="5"/>
@@ -4852,7 +4833,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="18">
       <c r="A472" s="5"/>
-      <c r="B472" s="8"/>
+      <c r="B472" s="6"/>
       <c r="C472" s="5"/>
       <c r="D472" s="5"/>
       <c r="E472" s="5"/>
@@ -4861,7 +4842,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="18">
       <c r="A473" s="5"/>
-      <c r="B473" s="8"/>
+      <c r="B473" s="6"/>
       <c r="C473" s="5"/>
       <c r="D473" s="5"/>
       <c r="E473" s="5"/>
@@ -4870,7 +4851,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="18">
       <c r="A474" s="5"/>
-      <c r="B474" s="8"/>
+      <c r="B474" s="6"/>
       <c r="C474" s="5"/>
       <c r="D474" s="5"/>
       <c r="E474" s="5"/>
@@ -4879,7 +4860,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="18">
       <c r="A475" s="5"/>
-      <c r="B475" s="8"/>
+      <c r="B475" s="6"/>
       <c r="C475" s="5"/>
       <c r="D475" s="5"/>
       <c r="E475" s="5"/>
@@ -4888,7 +4869,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="18">
       <c r="A476" s="5"/>
-      <c r="B476" s="8"/>
+      <c r="B476" s="6"/>
       <c r="C476" s="5"/>
       <c r="D476" s="5"/>
       <c r="E476" s="5"/>
@@ -4897,7 +4878,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="18">
       <c r="A477" s="5"/>
-      <c r="B477" s="8"/>
+      <c r="B477" s="6"/>
       <c r="C477" s="5"/>
       <c r="D477" s="5"/>
       <c r="E477" s="5"/>
@@ -4906,7 +4887,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="18">
       <c r="A478" s="5"/>
-      <c r="B478" s="8"/>
+      <c r="B478" s="6"/>
       <c r="C478" s="5"/>
       <c r="D478" s="5"/>
       <c r="E478" s="5"/>
@@ -4915,7 +4896,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="18">
       <c r="A479" s="5"/>
-      <c r="B479" s="8"/>
+      <c r="B479" s="6"/>
       <c r="C479" s="5"/>
       <c r="D479" s="5"/>
       <c r="E479" s="5"/>
@@ -4924,7 +4905,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="18">
       <c r="A480" s="5"/>
-      <c r="B480" s="8"/>
+      <c r="B480" s="6"/>
       <c r="C480" s="5"/>
       <c r="D480" s="5"/>
       <c r="E480" s="5"/>
@@ -4933,7 +4914,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="18">
       <c r="A481" s="5"/>
-      <c r="B481" s="8"/>
+      <c r="B481" s="6"/>
       <c r="C481" s="5"/>
       <c r="D481" s="5"/>
       <c r="E481" s="5"/>
@@ -4942,7 +4923,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="482" customHeight="1" ht="18">
       <c r="A482" s="5"/>
-      <c r="B482" s="8"/>
+      <c r="B482" s="6"/>
       <c r="C482" s="5"/>
       <c r="D482" s="5"/>
       <c r="E482" s="5"/>
@@ -4951,7 +4932,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="483" customHeight="1" ht="18">
       <c r="A483" s="5"/>
-      <c r="B483" s="8"/>
+      <c r="B483" s="6"/>
       <c r="C483" s="5"/>
       <c r="D483" s="5"/>
       <c r="E483" s="5"/>
@@ -4960,7 +4941,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="484" customHeight="1" ht="18">
       <c r="A484" s="5"/>
-      <c r="B484" s="8"/>
+      <c r="B484" s="6"/>
       <c r="C484" s="5"/>
       <c r="D484" s="5"/>
       <c r="E484" s="5"/>
@@ -4969,7 +4950,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="485" customHeight="1" ht="18">
       <c r="A485" s="5"/>
-      <c r="B485" s="8"/>
+      <c r="B485" s="6"/>
       <c r="C485" s="5"/>
       <c r="D485" s="5"/>
       <c r="E485" s="5"/>
@@ -4978,7 +4959,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="486" customHeight="1" ht="18">
       <c r="A486" s="5"/>
-      <c r="B486" s="8"/>
+      <c r="B486" s="6"/>
       <c r="C486" s="5"/>
       <c r="D486" s="5"/>
       <c r="E486" s="5"/>
@@ -4987,7 +4968,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="487" customHeight="1" ht="18">
       <c r="A487" s="5"/>
-      <c r="B487" s="8"/>
+      <c r="B487" s="6"/>
       <c r="C487" s="5"/>
       <c r="D487" s="5"/>
       <c r="E487" s="5"/>
@@ -4996,7 +4977,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="488" customHeight="1" ht="18">
       <c r="A488" s="5"/>
-      <c r="B488" s="8"/>
+      <c r="B488" s="6"/>
       <c r="C488" s="5"/>
       <c r="D488" s="5"/>
       <c r="E488" s="5"/>
@@ -5005,7 +4986,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="489" customHeight="1" ht="18">
       <c r="A489" s="5"/>
-      <c r="B489" s="8"/>
+      <c r="B489" s="6"/>
       <c r="C489" s="5"/>
       <c r="D489" s="5"/>
       <c r="E489" s="5"/>
@@ -5014,7 +4995,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="490" customHeight="1" ht="18">
       <c r="A490" s="5"/>
-      <c r="B490" s="8"/>
+      <c r="B490" s="6"/>
       <c r="C490" s="5"/>
       <c r="D490" s="5"/>
       <c r="E490" s="5"/>
@@ -5023,7 +5004,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="491" customHeight="1" ht="18">
       <c r="A491" s="5"/>
-      <c r="B491" s="8"/>
+      <c r="B491" s="6"/>
       <c r="C491" s="5"/>
       <c r="D491" s="5"/>
       <c r="E491" s="5"/>
@@ -5032,7 +5013,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="492" customHeight="1" ht="18">
       <c r="A492" s="5"/>
-      <c r="B492" s="8"/>
+      <c r="B492" s="6"/>
       <c r="C492" s="5"/>
       <c r="D492" s="5"/>
       <c r="E492" s="5"/>
@@ -5041,7 +5022,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="493" customHeight="1" ht="18">
       <c r="A493" s="5"/>
-      <c r="B493" s="8"/>
+      <c r="B493" s="6"/>
       <c r="C493" s="5"/>
       <c r="D493" s="5"/>
       <c r="E493" s="5"/>
@@ -5050,7 +5031,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="494" customHeight="1" ht="18">
       <c r="A494" s="5"/>
-      <c r="B494" s="8"/>
+      <c r="B494" s="6"/>
       <c r="C494" s="5"/>
       <c r="D494" s="5"/>
       <c r="E494" s="5"/>
@@ -5059,7 +5040,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="495" customHeight="1" ht="18">
       <c r="A495" s="5"/>
-      <c r="B495" s="8"/>
+      <c r="B495" s="6"/>
       <c r="C495" s="5"/>
       <c r="D495" s="5"/>
       <c r="E495" s="5"/>
@@ -5068,7 +5049,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="496" customHeight="1" ht="18">
       <c r="A496" s="5"/>
-      <c r="B496" s="8"/>
+      <c r="B496" s="6"/>
       <c r="C496" s="5"/>
       <c r="D496" s="5"/>
       <c r="E496" s="5"/>
@@ -5077,7 +5058,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="497" customHeight="1" ht="18">
       <c r="A497" s="5"/>
-      <c r="B497" s="8"/>
+      <c r="B497" s="6"/>
       <c r="C497" s="5"/>
       <c r="D497" s="5"/>
       <c r="E497" s="5"/>
@@ -5086,7 +5067,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="498" customHeight="1" ht="18">
       <c r="A498" s="5"/>
-      <c r="B498" s="8"/>
+      <c r="B498" s="6"/>
       <c r="C498" s="5"/>
       <c r="D498" s="5"/>
       <c r="E498" s="5"/>
@@ -5095,7 +5076,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="499" customHeight="1" ht="18">
       <c r="A499" s="5"/>
-      <c r="B499" s="8"/>
+      <c r="B499" s="6"/>
       <c r="C499" s="5"/>
       <c r="D499" s="5"/>
       <c r="E499" s="5"/>
@@ -5104,7 +5085,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="500" customHeight="1" ht="18">
       <c r="A500" s="5"/>
-      <c r="B500" s="8"/>
+      <c r="B500" s="6"/>
       <c r="C500" s="5"/>
       <c r="D500" s="5"/>
       <c r="E500" s="5"/>
@@ -5113,7 +5094,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="501" customHeight="1" ht="18">
       <c r="A501" s="5"/>
-      <c r="B501" s="8"/>
+      <c r="B501" s="6"/>
       <c r="C501" s="5"/>
       <c r="D501" s="5"/>
       <c r="E501" s="5"/>
@@ -5122,7 +5103,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="502" customHeight="1" ht="18">
       <c r="A502" s="5"/>
-      <c r="B502" s="8"/>
+      <c r="B502" s="6"/>
       <c r="C502" s="5"/>
       <c r="D502" s="5"/>
       <c r="E502" s="5"/>
@@ -5131,7 +5112,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="503" customHeight="1" ht="18">
       <c r="A503" s="5"/>
-      <c r="B503" s="8"/>
+      <c r="B503" s="6"/>
       <c r="C503" s="5"/>
       <c r="D503" s="5"/>
       <c r="E503" s="5"/>
@@ -5140,7 +5121,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="504" customHeight="1" ht="18">
       <c r="A504" s="5"/>
-      <c r="B504" s="8"/>
+      <c r="B504" s="6"/>
       <c r="C504" s="5"/>
       <c r="D504" s="5"/>
       <c r="E504" s="5"/>
@@ -5149,7 +5130,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="505" customHeight="1" ht="18">
       <c r="A505" s="5"/>
-      <c r="B505" s="8"/>
+      <c r="B505" s="6"/>
       <c r="C505" s="5"/>
       <c r="D505" s="5"/>
       <c r="E505" s="5"/>
@@ -5158,7 +5139,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="506" customHeight="1" ht="18">
       <c r="A506" s="5"/>
-      <c r="B506" s="8"/>
+      <c r="B506" s="6"/>
       <c r="C506" s="5"/>
       <c r="D506" s="5"/>
       <c r="E506" s="5"/>
@@ -5167,7 +5148,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="507" customHeight="1" ht="18">
       <c r="A507" s="5"/>
-      <c r="B507" s="8"/>
+      <c r="B507" s="6"/>
       <c r="C507" s="5"/>
       <c r="D507" s="5"/>
       <c r="E507" s="5"/>
@@ -5176,7 +5157,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="508" customHeight="1" ht="18">
       <c r="A508" s="5"/>
-      <c r="B508" s="8"/>
+      <c r="B508" s="6"/>
       <c r="C508" s="5"/>
       <c r="D508" s="5"/>
       <c r="E508" s="5"/>
@@ -5185,7 +5166,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="509" customHeight="1" ht="18">
       <c r="A509" s="5"/>
-      <c r="B509" s="8"/>
+      <c r="B509" s="6"/>
       <c r="C509" s="5"/>
       <c r="D509" s="5"/>
       <c r="E509" s="5"/>
@@ -5194,7 +5175,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="510" customHeight="1" ht="18">
       <c r="A510" s="5"/>
-      <c r="B510" s="8"/>
+      <c r="B510" s="6"/>
       <c r="C510" s="5"/>
       <c r="D510" s="5"/>
       <c r="E510" s="5"/>
@@ -5203,7 +5184,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="511" customHeight="1" ht="18">
       <c r="A511" s="5"/>
-      <c r="B511" s="8"/>
+      <c r="B511" s="6"/>
       <c r="C511" s="5"/>
       <c r="D511" s="5"/>
       <c r="E511" s="5"/>
@@ -5212,7 +5193,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="512" customHeight="1" ht="18">
       <c r="A512" s="5"/>
-      <c r="B512" s="8"/>
+      <c r="B512" s="6"/>
       <c r="C512" s="5"/>
       <c r="D512" s="5"/>
       <c r="E512" s="5"/>
@@ -5221,7 +5202,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="513" customHeight="1" ht="18">
       <c r="A513" s="5"/>
-      <c r="B513" s="8"/>
+      <c r="B513" s="6"/>
       <c r="C513" s="5"/>
       <c r="D513" s="5"/>
       <c r="E513" s="5"/>
@@ -5230,7 +5211,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="514" customHeight="1" ht="18">
       <c r="A514" s="5"/>
-      <c r="B514" s="8"/>
+      <c r="B514" s="6"/>
       <c r="C514" s="5"/>
       <c r="D514" s="5"/>
       <c r="E514" s="5"/>
@@ -5239,7 +5220,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="515" customHeight="1" ht="18">
       <c r="A515" s="5"/>
-      <c r="B515" s="8"/>
+      <c r="B515" s="6"/>
       <c r="C515" s="5"/>
       <c r="D515" s="5"/>
       <c r="E515" s="5"/>
@@ -5248,7 +5229,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="516" customHeight="1" ht="18">
       <c r="A516" s="5"/>
-      <c r="B516" s="8"/>
+      <c r="B516" s="6"/>
       <c r="C516" s="5"/>
       <c r="D516" s="5"/>
       <c r="E516" s="5"/>
@@ -5257,7 +5238,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="517" customHeight="1" ht="18">
       <c r="A517" s="5"/>
-      <c r="B517" s="8"/>
+      <c r="B517" s="6"/>
       <c r="C517" s="5"/>
       <c r="D517" s="5"/>
       <c r="E517" s="5"/>
@@ -5266,7 +5247,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="518" customHeight="1" ht="18">
       <c r="A518" s="5"/>
-      <c r="B518" s="8"/>
+      <c r="B518" s="6"/>
       <c r="C518" s="5"/>
       <c r="D518" s="5"/>
       <c r="E518" s="5"/>
@@ -5275,7 +5256,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="519" customHeight="1" ht="18">
       <c r="A519" s="5"/>
-      <c r="B519" s="8"/>
+      <c r="B519" s="6"/>
       <c r="C519" s="5"/>
       <c r="D519" s="5"/>
       <c r="E519" s="5"/>
@@ -5284,7 +5265,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="520" customHeight="1" ht="18">
       <c r="A520" s="5"/>
-      <c r="B520" s="8"/>
+      <c r="B520" s="6"/>
       <c r="C520" s="5"/>
       <c r="D520" s="5"/>
       <c r="E520" s="5"/>
@@ -5293,7 +5274,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="521" customHeight="1" ht="18">
       <c r="A521" s="5"/>
-      <c r="B521" s="8"/>
+      <c r="B521" s="6"/>
       <c r="C521" s="5"/>
       <c r="D521" s="5"/>
       <c r="E521" s="5"/>
@@ -5302,7 +5283,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="522" customHeight="1" ht="18">
       <c r="A522" s="5"/>
-      <c r="B522" s="8"/>
+      <c r="B522" s="6"/>
       <c r="C522" s="5"/>
       <c r="D522" s="5"/>
       <c r="E522" s="5"/>
@@ -5311,7 +5292,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="523" customHeight="1" ht="18">
       <c r="A523" s="5"/>
-      <c r="B523" s="8"/>
+      <c r="B523" s="6"/>
       <c r="C523" s="5"/>
       <c r="D523" s="5"/>
       <c r="E523" s="5"/>
@@ -5320,7 +5301,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="524" customHeight="1" ht="18">
       <c r="A524" s="5"/>
-      <c r="B524" s="8"/>
+      <c r="B524" s="6"/>
       <c r="C524" s="5"/>
       <c r="D524" s="5"/>
       <c r="E524" s="5"/>
@@ -5329,7 +5310,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="525" customHeight="1" ht="18">
       <c r="A525" s="5"/>
-      <c r="B525" s="8"/>
+      <c r="B525" s="6"/>
       <c r="C525" s="5"/>
       <c r="D525" s="5"/>
       <c r="E525" s="5"/>
@@ -5338,7 +5319,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="526" customHeight="1" ht="18">
       <c r="A526" s="5"/>
-      <c r="B526" s="8"/>
+      <c r="B526" s="6"/>
       <c r="C526" s="5"/>
       <c r="D526" s="5"/>
       <c r="E526" s="5"/>
@@ -5347,7 +5328,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="527" customHeight="1" ht="18">
       <c r="A527" s="5"/>
-      <c r="B527" s="8"/>
+      <c r="B527" s="6"/>
       <c r="C527" s="5"/>
       <c r="D527" s="5"/>
       <c r="E527" s="5"/>
@@ -5356,7 +5337,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="528" customHeight="1" ht="18">
       <c r="A528" s="5"/>
-      <c r="B528" s="8"/>
+      <c r="B528" s="6"/>
       <c r="C528" s="5"/>
       <c r="D528" s="5"/>
       <c r="E528" s="5"/>
@@ -5365,7 +5346,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="529" customHeight="1" ht="18">
       <c r="A529" s="5"/>
-      <c r="B529" s="8"/>
+      <c r="B529" s="6"/>
       <c r="C529" s="5"/>
       <c r="D529" s="5"/>
       <c r="E529" s="5"/>
@@ -5374,7 +5355,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="530" customHeight="1" ht="18">
       <c r="A530" s="5"/>
-      <c r="B530" s="8"/>
+      <c r="B530" s="6"/>
       <c r="C530" s="5"/>
       <c r="D530" s="5"/>
       <c r="E530" s="5"/>
@@ -5383,7 +5364,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="531" customHeight="1" ht="18">
       <c r="A531" s="5"/>
-      <c r="B531" s="8"/>
+      <c r="B531" s="6"/>
       <c r="C531" s="5"/>
       <c r="D531" s="5"/>
       <c r="E531" s="5"/>
@@ -5392,7 +5373,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="532" customHeight="1" ht="18">
       <c r="A532" s="5"/>
-      <c r="B532" s="8"/>
+      <c r="B532" s="6"/>
       <c r="C532" s="5"/>
       <c r="D532" s="5"/>
       <c r="E532" s="5"/>
@@ -5401,7 +5382,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="533" customHeight="1" ht="18">
       <c r="A533" s="5"/>
-      <c r="B533" s="8"/>
+      <c r="B533" s="6"/>
       <c r="C533" s="5"/>
       <c r="D533" s="5"/>
       <c r="E533" s="5"/>
@@ -5410,7 +5391,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="534" customHeight="1" ht="18">
       <c r="A534" s="5"/>
-      <c r="B534" s="8"/>
+      <c r="B534" s="6"/>
       <c r="C534" s="5"/>
       <c r="D534" s="5"/>
       <c r="E534" s="5"/>
@@ -5419,7 +5400,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="535" customHeight="1" ht="18">
       <c r="A535" s="5"/>
-      <c r="B535" s="8"/>
+      <c r="B535" s="6"/>
       <c r="C535" s="5"/>
       <c r="D535" s="5"/>
       <c r="E535" s="5"/>
@@ -5428,7 +5409,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="536" customHeight="1" ht="18">
       <c r="A536" s="5"/>
-      <c r="B536" s="8"/>
+      <c r="B536" s="6"/>
       <c r="C536" s="5"/>
       <c r="D536" s="5"/>
       <c r="E536" s="5"/>
@@ -5437,7 +5418,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="537" customHeight="1" ht="18">
       <c r="A537" s="5"/>
-      <c r="B537" s="8"/>
+      <c r="B537" s="6"/>
       <c r="C537" s="5"/>
       <c r="D537" s="5"/>
       <c r="E537" s="5"/>
@@ -5446,7 +5427,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="538" customHeight="1" ht="18">
       <c r="A538" s="5"/>
-      <c r="B538" s="8"/>
+      <c r="B538" s="6"/>
       <c r="C538" s="5"/>
       <c r="D538" s="5"/>
       <c r="E538" s="5"/>
@@ -5455,7 +5436,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="539" customHeight="1" ht="18">
       <c r="A539" s="5"/>
-      <c r="B539" s="8"/>
+      <c r="B539" s="6"/>
       <c r="C539" s="5"/>
       <c r="D539" s="5"/>
       <c r="E539" s="5"/>
@@ -5464,7 +5445,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="540" customHeight="1" ht="18">
       <c r="A540" s="5"/>
-      <c r="B540" s="8"/>
+      <c r="B540" s="6"/>
       <c r="C540" s="5"/>
       <c r="D540" s="5"/>
       <c r="E540" s="5"/>
@@ -5473,7 +5454,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="541" customHeight="1" ht="18">
       <c r="A541" s="5"/>
-      <c r="B541" s="8"/>
+      <c r="B541" s="6"/>
       <c r="C541" s="5"/>
       <c r="D541" s="5"/>
       <c r="E541" s="5"/>
@@ -5482,7 +5463,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="542" customHeight="1" ht="18">
       <c r="A542" s="5"/>
-      <c r="B542" s="8"/>
+      <c r="B542" s="6"/>
       <c r="C542" s="5"/>
       <c r="D542" s="5"/>
       <c r="E542" s="5"/>
@@ -5491,7 +5472,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="543" customHeight="1" ht="18">
       <c r="A543" s="5"/>
-      <c r="B543" s="8"/>
+      <c r="B543" s="6"/>
       <c r="C543" s="5"/>
       <c r="D543" s="5"/>
       <c r="E543" s="5"/>
@@ -5500,7 +5481,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="544" customHeight="1" ht="18">
       <c r="A544" s="5"/>
-      <c r="B544" s="8"/>
+      <c r="B544" s="6"/>
       <c r="C544" s="5"/>
       <c r="D544" s="5"/>
       <c r="E544" s="5"/>
@@ -5509,7 +5490,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="545" customHeight="1" ht="18">
       <c r="A545" s="5"/>
-      <c r="B545" s="8"/>
+      <c r="B545" s="6"/>
       <c r="C545" s="5"/>
       <c r="D545" s="5"/>
       <c r="E545" s="5"/>
@@ -5518,7 +5499,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="546" customHeight="1" ht="18">
       <c r="A546" s="5"/>
-      <c r="B546" s="8"/>
+      <c r="B546" s="6"/>
       <c r="C546" s="5"/>
       <c r="D546" s="5"/>
       <c r="E546" s="5"/>
@@ -5527,7 +5508,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="547" customHeight="1" ht="18">
       <c r="A547" s="5"/>
-      <c r="B547" s="8"/>
+      <c r="B547" s="6"/>
       <c r="C547" s="5"/>
       <c r="D547" s="5"/>
       <c r="E547" s="5"/>
@@ -5536,7 +5517,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="548" customHeight="1" ht="18">
       <c r="A548" s="5"/>
-      <c r="B548" s="8"/>
+      <c r="B548" s="6"/>
       <c r="C548" s="5"/>
       <c r="D548" s="5"/>
       <c r="E548" s="5"/>
@@ -5545,7 +5526,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="549" customHeight="1" ht="18">
       <c r="A549" s="5"/>
-      <c r="B549" s="8"/>
+      <c r="B549" s="6"/>
       <c r="C549" s="5"/>
       <c r="D549" s="5"/>
       <c r="E549" s="5"/>
@@ -5554,7 +5535,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="550" customHeight="1" ht="18">
       <c r="A550" s="5"/>
-      <c r="B550" s="8"/>
+      <c r="B550" s="6"/>
       <c r="C550" s="5"/>
       <c r="D550" s="5"/>
       <c r="E550" s="5"/>
@@ -5563,7 +5544,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="551" customHeight="1" ht="18">
       <c r="A551" s="5"/>
-      <c r="B551" s="8"/>
+      <c r="B551" s="6"/>
       <c r="C551" s="5"/>
       <c r="D551" s="5"/>
       <c r="E551" s="5"/>
@@ -5572,7 +5553,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="552" customHeight="1" ht="18">
       <c r="A552" s="5"/>
-      <c r="B552" s="8"/>
+      <c r="B552" s="6"/>
       <c r="C552" s="5"/>
       <c r="D552" s="5"/>
       <c r="E552" s="5"/>
@@ -5581,7 +5562,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="553" customHeight="1" ht="18">
       <c r="A553" s="5"/>
-      <c r="B553" s="8"/>
+      <c r="B553" s="6"/>
       <c r="C553" s="5"/>
       <c r="D553" s="5"/>
       <c r="E553" s="5"/>
@@ -5590,7 +5571,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="554" customHeight="1" ht="18">
       <c r="A554" s="5"/>
-      <c r="B554" s="8"/>
+      <c r="B554" s="6"/>
       <c r="C554" s="5"/>
       <c r="D554" s="5"/>
       <c r="E554" s="5"/>
@@ -5599,7 +5580,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="555" customHeight="1" ht="18">
       <c r="A555" s="5"/>
-      <c r="B555" s="8"/>
+      <c r="B555" s="6"/>
       <c r="C555" s="5"/>
       <c r="D555" s="5"/>
       <c r="E555" s="5"/>
@@ -5608,7 +5589,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="556" customHeight="1" ht="18">
       <c r="A556" s="5"/>
-      <c r="B556" s="8"/>
+      <c r="B556" s="6"/>
       <c r="C556" s="5"/>
       <c r="D556" s="5"/>
       <c r="E556" s="5"/>
@@ -5617,7 +5598,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="557" customHeight="1" ht="18">
       <c r="A557" s="5"/>
-      <c r="B557" s="8"/>
+      <c r="B557" s="6"/>
       <c r="C557" s="5"/>
       <c r="D557" s="5"/>
       <c r="E557" s="5"/>
@@ -5626,7 +5607,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="558" customHeight="1" ht="18">
       <c r="A558" s="5"/>
-      <c r="B558" s="8"/>
+      <c r="B558" s="6"/>
       <c r="C558" s="5"/>
       <c r="D558" s="5"/>
       <c r="E558" s="5"/>
@@ -5635,7 +5616,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="559" customHeight="1" ht="18">
       <c r="A559" s="5"/>
-      <c r="B559" s="8"/>
+      <c r="B559" s="6"/>
       <c r="C559" s="5"/>
       <c r="D559" s="5"/>
       <c r="E559" s="5"/>
@@ -5644,7 +5625,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="560" customHeight="1" ht="18">
       <c r="A560" s="5"/>
-      <c r="B560" s="8"/>
+      <c r="B560" s="6"/>
       <c r="C560" s="5"/>
       <c r="D560" s="5"/>
       <c r="E560" s="5"/>
@@ -5653,7 +5634,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="561" customHeight="1" ht="18">
       <c r="A561" s="5"/>
-      <c r="B561" s="8"/>
+      <c r="B561" s="6"/>
       <c r="C561" s="5"/>
       <c r="D561" s="5"/>
       <c r="E561" s="5"/>
@@ -5662,7 +5643,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="562" customHeight="1" ht="18">
       <c r="A562" s="5"/>
-      <c r="B562" s="8"/>
+      <c r="B562" s="6"/>
       <c r="C562" s="5"/>
       <c r="D562" s="5"/>
       <c r="E562" s="5"/>
@@ -5671,7 +5652,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="563" customHeight="1" ht="18">
       <c r="A563" s="5"/>
-      <c r="B563" s="8"/>
+      <c r="B563" s="6"/>
       <c r="C563" s="5"/>
       <c r="D563" s="5"/>
       <c r="E563" s="5"/>
@@ -5680,7 +5661,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="564" customHeight="1" ht="18">
       <c r="A564" s="5"/>
-      <c r="B564" s="8"/>
+      <c r="B564" s="6"/>
       <c r="C564" s="5"/>
       <c r="D564" s="5"/>
       <c r="E564" s="5"/>
@@ -5689,7 +5670,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="565" customHeight="1" ht="18">
       <c r="A565" s="5"/>
-      <c r="B565" s="8"/>
+      <c r="B565" s="6"/>
       <c r="C565" s="5"/>
       <c r="D565" s="5"/>
       <c r="E565" s="5"/>
@@ -5698,7 +5679,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="566" customHeight="1" ht="18">
       <c r="A566" s="5"/>
-      <c r="B566" s="8"/>
+      <c r="B566" s="6"/>
       <c r="C566" s="5"/>
       <c r="D566" s="5"/>
       <c r="E566" s="5"/>
@@ -5707,7 +5688,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="567" customHeight="1" ht="18">
       <c r="A567" s="5"/>
-      <c r="B567" s="8"/>
+      <c r="B567" s="6"/>
       <c r="C567" s="5"/>
       <c r="D567" s="5"/>
       <c r="E567" s="5"/>
@@ -5716,7 +5697,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="568" customHeight="1" ht="18">
       <c r="A568" s="5"/>
-      <c r="B568" s="8"/>
+      <c r="B568" s="6"/>
       <c r="C568" s="5"/>
       <c r="D568" s="5"/>
       <c r="E568" s="5"/>
@@ -5725,7 +5706,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="569" customHeight="1" ht="18">
       <c r="A569" s="5"/>
-      <c r="B569" s="8"/>
+      <c r="B569" s="6"/>
       <c r="C569" s="5"/>
       <c r="D569" s="5"/>
       <c r="E569" s="5"/>
@@ -5734,7 +5715,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="570" customHeight="1" ht="18">
       <c r="A570" s="5"/>
-      <c r="B570" s="8"/>
+      <c r="B570" s="6"/>
       <c r="C570" s="5"/>
       <c r="D570" s="5"/>
       <c r="E570" s="5"/>
@@ -5743,7 +5724,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="571" customHeight="1" ht="18">
       <c r="A571" s="5"/>
-      <c r="B571" s="8"/>
+      <c r="B571" s="6"/>
       <c r="C571" s="5"/>
       <c r="D571" s="5"/>
       <c r="E571" s="5"/>
@@ -5752,7 +5733,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="572" customHeight="1" ht="18">
       <c r="A572" s="5"/>
-      <c r="B572" s="8"/>
+      <c r="B572" s="6"/>
       <c r="C572" s="5"/>
       <c r="D572" s="5"/>
       <c r="E572" s="5"/>
@@ -5761,7 +5742,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="573" customHeight="1" ht="18">
       <c r="A573" s="5"/>
-      <c r="B573" s="8"/>
+      <c r="B573" s="6"/>
       <c r="C573" s="5"/>
       <c r="D573" s="5"/>
       <c r="E573" s="5"/>
@@ -5770,7 +5751,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="574" customHeight="1" ht="18">
       <c r="A574" s="5"/>
-      <c r="B574" s="8"/>
+      <c r="B574" s="6"/>
       <c r="C574" s="5"/>
       <c r="D574" s="5"/>
       <c r="E574" s="5"/>
@@ -5779,7 +5760,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="575" customHeight="1" ht="18">
       <c r="A575" s="5"/>
-      <c r="B575" s="8"/>
+      <c r="B575" s="6"/>
       <c r="C575" s="5"/>
       <c r="D575" s="5"/>
       <c r="E575" s="5"/>
@@ -5788,7 +5769,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="576" customHeight="1" ht="18">
       <c r="A576" s="5"/>
-      <c r="B576" s="8"/>
+      <c r="B576" s="6"/>
       <c r="C576" s="5"/>
       <c r="D576" s="5"/>
       <c r="E576" s="5"/>
@@ -5797,7 +5778,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="577" customHeight="1" ht="18">
       <c r="A577" s="5"/>
-      <c r="B577" s="8"/>
+      <c r="B577" s="6"/>
       <c r="C577" s="5"/>
       <c r="D577" s="5"/>
       <c r="E577" s="5"/>
@@ -5806,7 +5787,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="578" customHeight="1" ht="18">
       <c r="A578" s="5"/>
-      <c r="B578" s="8"/>
+      <c r="B578" s="6"/>
       <c r="C578" s="5"/>
       <c r="D578" s="5"/>
       <c r="E578" s="5"/>
@@ -5815,7 +5796,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="579" customHeight="1" ht="18">
       <c r="A579" s="5"/>
-      <c r="B579" s="8"/>
+      <c r="B579" s="6"/>
       <c r="C579" s="5"/>
       <c r="D579" s="5"/>
       <c r="E579" s="5"/>
@@ -5824,7 +5805,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="580" customHeight="1" ht="18">
       <c r="A580" s="5"/>
-      <c r="B580" s="8"/>
+      <c r="B580" s="6"/>
       <c r="C580" s="5"/>
       <c r="D580" s="5"/>
       <c r="E580" s="5"/>
@@ -5833,7 +5814,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="581" customHeight="1" ht="18">
       <c r="A581" s="5"/>
-      <c r="B581" s="8"/>
+      <c r="B581" s="6"/>
       <c r="C581" s="5"/>
       <c r="D581" s="5"/>
       <c r="E581" s="5"/>
@@ -5842,7 +5823,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="582" customHeight="1" ht="18">
       <c r="A582" s="5"/>
-      <c r="B582" s="8"/>
+      <c r="B582" s="6"/>
       <c r="C582" s="5"/>
       <c r="D582" s="5"/>
       <c r="E582" s="5"/>
@@ -5851,7 +5832,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="583" customHeight="1" ht="18">
       <c r="A583" s="5"/>
-      <c r="B583" s="8"/>
+      <c r="B583" s="6"/>
       <c r="C583" s="5"/>
       <c r="D583" s="5"/>
       <c r="E583" s="5"/>
@@ -5860,7 +5841,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="584" customHeight="1" ht="18">
       <c r="A584" s="5"/>
-      <c r="B584" s="8"/>
+      <c r="B584" s="6"/>
       <c r="C584" s="5"/>
       <c r="D584" s="5"/>
       <c r="E584" s="5"/>
@@ -5869,7 +5850,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="585" customHeight="1" ht="18">
       <c r="A585" s="5"/>
-      <c r="B585" s="8"/>
+      <c r="B585" s="6"/>
       <c r="C585" s="5"/>
       <c r="D585" s="5"/>
       <c r="E585" s="5"/>
@@ -5878,7 +5859,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="586" customHeight="1" ht="18">
       <c r="A586" s="5"/>
-      <c r="B586" s="8"/>
+      <c r="B586" s="6"/>
       <c r="C586" s="5"/>
       <c r="D586" s="5"/>
       <c r="E586" s="5"/>
@@ -5887,7 +5868,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="587" customHeight="1" ht="18">
       <c r="A587" s="5"/>
-      <c r="B587" s="8"/>
+      <c r="B587" s="6"/>
       <c r="C587" s="5"/>
       <c r="D587" s="5"/>
       <c r="E587" s="5"/>
@@ -5896,7 +5877,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="588" customHeight="1" ht="18">
       <c r="A588" s="5"/>
-      <c r="B588" s="8"/>
+      <c r="B588" s="6"/>
       <c r="C588" s="5"/>
       <c r="D588" s="5"/>
       <c r="E588" s="5"/>
@@ -5905,7 +5886,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="589" customHeight="1" ht="18">
       <c r="A589" s="5"/>
-      <c r="B589" s="8"/>
+      <c r="B589" s="6"/>
       <c r="C589" s="5"/>
       <c r="D589" s="5"/>
       <c r="E589" s="5"/>
@@ -5914,7 +5895,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="590" customHeight="1" ht="18">
       <c r="A590" s="5"/>
-      <c r="B590" s="8"/>
+      <c r="B590" s="6"/>
       <c r="C590" s="5"/>
       <c r="D590" s="5"/>
       <c r="E590" s="5"/>
@@ -5923,7 +5904,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="591" customHeight="1" ht="18">
       <c r="A591" s="5"/>
-      <c r="B591" s="8"/>
+      <c r="B591" s="6"/>
       <c r="C591" s="5"/>
       <c r="D591" s="5"/>
       <c r="E591" s="5"/>
@@ -5932,7 +5913,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="592" customHeight="1" ht="18">
       <c r="A592" s="5"/>
-      <c r="B592" s="8"/>
+      <c r="B592" s="6"/>
       <c r="C592" s="5"/>
       <c r="D592" s="5"/>
       <c r="E592" s="5"/>
@@ -5941,7 +5922,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="593" customHeight="1" ht="18">
       <c r="A593" s="5"/>
-      <c r="B593" s="8"/>
+      <c r="B593" s="6"/>
       <c r="C593" s="5"/>
       <c r="D593" s="5"/>
       <c r="E593" s="5"/>
@@ -5950,7 +5931,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="594" customHeight="1" ht="18">
       <c r="A594" s="5"/>
-      <c r="B594" s="8"/>
+      <c r="B594" s="6"/>
       <c r="C594" s="5"/>
       <c r="D594" s="5"/>
       <c r="E594" s="5"/>
@@ -5959,7 +5940,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="595" customHeight="1" ht="18">
       <c r="A595" s="5"/>
-      <c r="B595" s="8"/>
+      <c r="B595" s="6"/>
       <c r="C595" s="5"/>
       <c r="D595" s="5"/>
       <c r="E595" s="5"/>
@@ -5968,7 +5949,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="596" customHeight="1" ht="18">
       <c r="A596" s="5"/>
-      <c r="B596" s="8"/>
+      <c r="B596" s="6"/>
       <c r="C596" s="5"/>
       <c r="D596" s="5"/>
       <c r="E596" s="5"/>
@@ -5977,7 +5958,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="597" customHeight="1" ht="18">
       <c r="A597" s="5"/>
-      <c r="B597" s="8"/>
+      <c r="B597" s="6"/>
       <c r="C597" s="5"/>
       <c r="D597" s="5"/>
       <c r="E597" s="5"/>
@@ -5986,7 +5967,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="598" customHeight="1" ht="18">
       <c r="A598" s="5"/>
-      <c r="B598" s="8"/>
+      <c r="B598" s="6"/>
       <c r="C598" s="5"/>
       <c r="D598" s="5"/>
       <c r="E598" s="5"/>
@@ -5995,7 +5976,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="599" customHeight="1" ht="18">
       <c r="A599" s="5"/>
-      <c r="B599" s="8"/>
+      <c r="B599" s="6"/>
       <c r="C599" s="5"/>
       <c r="D599" s="5"/>
       <c r="E599" s="5"/>
@@ -6004,7 +5985,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="600" customHeight="1" ht="18">
       <c r="A600" s="5"/>
-      <c r="B600" s="8"/>
+      <c r="B600" s="6"/>
       <c r="C600" s="5"/>
       <c r="D600" s="5"/>
       <c r="E600" s="5"/>
@@ -6013,7 +5994,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="601" customHeight="1" ht="18">
       <c r="A601" s="5"/>
-      <c r="B601" s="8"/>
+      <c r="B601" s="6"/>
       <c r="C601" s="5"/>
       <c r="D601" s="5"/>
       <c r="E601" s="5"/>
@@ -6022,7 +6003,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="602" customHeight="1" ht="18">
       <c r="A602" s="5"/>
-      <c r="B602" s="8"/>
+      <c r="B602" s="6"/>
       <c r="C602" s="5"/>
       <c r="D602" s="5"/>
       <c r="E602" s="5"/>
@@ -6031,7 +6012,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="603" customHeight="1" ht="18">
       <c r="A603" s="5"/>
-      <c r="B603" s="8"/>
+      <c r="B603" s="6"/>
       <c r="C603" s="5"/>
       <c r="D603" s="5"/>
       <c r="E603" s="5"/>
@@ -6040,7 +6021,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="604" customHeight="1" ht="18">
       <c r="A604" s="5"/>
-      <c r="B604" s="8"/>
+      <c r="B604" s="6"/>
       <c r="C604" s="5"/>
       <c r="D604" s="5"/>
       <c r="E604" s="5"/>
@@ -6049,7 +6030,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="605" customHeight="1" ht="18">
       <c r="A605" s="5"/>
-      <c r="B605" s="8"/>
+      <c r="B605" s="6"/>
       <c r="C605" s="5"/>
       <c r="D605" s="5"/>
       <c r="E605" s="5"/>
@@ -6058,7 +6039,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="606" customHeight="1" ht="18">
       <c r="A606" s="5"/>
-      <c r="B606" s="8"/>
+      <c r="B606" s="6"/>
       <c r="C606" s="5"/>
       <c r="D606" s="5"/>
       <c r="E606" s="5"/>
@@ -6067,7 +6048,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="607" customHeight="1" ht="18">
       <c r="A607" s="5"/>
-      <c r="B607" s="8"/>
+      <c r="B607" s="6"/>
       <c r="C607" s="5"/>
       <c r="D607" s="5"/>
       <c r="E607" s="5"/>
@@ -6076,7 +6057,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="608" customHeight="1" ht="18">
       <c r="A608" s="5"/>
-      <c r="B608" s="8"/>
+      <c r="B608" s="6"/>
       <c r="C608" s="5"/>
       <c r="D608" s="5"/>
       <c r="E608" s="5"/>
@@ -6085,7 +6066,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="609" customHeight="1" ht="18">
       <c r="A609" s="5"/>
-      <c r="B609" s="8"/>
+      <c r="B609" s="6"/>
       <c r="C609" s="5"/>
       <c r="D609" s="5"/>
       <c r="E609" s="5"/>
@@ -6094,7 +6075,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="610" customHeight="1" ht="18">
       <c r="A610" s="5"/>
-      <c r="B610" s="8"/>
+      <c r="B610" s="6"/>
       <c r="C610" s="5"/>
       <c r="D610" s="5"/>
       <c r="E610" s="5"/>
@@ -6103,7 +6084,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="611" customHeight="1" ht="18">
       <c r="A611" s="5"/>
-      <c r="B611" s="8"/>
+      <c r="B611" s="6"/>
       <c r="C611" s="5"/>
       <c r="D611" s="5"/>
       <c r="E611" s="5"/>
@@ -6112,7 +6093,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="612" customHeight="1" ht="18">
       <c r="A612" s="5"/>
-      <c r="B612" s="8"/>
+      <c r="B612" s="6"/>
       <c r="C612" s="5"/>
       <c r="D612" s="5"/>
       <c r="E612" s="5"/>
@@ -6121,7 +6102,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="613" customHeight="1" ht="18">
       <c r="A613" s="5"/>
-      <c r="B613" s="8"/>
+      <c r="B613" s="6"/>
       <c r="C613" s="5"/>
       <c r="D613" s="5"/>
       <c r="E613" s="5"/>
@@ -6130,7 +6111,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="614" customHeight="1" ht="18">
       <c r="A614" s="5"/>
-      <c r="B614" s="8"/>
+      <c r="B614" s="6"/>
       <c r="C614" s="5"/>
       <c r="D614" s="5"/>
       <c r="E614" s="5"/>
@@ -6139,7 +6120,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="615" customHeight="1" ht="18">
       <c r="A615" s="5"/>
-      <c r="B615" s="8"/>
+      <c r="B615" s="6"/>
       <c r="C615" s="5"/>
       <c r="D615" s="5"/>
       <c r="E615" s="5"/>
@@ -6148,7 +6129,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="616" customHeight="1" ht="18">
       <c r="A616" s="5"/>
-      <c r="B616" s="8"/>
+      <c r="B616" s="6"/>
       <c r="C616" s="5"/>
       <c r="D616" s="5"/>
       <c r="E616" s="5"/>
@@ -6157,7 +6138,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="617" customHeight="1" ht="18">
       <c r="A617" s="5"/>
-      <c r="B617" s="8"/>
+      <c r="B617" s="6"/>
       <c r="C617" s="5"/>
       <c r="D617" s="5"/>
       <c r="E617" s="5"/>
@@ -6166,7 +6147,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="618" customHeight="1" ht="18">
       <c r="A618" s="5"/>
-      <c r="B618" s="8"/>
+      <c r="B618" s="6"/>
       <c r="C618" s="5"/>
       <c r="D618" s="5"/>
       <c r="E618" s="5"/>
@@ -6175,7 +6156,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="619" customHeight="1" ht="18">
       <c r="A619" s="5"/>
-      <c r="B619" s="8"/>
+      <c r="B619" s="6"/>
       <c r="C619" s="5"/>
       <c r="D619" s="5"/>
       <c r="E619" s="5"/>
@@ -6184,7 +6165,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="620" customHeight="1" ht="18">
       <c r="A620" s="5"/>
-      <c r="B620" s="8"/>
+      <c r="B620" s="6"/>
       <c r="C620" s="5"/>
       <c r="D620" s="5"/>
       <c r="E620" s="5"/>
@@ -6193,7 +6174,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="621" customHeight="1" ht="18">
       <c r="A621" s="5"/>
-      <c r="B621" s="8"/>
+      <c r="B621" s="6"/>
       <c r="C621" s="5"/>
       <c r="D621" s="5"/>
       <c r="E621" s="5"/>
@@ -6202,7 +6183,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="622" customHeight="1" ht="18">
       <c r="A622" s="5"/>
-      <c r="B622" s="8"/>
+      <c r="B622" s="6"/>
       <c r="C622" s="5"/>
       <c r="D622" s="5"/>
       <c r="E622" s="5"/>
@@ -6211,7 +6192,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="623" customHeight="1" ht="18">
       <c r="A623" s="5"/>
-      <c r="B623" s="8"/>
+      <c r="B623" s="6"/>
       <c r="C623" s="5"/>
       <c r="D623" s="5"/>
       <c r="E623" s="5"/>
@@ -6220,7 +6201,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="624" customHeight="1" ht="18">
       <c r="A624" s="5"/>
-      <c r="B624" s="8"/>
+      <c r="B624" s="6"/>
       <c r="C624" s="5"/>
       <c r="D624" s="5"/>
       <c r="E624" s="5"/>
@@ -6229,7 +6210,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="625" customHeight="1" ht="18">
       <c r="A625" s="5"/>
-      <c r="B625" s="8"/>
+      <c r="B625" s="6"/>
       <c r="C625" s="5"/>
       <c r="D625" s="5"/>
       <c r="E625" s="5"/>
@@ -6238,7 +6219,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="626" customHeight="1" ht="18">
       <c r="A626" s="5"/>
-      <c r="B626" s="8"/>
+      <c r="B626" s="6"/>
       <c r="C626" s="5"/>
       <c r="D626" s="5"/>
       <c r="E626" s="5"/>
@@ -6247,7 +6228,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="627" customHeight="1" ht="18">
       <c r="A627" s="5"/>
-      <c r="B627" s="8"/>
+      <c r="B627" s="6"/>
       <c r="C627" s="5"/>
       <c r="D627" s="5"/>
       <c r="E627" s="5"/>
@@ -6256,7 +6237,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="628" customHeight="1" ht="18">
       <c r="A628" s="5"/>
-      <c r="B628" s="8"/>
+      <c r="B628" s="6"/>
       <c r="C628" s="5"/>
       <c r="D628" s="5"/>
       <c r="E628" s="5"/>
@@ -6265,7 +6246,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="629" customHeight="1" ht="18">
       <c r="A629" s="5"/>
-      <c r="B629" s="8"/>
+      <c r="B629" s="6"/>
       <c r="C629" s="5"/>
       <c r="D629" s="5"/>
       <c r="E629" s="5"/>
@@ -6274,7 +6255,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="630" customHeight="1" ht="18">
       <c r="A630" s="5"/>
-      <c r="B630" s="8"/>
+      <c r="B630" s="6"/>
       <c r="C630" s="5"/>
       <c r="D630" s="5"/>
       <c r="E630" s="5"/>
@@ -6283,7 +6264,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="631" customHeight="1" ht="18">
       <c r="A631" s="5"/>
-      <c r="B631" s="8"/>
+      <c r="B631" s="6"/>
       <c r="C631" s="5"/>
       <c r="D631" s="5"/>
       <c r="E631" s="5"/>
@@ -6292,7 +6273,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="632" customHeight="1" ht="18">
       <c r="A632" s="5"/>
-      <c r="B632" s="8"/>
+      <c r="B632" s="6"/>
       <c r="C632" s="5"/>
       <c r="D632" s="5"/>
       <c r="E632" s="5"/>
@@ -6301,7 +6282,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="633" customHeight="1" ht="18">
       <c r="A633" s="5"/>
-      <c r="B633" s="8"/>
+      <c r="B633" s="6"/>
       <c r="C633" s="5"/>
       <c r="D633" s="5"/>
       <c r="E633" s="5"/>
@@ -6310,7 +6291,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="634" customHeight="1" ht="18">
       <c r="A634" s="5"/>
-      <c r="B634" s="8"/>
+      <c r="B634" s="6"/>
       <c r="C634" s="5"/>
       <c r="D634" s="5"/>
       <c r="E634" s="5"/>
@@ -6319,7 +6300,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="635" customHeight="1" ht="18">
       <c r="A635" s="5"/>
-      <c r="B635" s="8"/>
+      <c r="B635" s="6"/>
       <c r="C635" s="5"/>
       <c r="D635" s="5"/>
       <c r="E635" s="5"/>
@@ -6328,7 +6309,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="636" customHeight="1" ht="18">
       <c r="A636" s="5"/>
-      <c r="B636" s="8"/>
+      <c r="B636" s="6"/>
       <c r="C636" s="5"/>
       <c r="D636" s="5"/>
       <c r="E636" s="5"/>
@@ -6337,7 +6318,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="637" customHeight="1" ht="18">
       <c r="A637" s="5"/>
-      <c r="B637" s="8"/>
+      <c r="B637" s="6"/>
       <c r="C637" s="5"/>
       <c r="D637" s="5"/>
       <c r="E637" s="5"/>
@@ -6346,7 +6327,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="638" customHeight="1" ht="18">
       <c r="A638" s="5"/>
-      <c r="B638" s="8"/>
+      <c r="B638" s="6"/>
       <c r="C638" s="5"/>
       <c r="D638" s="5"/>
       <c r="E638" s="5"/>
@@ -6355,7 +6336,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="639" customHeight="1" ht="18">
       <c r="A639" s="5"/>
-      <c r="B639" s="8"/>
+      <c r="B639" s="6"/>
       <c r="C639" s="5"/>
       <c r="D639" s="5"/>
       <c r="E639" s="5"/>
@@ -6364,7 +6345,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="640" customHeight="1" ht="18">
       <c r="A640" s="5"/>
-      <c r="B640" s="8"/>
+      <c r="B640" s="6"/>
       <c r="C640" s="5"/>
       <c r="D640" s="5"/>
       <c r="E640" s="5"/>
@@ -6373,7 +6354,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="641" customHeight="1" ht="18">
       <c r="A641" s="5"/>
-      <c r="B641" s="8"/>
+      <c r="B641" s="6"/>
       <c r="C641" s="5"/>
       <c r="D641" s="5"/>
       <c r="E641" s="5"/>
@@ -6382,7 +6363,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="642" customHeight="1" ht="18">
       <c r="A642" s="5"/>
-      <c r="B642" s="8"/>
+      <c r="B642" s="6"/>
       <c r="C642" s="5"/>
       <c r="D642" s="5"/>
       <c r="E642" s="5"/>
@@ -6391,7 +6372,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="643" customHeight="1" ht="18">
       <c r="A643" s="5"/>
-      <c r="B643" s="8"/>
+      <c r="B643" s="6"/>
       <c r="C643" s="5"/>
       <c r="D643" s="5"/>
       <c r="E643" s="5"/>
@@ -6400,7 +6381,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="644" customHeight="1" ht="18">
       <c r="A644" s="5"/>
-      <c r="B644" s="8"/>
+      <c r="B644" s="6"/>
       <c r="C644" s="5"/>
       <c r="D644" s="5"/>
       <c r="E644" s="5"/>
@@ -6409,7 +6390,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="645" customHeight="1" ht="18">
       <c r="A645" s="5"/>
-      <c r="B645" s="8"/>
+      <c r="B645" s="6"/>
       <c r="C645" s="5"/>
       <c r="D645" s="5"/>
       <c r="E645" s="5"/>
@@ -6418,7 +6399,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="646" customHeight="1" ht="18">
       <c r="A646" s="5"/>
-      <c r="B646" s="8"/>
+      <c r="B646" s="6"/>
       <c r="C646" s="5"/>
       <c r="D646" s="5"/>
       <c r="E646" s="5"/>
@@ -6427,7 +6408,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="647" customHeight="1" ht="18">
       <c r="A647" s="5"/>
-      <c r="B647" s="8"/>
+      <c r="B647" s="6"/>
       <c r="C647" s="5"/>
       <c r="D647" s="5"/>
       <c r="E647" s="5"/>
@@ -6436,7 +6417,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="648" customHeight="1" ht="18">
       <c r="A648" s="5"/>
-      <c r="B648" s="8"/>
+      <c r="B648" s="6"/>
       <c r="C648" s="5"/>
       <c r="D648" s="5"/>
       <c r="E648" s="5"/>
@@ -6445,7 +6426,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="649" customHeight="1" ht="18">
       <c r="A649" s="5"/>
-      <c r="B649" s="8"/>
+      <c r="B649" s="6"/>
       <c r="C649" s="5"/>
       <c r="D649" s="5"/>
       <c r="E649" s="5"/>
@@ -6454,7 +6435,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="650" customHeight="1" ht="18">
       <c r="A650" s="5"/>
-      <c r="B650" s="8"/>
+      <c r="B650" s="6"/>
       <c r="C650" s="5"/>
       <c r="D650" s="5"/>
       <c r="E650" s="5"/>
@@ -6463,7 +6444,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="651" customHeight="1" ht="18">
       <c r="A651" s="5"/>
-      <c r="B651" s="8"/>
+      <c r="B651" s="6"/>
       <c r="C651" s="5"/>
       <c r="D651" s="5"/>
       <c r="E651" s="5"/>
@@ -6472,7 +6453,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="652" customHeight="1" ht="18">
       <c r="A652" s="5"/>
-      <c r="B652" s="8"/>
+      <c r="B652" s="6"/>
       <c r="C652" s="5"/>
       <c r="D652" s="5"/>
       <c r="E652" s="5"/>
@@ -6481,7 +6462,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="653" customHeight="1" ht="18">
       <c r="A653" s="5"/>
-      <c r="B653" s="8"/>
+      <c r="B653" s="6"/>
       <c r="C653" s="5"/>
       <c r="D653" s="5"/>
       <c r="E653" s="5"/>
@@ -6490,7 +6471,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="654" customHeight="1" ht="18">
       <c r="A654" s="5"/>
-      <c r="B654" s="8"/>
+      <c r="B654" s="6"/>
       <c r="C654" s="5"/>
       <c r="D654" s="5"/>
       <c r="E654" s="5"/>
@@ -6499,7 +6480,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="655" customHeight="1" ht="18">
       <c r="A655" s="5"/>
-      <c r="B655" s="8"/>
+      <c r="B655" s="6"/>
       <c r="C655" s="5"/>
       <c r="D655" s="5"/>
       <c r="E655" s="5"/>
@@ -6508,7 +6489,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="656" customHeight="1" ht="18">
       <c r="A656" s="5"/>
-      <c r="B656" s="8"/>
+      <c r="B656" s="6"/>
       <c r="C656" s="5"/>
       <c r="D656" s="5"/>
       <c r="E656" s="5"/>
@@ -6517,7 +6498,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="657" customHeight="1" ht="18">
       <c r="A657" s="5"/>
-      <c r="B657" s="8"/>
+      <c r="B657" s="6"/>
       <c r="C657" s="5"/>
       <c r="D657" s="5"/>
       <c r="E657" s="5"/>
@@ -6526,7 +6507,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="658" customHeight="1" ht="18">
       <c r="A658" s="5"/>
-      <c r="B658" s="8"/>
+      <c r="B658" s="6"/>
       <c r="C658" s="5"/>
       <c r="D658" s="5"/>
       <c r="E658" s="5"/>
@@ -6535,7 +6516,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="659" customHeight="1" ht="18">
       <c r="A659" s="5"/>
-      <c r="B659" s="8"/>
+      <c r="B659" s="6"/>
       <c r="C659" s="5"/>
       <c r="D659" s="5"/>
       <c r="E659" s="5"/>
@@ -6544,7 +6525,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="660" customHeight="1" ht="18">
       <c r="A660" s="5"/>
-      <c r="B660" s="8"/>
+      <c r="B660" s="6"/>
       <c r="C660" s="5"/>
       <c r="D660" s="5"/>
       <c r="E660" s="5"/>
@@ -6553,7 +6534,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="661" customHeight="1" ht="18">
       <c r="A661" s="5"/>
-      <c r="B661" s="8"/>
+      <c r="B661" s="6"/>
       <c r="C661" s="5"/>
       <c r="D661" s="5"/>
       <c r="E661" s="5"/>
@@ -6562,7 +6543,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="662" customHeight="1" ht="18">
       <c r="A662" s="5"/>
-      <c r="B662" s="8"/>
+      <c r="B662" s="6"/>
       <c r="C662" s="5"/>
       <c r="D662" s="5"/>
       <c r="E662" s="5"/>
@@ -6571,7 +6552,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="663" customHeight="1" ht="18">
       <c r="A663" s="5"/>
-      <c r="B663" s="8"/>
+      <c r="B663" s="6"/>
       <c r="C663" s="5"/>
       <c r="D663" s="5"/>
       <c r="E663" s="5"/>
@@ -6580,7 +6561,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="664" customHeight="1" ht="18">
       <c r="A664" s="5"/>
-      <c r="B664" s="8"/>
+      <c r="B664" s="6"/>
       <c r="C664" s="5"/>
       <c r="D664" s="5"/>
       <c r="E664" s="5"/>
@@ -6589,7 +6570,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="665" customHeight="1" ht="18">
       <c r="A665" s="5"/>
-      <c r="B665" s="8"/>
+      <c r="B665" s="6"/>
       <c r="C665" s="5"/>
       <c r="D665" s="5"/>
       <c r="E665" s="5"/>
@@ -6598,7 +6579,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="666" customHeight="1" ht="18">
       <c r="A666" s="5"/>
-      <c r="B666" s="8"/>
+      <c r="B666" s="6"/>
       <c r="C666" s="5"/>
       <c r="D666" s="5"/>
       <c r="E666" s="5"/>
@@ -6607,7 +6588,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="667" customHeight="1" ht="18">
       <c r="A667" s="5"/>
-      <c r="B667" s="8"/>
+      <c r="B667" s="6"/>
       <c r="C667" s="5"/>
       <c r="D667" s="5"/>
       <c r="E667" s="5"/>
@@ -6616,7 +6597,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="668" customHeight="1" ht="18">
       <c r="A668" s="5"/>
-      <c r="B668" s="8"/>
+      <c r="B668" s="6"/>
       <c r="C668" s="5"/>
       <c r="D668" s="5"/>
       <c r="E668" s="5"/>
@@ -6625,7 +6606,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="669" customHeight="1" ht="18">
       <c r="A669" s="5"/>
-      <c r="B669" s="8"/>
+      <c r="B669" s="6"/>
       <c r="C669" s="5"/>
       <c r="D669" s="5"/>
       <c r="E669" s="5"/>
@@ -6634,7 +6615,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="670" customHeight="1" ht="18">
       <c r="A670" s="5"/>
-      <c r="B670" s="8"/>
+      <c r="B670" s="6"/>
       <c r="C670" s="5"/>
       <c r="D670" s="5"/>
       <c r="E670" s="5"/>
@@ -6643,7 +6624,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="671" customHeight="1" ht="18">
       <c r="A671" s="5"/>
-      <c r="B671" s="8"/>
+      <c r="B671" s="6"/>
       <c r="C671" s="5"/>
       <c r="D671" s="5"/>
       <c r="E671" s="5"/>
@@ -6652,7 +6633,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="672" customHeight="1" ht="18">
       <c r="A672" s="5"/>
-      <c r="B672" s="8"/>
+      <c r="B672" s="6"/>
       <c r="C672" s="5"/>
       <c r="D672" s="5"/>
       <c r="E672" s="5"/>
@@ -6661,7 +6642,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="673" customHeight="1" ht="18">
       <c r="A673" s="5"/>
-      <c r="B673" s="8"/>
+      <c r="B673" s="6"/>
       <c r="C673" s="5"/>
       <c r="D673" s="5"/>
       <c r="E673" s="5"/>
@@ -6670,7 +6651,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="674" customHeight="1" ht="18">
       <c r="A674" s="5"/>
-      <c r="B674" s="8"/>
+      <c r="B674" s="6"/>
       <c r="C674" s="5"/>
       <c r="D674" s="5"/>
       <c r="E674" s="5"/>
@@ -6679,7 +6660,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="675" customHeight="1" ht="18">
       <c r="A675" s="5"/>
-      <c r="B675" s="8"/>
+      <c r="B675" s="6"/>
       <c r="C675" s="5"/>
       <c r="D675" s="5"/>
       <c r="E675" s="5"/>
@@ -6688,7 +6669,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="676" customHeight="1" ht="18">
       <c r="A676" s="5"/>
-      <c r="B676" s="8"/>
+      <c r="B676" s="6"/>
       <c r="C676" s="5"/>
       <c r="D676" s="5"/>
       <c r="E676" s="5"/>
@@ -6697,7 +6678,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="677" customHeight="1" ht="18">
       <c r="A677" s="5"/>
-      <c r="B677" s="8"/>
+      <c r="B677" s="6"/>
       <c r="C677" s="5"/>
       <c r="D677" s="5"/>
       <c r="E677" s="5"/>
@@ -6706,7 +6687,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="678" customHeight="1" ht="18">
       <c r="A678" s="5"/>
-      <c r="B678" s="8"/>
+      <c r="B678" s="6"/>
       <c r="C678" s="5"/>
       <c r="D678" s="5"/>
       <c r="E678" s="5"/>
@@ -6715,7 +6696,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="679" customHeight="1" ht="18">
       <c r="A679" s="5"/>
-      <c r="B679" s="8"/>
+      <c r="B679" s="6"/>
       <c r="C679" s="5"/>
       <c r="D679" s="5"/>
       <c r="E679" s="5"/>
@@ -6724,7 +6705,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="680" customHeight="1" ht="18">
       <c r="A680" s="5"/>
-      <c r="B680" s="8"/>
+      <c r="B680" s="6"/>
       <c r="C680" s="5"/>
       <c r="D680" s="5"/>
       <c r="E680" s="5"/>
@@ -6733,7 +6714,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="681" customHeight="1" ht="18">
       <c r="A681" s="5"/>
-      <c r="B681" s="8"/>
+      <c r="B681" s="6"/>
       <c r="C681" s="5"/>
       <c r="D681" s="5"/>
       <c r="E681" s="5"/>
@@ -6742,7 +6723,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="682" customHeight="1" ht="18">
       <c r="A682" s="5"/>
-      <c r="B682" s="8"/>
+      <c r="B682" s="6"/>
       <c r="C682" s="5"/>
       <c r="D682" s="5"/>
       <c r="E682" s="5"/>
@@ -6751,7 +6732,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="683" customHeight="1" ht="18">
       <c r="A683" s="5"/>
-      <c r="B683" s="8"/>
+      <c r="B683" s="6"/>
       <c r="C683" s="5"/>
       <c r="D683" s="5"/>
       <c r="E683" s="5"/>
@@ -6760,7 +6741,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="684" customHeight="1" ht="18">
       <c r="A684" s="5"/>
-      <c r="B684" s="8"/>
+      <c r="B684" s="6"/>
       <c r="C684" s="5"/>
       <c r="D684" s="5"/>
       <c r="E684" s="5"/>
@@ -6769,7 +6750,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="685" customHeight="1" ht="18">
       <c r="A685" s="5"/>
-      <c r="B685" s="8"/>
+      <c r="B685" s="6"/>
       <c r="C685" s="5"/>
       <c r="D685" s="5"/>
       <c r="E685" s="5"/>
@@ -6778,7 +6759,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="686" customHeight="1" ht="18">
       <c r="A686" s="5"/>
-      <c r="B686" s="8"/>
+      <c r="B686" s="6"/>
       <c r="C686" s="5"/>
       <c r="D686" s="5"/>
       <c r="E686" s="5"/>
@@ -6787,7 +6768,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="687" customHeight="1" ht="18">
       <c r="A687" s="5"/>
-      <c r="B687" s="8"/>
+      <c r="B687" s="6"/>
       <c r="C687" s="5"/>
       <c r="D687" s="5"/>
       <c r="E687" s="5"/>
@@ -6796,7 +6777,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="688" customHeight="1" ht="18">
       <c r="A688" s="5"/>
-      <c r="B688" s="8"/>
+      <c r="B688" s="6"/>
       <c r="C688" s="5"/>
       <c r="D688" s="5"/>
       <c r="E688" s="5"/>
@@ -6805,7 +6786,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="689" customHeight="1" ht="18">
       <c r="A689" s="5"/>
-      <c r="B689" s="8"/>
+      <c r="B689" s="6"/>
       <c r="C689" s="5"/>
       <c r="D689" s="5"/>
       <c r="E689" s="5"/>
@@ -6814,7 +6795,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="690" customHeight="1" ht="18">
       <c r="A690" s="5"/>
-      <c r="B690" s="8"/>
+      <c r="B690" s="6"/>
       <c r="C690" s="5"/>
       <c r="D690" s="5"/>
       <c r="E690" s="5"/>
@@ -6823,7 +6804,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="691" customHeight="1" ht="18">
       <c r="A691" s="5"/>
-      <c r="B691" s="8"/>
+      <c r="B691" s="6"/>
       <c r="C691" s="5"/>
       <c r="D691" s="5"/>
       <c r="E691" s="5"/>
@@ -6832,7 +6813,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="692" customHeight="1" ht="18">
       <c r="A692" s="5"/>
-      <c r="B692" s="8"/>
+      <c r="B692" s="6"/>
       <c r="C692" s="5"/>
       <c r="D692" s="5"/>
       <c r="E692" s="5"/>
@@ -6841,7 +6822,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="693" customHeight="1" ht="18">
       <c r="A693" s="5"/>
-      <c r="B693" s="8"/>
+      <c r="B693" s="6"/>
       <c r="C693" s="5"/>
       <c r="D693" s="5"/>
       <c r="E693" s="5"/>
@@ -6850,7 +6831,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="694" customHeight="1" ht="18">
       <c r="A694" s="5"/>
-      <c r="B694" s="8"/>
+      <c r="B694" s="6"/>
       <c r="C694" s="5"/>
       <c r="D694" s="5"/>
       <c r="E694" s="5"/>
@@ -6859,7 +6840,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="695" customHeight="1" ht="18">
       <c r="A695" s="5"/>
-      <c r="B695" s="8"/>
+      <c r="B695" s="6"/>
       <c r="C695" s="5"/>
       <c r="D695" s="5"/>
       <c r="E695" s="5"/>
@@ -6868,7 +6849,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="696" customHeight="1" ht="18">
       <c r="A696" s="5"/>
-      <c r="B696" s="8"/>
+      <c r="B696" s="6"/>
       <c r="C696" s="5"/>
       <c r="D696" s="5"/>
       <c r="E696" s="5"/>
@@ -6877,7 +6858,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="697" customHeight="1" ht="18">
       <c r="A697" s="5"/>
-      <c r="B697" s="8"/>
+      <c r="B697" s="6"/>
       <c r="C697" s="5"/>
       <c r="D697" s="5"/>
       <c r="E697" s="5"/>
@@ -6886,7 +6867,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="698" customHeight="1" ht="18">
       <c r="A698" s="5"/>
-      <c r="B698" s="8"/>
+      <c r="B698" s="6"/>
       <c r="C698" s="5"/>
       <c r="D698" s="5"/>
       <c r="E698" s="5"/>
@@ -6895,7 +6876,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="699" customHeight="1" ht="18">
       <c r="A699" s="5"/>
-      <c r="B699" s="8"/>
+      <c r="B699" s="6"/>
       <c r="C699" s="5"/>
       <c r="D699" s="5"/>
       <c r="E699" s="5"/>
@@ -6904,7 +6885,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="700" customHeight="1" ht="18">
       <c r="A700" s="5"/>
-      <c r="B700" s="8"/>
+      <c r="B700" s="6"/>
       <c r="C700" s="5"/>
       <c r="D700" s="5"/>
       <c r="E700" s="5"/>
@@ -6913,7 +6894,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="701" customHeight="1" ht="18">
       <c r="A701" s="5"/>
-      <c r="B701" s="8"/>
+      <c r="B701" s="6"/>
       <c r="C701" s="5"/>
       <c r="D701" s="5"/>
       <c r="E701" s="5"/>
@@ -6922,7 +6903,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="702" customHeight="1" ht="18">
       <c r="A702" s="5"/>
-      <c r="B702" s="8"/>
+      <c r="B702" s="6"/>
       <c r="C702" s="5"/>
       <c r="D702" s="5"/>
       <c r="E702" s="5"/>
@@ -6931,7 +6912,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="703" customHeight="1" ht="18">
       <c r="A703" s="5"/>
-      <c r="B703" s="8"/>
+      <c r="B703" s="6"/>
       <c r="C703" s="5"/>
       <c r="D703" s="5"/>
       <c r="E703" s="5"/>
@@ -6940,7 +6921,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="704" customHeight="1" ht="18">
       <c r="A704" s="5"/>
-      <c r="B704" s="8"/>
+      <c r="B704" s="6"/>
       <c r="C704" s="5"/>
       <c r="D704" s="5"/>
       <c r="E704" s="5"/>
@@ -6949,7 +6930,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="705" customHeight="1" ht="18">
       <c r="A705" s="5"/>
-      <c r="B705" s="8"/>
+      <c r="B705" s="6"/>
       <c r="C705" s="5"/>
       <c r="D705" s="5"/>
       <c r="E705" s="5"/>
@@ -6958,7 +6939,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="706" customHeight="1" ht="18">
       <c r="A706" s="5"/>
-      <c r="B706" s="8"/>
+      <c r="B706" s="6"/>
       <c r="C706" s="5"/>
       <c r="D706" s="5"/>
       <c r="E706" s="5"/>
@@ -6967,7 +6948,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="707" customHeight="1" ht="18">
       <c r="A707" s="5"/>
-      <c r="B707" s="8"/>
+      <c r="B707" s="6"/>
       <c r="C707" s="5"/>
       <c r="D707" s="5"/>
       <c r="E707" s="5"/>
@@ -6976,7 +6957,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="708" customHeight="1" ht="18">
       <c r="A708" s="5"/>
-      <c r="B708" s="8"/>
+      <c r="B708" s="6"/>
       <c r="C708" s="5"/>
       <c r="D708" s="5"/>
       <c r="E708" s="5"/>
@@ -6985,7 +6966,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="709" customHeight="1" ht="18">
       <c r="A709" s="5"/>
-      <c r="B709" s="8"/>
+      <c r="B709" s="6"/>
       <c r="C709" s="5"/>
       <c r="D709" s="5"/>
       <c r="E709" s="5"/>
@@ -6994,7 +6975,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="710" customHeight="1" ht="18">
       <c r="A710" s="5"/>
-      <c r="B710" s="8"/>
+      <c r="B710" s="6"/>
       <c r="C710" s="5"/>
       <c r="D710" s="5"/>
       <c r="E710" s="5"/>
@@ -7003,7 +6984,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="711" customHeight="1" ht="18">
       <c r="A711" s="5"/>
-      <c r="B711" s="8"/>
+      <c r="B711" s="6"/>
       <c r="C711" s="5"/>
       <c r="D711" s="5"/>
       <c r="E711" s="5"/>
@@ -7012,7 +6993,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="712" customHeight="1" ht="18">
       <c r="A712" s="5"/>
-      <c r="B712" s="8"/>
+      <c r="B712" s="6"/>
       <c r="C712" s="5"/>
       <c r="D712" s="5"/>
       <c r="E712" s="5"/>
@@ -7021,7 +7002,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="713" customHeight="1" ht="18">
       <c r="A713" s="5"/>
-      <c r="B713" s="8"/>
+      <c r="B713" s="6"/>
       <c r="C713" s="5"/>
       <c r="D713" s="5"/>
       <c r="E713" s="5"/>
@@ -7030,7 +7011,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="714" customHeight="1" ht="18">
       <c r="A714" s="5"/>
-      <c r="B714" s="8"/>
+      <c r="B714" s="6"/>
       <c r="C714" s="5"/>
       <c r="D714" s="5"/>
       <c r="E714" s="5"/>
@@ -7039,7 +7020,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="715" customHeight="1" ht="18">
       <c r="A715" s="5"/>
-      <c r="B715" s="8"/>
+      <c r="B715" s="6"/>
       <c r="C715" s="5"/>
       <c r="D715" s="5"/>
       <c r="E715" s="5"/>
@@ -7048,7 +7029,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="716" customHeight="1" ht="18">
       <c r="A716" s="5"/>
-      <c r="B716" s="8"/>
+      <c r="B716" s="6"/>
       <c r="C716" s="5"/>
       <c r="D716" s="5"/>
       <c r="E716" s="5"/>
@@ -7057,7 +7038,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="717" customHeight="1" ht="18">
       <c r="A717" s="5"/>
-      <c r="B717" s="8"/>
+      <c r="B717" s="6"/>
       <c r="C717" s="5"/>
       <c r="D717" s="5"/>
       <c r="E717" s="5"/>
@@ -7066,7 +7047,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="718" customHeight="1" ht="18">
       <c r="A718" s="5"/>
-      <c r="B718" s="8"/>
+      <c r="B718" s="6"/>
       <c r="C718" s="5"/>
       <c r="D718" s="5"/>
       <c r="E718" s="5"/>
@@ -7075,7 +7056,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="719" customHeight="1" ht="18">
       <c r="A719" s="5"/>
-      <c r="B719" s="8"/>
+      <c r="B719" s="6"/>
       <c r="C719" s="5"/>
       <c r="D719" s="5"/>
       <c r="E719" s="5"/>
@@ -7084,7 +7065,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="720" customHeight="1" ht="18">
       <c r="A720" s="5"/>
-      <c r="B720" s="8"/>
+      <c r="B720" s="6"/>
       <c r="C720" s="5"/>
       <c r="D720" s="5"/>
       <c r="E720" s="5"/>
@@ -7093,7 +7074,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="721" customHeight="1" ht="18">
       <c r="A721" s="5"/>
-      <c r="B721" s="8"/>
+      <c r="B721" s="6"/>
       <c r="C721" s="5"/>
       <c r="D721" s="5"/>
       <c r="E721" s="5"/>
@@ -7102,7 +7083,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="722" customHeight="1" ht="18">
       <c r="A722" s="5"/>
-      <c r="B722" s="8"/>
+      <c r="B722" s="6"/>
       <c r="C722" s="5"/>
       <c r="D722" s="5"/>
       <c r="E722" s="5"/>
@@ -7111,7 +7092,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="723" customHeight="1" ht="18">
       <c r="A723" s="5"/>
-      <c r="B723" s="8"/>
+      <c r="B723" s="6"/>
       <c r="C723" s="5"/>
       <c r="D723" s="5"/>
       <c r="E723" s="5"/>
@@ -7120,7 +7101,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="724" customHeight="1" ht="18">
       <c r="A724" s="5"/>
-      <c r="B724" s="8"/>
+      <c r="B724" s="6"/>
       <c r="C724" s="5"/>
       <c r="D724" s="5"/>
       <c r="E724" s="5"/>
@@ -7129,7 +7110,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="725" customHeight="1" ht="18">
       <c r="A725" s="5"/>
-      <c r="B725" s="8"/>
+      <c r="B725" s="6"/>
       <c r="C725" s="5"/>
       <c r="D725" s="5"/>
       <c r="E725" s="5"/>
@@ -7138,7 +7119,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="726" customHeight="1" ht="18">
       <c r="A726" s="5"/>
-      <c r="B726" s="8"/>
+      <c r="B726" s="6"/>
       <c r="C726" s="5"/>
       <c r="D726" s="5"/>
       <c r="E726" s="5"/>
@@ -7147,7 +7128,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="727" customHeight="1" ht="18">
       <c r="A727" s="5"/>
-      <c r="B727" s="8"/>
+      <c r="B727" s="6"/>
       <c r="C727" s="5"/>
       <c r="D727" s="5"/>
       <c r="E727" s="5"/>
@@ -7156,7 +7137,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="728" customHeight="1" ht="18">
       <c r="A728" s="5"/>
-      <c r="B728" s="8"/>
+      <c r="B728" s="6"/>
       <c r="C728" s="5"/>
       <c r="D728" s="5"/>
       <c r="E728" s="5"/>
@@ -7165,7 +7146,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="729" customHeight="1" ht="18">
       <c r="A729" s="5"/>
-      <c r="B729" s="8"/>
+      <c r="B729" s="6"/>
       <c r="C729" s="5"/>
       <c r="D729" s="5"/>
       <c r="E729" s="5"/>
@@ -7174,7 +7155,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="730" customHeight="1" ht="18">
       <c r="A730" s="5"/>
-      <c r="B730" s="8"/>
+      <c r="B730" s="6"/>
       <c r="C730" s="5"/>
       <c r="D730" s="5"/>
       <c r="E730" s="5"/>
@@ -7183,7 +7164,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="731" customHeight="1" ht="18">
       <c r="A731" s="5"/>
-      <c r="B731" s="8"/>
+      <c r="B731" s="6"/>
       <c r="C731" s="5"/>
       <c r="D731" s="5"/>
       <c r="E731" s="5"/>
@@ -7192,7 +7173,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="732" customHeight="1" ht="18">
       <c r="A732" s="5"/>
-      <c r="B732" s="8"/>
+      <c r="B732" s="6"/>
       <c r="C732" s="5"/>
       <c r="D732" s="5"/>
       <c r="E732" s="5"/>
@@ -7201,7 +7182,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="733" customHeight="1" ht="18">
       <c r="A733" s="5"/>
-      <c r="B733" s="8"/>
+      <c r="B733" s="6"/>
       <c r="C733" s="5"/>
       <c r="D733" s="5"/>
       <c r="E733" s="5"/>
@@ -7210,7 +7191,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="734" customHeight="1" ht="18">
       <c r="A734" s="5"/>
-      <c r="B734" s="8"/>
+      <c r="B734" s="6"/>
       <c r="C734" s="5"/>
       <c r="D734" s="5"/>
       <c r="E734" s="5"/>
@@ -7219,7 +7200,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="735" customHeight="1" ht="18">
       <c r="A735" s="5"/>
-      <c r="B735" s="8"/>
+      <c r="B735" s="6"/>
       <c r="C735" s="5"/>
       <c r="D735" s="5"/>
       <c r="E735" s="5"/>
@@ -7228,7 +7209,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="736" customHeight="1" ht="18">
       <c r="A736" s="5"/>
-      <c r="B736" s="8"/>
+      <c r="B736" s="6"/>
       <c r="C736" s="5"/>
       <c r="D736" s="5"/>
       <c r="E736" s="5"/>
@@ -7237,7 +7218,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="737" customHeight="1" ht="18">
       <c r="A737" s="5"/>
-      <c r="B737" s="8"/>
+      <c r="B737" s="6"/>
       <c r="C737" s="5"/>
       <c r="D737" s="5"/>
       <c r="E737" s="5"/>
@@ -7246,7 +7227,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="738" customHeight="1" ht="18">
       <c r="A738" s="5"/>
-      <c r="B738" s="8"/>
+      <c r="B738" s="6"/>
       <c r="C738" s="5"/>
       <c r="D738" s="5"/>
       <c r="E738" s="5"/>
@@ -7255,7 +7236,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="739" customHeight="1" ht="18">
       <c r="A739" s="5"/>
-      <c r="B739" s="8"/>
+      <c r="B739" s="6"/>
       <c r="C739" s="5"/>
       <c r="D739" s="5"/>
       <c r="E739" s="5"/>
@@ -7264,7 +7245,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="740" customHeight="1" ht="18">
       <c r="A740" s="5"/>
-      <c r="B740" s="8"/>
+      <c r="B740" s="6"/>
       <c r="C740" s="5"/>
       <c r="D740" s="5"/>
       <c r="E740" s="5"/>
@@ -7273,7 +7254,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="741" customHeight="1" ht="18">
       <c r="A741" s="5"/>
-      <c r="B741" s="8"/>
+      <c r="B741" s="6"/>
       <c r="C741" s="5"/>
       <c r="D741" s="5"/>
       <c r="E741" s="5"/>
@@ -7282,7 +7263,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="742" customHeight="1" ht="18">
       <c r="A742" s="5"/>
-      <c r="B742" s="8"/>
+      <c r="B742" s="6"/>
       <c r="C742" s="5"/>
       <c r="D742" s="5"/>
       <c r="E742" s="5"/>
@@ -7291,7 +7272,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="743" customHeight="1" ht="18">
       <c r="A743" s="5"/>
-      <c r="B743" s="8"/>
+      <c r="B743" s="6"/>
       <c r="C743" s="5"/>
       <c r="D743" s="5"/>
       <c r="E743" s="5"/>
@@ -7300,7 +7281,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="744" customHeight="1" ht="18">
       <c r="A744" s="5"/>
-      <c r="B744" s="8"/>
+      <c r="B744" s="6"/>
       <c r="C744" s="5"/>
       <c r="D744" s="5"/>
       <c r="E744" s="5"/>
@@ -7309,7 +7290,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="745" customHeight="1" ht="18">
       <c r="A745" s="5"/>
-      <c r="B745" s="8"/>
+      <c r="B745" s="6"/>
       <c r="C745" s="5"/>
       <c r="D745" s="5"/>
       <c r="E745" s="5"/>
@@ -7318,7 +7299,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="746" customHeight="1" ht="18">
       <c r="A746" s="5"/>
-      <c r="B746" s="8"/>
+      <c r="B746" s="6"/>
       <c r="C746" s="5"/>
       <c r="D746" s="5"/>
       <c r="E746" s="5"/>
@@ -7327,7 +7308,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="747" customHeight="1" ht="18">
       <c r="A747" s="5"/>
-      <c r="B747" s="8"/>
+      <c r="B747" s="6"/>
       <c r="C747" s="5"/>
       <c r="D747" s="5"/>
       <c r="E747" s="5"/>
@@ -7336,7 +7317,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="748" customHeight="1" ht="18">
       <c r="A748" s="5"/>
-      <c r="B748" s="8"/>
+      <c r="B748" s="6"/>
       <c r="C748" s="5"/>
       <c r="D748" s="5"/>
       <c r="E748" s="5"/>
@@ -7345,7 +7326,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="749" customHeight="1" ht="18">
       <c r="A749" s="5"/>
-      <c r="B749" s="8"/>
+      <c r="B749" s="6"/>
       <c r="C749" s="5"/>
       <c r="D749" s="5"/>
       <c r="E749" s="5"/>
@@ -7354,7 +7335,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="750" customHeight="1" ht="18">
       <c r="A750" s="5"/>
-      <c r="B750" s="8"/>
+      <c r="B750" s="6"/>
       <c r="C750" s="5"/>
       <c r="D750" s="5"/>
       <c r="E750" s="5"/>
@@ -7363,7 +7344,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="751" customHeight="1" ht="18">
       <c r="A751" s="5"/>
-      <c r="B751" s="8"/>
+      <c r="B751" s="6"/>
       <c r="C751" s="5"/>
       <c r="D751" s="5"/>
       <c r="E751" s="5"/>
@@ -7372,7 +7353,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="752" customHeight="1" ht="18">
       <c r="A752" s="5"/>
-      <c r="B752" s="8"/>
+      <c r="B752" s="6"/>
       <c r="C752" s="5"/>
       <c r="D752" s="5"/>
       <c r="E752" s="5"/>
@@ -7381,7 +7362,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="753" customHeight="1" ht="18">
       <c r="A753" s="5"/>
-      <c r="B753" s="8"/>
+      <c r="B753" s="6"/>
       <c r="C753" s="5"/>
       <c r="D753" s="5"/>
       <c r="E753" s="5"/>
@@ -7390,7 +7371,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="754" customHeight="1" ht="18">
       <c r="A754" s="5"/>
-      <c r="B754" s="8"/>
+      <c r="B754" s="6"/>
       <c r="C754" s="5"/>
       <c r="D754" s="5"/>
       <c r="E754" s="5"/>
@@ -7399,7 +7380,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="755" customHeight="1" ht="18">
       <c r="A755" s="5"/>
-      <c r="B755" s="8"/>
+      <c r="B755" s="6"/>
       <c r="C755" s="5"/>
       <c r="D755" s="5"/>
       <c r="E755" s="5"/>
@@ -7408,7 +7389,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="756" customHeight="1" ht="18">
       <c r="A756" s="5"/>
-      <c r="B756" s="8"/>
+      <c r="B756" s="6"/>
       <c r="C756" s="5"/>
       <c r="D756" s="5"/>
       <c r="E756" s="5"/>
@@ -7417,7 +7398,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="757" customHeight="1" ht="18">
       <c r="A757" s="5"/>
-      <c r="B757" s="8"/>
+      <c r="B757" s="6"/>
       <c r="C757" s="5"/>
       <c r="D757" s="5"/>
       <c r="E757" s="5"/>
@@ -7426,7 +7407,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="758" customHeight="1" ht="18">
       <c r="A758" s="5"/>
-      <c r="B758" s="8"/>
+      <c r="B758" s="6"/>
       <c r="C758" s="5"/>
       <c r="D758" s="5"/>
       <c r="E758" s="5"/>
@@ -7435,7 +7416,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="759" customHeight="1" ht="18">
       <c r="A759" s="5"/>
-      <c r="B759" s="8"/>
+      <c r="B759" s="6"/>
       <c r="C759" s="5"/>
       <c r="D759" s="5"/>
       <c r="E759" s="5"/>
@@ -7444,7 +7425,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="760" customHeight="1" ht="18">
       <c r="A760" s="5"/>
-      <c r="B760" s="8"/>
+      <c r="B760" s="6"/>
       <c r="C760" s="5"/>
       <c r="D760" s="5"/>
       <c r="E760" s="5"/>
@@ -7453,7 +7434,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="761" customHeight="1" ht="18">
       <c r="A761" s="5"/>
-      <c r="B761" s="8"/>
+      <c r="B761" s="6"/>
       <c r="C761" s="5"/>
       <c r="D761" s="5"/>
       <c r="E761" s="5"/>
@@ -7462,7 +7443,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="762" customHeight="1" ht="18">
       <c r="A762" s="5"/>
-      <c r="B762" s="8"/>
+      <c r="B762" s="6"/>
       <c r="C762" s="5"/>
       <c r="D762" s="5"/>
       <c r="E762" s="5"/>
@@ -7471,7 +7452,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="763" customHeight="1" ht="18">
       <c r="A763" s="5"/>
-      <c r="B763" s="8"/>
+      <c r="B763" s="6"/>
       <c r="C763" s="5"/>
       <c r="D763" s="5"/>
       <c r="E763" s="5"/>
@@ -7480,7 +7461,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="764" customHeight="1" ht="18">
       <c r="A764" s="5"/>
-      <c r="B764" s="8"/>
+      <c r="B764" s="6"/>
       <c r="C764" s="5"/>
       <c r="D764" s="5"/>
       <c r="E764" s="5"/>
@@ -7489,7 +7470,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="765" customHeight="1" ht="18">
       <c r="A765" s="5"/>
-      <c r="B765" s="8"/>
+      <c r="B765" s="6"/>
       <c r="C765" s="5"/>
       <c r="D765" s="5"/>
       <c r="E765" s="5"/>
@@ -7498,7 +7479,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="766" customHeight="1" ht="18">
       <c r="A766" s="5"/>
-      <c r="B766" s="8"/>
+      <c r="B766" s="6"/>
       <c r="C766" s="5"/>
       <c r="D766" s="5"/>
       <c r="E766" s="5"/>
@@ -7507,7 +7488,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="767" customHeight="1" ht="18">
       <c r="A767" s="5"/>
-      <c r="B767" s="8"/>
+      <c r="B767" s="6"/>
       <c r="C767" s="5"/>
       <c r="D767" s="5"/>
       <c r="E767" s="5"/>
@@ -7516,7 +7497,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="768" customHeight="1" ht="18">
       <c r="A768" s="5"/>
-      <c r="B768" s="8"/>
+      <c r="B768" s="6"/>
       <c r="C768" s="5"/>
       <c r="D768" s="5"/>
       <c r="E768" s="5"/>
@@ -7525,7 +7506,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="769" customHeight="1" ht="18">
       <c r="A769" s="5"/>
-      <c r="B769" s="8"/>
+      <c r="B769" s="6"/>
       <c r="C769" s="5"/>
       <c r="D769" s="5"/>
       <c r="E769" s="5"/>
@@ -7534,7 +7515,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="770" customHeight="1" ht="18">
       <c r="A770" s="5"/>
-      <c r="B770" s="8"/>
+      <c r="B770" s="6"/>
       <c r="C770" s="5"/>
       <c r="D770" s="5"/>
       <c r="E770" s="5"/>
@@ -7543,7 +7524,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="771" customHeight="1" ht="18">
       <c r="A771" s="5"/>
-      <c r="B771" s="8"/>
+      <c r="B771" s="6"/>
       <c r="C771" s="5"/>
       <c r="D771" s="5"/>
       <c r="E771" s="5"/>
@@ -7552,7 +7533,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="772" customHeight="1" ht="18">
       <c r="A772" s="5"/>
-      <c r="B772" s="8"/>
+      <c r="B772" s="6"/>
       <c r="C772" s="5"/>
       <c r="D772" s="5"/>
       <c r="E772" s="5"/>
@@ -7561,7 +7542,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="773" customHeight="1" ht="18">
       <c r="A773" s="5"/>
-      <c r="B773" s="8"/>
+      <c r="B773" s="6"/>
       <c r="C773" s="5"/>
       <c r="D773" s="5"/>
       <c r="E773" s="5"/>
@@ -7570,7 +7551,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="774" customHeight="1" ht="18">
       <c r="A774" s="5"/>
-      <c r="B774" s="8"/>
+      <c r="B774" s="6"/>
       <c r="C774" s="5"/>
       <c r="D774" s="5"/>
       <c r="E774" s="5"/>
@@ -7579,7 +7560,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="775" customHeight="1" ht="18">
       <c r="A775" s="5"/>
-      <c r="B775" s="8"/>
+      <c r="B775" s="6"/>
       <c r="C775" s="5"/>
       <c r="D775" s="5"/>
       <c r="E775" s="5"/>
@@ -7588,7 +7569,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="776" customHeight="1" ht="18">
       <c r="A776" s="5"/>
-      <c r="B776" s="8"/>
+      <c r="B776" s="6"/>
       <c r="C776" s="5"/>
       <c r="D776" s="5"/>
       <c r="E776" s="5"/>
@@ -7597,7 +7578,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="777" customHeight="1" ht="18">
       <c r="A777" s="5"/>
-      <c r="B777" s="8"/>
+      <c r="B777" s="6"/>
       <c r="C777" s="5"/>
       <c r="D777" s="5"/>
       <c r="E777" s="5"/>
@@ -7606,7 +7587,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="778" customHeight="1" ht="18">
       <c r="A778" s="5"/>
-      <c r="B778" s="8"/>
+      <c r="B778" s="6"/>
       <c r="C778" s="5"/>
       <c r="D778" s="5"/>
       <c r="E778" s="5"/>
@@ -7615,7 +7596,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="779" customHeight="1" ht="18">
       <c r="A779" s="5"/>
-      <c r="B779" s="8"/>
+      <c r="B779" s="6"/>
       <c r="C779" s="5"/>
       <c r="D779" s="5"/>
       <c r="E779" s="5"/>
@@ -7624,7 +7605,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="780" customHeight="1" ht="18">
       <c r="A780" s="5"/>
-      <c r="B780" s="8"/>
+      <c r="B780" s="6"/>
       <c r="C780" s="5"/>
       <c r="D780" s="5"/>
       <c r="E780" s="5"/>
@@ -7633,7 +7614,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="781" customHeight="1" ht="18">
       <c r="A781" s="5"/>
-      <c r="B781" s="8"/>
+      <c r="B781" s="6"/>
       <c r="C781" s="5"/>
       <c r="D781" s="5"/>
       <c r="E781" s="5"/>
@@ -7642,7 +7623,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="782" customHeight="1" ht="18">
       <c r="A782" s="5"/>
-      <c r="B782" s="8"/>
+      <c r="B782" s="6"/>
       <c r="C782" s="5"/>
       <c r="D782" s="5"/>
       <c r="E782" s="5"/>
@@ -7651,7 +7632,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="783" customHeight="1" ht="18">
       <c r="A783" s="5"/>
-      <c r="B783" s="8"/>
+      <c r="B783" s="6"/>
       <c r="C783" s="5"/>
       <c r="D783" s="5"/>
       <c r="E783" s="5"/>
@@ -7660,7 +7641,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="784" customHeight="1" ht="18">
       <c r="A784" s="5"/>
-      <c r="B784" s="8"/>
+      <c r="B784" s="6"/>
       <c r="C784" s="5"/>
       <c r="D784" s="5"/>
       <c r="E784" s="5"/>
@@ -7669,7 +7650,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="785" customHeight="1" ht="18">
       <c r="A785" s="5"/>
-      <c r="B785" s="8"/>
+      <c r="B785" s="6"/>
       <c r="C785" s="5"/>
       <c r="D785" s="5"/>
       <c r="E785" s="5"/>
@@ -7678,7 +7659,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="786" customHeight="1" ht="18">
       <c r="A786" s="5"/>
-      <c r="B786" s="8"/>
+      <c r="B786" s="6"/>
       <c r="C786" s="5"/>
       <c r="D786" s="5"/>
       <c r="E786" s="5"/>
@@ -7687,7 +7668,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="787" customHeight="1" ht="18">
       <c r="A787" s="5"/>
-      <c r="B787" s="8"/>
+      <c r="B787" s="6"/>
       <c r="C787" s="5"/>
       <c r="D787" s="5"/>
       <c r="E787" s="5"/>
@@ -7696,7 +7677,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="788" customHeight="1" ht="18">
       <c r="A788" s="5"/>
-      <c r="B788" s="8"/>
+      <c r="B788" s="6"/>
       <c r="C788" s="5"/>
       <c r="D788" s="5"/>
       <c r="E788" s="5"/>
@@ -7705,7 +7686,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="789" customHeight="1" ht="18">
       <c r="A789" s="5"/>
-      <c r="B789" s="8"/>
+      <c r="B789" s="6"/>
       <c r="C789" s="5"/>
       <c r="D789" s="5"/>
       <c r="E789" s="5"/>
@@ -7714,7 +7695,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="790" customHeight="1" ht="18">
       <c r="A790" s="5"/>
-      <c r="B790" s="8"/>
+      <c r="B790" s="6"/>
       <c r="C790" s="5"/>
       <c r="D790" s="5"/>
       <c r="E790" s="5"/>
@@ -7723,7 +7704,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="791" customHeight="1" ht="18">
       <c r="A791" s="5"/>
-      <c r="B791" s="8"/>
+      <c r="B791" s="6"/>
       <c r="C791" s="5"/>
       <c r="D791" s="5"/>
       <c r="E791" s="5"/>
@@ -7732,7 +7713,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="792" customHeight="1" ht="18">
       <c r="A792" s="5"/>
-      <c r="B792" s="8"/>
+      <c r="B792" s="6"/>
       <c r="C792" s="5"/>
       <c r="D792" s="5"/>
       <c r="E792" s="5"/>
@@ -7741,7 +7722,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="793" customHeight="1" ht="18">
       <c r="A793" s="5"/>
-      <c r="B793" s="8"/>
+      <c r="B793" s="6"/>
       <c r="C793" s="5"/>
       <c r="D793" s="5"/>
       <c r="E793" s="5"/>
@@ -7750,7 +7731,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="794" customHeight="1" ht="18">
       <c r="A794" s="5"/>
-      <c r="B794" s="8"/>
+      <c r="B794" s="6"/>
       <c r="C794" s="5"/>
       <c r="D794" s="5"/>
       <c r="E794" s="5"/>
@@ -7759,7 +7740,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="795" customHeight="1" ht="18">
       <c r="A795" s="5"/>
-      <c r="B795" s="8"/>
+      <c r="B795" s="6"/>
       <c r="C795" s="5"/>
       <c r="D795" s="5"/>
       <c r="E795" s="5"/>
@@ -7768,7 +7749,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="796" customHeight="1" ht="18">
       <c r="A796" s="5"/>
-      <c r="B796" s="8"/>
+      <c r="B796" s="6"/>
       <c r="C796" s="5"/>
       <c r="D796" s="5"/>
       <c r="E796" s="5"/>
@@ -7777,7 +7758,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="797" customHeight="1" ht="18">
       <c r="A797" s="5"/>
-      <c r="B797" s="8"/>
+      <c r="B797" s="6"/>
       <c r="C797" s="5"/>
       <c r="D797" s="5"/>
       <c r="E797" s="5"/>
@@ -7786,7 +7767,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="798" customHeight="1" ht="18">
       <c r="A798" s="5"/>
-      <c r="B798" s="8"/>
+      <c r="B798" s="6"/>
       <c r="C798" s="5"/>
       <c r="D798" s="5"/>
       <c r="E798" s="5"/>
@@ -7795,7 +7776,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="799" customHeight="1" ht="18">
       <c r="A799" s="5"/>
-      <c r="B799" s="8"/>
+      <c r="B799" s="6"/>
       <c r="C799" s="5"/>
       <c r="D799" s="5"/>
       <c r="E799" s="5"/>
@@ -7804,7 +7785,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="800" customHeight="1" ht="18">
       <c r="A800" s="5"/>
-      <c r="B800" s="8"/>
+      <c r="B800" s="6"/>
       <c r="C800" s="5"/>
       <c r="D800" s="5"/>
       <c r="E800" s="5"/>
@@ -7813,7 +7794,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="801" customHeight="1" ht="18">
       <c r="A801" s="5"/>
-      <c r="B801" s="8"/>
+      <c r="B801" s="6"/>
       <c r="C801" s="5"/>
       <c r="D801" s="5"/>
       <c r="E801" s="5"/>
@@ -7822,7 +7803,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="802" customHeight="1" ht="18">
       <c r="A802" s="5"/>
-      <c r="B802" s="8"/>
+      <c r="B802" s="6"/>
       <c r="C802" s="5"/>
       <c r="D802" s="5"/>
       <c r="E802" s="5"/>
@@ -7831,7 +7812,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="803" customHeight="1" ht="18">
       <c r="A803" s="5"/>
-      <c r="B803" s="8"/>
+      <c r="B803" s="6"/>
       <c r="C803" s="5"/>
       <c r="D803" s="5"/>
       <c r="E803" s="5"/>
@@ -7840,7 +7821,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="804" customHeight="1" ht="18">
       <c r="A804" s="5"/>
-      <c r="B804" s="8"/>
+      <c r="B804" s="6"/>
       <c r="C804" s="5"/>
       <c r="D804" s="5"/>
       <c r="E804" s="5"/>
@@ -7849,7 +7830,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="805" customHeight="1" ht="18">
       <c r="A805" s="5"/>
-      <c r="B805" s="8"/>
+      <c r="B805" s="6"/>
       <c r="C805" s="5"/>
       <c r="D805" s="5"/>
       <c r="E805" s="5"/>
@@ -7858,7 +7839,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="806" customHeight="1" ht="18">
       <c r="A806" s="5"/>
-      <c r="B806" s="8"/>
+      <c r="B806" s="6"/>
       <c r="C806" s="5"/>
       <c r="D806" s="5"/>
       <c r="E806" s="5"/>
@@ -7867,7 +7848,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="807" customHeight="1" ht="18">
       <c r="A807" s="5"/>
-      <c r="B807" s="8"/>
+      <c r="B807" s="6"/>
       <c r="C807" s="5"/>
       <c r="D807" s="5"/>
       <c r="E807" s="5"/>
@@ -7876,7 +7857,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="808" customHeight="1" ht="18">
       <c r="A808" s="5"/>
-      <c r="B808" s="8"/>
+      <c r="B808" s="6"/>
       <c r="C808" s="5"/>
       <c r="D808" s="5"/>
       <c r="E808" s="5"/>
@@ -7885,7 +7866,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="809" customHeight="1" ht="18">
       <c r="A809" s="5"/>
-      <c r="B809" s="8"/>
+      <c r="B809" s="6"/>
       <c r="C809" s="5"/>
       <c r="D809" s="5"/>
       <c r="E809" s="5"/>
@@ -7894,7 +7875,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="810" customHeight="1" ht="18">
       <c r="A810" s="5"/>
-      <c r="B810" s="8"/>
+      <c r="B810" s="6"/>
       <c r="C810" s="5"/>
       <c r="D810" s="5"/>
       <c r="E810" s="5"/>
@@ -7903,7 +7884,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="811" customHeight="1" ht="18">
       <c r="A811" s="5"/>
-      <c r="B811" s="8"/>
+      <c r="B811" s="6"/>
       <c r="C811" s="5"/>
       <c r="D811" s="5"/>
       <c r="E811" s="5"/>
@@ -7912,7 +7893,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="812" customHeight="1" ht="18">
       <c r="A812" s="5"/>
-      <c r="B812" s="8"/>
+      <c r="B812" s="6"/>
       <c r="C812" s="5"/>
       <c r="D812" s="5"/>
       <c r="E812" s="5"/>
@@ -7921,7 +7902,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="813" customHeight="1" ht="18">
       <c r="A813" s="5"/>
-      <c r="B813" s="8"/>
+      <c r="B813" s="6"/>
       <c r="C813" s="5"/>
       <c r="D813" s="5"/>
       <c r="E813" s="5"/>
@@ -7930,7 +7911,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="814" customHeight="1" ht="18">
       <c r="A814" s="5"/>
-      <c r="B814" s="8"/>
+      <c r="B814" s="6"/>
       <c r="C814" s="5"/>
       <c r="D814" s="5"/>
       <c r="E814" s="5"/>
@@ -7939,7 +7920,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="815" customHeight="1" ht="18">
       <c r="A815" s="5"/>
-      <c r="B815" s="8"/>
+      <c r="B815" s="6"/>
       <c r="C815" s="5"/>
       <c r="D815" s="5"/>
       <c r="E815" s="5"/>
@@ -7948,7 +7929,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="816" customHeight="1" ht="18">
       <c r="A816" s="5"/>
-      <c r="B816" s="8"/>
+      <c r="B816" s="6"/>
       <c r="C816" s="5"/>
       <c r="D816" s="5"/>
       <c r="E816" s="5"/>
@@ -7957,7 +7938,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="817" customHeight="1" ht="18">
       <c r="A817" s="5"/>
-      <c r="B817" s="8"/>
+      <c r="B817" s="6"/>
       <c r="C817" s="5"/>
       <c r="D817" s="5"/>
       <c r="E817" s="5"/>
@@ -7966,7 +7947,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="818" customHeight="1" ht="18">
       <c r="A818" s="5"/>
-      <c r="B818" s="8"/>
+      <c r="B818" s="6"/>
       <c r="C818" s="5"/>
       <c r="D818" s="5"/>
       <c r="E818" s="5"/>
@@ -7975,7 +7956,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="819" customHeight="1" ht="18">
       <c r="A819" s="5"/>
-      <c r="B819" s="8"/>
+      <c r="B819" s="6"/>
       <c r="C819" s="5"/>
       <c r="D819" s="5"/>
       <c r="E819" s="5"/>
@@ -7984,7 +7965,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="820" customHeight="1" ht="18">
       <c r="A820" s="5"/>
-      <c r="B820" s="8"/>
+      <c r="B820" s="6"/>
       <c r="C820" s="5"/>
       <c r="D820" s="5"/>
       <c r="E820" s="5"/>
@@ -7993,7 +7974,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="821" customHeight="1" ht="18">
       <c r="A821" s="5"/>
-      <c r="B821" s="8"/>
+      <c r="B821" s="6"/>
       <c r="C821" s="5"/>
       <c r="D821" s="5"/>
       <c r="E821" s="5"/>
@@ -8002,7 +7983,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="822" customHeight="1" ht="18">
       <c r="A822" s="5"/>
-      <c r="B822" s="8"/>
+      <c r="B822" s="6"/>
       <c r="C822" s="5"/>
       <c r="D822" s="5"/>
       <c r="E822" s="5"/>
@@ -8011,7 +7992,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="823" customHeight="1" ht="18">
       <c r="A823" s="5"/>
-      <c r="B823" s="8"/>
+      <c r="B823" s="6"/>
       <c r="C823" s="5"/>
       <c r="D823" s="5"/>
       <c r="E823" s="5"/>
@@ -8020,7 +8001,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="824" customHeight="1" ht="18">
       <c r="A824" s="5"/>
-      <c r="B824" s="8"/>
+      <c r="B824" s="6"/>
       <c r="C824" s="5"/>
       <c r="D824" s="5"/>
       <c r="E824" s="5"/>
@@ -8029,7 +8010,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="825" customHeight="1" ht="18">
       <c r="A825" s="5"/>
-      <c r="B825" s="8"/>
+      <c r="B825" s="6"/>
       <c r="C825" s="5"/>
       <c r="D825" s="5"/>
       <c r="E825" s="5"/>
@@ -8038,7 +8019,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="826" customHeight="1" ht="18">
       <c r="A826" s="5"/>
-      <c r="B826" s="8"/>
+      <c r="B826" s="6"/>
       <c r="C826" s="5"/>
       <c r="D826" s="5"/>
       <c r="E826" s="5"/>
@@ -8047,7 +8028,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="827" customHeight="1" ht="18">
       <c r="A827" s="5"/>
-      <c r="B827" s="8"/>
+      <c r="B827" s="6"/>
       <c r="C827" s="5"/>
       <c r="D827" s="5"/>
       <c r="E827" s="5"/>
@@ -8056,7 +8037,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="828" customHeight="1" ht="18">
       <c r="A828" s="5"/>
-      <c r="B828" s="8"/>
+      <c r="B828" s="6"/>
       <c r="C828" s="5"/>
       <c r="D828" s="5"/>
       <c r="E828" s="5"/>
@@ -8065,7 +8046,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="829" customHeight="1" ht="18">
       <c r="A829" s="5"/>
-      <c r="B829" s="8"/>
+      <c r="B829" s="6"/>
       <c r="C829" s="5"/>
       <c r="D829" s="5"/>
       <c r="E829" s="5"/>
@@ -8074,7 +8055,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="830" customHeight="1" ht="18">
       <c r="A830" s="5"/>
-      <c r="B830" s="8"/>
+      <c r="B830" s="6"/>
       <c r="C830" s="5"/>
       <c r="D830" s="5"/>
       <c r="E830" s="5"/>
@@ -8083,7 +8064,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="831" customHeight="1" ht="18">
       <c r="A831" s="5"/>
-      <c r="B831" s="8"/>
+      <c r="B831" s="6"/>
       <c r="C831" s="5"/>
       <c r="D831" s="5"/>
       <c r="E831" s="5"/>
@@ -8092,7 +8073,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="832" customHeight="1" ht="18">
       <c r="A832" s="5"/>
-      <c r="B832" s="8"/>
+      <c r="B832" s="6"/>
       <c r="C832" s="5"/>
       <c r="D832" s="5"/>
       <c r="E832" s="5"/>
@@ -8101,7 +8082,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="833" customHeight="1" ht="18">
       <c r="A833" s="5"/>
-      <c r="B833" s="8"/>
+      <c r="B833" s="6"/>
       <c r="C833" s="5"/>
       <c r="D833" s="5"/>
       <c r="E833" s="5"/>
@@ -8110,7 +8091,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="834" customHeight="1" ht="18">
       <c r="A834" s="5"/>
-      <c r="B834" s="8"/>
+      <c r="B834" s="6"/>
       <c r="C834" s="5"/>
       <c r="D834" s="5"/>
       <c r="E834" s="5"/>
@@ -8119,7 +8100,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="835" customHeight="1" ht="18">
       <c r="A835" s="5"/>
-      <c r="B835" s="8"/>
+      <c r="B835" s="6"/>
       <c r="C835" s="5"/>
       <c r="D835" s="5"/>
       <c r="E835" s="5"/>
@@ -8128,7 +8109,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="836" customHeight="1" ht="18">
       <c r="A836" s="5"/>
-      <c r="B836" s="8"/>
+      <c r="B836" s="6"/>
       <c r="C836" s="5"/>
       <c r="D836" s="5"/>
       <c r="E836" s="5"/>
@@ -8137,7 +8118,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="837" customHeight="1" ht="18">
       <c r="A837" s="5"/>
-      <c r="B837" s="8"/>
+      <c r="B837" s="6"/>
       <c r="C837" s="5"/>
       <c r="D837" s="5"/>
       <c r="E837" s="5"/>
@@ -8146,7 +8127,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="838" customHeight="1" ht="18">
       <c r="A838" s="5"/>
-      <c r="B838" s="8"/>
+      <c r="B838" s="6"/>
       <c r="C838" s="5"/>
       <c r="D838" s="5"/>
       <c r="E838" s="5"/>
@@ -8155,7 +8136,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="839" customHeight="1" ht="18">
       <c r="A839" s="5"/>
-      <c r="B839" s="8"/>
+      <c r="B839" s="6"/>
       <c r="C839" s="5"/>
       <c r="D839" s="5"/>
       <c r="E839" s="5"/>
@@ -8164,7 +8145,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="840" customHeight="1" ht="18">
       <c r="A840" s="5"/>
-      <c r="B840" s="8"/>
+      <c r="B840" s="6"/>
       <c r="C840" s="5"/>
       <c r="D840" s="5"/>
       <c r="E840" s="5"/>
@@ -8173,7 +8154,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="841" customHeight="1" ht="18">
       <c r="A841" s="5"/>
-      <c r="B841" s="8"/>
+      <c r="B841" s="6"/>
       <c r="C841" s="5"/>
       <c r="D841" s="5"/>
       <c r="E841" s="5"/>
@@ -8182,7 +8163,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="842" customHeight="1" ht="18">
       <c r="A842" s="5"/>
-      <c r="B842" s="8"/>
+      <c r="B842" s="6"/>
       <c r="C842" s="5"/>
       <c r="D842" s="5"/>
       <c r="E842" s="5"/>
@@ -8191,7 +8172,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="843" customHeight="1" ht="18">
       <c r="A843" s="5"/>
-      <c r="B843" s="8"/>
+      <c r="B843" s="6"/>
       <c r="C843" s="5"/>
       <c r="D843" s="5"/>
       <c r="E843" s="5"/>
@@ -8200,7 +8181,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="844" customHeight="1" ht="18">
       <c r="A844" s="5"/>
-      <c r="B844" s="8"/>
+      <c r="B844" s="6"/>
       <c r="C844" s="5"/>
       <c r="D844" s="5"/>
       <c r="E844" s="5"/>
@@ -8209,7 +8190,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="845" customHeight="1" ht="18">
       <c r="A845" s="5"/>
-      <c r="B845" s="8"/>
+      <c r="B845" s="6"/>
       <c r="C845" s="5"/>
       <c r="D845" s="5"/>
       <c r="E845" s="5"/>
@@ -8218,7 +8199,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="846" customHeight="1" ht="18">
       <c r="A846" s="5"/>
-      <c r="B846" s="8"/>
+      <c r="B846" s="6"/>
       <c r="C846" s="5"/>
       <c r="D846" s="5"/>
       <c r="E846" s="5"/>
@@ -8227,7 +8208,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="847" customHeight="1" ht="18">
       <c r="A847" s="5"/>
-      <c r="B847" s="8"/>
+      <c r="B847" s="6"/>
       <c r="C847" s="5"/>
       <c r="D847" s="5"/>
       <c r="E847" s="5"/>
@@ -8236,7 +8217,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="848" customHeight="1" ht="18">
       <c r="A848" s="5"/>
-      <c r="B848" s="8"/>
+      <c r="B848" s="6"/>
       <c r="C848" s="5"/>
       <c r="D848" s="5"/>
       <c r="E848" s="5"/>
@@ -8245,7 +8226,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="849" customHeight="1" ht="18">
       <c r="A849" s="5"/>
-      <c r="B849" s="8"/>
+      <c r="B849" s="6"/>
       <c r="C849" s="5"/>
       <c r="D849" s="5"/>
       <c r="E849" s="5"/>
@@ -8254,7 +8235,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="850" customHeight="1" ht="18">
       <c r="A850" s="5"/>
-      <c r="B850" s="8"/>
+      <c r="B850" s="6"/>
       <c r="C850" s="5"/>
       <c r="D850" s="5"/>
       <c r="E850" s="5"/>
@@ -8263,7 +8244,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="851" customHeight="1" ht="18">
       <c r="A851" s="5"/>
-      <c r="B851" s="8"/>
+      <c r="B851" s="6"/>
       <c r="C851" s="5"/>
       <c r="D851" s="5"/>
       <c r="E851" s="5"/>
@@ -8272,7 +8253,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="852" customHeight="1" ht="18">
       <c r="A852" s="5"/>
-      <c r="B852" s="8"/>
+      <c r="B852" s="6"/>
       <c r="C852" s="5"/>
       <c r="D852" s="5"/>
       <c r="E852" s="5"/>
@@ -8281,7 +8262,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="853" customHeight="1" ht="18">
       <c r="A853" s="5"/>
-      <c r="B853" s="8"/>
+      <c r="B853" s="6"/>
       <c r="C853" s="5"/>
       <c r="D853" s="5"/>
       <c r="E853" s="5"/>
@@ -8290,7 +8271,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="854" customHeight="1" ht="18">
       <c r="A854" s="5"/>
-      <c r="B854" s="8"/>
+      <c r="B854" s="6"/>
       <c r="C854" s="5"/>
       <c r="D854" s="5"/>
       <c r="E854" s="5"/>
@@ -8299,7 +8280,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="855" customHeight="1" ht="18">
       <c r="A855" s="5"/>
-      <c r="B855" s="8"/>
+      <c r="B855" s="6"/>
       <c r="C855" s="5"/>
       <c r="D855" s="5"/>
       <c r="E855" s="5"/>
@@ -8308,7 +8289,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="856" customHeight="1" ht="18">
       <c r="A856" s="5"/>
-      <c r="B856" s="8"/>
+      <c r="B856" s="6"/>
       <c r="C856" s="5"/>
       <c r="D856" s="5"/>
       <c r="E856" s="5"/>
@@ -8317,7 +8298,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="857" customHeight="1" ht="18">
       <c r="A857" s="5"/>
-      <c r="B857" s="8"/>
+      <c r="B857" s="6"/>
       <c r="C857" s="5"/>
       <c r="D857" s="5"/>
       <c r="E857" s="5"/>
@@ -8326,7 +8307,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="858" customHeight="1" ht="18">
       <c r="A858" s="5"/>
-      <c r="B858" s="8"/>
+      <c r="B858" s="6"/>
       <c r="C858" s="5"/>
       <c r="D858" s="5"/>
       <c r="E858" s="5"/>
@@ -8335,7 +8316,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="859" customHeight="1" ht="18">
       <c r="A859" s="5"/>
-      <c r="B859" s="8"/>
+      <c r="B859" s="6"/>
       <c r="C859" s="5"/>
       <c r="D859" s="5"/>
       <c r="E859" s="5"/>
@@ -8344,7 +8325,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="860" customHeight="1" ht="18">
       <c r="A860" s="5"/>
-      <c r="B860" s="8"/>
+      <c r="B860" s="6"/>
       <c r="C860" s="5"/>
       <c r="D860" s="5"/>
       <c r="E860" s="5"/>
@@ -8353,7 +8334,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="861" customHeight="1" ht="18">
       <c r="A861" s="5"/>
-      <c r="B861" s="8"/>
+      <c r="B861" s="6"/>
       <c r="C861" s="5"/>
       <c r="D861" s="5"/>
       <c r="E861" s="5"/>
@@ -8362,7 +8343,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="862" customHeight="1" ht="18">
       <c r="A862" s="5"/>
-      <c r="B862" s="8"/>
+      <c r="B862" s="6"/>
       <c r="C862" s="5"/>
       <c r="D862" s="5"/>
       <c r="E862" s="5"/>
@@ -8371,7 +8352,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="863" customHeight="1" ht="18">
       <c r="A863" s="5"/>
-      <c r="B863" s="8"/>
+      <c r="B863" s="6"/>
       <c r="C863" s="5"/>
       <c r="D863" s="5"/>
       <c r="E863" s="5"/>
@@ -8380,7 +8361,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="864" customHeight="1" ht="18">
       <c r="A864" s="5"/>
-      <c r="B864" s="8"/>
+      <c r="B864" s="6"/>
       <c r="C864" s="5"/>
       <c r="D864" s="5"/>
       <c r="E864" s="5"/>
@@ -8389,7 +8370,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="865" customHeight="1" ht="18">
       <c r="A865" s="5"/>
-      <c r="B865" s="8"/>
+      <c r="B865" s="6"/>
       <c r="C865" s="5"/>
       <c r="D865" s="5"/>
       <c r="E865" s="5"/>
@@ -8398,7 +8379,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="866" customHeight="1" ht="18">
       <c r="A866" s="5"/>
-      <c r="B866" s="8"/>
+      <c r="B866" s="6"/>
       <c r="C866" s="5"/>
       <c r="D866" s="5"/>
       <c r="E866" s="5"/>
@@ -8407,7 +8388,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="867" customHeight="1" ht="18">
       <c r="A867" s="5"/>
-      <c r="B867" s="8"/>
+      <c r="B867" s="6"/>
       <c r="C867" s="5"/>
       <c r="D867" s="5"/>
       <c r="E867" s="5"/>
@@ -8416,7 +8397,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="868" customHeight="1" ht="18">
       <c r="A868" s="5"/>
-      <c r="B868" s="8"/>
+      <c r="B868" s="6"/>
       <c r="C868" s="5"/>
       <c r="D868" s="5"/>
       <c r="E868" s="5"/>
@@ -8425,7 +8406,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="869" customHeight="1" ht="18">
       <c r="A869" s="5"/>
-      <c r="B869" s="8"/>
+      <c r="B869" s="6"/>
       <c r="C869" s="5"/>
       <c r="D869" s="5"/>
       <c r="E869" s="5"/>
@@ -8434,7 +8415,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="870" customHeight="1" ht="18">
       <c r="A870" s="5"/>
-      <c r="B870" s="8"/>
+      <c r="B870" s="6"/>
       <c r="C870" s="5"/>
       <c r="D870" s="5"/>
       <c r="E870" s="5"/>
@@ -8443,7 +8424,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="871" customHeight="1" ht="18">
       <c r="A871" s="5"/>
-      <c r="B871" s="8"/>
+      <c r="B871" s="6"/>
       <c r="C871" s="5"/>
       <c r="D871" s="5"/>
       <c r="E871" s="5"/>
@@ -8452,7 +8433,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="872" customHeight="1" ht="18">
       <c r="A872" s="5"/>
-      <c r="B872" s="8"/>
+      <c r="B872" s="6"/>
       <c r="C872" s="5"/>
       <c r="D872" s="5"/>
       <c r="E872" s="5"/>
@@ -8461,7 +8442,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="873" customHeight="1" ht="18">
       <c r="A873" s="5"/>
-      <c r="B873" s="8"/>
+      <c r="B873" s="6"/>
       <c r="C873" s="5"/>
       <c r="D873" s="5"/>
       <c r="E873" s="5"/>
@@ -8470,7 +8451,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="874" customHeight="1" ht="18">
       <c r="A874" s="5"/>
-      <c r="B874" s="8"/>
+      <c r="B874" s="6"/>
       <c r="C874" s="5"/>
       <c r="D874" s="5"/>
       <c r="E874" s="5"/>
@@ -8479,7 +8460,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="875" customHeight="1" ht="18">
       <c r="A875" s="5"/>
-      <c r="B875" s="8"/>
+      <c r="B875" s="6"/>
       <c r="C875" s="5"/>
       <c r="D875" s="5"/>
       <c r="E875" s="5"/>
@@ -8488,7 +8469,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="876" customHeight="1" ht="18">
       <c r="A876" s="5"/>
-      <c r="B876" s="8"/>
+      <c r="B876" s="6"/>
       <c r="C876" s="5"/>
       <c r="D876" s="5"/>
       <c r="E876" s="5"/>
@@ -8497,7 +8478,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="877" customHeight="1" ht="18">
       <c r="A877" s="5"/>
-      <c r="B877" s="8"/>
+      <c r="B877" s="6"/>
       <c r="C877" s="5"/>
       <c r="D877" s="5"/>
       <c r="E877" s="5"/>
@@ -8506,7 +8487,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="878" customHeight="1" ht="18">
       <c r="A878" s="5"/>
-      <c r="B878" s="8"/>
+      <c r="B878" s="6"/>
       <c r="C878" s="5"/>
       <c r="D878" s="5"/>
       <c r="E878" s="5"/>
@@ -8515,7 +8496,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="879" customHeight="1" ht="18">
       <c r="A879" s="5"/>
-      <c r="B879" s="8"/>
+      <c r="B879" s="6"/>
       <c r="C879" s="5"/>
       <c r="D879" s="5"/>
       <c r="E879" s="5"/>
@@ -8524,7 +8505,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="880" customHeight="1" ht="18">
       <c r="A880" s="5"/>
-      <c r="B880" s="8"/>
+      <c r="B880" s="6"/>
       <c r="C880" s="5"/>
       <c r="D880" s="5"/>
       <c r="E880" s="5"/>
@@ -8533,7 +8514,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="881" customHeight="1" ht="18">
       <c r="A881" s="5"/>
-      <c r="B881" s="8"/>
+      <c r="B881" s="6"/>
       <c r="C881" s="5"/>
       <c r="D881" s="5"/>
       <c r="E881" s="5"/>
@@ -8542,7 +8523,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="882" customHeight="1" ht="18">
       <c r="A882" s="5"/>
-      <c r="B882" s="8"/>
+      <c r="B882" s="6"/>
       <c r="C882" s="5"/>
       <c r="D882" s="5"/>
       <c r="E882" s="5"/>
@@ -8551,7 +8532,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="883" customHeight="1" ht="18">
       <c r="A883" s="5"/>
-      <c r="B883" s="8"/>
+      <c r="B883" s="6"/>
       <c r="C883" s="5"/>
       <c r="D883" s="5"/>
       <c r="E883" s="5"/>
@@ -8560,7 +8541,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="884" customHeight="1" ht="18">
       <c r="A884" s="5"/>
-      <c r="B884" s="8"/>
+      <c r="B884" s="6"/>
       <c r="C884" s="5"/>
       <c r="D884" s="5"/>
       <c r="E884" s="5"/>
@@ -8569,7 +8550,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="885" customHeight="1" ht="18">
       <c r="A885" s="5"/>
-      <c r="B885" s="8"/>
+      <c r="B885" s="6"/>
       <c r="C885" s="5"/>
       <c r="D885" s="5"/>
       <c r="E885" s="5"/>
@@ -8578,7 +8559,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="886" customHeight="1" ht="18">
       <c r="A886" s="5"/>
-      <c r="B886" s="8"/>
+      <c r="B886" s="6"/>
       <c r="C886" s="5"/>
       <c r="D886" s="5"/>
       <c r="E886" s="5"/>
@@ -8587,7 +8568,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="887" customHeight="1" ht="18">
       <c r="A887" s="5"/>
-      <c r="B887" s="8"/>
+      <c r="B887" s="6"/>
       <c r="C887" s="5"/>
       <c r="D887" s="5"/>
       <c r="E887" s="5"/>
@@ -8596,7 +8577,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="888" customHeight="1" ht="18">
       <c r="A888" s="5"/>
-      <c r="B888" s="8"/>
+      <c r="B888" s="6"/>
       <c r="C888" s="5"/>
       <c r="D888" s="5"/>
       <c r="E888" s="5"/>
@@ -8605,7 +8586,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="889" customHeight="1" ht="18">
       <c r="A889" s="5"/>
-      <c r="B889" s="8"/>
+      <c r="B889" s="6"/>
       <c r="C889" s="5"/>
       <c r="D889" s="5"/>
       <c r="E889" s="5"/>
@@ -8614,7 +8595,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="890" customHeight="1" ht="18">
       <c r="A890" s="5"/>
-      <c r="B890" s="8"/>
+      <c r="B890" s="6"/>
       <c r="C890" s="5"/>
       <c r="D890" s="5"/>
       <c r="E890" s="5"/>
@@ -8623,7 +8604,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="891" customHeight="1" ht="18">
       <c r="A891" s="5"/>
-      <c r="B891" s="8"/>
+      <c r="B891" s="6"/>
       <c r="C891" s="5"/>
       <c r="D891" s="5"/>
       <c r="E891" s="5"/>
@@ -8632,7 +8613,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="892" customHeight="1" ht="18">
       <c r="A892" s="5"/>
-      <c r="B892" s="8"/>
+      <c r="B892" s="6"/>
       <c r="C892" s="5"/>
       <c r="D892" s="5"/>
       <c r="E892" s="5"/>
@@ -8641,7 +8622,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="893" customHeight="1" ht="18">
       <c r="A893" s="5"/>
-      <c r="B893" s="8"/>
+      <c r="B893" s="6"/>
       <c r="C893" s="5"/>
       <c r="D893" s="5"/>
       <c r="E893" s="5"/>
@@ -8650,7 +8631,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="894" customHeight="1" ht="18">
       <c r="A894" s="5"/>
-      <c r="B894" s="8"/>
+      <c r="B894" s="6"/>
       <c r="C894" s="5"/>
       <c r="D894" s="5"/>
       <c r="E894" s="5"/>
@@ -8659,7 +8640,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="895" customHeight="1" ht="18">
       <c r="A895" s="5"/>
-      <c r="B895" s="8"/>
+      <c r="B895" s="6"/>
       <c r="C895" s="5"/>
       <c r="D895" s="5"/>
       <c r="E895" s="5"/>
@@ -8668,7 +8649,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="896" customHeight="1" ht="18">
       <c r="A896" s="5"/>
-      <c r="B896" s="8"/>
+      <c r="B896" s="6"/>
       <c r="C896" s="5"/>
       <c r="D896" s="5"/>
       <c r="E896" s="5"/>
@@ -8677,7 +8658,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="897" customHeight="1" ht="18">
       <c r="A897" s="5"/>
-      <c r="B897" s="8"/>
+      <c r="B897" s="6"/>
       <c r="C897" s="5"/>
       <c r="D897" s="5"/>
       <c r="E897" s="5"/>
@@ -8686,7 +8667,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="898" customHeight="1" ht="18">
       <c r="A898" s="5"/>
-      <c r="B898" s="8"/>
+      <c r="B898" s="6"/>
       <c r="C898" s="5"/>
       <c r="D898" s="5"/>
       <c r="E898" s="5"/>
@@ -8695,7 +8676,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="899" customHeight="1" ht="18">
       <c r="A899" s="5"/>
-      <c r="B899" s="8"/>
+      <c r="B899" s="6"/>
       <c r="C899" s="5"/>
       <c r="D899" s="5"/>
       <c r="E899" s="5"/>
@@ -8704,7 +8685,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="900" customHeight="1" ht="18">
       <c r="A900" s="5"/>
-      <c r="B900" s="8"/>
+      <c r="B900" s="6"/>
       <c r="C900" s="5"/>
       <c r="D900" s="5"/>
       <c r="E900" s="5"/>
@@ -8713,7 +8694,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="901" customHeight="1" ht="18">
       <c r="A901" s="5"/>
-      <c r="B901" s="8"/>
+      <c r="B901" s="6"/>
       <c r="C901" s="5"/>
       <c r="D901" s="5"/>
       <c r="E901" s="5"/>
@@ -8722,7 +8703,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="902" customHeight="1" ht="18">
       <c r="A902" s="5"/>
-      <c r="B902" s="8"/>
+      <c r="B902" s="6"/>
       <c r="C902" s="5"/>
       <c r="D902" s="5"/>
       <c r="E902" s="5"/>
@@ -8731,7 +8712,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="903" customHeight="1" ht="18">
       <c r="A903" s="5"/>
-      <c r="B903" s="8"/>
+      <c r="B903" s="6"/>
       <c r="C903" s="5"/>
       <c r="D903" s="5"/>
       <c r="E903" s="5"/>
@@ -8740,7 +8721,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="904" customHeight="1" ht="18">
       <c r="A904" s="5"/>
-      <c r="B904" s="8"/>
+      <c r="B904" s="6"/>
       <c r="C904" s="5"/>
       <c r="D904" s="5"/>
       <c r="E904" s="5"/>
@@ -8749,7 +8730,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="905" customHeight="1" ht="18">
       <c r="A905" s="5"/>
-      <c r="B905" s="8"/>
+      <c r="B905" s="6"/>
       <c r="C905" s="5"/>
       <c r="D905" s="5"/>
       <c r="E905" s="5"/>
@@ -8758,7 +8739,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="906" customHeight="1" ht="18">
       <c r="A906" s="5"/>
-      <c r="B906" s="8"/>
+      <c r="B906" s="6"/>
       <c r="C906" s="5"/>
       <c r="D906" s="5"/>
       <c r="E906" s="5"/>
@@ -8767,7 +8748,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="907" customHeight="1" ht="18">
       <c r="A907" s="5"/>
-      <c r="B907" s="8"/>
+      <c r="B907" s="6"/>
       <c r="C907" s="5"/>
       <c r="D907" s="5"/>
       <c r="E907" s="5"/>
@@ -8776,7 +8757,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="908" customHeight="1" ht="18">
       <c r="A908" s="5"/>
-      <c r="B908" s="8"/>
+      <c r="B908" s="6"/>
       <c r="C908" s="5"/>
       <c r="D908" s="5"/>
       <c r="E908" s="5"/>
@@ -8785,7 +8766,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="909" customHeight="1" ht="18">
       <c r="A909" s="5"/>
-      <c r="B909" s="8"/>
+      <c r="B909" s="6"/>
       <c r="C909" s="5"/>
       <c r="D909" s="5"/>
       <c r="E909" s="5"/>
@@ -8794,7 +8775,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="910" customHeight="1" ht="18">
       <c r="A910" s="5"/>
-      <c r="B910" s="8"/>
+      <c r="B910" s="6"/>
       <c r="C910" s="5"/>
       <c r="D910" s="5"/>
       <c r="E910" s="5"/>
@@ -8803,7 +8784,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="911" customHeight="1" ht="18">
       <c r="A911" s="5"/>
-      <c r="B911" s="8"/>
+      <c r="B911" s="6"/>
       <c r="C911" s="5"/>
       <c r="D911" s="5"/>
       <c r="E911" s="5"/>
@@ -8812,7 +8793,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="912" customHeight="1" ht="18">
       <c r="A912" s="5"/>
-      <c r="B912" s="8"/>
+      <c r="B912" s="6"/>
       <c r="C912" s="5"/>
       <c r="D912" s="5"/>
       <c r="E912" s="5"/>
@@ -8821,7 +8802,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="913" customHeight="1" ht="18">
       <c r="A913" s="5"/>
-      <c r="B913" s="8"/>
+      <c r="B913" s="6"/>
       <c r="C913" s="5"/>
       <c r="D913" s="5"/>
       <c r="E913" s="5"/>
@@ -8830,7 +8811,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="914" customHeight="1" ht="18">
       <c r="A914" s="5"/>
-      <c r="B914" s="8"/>
+      <c r="B914" s="6"/>
       <c r="C914" s="5"/>
       <c r="D914" s="5"/>
       <c r="E914" s="5"/>
@@ -8839,7 +8820,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="915" customHeight="1" ht="18">
       <c r="A915" s="5"/>
-      <c r="B915" s="8"/>
+      <c r="B915" s="6"/>
       <c r="C915" s="5"/>
       <c r="D915" s="5"/>
       <c r="E915" s="5"/>
@@ -8848,7 +8829,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="916" customHeight="1" ht="18">
       <c r="A916" s="5"/>
-      <c r="B916" s="8"/>
+      <c r="B916" s="6"/>
       <c r="C916" s="5"/>
       <c r="D916" s="5"/>
       <c r="E916" s="5"/>
@@ -8857,7 +8838,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="917" customHeight="1" ht="18">
       <c r="A917" s="5"/>
-      <c r="B917" s="8"/>
+      <c r="B917" s="6"/>
       <c r="C917" s="5"/>
       <c r="D917" s="5"/>
       <c r="E917" s="5"/>
@@ -8866,7 +8847,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="918" customHeight="1" ht="18">
       <c r="A918" s="5"/>
-      <c r="B918" s="8"/>
+      <c r="B918" s="6"/>
       <c r="C918" s="5"/>
       <c r="D918" s="5"/>
       <c r="E918" s="5"/>
@@ -8875,7 +8856,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="919" customHeight="1" ht="18">
       <c r="A919" s="5"/>
-      <c r="B919" s="8"/>
+      <c r="B919" s="6"/>
       <c r="C919" s="5"/>
       <c r="D919" s="5"/>
       <c r="E919" s="5"/>
@@ -8884,7 +8865,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="920" customHeight="1" ht="18">
       <c r="A920" s="5"/>
-      <c r="B920" s="8"/>
+      <c r="B920" s="6"/>
       <c r="C920" s="5"/>
       <c r="D920" s="5"/>
       <c r="E920" s="5"/>
@@ -8893,7 +8874,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="921" customHeight="1" ht="18">
       <c r="A921" s="5"/>
-      <c r="B921" s="8"/>
+      <c r="B921" s="6"/>
       <c r="C921" s="5"/>
       <c r="D921" s="5"/>
       <c r="E921" s="5"/>
@@ -8902,7 +8883,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="922" customHeight="1" ht="18">
       <c r="A922" s="5"/>
-      <c r="B922" s="8"/>
+      <c r="B922" s="6"/>
       <c r="C922" s="5"/>
       <c r="D922" s="5"/>
       <c r="E922" s="5"/>
@@ -8911,7 +8892,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="923" customHeight="1" ht="18">
       <c r="A923" s="5"/>
-      <c r="B923" s="8"/>
+      <c r="B923" s="6"/>
       <c r="C923" s="5"/>
       <c r="D923" s="5"/>
       <c r="E923" s="5"/>
@@ -8920,7 +8901,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="924" customHeight="1" ht="18">
       <c r="A924" s="5"/>
-      <c r="B924" s="8"/>
+      <c r="B924" s="6"/>
       <c r="C924" s="5"/>
       <c r="D924" s="5"/>
       <c r="E924" s="5"/>
@@ -8929,7 +8910,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="925" customHeight="1" ht="18">
       <c r="A925" s="5"/>
-      <c r="B925" s="8"/>
+      <c r="B925" s="6"/>
       <c r="C925" s="5"/>
       <c r="D925" s="5"/>
       <c r="E925" s="5"/>
@@ -8938,7 +8919,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="926" customHeight="1" ht="18">
       <c r="A926" s="5"/>
-      <c r="B926" s="8"/>
+      <c r="B926" s="6"/>
       <c r="C926" s="5"/>
       <c r="D926" s="5"/>
       <c r="E926" s="5"/>
@@ -8947,7 +8928,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="927" customHeight="1" ht="18">
       <c r="A927" s="5"/>
-      <c r="B927" s="8"/>
+      <c r="B927" s="6"/>
       <c r="C927" s="5"/>
       <c r="D927" s="5"/>
       <c r="E927" s="5"/>
@@ -8956,7 +8937,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="928" customHeight="1" ht="18">
       <c r="A928" s="5"/>
-      <c r="B928" s="8"/>
+      <c r="B928" s="6"/>
       <c r="C928" s="5"/>
       <c r="D928" s="5"/>
       <c r="E928" s="5"/>
@@ -8965,7 +8946,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="929" customHeight="1" ht="18">
       <c r="A929" s="5"/>
-      <c r="B929" s="8"/>
+      <c r="B929" s="6"/>
       <c r="C929" s="5"/>
       <c r="D929" s="5"/>
       <c r="E929" s="5"/>
@@ -8974,7 +8955,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="930" customHeight="1" ht="18">
       <c r="A930" s="5"/>
-      <c r="B930" s="8"/>
+      <c r="B930" s="6"/>
       <c r="C930" s="5"/>
       <c r="D930" s="5"/>
       <c r="E930" s="5"/>
@@ -8983,7 +8964,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="931" customHeight="1" ht="18">
       <c r="A931" s="5"/>
-      <c r="B931" s="8"/>
+      <c r="B931" s="6"/>
       <c r="C931" s="5"/>
       <c r="D931" s="5"/>
       <c r="E931" s="5"/>
@@ -8992,7 +8973,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="932" customHeight="1" ht="18">
       <c r="A932" s="5"/>
-      <c r="B932" s="8"/>
+      <c r="B932" s="6"/>
       <c r="C932" s="5"/>
       <c r="D932" s="5"/>
       <c r="E932" s="5"/>
@@ -9001,7 +8982,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="933" customHeight="1" ht="18">
       <c r="A933" s="5"/>
-      <c r="B933" s="8"/>
+      <c r="B933" s="6"/>
       <c r="C933" s="5"/>
       <c r="D933" s="5"/>
       <c r="E933" s="5"/>
@@ -9010,7 +8991,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="934" customHeight="1" ht="18">
       <c r="A934" s="5"/>
-      <c r="B934" s="8"/>
+      <c r="B934" s="6"/>
       <c r="C934" s="5"/>
       <c r="D934" s="5"/>
       <c r="E934" s="5"/>
@@ -9019,7 +9000,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="935" customHeight="1" ht="18">
       <c r="A935" s="5"/>
-      <c r="B935" s="8"/>
+      <c r="B935" s="6"/>
       <c r="C935" s="5"/>
       <c r="D935" s="5"/>
       <c r="E935" s="5"/>
@@ -9028,7 +9009,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="936" customHeight="1" ht="18">
       <c r="A936" s="5"/>
-      <c r="B936" s="8"/>
+      <c r="B936" s="6"/>
       <c r="C936" s="5"/>
       <c r="D936" s="5"/>
       <c r="E936" s="5"/>
@@ -9037,7 +9018,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="937" customHeight="1" ht="18">
       <c r="A937" s="5"/>
-      <c r="B937" s="8"/>
+      <c r="B937" s="6"/>
       <c r="C937" s="5"/>
       <c r="D937" s="5"/>
       <c r="E937" s="5"/>
@@ -9046,7 +9027,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="938" customHeight="1" ht="18">
       <c r="A938" s="5"/>
-      <c r="B938" s="8"/>
+      <c r="B938" s="6"/>
       <c r="C938" s="5"/>
       <c r="D938" s="5"/>
       <c r="E938" s="5"/>
@@ -9055,7 +9036,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="939" customHeight="1" ht="18">
       <c r="A939" s="5"/>
-      <c r="B939" s="8"/>
+      <c r="B939" s="6"/>
       <c r="C939" s="5"/>
       <c r="D939" s="5"/>
       <c r="E939" s="5"/>
@@ -9064,7 +9045,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="940" customHeight="1" ht="18">
       <c r="A940" s="5"/>
-      <c r="B940" s="8"/>
+      <c r="B940" s="6"/>
       <c r="C940" s="5"/>
       <c r="D940" s="5"/>
       <c r="E940" s="5"/>
@@ -9073,7 +9054,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="941" customHeight="1" ht="18">
       <c r="A941" s="5"/>
-      <c r="B941" s="8"/>
+      <c r="B941" s="6"/>
       <c r="C941" s="5"/>
       <c r="D941" s="5"/>
       <c r="E941" s="5"/>
@@ -9082,7 +9063,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="942" customHeight="1" ht="18">
       <c r="A942" s="5"/>
-      <c r="B942" s="8"/>
+      <c r="B942" s="6"/>
       <c r="C942" s="5"/>
       <c r="D942" s="5"/>
       <c r="E942" s="5"/>
@@ -9091,7 +9072,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="943" customHeight="1" ht="18">
       <c r="A943" s="5"/>
-      <c r="B943" s="8"/>
+      <c r="B943" s="6"/>
       <c r="C943" s="5"/>
       <c r="D943" s="5"/>
       <c r="E943" s="5"/>
@@ -9100,7 +9081,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="944" customHeight="1" ht="18">
       <c r="A944" s="5"/>
-      <c r="B944" s="8"/>
+      <c r="B944" s="6"/>
       <c r="C944" s="5"/>
       <c r="D944" s="5"/>
       <c r="E944" s="5"/>
@@ -9109,7 +9090,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="945" customHeight="1" ht="18">
       <c r="A945" s="5"/>
-      <c r="B945" s="8"/>
+      <c r="B945" s="6"/>
       <c r="C945" s="5"/>
       <c r="D945" s="5"/>
       <c r="E945" s="5"/>
@@ -9118,7 +9099,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="946" customHeight="1" ht="18">
       <c r="A946" s="5"/>
-      <c r="B946" s="8"/>
+      <c r="B946" s="6"/>
       <c r="C946" s="5"/>
       <c r="D946" s="5"/>
       <c r="E946" s="5"/>
@@ -9127,7 +9108,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="947" customHeight="1" ht="18">
       <c r="A947" s="5"/>
-      <c r="B947" s="8"/>
+      <c r="B947" s="6"/>
       <c r="C947" s="5"/>
       <c r="D947" s="5"/>
       <c r="E947" s="5"/>
@@ -9136,7 +9117,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="948" customHeight="1" ht="18">
       <c r="A948" s="5"/>
-      <c r="B948" s="8"/>
+      <c r="B948" s="6"/>
       <c r="C948" s="5"/>
       <c r="D948" s="5"/>
       <c r="E948" s="5"/>
@@ -9145,7 +9126,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="949" customHeight="1" ht="18">
       <c r="A949" s="5"/>
-      <c r="B949" s="8"/>
+      <c r="B949" s="6"/>
       <c r="C949" s="5"/>
       <c r="D949" s="5"/>
       <c r="E949" s="5"/>
@@ -9154,7 +9135,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="950" customHeight="1" ht="18">
       <c r="A950" s="5"/>
-      <c r="B950" s="8"/>
+      <c r="B950" s="6"/>
       <c r="C950" s="5"/>
       <c r="D950" s="5"/>
       <c r="E950" s="5"/>
@@ -9163,7 +9144,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="951" customHeight="1" ht="18">
       <c r="A951" s="5"/>
-      <c r="B951" s="8"/>
+      <c r="B951" s="6"/>
       <c r="C951" s="5"/>
       <c r="D951" s="5"/>
       <c r="E951" s="5"/>
@@ -9172,7 +9153,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="952" customHeight="1" ht="18">
       <c r="A952" s="5"/>
-      <c r="B952" s="8"/>
+      <c r="B952" s="6"/>
       <c r="C952" s="5"/>
       <c r="D952" s="5"/>
       <c r="E952" s="5"/>
@@ -9181,7 +9162,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="953" customHeight="1" ht="18">
       <c r="A953" s="5"/>
-      <c r="B953" s="8"/>
+      <c r="B953" s="6"/>
       <c r="C953" s="5"/>
       <c r="D953" s="5"/>
       <c r="E953" s="5"/>
@@ -9190,7 +9171,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="954" customHeight="1" ht="18">
       <c r="A954" s="5"/>
-      <c r="B954" s="8"/>
+      <c r="B954" s="6"/>
       <c r="C954" s="5"/>
       <c r="D954" s="5"/>
       <c r="E954" s="5"/>
@@ -9199,7 +9180,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="955" customHeight="1" ht="18">
       <c r="A955" s="5"/>
-      <c r="B955" s="8"/>
+      <c r="B955" s="6"/>
       <c r="C955" s="5"/>
       <c r="D955" s="5"/>
       <c r="E955" s="5"/>
@@ -9208,7 +9189,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="956" customHeight="1" ht="18">
       <c r="A956" s="5"/>
-      <c r="B956" s="8"/>
+      <c r="B956" s="6"/>
       <c r="C956" s="5"/>
       <c r="D956" s="5"/>
       <c r="E956" s="5"/>
@@ -9217,7 +9198,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="957" customHeight="1" ht="18">
       <c r="A957" s="5"/>
-      <c r="B957" s="8"/>
+      <c r="B957" s="6"/>
       <c r="C957" s="5"/>
       <c r="D957" s="5"/>
       <c r="E957" s="5"/>
@@ -9226,7 +9207,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="958" customHeight="1" ht="18">
       <c r="A958" s="5"/>
-      <c r="B958" s="8"/>
+      <c r="B958" s="6"/>
       <c r="C958" s="5"/>
       <c r="D958" s="5"/>
       <c r="E958" s="5"/>
@@ -9235,7 +9216,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="959" customHeight="1" ht="18">
       <c r="A959" s="5"/>
-      <c r="B959" s="8"/>
+      <c r="B959" s="6"/>
       <c r="C959" s="5"/>
       <c r="D959" s="5"/>
       <c r="E959" s="5"/>
@@ -9244,7 +9225,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="960" customHeight="1" ht="18">
       <c r="A960" s="5"/>
-      <c r="B960" s="8"/>
+      <c r="B960" s="6"/>
       <c r="C960" s="5"/>
       <c r="D960" s="5"/>
       <c r="E960" s="5"/>
@@ -9253,7 +9234,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="961" customHeight="1" ht="18">
       <c r="A961" s="5"/>
-      <c r="B961" s="8"/>
+      <c r="B961" s="6"/>
       <c r="C961" s="5"/>
       <c r="D961" s="5"/>
       <c r="E961" s="5"/>
@@ -9262,7 +9243,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="962" customHeight="1" ht="18">
       <c r="A962" s="5"/>
-      <c r="B962" s="8"/>
+      <c r="B962" s="6"/>
       <c r="C962" s="5"/>
       <c r="D962" s="5"/>
       <c r="E962" s="5"/>
@@ -9271,7 +9252,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="963" customHeight="1" ht="18">
       <c r="A963" s="5"/>
-      <c r="B963" s="8"/>
+      <c r="B963" s="6"/>
       <c r="C963" s="5"/>
       <c r="D963" s="5"/>
       <c r="E963" s="5"/>
@@ -9280,7 +9261,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="964" customHeight="1" ht="18">
       <c r="A964" s="5"/>
-      <c r="B964" s="8"/>
+      <c r="B964" s="6"/>
       <c r="C964" s="5"/>
       <c r="D964" s="5"/>
       <c r="E964" s="5"/>
@@ -9289,7 +9270,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="965" customHeight="1" ht="18">
       <c r="A965" s="5"/>
-      <c r="B965" s="8"/>
+      <c r="B965" s="6"/>
       <c r="C965" s="5"/>
       <c r="D965" s="5"/>
       <c r="E965" s="5"/>
@@ -9298,7 +9279,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="966" customHeight="1" ht="18">
       <c r="A966" s="5"/>
-      <c r="B966" s="8"/>
+      <c r="B966" s="6"/>
       <c r="C966" s="5"/>
       <c r="D966" s="5"/>
       <c r="E966" s="5"/>
@@ -9307,7 +9288,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="967" customHeight="1" ht="18">
       <c r="A967" s="5"/>
-      <c r="B967" s="8"/>
+      <c r="B967" s="6"/>
       <c r="C967" s="5"/>
       <c r="D967" s="5"/>
       <c r="E967" s="5"/>
@@ -9316,7 +9297,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="968" customHeight="1" ht="18">
       <c r="A968" s="5"/>
-      <c r="B968" s="8"/>
+      <c r="B968" s="6"/>
       <c r="C968" s="5"/>
       <c r="D968" s="5"/>
       <c r="E968" s="5"/>
@@ -9325,7 +9306,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="969" customHeight="1" ht="18">
       <c r="A969" s="5"/>
-      <c r="B969" s="8"/>
+      <c r="B969" s="6"/>
       <c r="C969" s="5"/>
       <c r="D969" s="5"/>
       <c r="E969" s="5"/>
@@ -9334,7 +9315,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="970" customHeight="1" ht="18">
       <c r="A970" s="5"/>
-      <c r="B970" s="8"/>
+      <c r="B970" s="6"/>
       <c r="C970" s="5"/>
       <c r="D970" s="5"/>
       <c r="E970" s="5"/>
@@ -9343,7 +9324,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="971" customHeight="1" ht="18">
       <c r="A971" s="5"/>
-      <c r="B971" s="8"/>
+      <c r="B971" s="6"/>
       <c r="C971" s="5"/>
       <c r="D971" s="5"/>
       <c r="E971" s="5"/>
@@ -9352,7 +9333,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="972" customHeight="1" ht="18">
       <c r="A972" s="5"/>
-      <c r="B972" s="8"/>
+      <c r="B972" s="6"/>
       <c r="C972" s="5"/>
       <c r="D972" s="5"/>
       <c r="E972" s="5"/>
@@ -9361,7 +9342,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="973" customHeight="1" ht="18">
       <c r="A973" s="5"/>
-      <c r="B973" s="8"/>
+      <c r="B973" s="6"/>
       <c r="C973" s="5"/>
       <c r="D973" s="5"/>
       <c r="E973" s="5"/>
@@ -9370,7 +9351,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="974" customHeight="1" ht="18">
       <c r="A974" s="5"/>
-      <c r="B974" s="8"/>
+      <c r="B974" s="6"/>
       <c r="C974" s="5"/>
       <c r="D974" s="5"/>
       <c r="E974" s="5"/>
@@ -9379,7 +9360,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="975" customHeight="1" ht="18">
       <c r="A975" s="5"/>
-      <c r="B975" s="8"/>
+      <c r="B975" s="6"/>
       <c r="C975" s="5"/>
       <c r="D975" s="5"/>
       <c r="E975" s="5"/>
@@ -9388,7 +9369,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="976" customHeight="1" ht="18">
       <c r="A976" s="5"/>
-      <c r="B976" s="8"/>
+      <c r="B976" s="6"/>
       <c r="C976" s="5"/>
       <c r="D976" s="5"/>
       <c r="E976" s="5"/>
@@ -9397,7 +9378,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="977" customHeight="1" ht="18">
       <c r="A977" s="5"/>
-      <c r="B977" s="8"/>
+      <c r="B977" s="6"/>
       <c r="C977" s="5"/>
       <c r="D977" s="5"/>
       <c r="E977" s="5"/>
@@ -9406,7 +9387,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="978" customHeight="1" ht="18">
       <c r="A978" s="5"/>
-      <c r="B978" s="8"/>
+      <c r="B978" s="6"/>
       <c r="C978" s="5"/>
       <c r="D978" s="5"/>
       <c r="E978" s="5"/>
@@ -9415,7 +9396,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="979" customHeight="1" ht="18">
       <c r="A979" s="5"/>
-      <c r="B979" s="8"/>
+      <c r="B979" s="6"/>
       <c r="C979" s="5"/>
       <c r="D979" s="5"/>
       <c r="E979" s="5"/>
@@ -9424,7 +9405,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="980" customHeight="1" ht="18">
       <c r="A980" s="5"/>
-      <c r="B980" s="8"/>
+      <c r="B980" s="6"/>
       <c r="C980" s="5"/>
       <c r="D980" s="5"/>
       <c r="E980" s="5"/>
@@ -9433,7 +9414,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="981" customHeight="1" ht="18">
       <c r="A981" s="5"/>
-      <c r="B981" s="8"/>
+      <c r="B981" s="6"/>
       <c r="C981" s="5"/>
       <c r="D981" s="5"/>
       <c r="E981" s="5"/>
@@ -9442,7 +9423,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="982" customHeight="1" ht="18">
       <c r="A982" s="5"/>
-      <c r="B982" s="8"/>
+      <c r="B982" s="6"/>
       <c r="C982" s="5"/>
       <c r="D982" s="5"/>
       <c r="E982" s="5"/>
@@ -9451,7 +9432,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="983" customHeight="1" ht="18">
       <c r="A983" s="5"/>
-      <c r="B983" s="8"/>
+      <c r="B983" s="6"/>
       <c r="C983" s="5"/>
       <c r="D983" s="5"/>
       <c r="E983" s="5"/>
@@ -9460,7 +9441,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="984" customHeight="1" ht="18">
       <c r="A984" s="5"/>
-      <c r="B984" s="8"/>
+      <c r="B984" s="6"/>
       <c r="C984" s="5"/>
       <c r="D984" s="5"/>
       <c r="E984" s="5"/>
@@ -9469,7 +9450,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="985" customHeight="1" ht="18">
       <c r="A985" s="5"/>
-      <c r="B985" s="8"/>
+      <c r="B985" s="6"/>
       <c r="C985" s="5"/>
       <c r="D985" s="5"/>
       <c r="E985" s="5"/>
@@ -9478,7 +9459,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="986" customHeight="1" ht="18">
       <c r="A986" s="5"/>
-      <c r="B986" s="8"/>
+      <c r="B986" s="6"/>
       <c r="C986" s="5"/>
       <c r="D986" s="5"/>
       <c r="E986" s="5"/>
@@ -9487,7 +9468,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="987" customHeight="1" ht="18">
       <c r="A987" s="5"/>
-      <c r="B987" s="8"/>
+      <c r="B987" s="6"/>
       <c r="C987" s="5"/>
       <c r="D987" s="5"/>
       <c r="E987" s="5"/>
@@ -9496,7 +9477,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="988" customHeight="1" ht="18">
       <c r="A988" s="5"/>
-      <c r="B988" s="8"/>
+      <c r="B988" s="6"/>
       <c r="C988" s="5"/>
       <c r="D988" s="5"/>
       <c r="E988" s="5"/>
@@ -9505,7 +9486,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="989" customHeight="1" ht="18">
       <c r="A989" s="5"/>
-      <c r="B989" s="8"/>
+      <c r="B989" s="6"/>
       <c r="C989" s="5"/>
       <c r="D989" s="5"/>
       <c r="E989" s="5"/>
@@ -9514,7 +9495,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="990" customHeight="1" ht="18">
       <c r="A990" s="5"/>
-      <c r="B990" s="8"/>
+      <c r="B990" s="6"/>
       <c r="C990" s="5"/>
       <c r="D990" s="5"/>
       <c r="E990" s="5"/>
@@ -9523,7 +9504,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="991" customHeight="1" ht="18">
       <c r="A991" s="5"/>
-      <c r="B991" s="8"/>
+      <c r="B991" s="6"/>
       <c r="C991" s="5"/>
       <c r="D991" s="5"/>
       <c r="E991" s="5"/>
@@ -9532,7 +9513,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="992" customHeight="1" ht="18">
       <c r="A992" s="5"/>
-      <c r="B992" s="8"/>
+      <c r="B992" s="6"/>
       <c r="C992" s="5"/>
       <c r="D992" s="5"/>
       <c r="E992" s="5"/>
@@ -9541,7 +9522,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="993" customHeight="1" ht="18">
       <c r="A993" s="5"/>
-      <c r="B993" s="8"/>
+      <c r="B993" s="6"/>
       <c r="C993" s="5"/>
       <c r="D993" s="5"/>
       <c r="E993" s="5"/>
@@ -9550,7 +9531,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="994" customHeight="1" ht="18">
       <c r="A994" s="5"/>
-      <c r="B994" s="8"/>
+      <c r="B994" s="6"/>
       <c r="C994" s="5"/>
       <c r="D994" s="5"/>
       <c r="E994" s="5"/>
@@ -9559,7 +9540,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="995" customHeight="1" ht="18">
       <c r="A995" s="5"/>
-      <c r="B995" s="8"/>
+      <c r="B995" s="6"/>
       <c r="C995" s="5"/>
       <c r="D995" s="5"/>
       <c r="E995" s="5"/>
@@ -9568,7 +9549,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="996" customHeight="1" ht="18">
       <c r="A996" s="5"/>
-      <c r="B996" s="8"/>
+      <c r="B996" s="6"/>
       <c r="C996" s="5"/>
       <c r="D996" s="5"/>
       <c r="E996" s="5"/>
@@ -9577,7 +9558,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="997" customHeight="1" ht="18">
       <c r="A997" s="5"/>
-      <c r="B997" s="8"/>
+      <c r="B997" s="6"/>
       <c r="C997" s="5"/>
       <c r="D997" s="5"/>
       <c r="E997" s="5"/>
@@ -9586,7 +9567,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="998" customHeight="1" ht="18">
       <c r="A998" s="5"/>
-      <c r="B998" s="8"/>
+      <c r="B998" s="6"/>
       <c r="C998" s="5"/>
       <c r="D998" s="5"/>
       <c r="E998" s="5"/>
@@ -9595,7 +9576,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="999" customHeight="1" ht="18">
       <c r="A999" s="5"/>
-      <c r="B999" s="8"/>
+      <c r="B999" s="6"/>
       <c r="C999" s="5"/>
       <c r="D999" s="5"/>
       <c r="E999" s="5"/>
@@ -9604,7 +9585,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1000" customHeight="1" ht="18">
       <c r="A1000" s="5"/>
-      <c r="B1000" s="8"/>
+      <c r="B1000" s="6"/>
       <c r="C1000" s="5"/>
       <c r="D1000" s="5"/>
       <c r="E1000" s="5"/>

--- a/parameters_dev.xlsx
+++ b/parameters_dev.xlsx
@@ -476,7 +476,7 @@
     <col min="1" max="1" style="8" width="33.14785714285715" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="9" width="32.86214285714286" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="8" width="31.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="26.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="9" width="13.290714285714287" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="8" width="13.005" customWidth="1" bestFit="1"/>
@@ -510,7 +510,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="4">
-        <v>9065503514846524</v>
+        <v>1215956400364553</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
@@ -586,7 +586,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="4">
-        <v>4766944332216006</v>
+        <v>1766944332216006</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>15</v>
@@ -781,7 +781,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="5"/>
@@ -2257,7 +2257,7 @@
       <c r="F185" s="7"/>
       <c r="G185" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
       <c r="A186" s="5"/>
       <c r="B186" s="6"/>
       <c r="C186" s="5"/>
@@ -2266,7 +2266,7 @@
       <c r="F186" s="7"/>
       <c r="G186" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
       <c r="A187" s="5"/>
       <c r="B187" s="6"/>
       <c r="C187" s="5"/>
@@ -2275,7 +2275,7 @@
       <c r="F187" s="7"/>
       <c r="G187" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
       <c r="A188" s="5"/>
       <c r="B188" s="6"/>
       <c r="C188" s="5"/>
@@ -2284,7 +2284,7 @@
       <c r="F188" s="7"/>
       <c r="G188" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
       <c r="A189" s="5"/>
       <c r="B189" s="6"/>
       <c r="C189" s="5"/>
@@ -2293,7 +2293,7 @@
       <c r="F189" s="7"/>
       <c r="G189" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
       <c r="A190" s="5"/>
       <c r="B190" s="6"/>
       <c r="C190" s="5"/>
@@ -2302,7 +2302,7 @@
       <c r="F190" s="7"/>
       <c r="G190" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
       <c r="A191" s="5"/>
       <c r="B191" s="6"/>
       <c r="C191" s="5"/>
@@ -2311,7 +2311,7 @@
       <c r="F191" s="7"/>
       <c r="G191" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
       <c r="A192" s="5"/>
       <c r="B192" s="6"/>
       <c r="C192" s="5"/>
@@ -2320,7 +2320,7 @@
       <c r="F192" s="7"/>
       <c r="G192" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
       <c r="A193" s="5"/>
       <c r="B193" s="6"/>
       <c r="C193" s="5"/>
@@ -2329,7 +2329,7 @@
       <c r="F193" s="7"/>
       <c r="G193" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
       <c r="A194" s="5"/>
       <c r="B194" s="6"/>
       <c r="C194" s="5"/>
@@ -2338,7 +2338,7 @@
       <c r="F194" s="7"/>
       <c r="G194" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
       <c r="A195" s="5"/>
       <c r="B195" s="6"/>
       <c r="C195" s="5"/>
@@ -2347,7 +2347,7 @@
       <c r="F195" s="7"/>
       <c r="G195" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
       <c r="A196" s="5"/>
       <c r="B196" s="6"/>
       <c r="C196" s="5"/>
@@ -2356,7 +2356,7 @@
       <c r="F196" s="7"/>
       <c r="G196" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
       <c r="A197" s="5"/>
       <c r="B197" s="6"/>
       <c r="C197" s="5"/>
@@ -2365,7 +2365,7 @@
       <c r="F197" s="7"/>
       <c r="G197" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
       <c r="A198" s="5"/>
       <c r="B198" s="6"/>
       <c r="C198" s="5"/>
@@ -2374,7 +2374,7 @@
       <c r="F198" s="7"/>
       <c r="G198" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
       <c r="A199" s="5"/>
       <c r="B199" s="6"/>
       <c r="C199" s="5"/>
@@ -2383,7 +2383,7 @@
       <c r="F199" s="7"/>
       <c r="G199" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
       <c r="A200" s="5"/>
       <c r="B200" s="6"/>
       <c r="C200" s="5"/>
@@ -2392,7 +2392,7 @@
       <c r="F200" s="7"/>
       <c r="G200" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
       <c r="A201" s="5"/>
       <c r="B201" s="6"/>
       <c r="C201" s="5"/>

--- a/parameters_dev.xlsx
+++ b/parameters_dev.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
   <si>
     <t>Test case name</t>
   </si>
@@ -87,6 +87,15 @@
   <si>
     <t>Guest_MXN</t>
   </si>
+  <si>
+    <t>Subscription_MXN</t>
+  </si>
+  <si>
+    <t>6a053611-4c48-40e7-a65e-c1f8174ff194</t>
+  </si>
+  <si>
+    <t>SUBSCRIPTION</t>
+  </si>
 </sst>
 </file>
 
@@ -154,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -181,6 +190,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -494,20 +509,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H1000"/>
+  <dimension ref="A1:H1001"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="33.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="32.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="31.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="26.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="12" width="30.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="33.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="13" width="32.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="31.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="26.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="13" width="13.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="14" width="30.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -710,12 +725,22 @@
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="3"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
+      <c r="A10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="8">
+        <v>5581168067405507</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="F10" s="9"/>
       <c r="G10" s="3"/>
       <c r="H10" s="6"/>
@@ -840,7 +865,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="3"/>
       <c r="B23" s="8"/>
       <c r="C23" s="3"/>
@@ -2470,7 +2495,7 @@
       <c r="G185" s="3"/>
       <c r="H185" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18">
       <c r="A186" s="3"/>
       <c r="B186" s="8"/>
       <c r="C186" s="3"/>
@@ -2630,7 +2655,7 @@
       <c r="G201" s="3"/>
       <c r="H201" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
       <c r="A202" s="3"/>
       <c r="B202" s="8"/>
       <c r="C202" s="3"/>
@@ -2820,7 +2845,7 @@
       <c r="G220" s="3"/>
       <c r="H220" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18">
       <c r="A221" s="3"/>
       <c r="B221" s="9"/>
       <c r="C221" s="3"/>
@@ -10620,6 +10645,16 @@
       <c r="G1000" s="3"/>
       <c r="H1000" s="6"/>
     </row>
+    <row x14ac:dyDescent="0.25" r="1001" customHeight="1" ht="15.75">
+      <c r="A1001" s="10"/>
+      <c r="B1001" s="11"/>
+      <c r="C1001" s="10"/>
+      <c r="D1001" s="10"/>
+      <c r="E1001" s="10"/>
+      <c r="F1001" s="11"/>
+      <c r="G1001" s="10"/>
+      <c r="H1001" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/parameters_dev.xlsx
+++ b/parameters_dev.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
   <si>
     <t>Test case name</t>
   </si>
@@ -49,7 +49,10 @@
     <t>GUEST</t>
   </si>
   <si>
-    <t>Register_MXN</t>
+    <t>Register_MXN_DCC_CAD</t>
+  </si>
+  <si>
+    <t>5454 5454 1111 1119</t>
   </si>
   <si>
     <t>046bf91d-f328-4d30-bbc9-31806acb4b11</t>
@@ -58,13 +61,16 @@
     <t>REGISTER</t>
   </si>
   <si>
-    <t>Guest_MXN_DCC</t>
+    <t>Register_MXN_DCC_USD</t>
   </si>
   <si>
     <t>Guest_MXN_PAGO_ALTO</t>
   </si>
   <si>
     <t>e67488c1-78a4-43a2-92b1-f297b3436196</t>
+  </si>
+  <si>
+    <t>Guest_MXN_PAGO_ALTO_2</t>
   </si>
   <si>
     <t>Guest_USD</t>
@@ -76,13 +82,16 @@
     <t>HOSTED_CHECKOUT</t>
   </si>
   <si>
-    <t>USD</t>
-  </si>
-  <si>
     <t>MXN</t>
   </si>
   <si>
-    <t>Guest_MXN</t>
+    <t>Register_MXN_Credit_Visa</t>
+  </si>
+  <si>
+    <t>Guest_MXN_DCC</t>
+  </si>
+  <si>
+    <t>Guest_Rejected_Card_MXN</t>
   </si>
   <si>
     <t>Subscription_MXN</t>
@@ -500,7 +509,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H1001"/>
+  <dimension ref="A1:H1002"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -564,17 +573,17 @@
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5">
-        <v>1581168067405507</v>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="4"/>
@@ -582,13 +591,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
       <c r="A4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="5">
-        <v>1581168067405507</v>
+        <v>5581168067405507</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>9</v>
@@ -602,13 +611,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
       <c r="A5" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="5">
-        <v>1581168067405507</v>
+        <v>5215956400364553</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>9</v>
@@ -620,128 +629,138 @@
       <c r="G5" s="4"/>
       <c r="H5" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
       <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="5">
+        <v>5215956400364553</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="5">
-        <v>1581168067405507</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="5">
-        <v>103.01</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="7"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B7" s="5">
         <v>5581168067405507</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F7" s="5">
-        <v>510</v>
+        <v>103.01</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5">
+        <v>4555128482797669</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5">
-        <v>1581168067405507</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="F8" s="5">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H8" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" s="5">
-        <v>1581168067405507</v>
+        <v>4766944332216006</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="5">
+        <v>400</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="5">
+        <v>4555128482797669</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="5">
         <v>1200</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>21</v>
+      <c r="G10" s="4" t="s">
+        <v>22</v>
       </c>
-      <c r="H9" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="3" t="s">
-        <v>23</v>
+      <c r="H10" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="3" t="s">
+        <v>26</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B11" s="5">
         <v>5581168067405507</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>24</v>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>25</v>
+      <c r="D11" s="3" t="s">
+        <v>28</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>25</v>
+      <c r="E11" s="3" t="s">
+        <v>28</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="3"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
       <c r="F11" s="8"/>
       <c r="G11" s="3"/>
       <c r="H11" s="6"/>
@@ -866,7 +885,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="3"/>
       <c r="B24" s="9"/>
       <c r="C24" s="3"/>
@@ -2496,7 +2515,7 @@
       <c r="G186" s="3"/>
       <c r="H186" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18">
       <c r="A187" s="3"/>
       <c r="B187" s="9"/>
       <c r="C187" s="3"/>
@@ -2656,7 +2675,7 @@
       <c r="G202" s="3"/>
       <c r="H202" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
       <c r="A203" s="3"/>
       <c r="B203" s="9"/>
       <c r="C203" s="3"/>
@@ -2838,7 +2857,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18">
       <c r="A221" s="3"/>
-      <c r="B221" s="8"/>
+      <c r="B221" s="9"/>
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -2846,7 +2865,7 @@
       <c r="G221" s="3"/>
       <c r="H221" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18">
       <c r="A222" s="3"/>
       <c r="B222" s="8"/>
       <c r="C222" s="3"/>
@@ -10646,6 +10665,16 @@
       <c r="G1001" s="3"/>
       <c r="H1001" s="6"/>
     </row>
+    <row x14ac:dyDescent="0.25" r="1002" customHeight="1" ht="15.75">
+      <c r="A1002" s="3"/>
+      <c r="B1002" s="8"/>
+      <c r="C1002" s="3"/>
+      <c r="D1002" s="3"/>
+      <c r="E1002" s="3"/>
+      <c r="F1002" s="8"/>
+      <c r="G1002" s="3"/>
+      <c r="H1002" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
